--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="604">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1825,9 +1825,6 @@
     <t>resource_form_layout</t>
   </si>
   <si>
-    <t>form_field_col_span</t>
-  </si>
-  <si>
     <t>unsignedTinyInteger</t>
   </si>
   <si>
@@ -1850,6 +1847,9 @@
   </si>
   <si>
     <t>Layout details</t>
+  </si>
+  <si>
+    <t>col_span</t>
   </si>
 </sst>
 </file>
@@ -2076,310 +2076,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3100,6 +2797,140 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3564,6 +3395,163 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3826,35 +3814,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J33" totalsRowShown="0" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J33" totalsRowShown="0" dataDxfId="119">
   <autoFilter ref="A1:J33"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="119"/>
-    <tableColumn id="10" name="Table" dataDxfId="118">
+    <tableColumn id="2" name="Name" dataDxfId="118"/>
+    <tableColumn id="10" name="Table" dataDxfId="117">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="117">
+    <tableColumn id="5" name="Singular Name" dataDxfId="116">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="116">
+    <tableColumn id="8" name="Model NS" dataDxfId="115">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="115">
+    <tableColumn id="4" name="Class Name" dataDxfId="114">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="114">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="113">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="113">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="112">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="112">
+    <tableColumn id="3" name="Model Statement" dataDxfId="111">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="111">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="110">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="110">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="109">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3863,36 +3851,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="38">
+    <tableColumn id="1" name="No" dataDxfId="15">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="37"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="36">
+    <tableColumn id="2" name="Resource" dataDxfId="14"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="35"/>
-    <tableColumn id="4" name="Description" dataDxfId="34"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="33"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="32"/>
-    <tableColumn id="7" name="Menu" dataDxfId="31"/>
-    <tableColumn id="8" name="Icon" dataDxfId="30"/>
-    <tableColumn id="9" name="Set" dataDxfId="29"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="28"/>
-    <tableColumn id="15" name="ID1" dataDxfId="27"/>
-    <tableColumn id="16" name="ID2" dataDxfId="26"/>
-    <tableColumn id="10" name="On" dataDxfId="25"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="24"/>
-    <tableColumn id="12" name="handler" dataDxfId="23"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
+    <tableColumn id="7" name="Menu" dataDxfId="8"/>
+    <tableColumn id="8" name="Icon" dataDxfId="7"/>
+    <tableColumn id="9" name="Set" dataDxfId="6"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
+    <tableColumn id="15" name="ID1" dataDxfId="4"/>
+    <tableColumn id="16" name="ID2" dataDxfId="3"/>
+    <tableColumn id="10" name="On" dataDxfId="2"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
+    <tableColumn id="12" name="handler" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I123" totalsRowShown="0" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I123" totalsRowShown="0" dataDxfId="105">
   <autoFilter ref="A1:I123">
     <filterColumn colId="0">
       <filters>
@@ -3902,22 +3890,22 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="105"/>
-    <tableColumn id="2" name="Type" dataDxfId="104"/>
-    <tableColumn id="3" name="Name" dataDxfId="103"/>
-    <tableColumn id="4" name="Length" dataDxfId="102"/>
-    <tableColumn id="5" name="Method1" dataDxfId="101"/>
-    <tableColumn id="6" name="Method2" dataDxfId="100"/>
-    <tableColumn id="7" name="Method3" dataDxfId="99"/>
-    <tableColumn id="8" name="Method4" dataDxfId="98"/>
-    <tableColumn id="9" name="Method5" dataDxfId="97"/>
+    <tableColumn id="1" name="Column" dataDxfId="104"/>
+    <tableColumn id="2" name="Type" dataDxfId="103"/>
+    <tableColumn id="3" name="Name" dataDxfId="102"/>
+    <tableColumn id="4" name="Length" dataDxfId="101"/>
+    <tableColumn id="5" name="Method1" dataDxfId="100"/>
+    <tableColumn id="6" name="Method2" dataDxfId="99"/>
+    <tableColumn id="7" name="Method3" dataDxfId="98"/>
+    <tableColumn id="8" name="Method4" dataDxfId="97"/>
+    <tableColumn id="9" name="Method5" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K283" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K283" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:K283">
     <filterColumn colId="0">
       <filters>
@@ -3926,33 +3914,33 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="22"/>
-    <tableColumn id="3" name="Field" dataDxfId="21"/>
-    <tableColumn id="5" name="Type" dataDxfId="20">
+    <tableColumn id="2" name="Table" dataDxfId="94"/>
+    <tableColumn id="3" name="Field" dataDxfId="93"/>
+    <tableColumn id="5" name="Type" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="19">
+    <tableColumn id="4" name="Name" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="18">
+    <tableColumn id="6" name="Arg2" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="17">
+    <tableColumn id="7" name="Method1" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="16">
+    <tableColumn id="8" name="Method2" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="15">
+    <tableColumn id="9" name="Method3" dataDxfId="87">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="14">
+    <tableColumn id="10" name="Method4" dataDxfId="86">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="13">
+    <tableColumn id="11" name="Method5" dataDxfId="85">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="12">
+    <tableColumn id="12" name="Statement" dataDxfId="84">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3961,8 +3949,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R220" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
-  <autoFilter ref="A1:R220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R227" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R227">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -3970,46 +3958,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="94">
+    <tableColumn id="19" name="TRCode" dataDxfId="81">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="93"/>
-    <tableColumn id="2" name="Record No" dataDxfId="92">
+    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
+    <tableColumn id="2" name="Record No" dataDxfId="79">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="91"/>
-    <tableColumn id="4" name="2" dataDxfId="90"/>
-    <tableColumn id="5" name="3" dataDxfId="89"/>
-    <tableColumn id="6" name="4" dataDxfId="88"/>
-    <tableColumn id="7" name="5" dataDxfId="87"/>
-    <tableColumn id="8" name="6" dataDxfId="86"/>
-    <tableColumn id="9" name="7" dataDxfId="85"/>
-    <tableColumn id="10" name="8" dataDxfId="84"/>
-    <tableColumn id="11" name="9" dataDxfId="83"/>
-    <tableColumn id="12" name="10" dataDxfId="82"/>
-    <tableColumn id="13" name="11" dataDxfId="81"/>
-    <tableColumn id="14" name="12" dataDxfId="80"/>
-    <tableColumn id="15" name="13" dataDxfId="79"/>
-    <tableColumn id="16" name="14" dataDxfId="78"/>
-    <tableColumn id="17" name="15" dataDxfId="77"/>
+    <tableColumn id="3" name="1" dataDxfId="78"/>
+    <tableColumn id="4" name="2" dataDxfId="77"/>
+    <tableColumn id="5" name="3" dataDxfId="76"/>
+    <tableColumn id="6" name="4" dataDxfId="75"/>
+    <tableColumn id="7" name="5" dataDxfId="74"/>
+    <tableColumn id="8" name="6" dataDxfId="73"/>
+    <tableColumn id="9" name="7" dataDxfId="72"/>
+    <tableColumn id="10" name="8" dataDxfId="71"/>
+    <tableColumn id="11" name="9" dataDxfId="70"/>
+    <tableColumn id="12" name="10" dataDxfId="69"/>
+    <tableColumn id="13" name="11" dataDxfId="68"/>
+    <tableColumn id="14" name="12" dataDxfId="67"/>
+    <tableColumn id="15" name="13" dataDxfId="66"/>
+    <tableColumn id="16" name="14" dataDxfId="65"/>
+    <tableColumn id="17" name="15" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E21" totalsRowShown="0" dataDxfId="76">
-  <autoFilter ref="A1:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="75"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="74"/>
-    <tableColumn id="20" name="NS" dataDxfId="73">
+    <tableColumn id="1" name="Name" dataDxfId="62"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
+    <tableColumn id="20" name="NS" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="72">
+    <tableColumn id="21" name="Model" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="71">
+    <tableColumn id="4" name="Query Method" dataDxfId="58">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4018,46 +4006,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I28" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I28" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:I28"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="9">
+    <tableColumn id="1" name="No" dataDxfId="56">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" name="Description" dataDxfId="7"/>
-    <tableColumn id="4" name="Title" dataDxfId="6"/>
-    <tableColumn id="5" name="NS" dataDxfId="5">
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Title" dataDxfId="53"/>
+    <tableColumn id="5" name="NS" dataDxfId="52">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="4"/>
-    <tableColumn id="7" name="Key" dataDxfId="3">
+    <tableColumn id="6" name="Table" dataDxfId="51"/>
+    <tableColumn id="7" name="Key" dataDxfId="50">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="2"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="1"/>
+    <tableColumn id="8" name="Controller" dataDxfId="49"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I34" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I34" totalsRowShown="0" dataDxfId="47">
   <autoFilter ref="A1:I34"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="69">
+    <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="68"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="67"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="66">
+    <tableColumn id="3" name="Resource" dataDxfId="45"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="65"/>
-    <tableColumn id="6" name="Description" dataDxfId="64"/>
-    <tableColumn id="7" name="Method" dataDxfId="63"/>
-    <tableColumn id="8" name="Type" dataDxfId="62"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="61">
+    <tableColumn id="5" name="Name" dataDxfId="42"/>
+    <tableColumn id="6" name="Description" dataDxfId="41"/>
+    <tableColumn id="7" name="Method" dataDxfId="40"/>
+    <tableColumn id="8" name="Type" dataDxfId="39"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4066,47 +4054,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="37">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="59">
+    <tableColumn id="1" name="No" dataDxfId="36">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="58"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="57">
+    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="56"/>
-    <tableColumn id="6" name="Title" dataDxfId="55"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="54"/>
-    <tableColumn id="8" name="Description" dataDxfId="53"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
+    <tableColumn id="6" name="Title" dataDxfId="32"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
+    <tableColumn id="8" name="Description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="51">
+    <tableColumn id="9" name="No" dataDxfId="28">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="50"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="49">
+    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="48"/>
-    <tableColumn id="2" name="Type" dataDxfId="47"/>
-    <tableColumn id="5" name="Label" dataDxfId="46"/>
-    <tableColumn id="6" name="Collection" dataDxfId="45"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="44">
+    <tableColumn id="4" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" name="Label" dataDxfId="23"/>
+    <tableColumn id="6" name="Collection" dataDxfId="22"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="21">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="43"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="42"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="41"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="40"/>
+    <tableColumn id="10" name="Relation" dataDxfId="20"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7343,7 +7331,7 @@
   <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -10000,17 +9988,17 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -10019,13 +10007,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A123">
-    <cfRule type="duplicateValues" dxfId="107" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10039,8 +10027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -22323,7 +22311,7 @@
         <v>594</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C280" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22514,10 +22502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R220"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView topLeftCell="B168" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221:B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30589,19 +30577,19 @@
         <v>27</v>
       </c>
       <c r="D219" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="E219" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="E219" s="40" t="s">
+      <c r="F219" s="40" t="s">
         <v>600</v>
-      </c>
-      <c r="F219" s="40" t="s">
-        <v>601</v>
       </c>
       <c r="G219" s="40" t="s">
         <v>563</v>
       </c>
       <c r="H219" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I219" s="40" t="s">
         <v>21</v>
@@ -30632,10 +30620,10 @@
         <v>26</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F220" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G220" s="40" t="s">
         <v>571</v>
@@ -30655,6 +30643,244 @@
       <c r="P220" s="40"/>
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
+    </row>
+    <row r="221" spans="1:18">
+      <c r="A221" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-0</v>
+      </c>
+      <c r="B221" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C221" s="22">
+        <f>COUNTIF($B$1:$B220,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D221" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E221" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F221" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G221" s="40"/>
+      <c r="H221" s="40"/>
+      <c r="I221" s="40"/>
+      <c r="J221" s="40"/>
+      <c r="K221" s="40"/>
+      <c r="L221" s="40"/>
+      <c r="M221" s="40"/>
+      <c r="N221" s="40"/>
+      <c r="O221" s="40"/>
+      <c r="P221" s="40"/>
+      <c r="Q221" s="40"/>
+      <c r="R221" s="40"/>
+    </row>
+    <row r="222" spans="1:18">
+      <c r="A222" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-1</v>
+      </c>
+      <c r="B222" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C222" s="22">
+        <f>COUNTIF($B$1:$B221,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D222" s="40">
+        <v>2</v>
+      </c>
+      <c r="E222" s="40">
+        <v>4</v>
+      </c>
+      <c r="F222" s="40">
+        <v>12</v>
+      </c>
+      <c r="G222" s="40"/>
+      <c r="H222" s="40"/>
+      <c r="I222" s="40"/>
+      <c r="J222" s="40"/>
+      <c r="K222" s="40"/>
+      <c r="L222" s="40"/>
+      <c r="M222" s="40"/>
+      <c r="N222" s="40"/>
+      <c r="O222" s="40"/>
+      <c r="P222" s="40"/>
+      <c r="Q222" s="40"/>
+      <c r="R222" s="40"/>
+    </row>
+    <row r="223" spans="1:18">
+      <c r="A223" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-2</v>
+      </c>
+      <c r="B223" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" s="22">
+        <f>COUNTIF($B$1:$B222,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D223" s="40">
+        <v>2</v>
+      </c>
+      <c r="E223" s="40">
+        <v>5</v>
+      </c>
+      <c r="F223" s="40">
+        <v>6</v>
+      </c>
+      <c r="G223" s="40"/>
+      <c r="H223" s="40"/>
+      <c r="I223" s="40"/>
+      <c r="J223" s="40"/>
+      <c r="K223" s="40"/>
+      <c r="L223" s="40"/>
+      <c r="M223" s="40"/>
+      <c r="N223" s="40"/>
+      <c r="O223" s="40"/>
+      <c r="P223" s="40"/>
+      <c r="Q223" s="40"/>
+      <c r="R223" s="40"/>
+    </row>
+    <row r="224" spans="1:18">
+      <c r="A224" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-3</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C224" s="22">
+        <f>COUNTIF($B$1:$B223,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D224" s="40">
+        <v>2</v>
+      </c>
+      <c r="E224" s="40">
+        <v>32</v>
+      </c>
+      <c r="F224" s="40">
+        <v>6</v>
+      </c>
+      <c r="G224" s="40"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="40"/>
+      <c r="J224" s="40"/>
+      <c r="K224" s="40"/>
+      <c r="L224" s="40"/>
+      <c r="M224" s="40"/>
+      <c r="N224" s="40"/>
+      <c r="O224" s="40"/>
+      <c r="P224" s="40"/>
+      <c r="Q224" s="40"/>
+      <c r="R224" s="40"/>
+    </row>
+    <row r="225" spans="1:18">
+      <c r="A225" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-4</v>
+      </c>
+      <c r="B225" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C225" s="22">
+        <f>COUNTIF($B$1:$B224,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D225" s="40">
+        <v>3</v>
+      </c>
+      <c r="E225" s="40">
+        <v>6</v>
+      </c>
+      <c r="F225" s="40">
+        <v>12</v>
+      </c>
+      <c r="G225" s="40"/>
+      <c r="H225" s="40"/>
+      <c r="I225" s="40"/>
+      <c r="J225" s="40"/>
+      <c r="K225" s="40"/>
+      <c r="L225" s="40"/>
+      <c r="M225" s="40"/>
+      <c r="N225" s="40"/>
+      <c r="O225" s="40"/>
+      <c r="P225" s="40"/>
+      <c r="Q225" s="40"/>
+      <c r="R225" s="40"/>
+    </row>
+    <row r="226" spans="1:18">
+      <c r="A226" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-5</v>
+      </c>
+      <c r="B226" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C226" s="22">
+        <f>COUNTIF($B$1:$B225,[Table Name])</f>
+        <v>5</v>
+      </c>
+      <c r="D226" s="40">
+        <v>3</v>
+      </c>
+      <c r="E226" s="40">
+        <v>7</v>
+      </c>
+      <c r="F226" s="40">
+        <v>0</v>
+      </c>
+      <c r="G226" s="40"/>
+      <c r="H226" s="40"/>
+      <c r="I226" s="40"/>
+      <c r="J226" s="40"/>
+      <c r="K226" s="40"/>
+      <c r="L226" s="40"/>
+      <c r="M226" s="40"/>
+      <c r="N226" s="40"/>
+      <c r="O226" s="40"/>
+      <c r="P226" s="40"/>
+      <c r="Q226" s="40"/>
+      <c r="R226" s="40"/>
+    </row>
+    <row r="227" spans="1:18">
+      <c r="A227" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Layout-6</v>
+      </c>
+      <c r="B227" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C227" s="22">
+        <f>COUNTIF($B$1:$B226,[Table Name])</f>
+        <v>6</v>
+      </c>
+      <c r="D227" s="40">
+        <v>3</v>
+      </c>
+      <c r="E227" s="40">
+        <v>33</v>
+      </c>
+      <c r="F227" s="40">
+        <v>0</v>
+      </c>
+      <c r="G227" s="40"/>
+      <c r="H227" s="40"/>
+      <c r="I227" s="40"/>
+      <c r="J227" s="40"/>
+      <c r="K227" s="40"/>
+      <c r="L227" s="40"/>
+      <c r="M227" s="40"/>
+      <c r="N227" s="40"/>
+      <c r="O227" s="40"/>
+      <c r="P227" s="40"/>
+      <c r="Q227" s="40"/>
+      <c r="R227" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30667,18 +30893,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="21" width="11.28515625" customWidth="1"/>
@@ -31101,12 +31327,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceFormLayout</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -31900,20 +32146,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="E28" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G28" s="21" t="str">
         <f>"id"</f>
@@ -33021,17 +33267,17 @@
         <v>573</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D34" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>571</v>
@@ -33061,8 +33307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33072,14 +33318,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>443</v>
+        <v>600</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="48" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormLayout::truncate()</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -33223,27 +33469,27 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource</v>
+        <v>resource_form</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>name</v>
+        <v>form_field</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>description</v>
+        <v>colspan</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>method</v>
+        <v/>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v>type</v>
+        <v/>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v>relate_resource</v>
+        <v/>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
@@ -33337,7 +33583,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="46" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormLayout::truncate()</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -33366,27 +33612,27 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '1', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'name' =&gt; 'User Groups', </v>
+        <v xml:space="preserve">'form_field' =&gt; '4', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Which groups this user belongs to', </v>
+        <v xml:space="preserve">'colspan' =&gt; '12', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33439,27 +33685,27 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Users', </v>
+        <v xml:space="preserve">'form_field' =&gt; '5', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'List of users belongs to this group', </v>
+        <v xml:space="preserve">'colspan' =&gt; '6', </v>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Users', </v>
+        <v/>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33512,27 +33758,27 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Roles', </v>
+        <v xml:space="preserve">'form_field' =&gt; '32', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Roles assigneed to this group', </v>
+        <v xml:space="preserve">'colspan' =&gt; '6', </v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v/>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33585,27 +33831,27 @@
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Groups', </v>
+        <v xml:space="preserve">'form_field' =&gt; '6', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of groups this role assigned to', </v>
+        <v xml:space="preserve">'colspan' =&gt; '12', </v>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33658,27 +33904,27 @@
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Resource', </v>
+        <v xml:space="preserve">'form_field' =&gt; '7', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resources assigned to a role', </v>
+        <v xml:space="preserve">'colspan' =&gt; '0', </v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resources', </v>
+        <v/>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="I13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33731,27 +33977,27 @@
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Roles', </v>
+        <v xml:space="preserve">'form_field' =&gt; '33', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'The details of roles who have access to this resource', </v>
+        <v xml:space="preserve">'colspan' =&gt; '0', </v>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v/>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33800,31 +34046,31 @@
       </c>
       <c r="B15" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>;</v>
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Actions', </v>
+        <v/>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Get actions available for the resource', </v>
+        <v/>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Actions', </v>
+        <v/>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33864,7 +34110,7 @@
       </c>
       <c r="R15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -33873,31 +34119,31 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Methods', </v>
+        <v/>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Handler details of an action', </v>
+        <v/>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Method', </v>
+        <v/>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '8', </v>
+        <v/>
       </c>
       <c r="I16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33937,7 +34183,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -33946,31 +34192,31 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Lists', </v>
+        <v/>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Lists where action available', </v>
+        <v/>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Lists', </v>
+        <v/>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '9', </v>
+        <v/>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34010,7 +34256,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -34019,31 +34265,31 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Data', </v>
+        <v/>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource data where action available', </v>
+        <v/>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '10', </v>
+        <v/>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34083,7 +34329,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -34092,31 +34338,31 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '5', </v>
+        <v/>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Organisation Contacts', </v>
+        <v/>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Contact details of organisation', </v>
+        <v/>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Contacts', </v>
+        <v/>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '6', </v>
+        <v/>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34156,7 +34402,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -34165,31 +34411,31 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details', </v>
+        <v/>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34229,7 +34475,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -34238,31 +34484,31 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Forms', </v>
+        <v/>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Forms available for a resource', </v>
+        <v/>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Forms', </v>
+        <v/>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="I21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34302,7 +34548,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -34311,31 +34557,31 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Fields', </v>
+        <v/>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields associated with a form', </v>
+        <v/>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Fields', </v>
+        <v/>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="I22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34375,7 +34621,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -34384,31 +34630,31 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Attributes', </v>
+        <v/>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Attributes of Field', </v>
+        <v/>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Attributes', </v>
+        <v/>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '14', </v>
+        <v/>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34448,7 +34694,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -34457,31 +34703,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Options', </v>
+        <v/>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Options of Field', </v>
+        <v/>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Options', </v>
+        <v/>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '15', </v>
+        <v/>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34521,7 +34767,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -34530,31 +34776,31 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Validations', </v>
+        <v/>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Validation details of field', </v>
+        <v/>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Validations', </v>
+        <v/>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ref="H25:K88" ca="1" si="4">IF(AND($B25=$S$4,H$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)="","","'"&amp;H$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'relate_resource' =&gt; '16', </v>
+        <v/>
       </c>
       <c r="I25" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34594,7 +34840,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -34603,31 +34849,31 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'From Resource', </v>
+        <v/>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource this form belongs to', </v>
+        <v/>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34667,7 +34913,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -34676,31 +34922,31 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Defaults', </v>
+        <v/>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Predefined values for a form', </v>
+        <v/>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Defaults', </v>
+        <v/>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="I27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34740,7 +34986,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -34749,31 +34995,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Data', </v>
+        <v/>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields Database binding details', </v>
+        <v/>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34813,7 +35059,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -34822,31 +35068,31 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Relations', </v>
+        <v/>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relation of  a resource to another resource', </v>
+        <v/>
       </c>
       <c r="F29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34886,7 +35132,7 @@
       </c>
       <c r="R29" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -34895,31 +35141,31 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Bind Data Resource', </v>
+        <v/>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the data to be bind', </v>
+        <v/>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34959,7 +35205,7 @@
       </c>
       <c r="R30" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -34968,31 +35214,31 @@
       </c>
       <c r="B31" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Default Data Resource', </v>
+        <v/>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the forms predefined data to be bind', </v>
+        <v/>
       </c>
       <c r="F31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35032,7 +35278,7 @@
       </c>
       <c r="R31" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -35041,31 +35287,31 @@
       </c>
       <c r="B32" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details of a list', </v>
+        <v/>
       </c>
       <c r="F32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35105,7 +35351,7 @@
       </c>
       <c r="R32" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -35114,31 +35360,31 @@
       </c>
       <c r="B33" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Relations', </v>
+        <v/>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on accessing list', </v>
+        <v/>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '20', </v>
+        <v/>
       </c>
       <c r="I33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35178,7 +35424,7 @@
       </c>
       <c r="R33" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -35187,31 +35433,31 @@
       </c>
       <c r="B34" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Scopes', </v>
+        <v/>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes available on a Resource', </v>
+        <v/>
       </c>
       <c r="F34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35251,7 +35497,7 @@
       </c>
       <c r="R34" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -35260,31 +35506,31 @@
       </c>
       <c r="B35" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Scopes', </v>
+        <v/>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes by which a list to be filtered', </v>
+        <v/>
       </c>
       <c r="F35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35324,7 +35570,7 @@
       </c>
       <c r="R35" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -35333,31 +35579,31 @@
       </c>
       <c r="B36" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
+        <v/>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on a data view', </v>
+        <v/>
       </c>
       <c r="F36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '24', </v>
+        <v/>
       </c>
       <c r="I36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35397,7 +35643,7 @@
       </c>
       <c r="R36" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -35406,31 +35652,31 @@
       </c>
       <c r="B37" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of resource of a record', </v>
+        <v/>
       </c>
       <c r="F37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35470,7 +35716,7 @@
       </c>
       <c r="R37" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -35479,31 +35725,31 @@
       </c>
       <c r="B38" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Layout', </v>
+        <v/>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout of a list', </v>
+        <v/>
       </c>
       <c r="F38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '25', </v>
+        <v/>
       </c>
       <c r="I38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35543,7 +35789,7 @@
       </c>
       <c r="R38" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -35552,31 +35798,31 @@
       </c>
       <c r="B39" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="F39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Nest', </v>
+        <v/>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35616,7 +35862,7 @@
       </c>
       <c r="R39" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -35625,31 +35871,31 @@
       </c>
       <c r="B40" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Related Resource', </v>
+        <v/>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Related Resource Details', </v>
+        <v/>
       </c>
       <c r="F40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35689,7 +35935,7 @@
       </c>
       <c r="R40" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -35698,31 +35944,31 @@
       </c>
       <c r="B41" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Layout', </v>
+        <v/>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout details', </v>
+        <v/>
       </c>
       <c r="F41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '27', </v>
+        <v/>
       </c>
       <c r="I41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35762,7 +36008,7 @@
       </c>
       <c r="R41" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -35771,7 +36017,7 @@
       </c>
       <c r="B42" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v/>
       </c>
       <c r="C42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -35844,7 +36090,7 @@
       </c>
       <c r="B43" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v/>
       </c>
       <c r="C43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="622">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1850,6 +1850,60 @@
   </si>
   <si>
     <t>col_span</t>
+  </si>
+  <si>
+    <t>resource_data_view_sections</t>
+  </si>
+  <si>
+    <t>resource_data_view_section_items</t>
+  </si>
+  <si>
+    <t>data_view_section</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>data_view_attribute</t>
+  </si>
+  <si>
+    <t>data_view_section_foreign</t>
+  </si>
+  <si>
+    <t>ResourceDataViewSection</t>
+  </si>
+  <si>
+    <t>Sections of a data view</t>
+  </si>
+  <si>
+    <t>Data View Section</t>
+  </si>
+  <si>
+    <t>__resource_data_view_sections</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Section details of data view</t>
+  </si>
+  <si>
+    <t>on('__resource_data_view_sections')</t>
+  </si>
+  <si>
+    <t>ResourceDataViewSectionItem</t>
+  </si>
+  <si>
+    <t>Items of a data view section</t>
+  </si>
+  <si>
+    <t>Data View Section Items</t>
+  </si>
+  <si>
+    <t>__resource_data_view_section_items</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2130,200 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3395,163 +3642,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3814,35 +3904,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J33" totalsRowShown="0" dataDxfId="119">
-  <autoFilter ref="A1:J33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="122">
+  <autoFilter ref="A1:J35"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="118"/>
-    <tableColumn id="10" name="Table" dataDxfId="117">
+    <tableColumn id="2" name="Name" dataDxfId="121"/>
+    <tableColumn id="10" name="Table" dataDxfId="120">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="116">
+    <tableColumn id="5" name="Singular Name" dataDxfId="119">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="115">
+    <tableColumn id="8" name="Model NS" dataDxfId="118">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="114">
+    <tableColumn id="4" name="Class Name" dataDxfId="117">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="113">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="116">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="112">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="115">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="111">
+    <tableColumn id="3" name="Model Statement" dataDxfId="114">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="110">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="113">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="109">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="112">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3851,62 +3941,57 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="31">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="15">
+    <tableColumn id="1" name="No" dataDxfId="30">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="14"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="13">
+    <tableColumn id="2" name="Resource" dataDxfId="29"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
-    <tableColumn id="4" name="Description" dataDxfId="11"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
-    <tableColumn id="7" name="Menu" dataDxfId="8"/>
-    <tableColumn id="8" name="Icon" dataDxfId="7"/>
-    <tableColumn id="9" name="Set" dataDxfId="6"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
-    <tableColumn id="15" name="ID1" dataDxfId="4"/>
-    <tableColumn id="16" name="ID2" dataDxfId="3"/>
-    <tableColumn id="10" name="On" dataDxfId="2"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
-    <tableColumn id="12" name="handler" dataDxfId="0"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="27"/>
+    <tableColumn id="4" name="Description" dataDxfId="26"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="25"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="24"/>
+    <tableColumn id="7" name="Menu" dataDxfId="23"/>
+    <tableColumn id="8" name="Icon" dataDxfId="22"/>
+    <tableColumn id="9" name="Set" dataDxfId="21"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="20"/>
+    <tableColumn id="15" name="ID1" dataDxfId="19"/>
+    <tableColumn id="16" name="ID2" dataDxfId="18"/>
+    <tableColumn id="10" name="On" dataDxfId="17"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="16"/>
+    <tableColumn id="12" name="handler" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I123" totalsRowShown="0" dataDxfId="105">
-  <autoFilter ref="A1:I123">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="relation_nullable"/>
-        <filter val="relation_nullable_foreign"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I126" totalsRowShown="0" dataDxfId="108">
+  <autoFilter ref="A1:I126">
+    <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="104"/>
-    <tableColumn id="2" name="Type" dataDxfId="103"/>
-    <tableColumn id="3" name="Name" dataDxfId="102"/>
-    <tableColumn id="4" name="Length" dataDxfId="101"/>
-    <tableColumn id="5" name="Method1" dataDxfId="100"/>
-    <tableColumn id="6" name="Method2" dataDxfId="99"/>
-    <tableColumn id="7" name="Method3" dataDxfId="98"/>
-    <tableColumn id="8" name="Method4" dataDxfId="97"/>
-    <tableColumn id="9" name="Method5" dataDxfId="96"/>
+    <tableColumn id="1" name="Column" dataDxfId="107"/>
+    <tableColumn id="2" name="Type" dataDxfId="106"/>
+    <tableColumn id="3" name="Name" dataDxfId="105"/>
+    <tableColumn id="4" name="Length" dataDxfId="104"/>
+    <tableColumn id="5" name="Method1" dataDxfId="103"/>
+    <tableColumn id="6" name="Method2" dataDxfId="102"/>
+    <tableColumn id="7" name="Method3" dataDxfId="101"/>
+    <tableColumn id="8" name="Method4" dataDxfId="100"/>
+    <tableColumn id="9" name="Method5" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K283" totalsRowShown="0" dataDxfId="95">
-  <autoFilter ref="A1:K283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K300" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:K300">
     <filterColumn colId="0">
       <filters>
         <filter val="roles"/>
@@ -3914,33 +3999,33 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="94"/>
-    <tableColumn id="3" name="Field" dataDxfId="93"/>
-    <tableColumn id="5" name="Type" dataDxfId="92">
+    <tableColumn id="2" name="Table" dataDxfId="13"/>
+    <tableColumn id="3" name="Field" dataDxfId="12"/>
+    <tableColumn id="5" name="Type" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="91">
+    <tableColumn id="4" name="Name" dataDxfId="10">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="90">
+    <tableColumn id="6" name="Arg2" dataDxfId="9">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="89">
+    <tableColumn id="7" name="Method1" dataDxfId="8">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="88">
+    <tableColumn id="8" name="Method2" dataDxfId="7">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="87">
+    <tableColumn id="9" name="Method3" dataDxfId="6">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="86">
+    <tableColumn id="10" name="Method4" dataDxfId="5">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="85">
+    <tableColumn id="11" name="Method5" dataDxfId="4">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="84">
+    <tableColumn id="12" name="Statement" dataDxfId="3">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3949,8 +4034,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R227" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R231" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="A1:R231">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -3958,46 +4043,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="81">
+    <tableColumn id="19" name="TRCode" dataDxfId="96">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
-    <tableColumn id="2" name="Record No" dataDxfId="79">
+    <tableColumn id="1" name="Table Name" dataDxfId="95"/>
+    <tableColumn id="2" name="Record No" dataDxfId="94">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="78"/>
-    <tableColumn id="4" name="2" dataDxfId="77"/>
-    <tableColumn id="5" name="3" dataDxfId="76"/>
-    <tableColumn id="6" name="4" dataDxfId="75"/>
-    <tableColumn id="7" name="5" dataDxfId="74"/>
-    <tableColumn id="8" name="6" dataDxfId="73"/>
-    <tableColumn id="9" name="7" dataDxfId="72"/>
-    <tableColumn id="10" name="8" dataDxfId="71"/>
-    <tableColumn id="11" name="9" dataDxfId="70"/>
-    <tableColumn id="12" name="10" dataDxfId="69"/>
-    <tableColumn id="13" name="11" dataDxfId="68"/>
-    <tableColumn id="14" name="12" dataDxfId="67"/>
-    <tableColumn id="15" name="13" dataDxfId="66"/>
-    <tableColumn id="16" name="14" dataDxfId="65"/>
-    <tableColumn id="17" name="15" dataDxfId="64"/>
+    <tableColumn id="3" name="1" dataDxfId="93"/>
+    <tableColumn id="4" name="2" dataDxfId="92"/>
+    <tableColumn id="5" name="3" dataDxfId="91"/>
+    <tableColumn id="6" name="4" dataDxfId="90"/>
+    <tableColumn id="7" name="5" dataDxfId="89"/>
+    <tableColumn id="8" name="6" dataDxfId="88"/>
+    <tableColumn id="9" name="7" dataDxfId="87"/>
+    <tableColumn id="10" name="8" dataDxfId="86"/>
+    <tableColumn id="11" name="9" dataDxfId="85"/>
+    <tableColumn id="12" name="10" dataDxfId="84"/>
+    <tableColumn id="13" name="11" dataDxfId="83"/>
+    <tableColumn id="14" name="12" dataDxfId="82"/>
+    <tableColumn id="15" name="13" dataDxfId="81"/>
+    <tableColumn id="16" name="14" dataDxfId="80"/>
+    <tableColumn id="17" name="15" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="78">
   <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="62"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
-    <tableColumn id="20" name="NS" dataDxfId="60">
+    <tableColumn id="1" name="Name" dataDxfId="77"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="76"/>
+    <tableColumn id="20" name="NS" dataDxfId="75">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="59">
+    <tableColumn id="21" name="Model" dataDxfId="74">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="58">
+    <tableColumn id="4" name="Query Method" dataDxfId="73">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4006,46 +4091,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I28" totalsRowShown="0" dataDxfId="57">
-  <autoFilter ref="A1:I28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="72">
+  <autoFilter ref="A1:I30"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="56">
+    <tableColumn id="1" name="No" dataDxfId="71">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Title" dataDxfId="53"/>
-    <tableColumn id="5" name="NS" dataDxfId="52">
+    <tableColumn id="2" name="Name" dataDxfId="70"/>
+    <tableColumn id="3" name="Description" dataDxfId="69"/>
+    <tableColumn id="4" name="Title" dataDxfId="68"/>
+    <tableColumn id="5" name="NS" dataDxfId="67">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="51"/>
-    <tableColumn id="7" name="Key" dataDxfId="50">
+    <tableColumn id="6" name="Table" dataDxfId="66"/>
+    <tableColumn id="7" name="Key" dataDxfId="65">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="49"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
+    <tableColumn id="8" name="Controller" dataDxfId="64"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I34" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I36" totalsRowShown="0" dataDxfId="62">
+  <autoFilter ref="A1:I36"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="46">
+    <tableColumn id="1" name="No" dataDxfId="61">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="45"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="43">
+    <tableColumn id="3" name="Resource" dataDxfId="60"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="59"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="42"/>
-    <tableColumn id="6" name="Description" dataDxfId="41"/>
-    <tableColumn id="7" name="Method" dataDxfId="40"/>
-    <tableColumn id="8" name="Type" dataDxfId="39"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="38">
+    <tableColumn id="5" name="Name" dataDxfId="57"/>
+    <tableColumn id="6" name="Description" dataDxfId="56"/>
+    <tableColumn id="7" name="Method" dataDxfId="55"/>
+    <tableColumn id="8" name="Type" dataDxfId="54"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="53">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4054,47 +4139,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="52">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="36">
+    <tableColumn id="1" name="No" dataDxfId="51">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="34">
+    <tableColumn id="2" name="Resource ID" dataDxfId="50"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="49">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
-    <tableColumn id="6" name="Title" dataDxfId="32"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
-    <tableColumn id="8" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="48"/>
+    <tableColumn id="6" name="Title" dataDxfId="47"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="46"/>
+    <tableColumn id="8" name="Description" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="44">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="28">
+    <tableColumn id="9" name="No" dataDxfId="43">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="26">
+    <tableColumn id="1" name="Form Id" dataDxfId="42"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" name="Type" dataDxfId="24"/>
-    <tableColumn id="5" name="Label" dataDxfId="23"/>
-    <tableColumn id="6" name="Collection" dataDxfId="22"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="21">
+    <tableColumn id="4" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" name="Type" dataDxfId="39"/>
+    <tableColumn id="5" name="Label" dataDxfId="38"/>
+    <tableColumn id="6" name="Collection" dataDxfId="37"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="36">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="20"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
+    <tableColumn id="10" name="Relation" dataDxfId="35"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="34"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="33"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4385,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4448,7 +4533,7 @@
         <v>user</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D33" si="0">"Milestone\Appframe\Model"</f>
+        <f t="shared" ref="D2:D35" si="0">"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="E2" s="8" t="str">
@@ -4887,262 +4972,262 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_data_view_sections</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_data_view_section</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceDataViewSection</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_data_view_sections_table --create=__resource_data_view_sections</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceDataViewSection</v>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_data_view_sections';</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceDataViewSectionTableSeeder</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceDataViewSectionTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_data_view_section_items</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_data_view_section_item</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceDataViewSectionItem</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_data_view_section_items_table --create=__resource_data_view_section_items</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceDataViewSectionItem</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_data_view_section_items';</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceDataViewSectionItemTableSeeder</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceDataViewSectionItemTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B15" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_lists</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C15" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_list</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E15" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceList</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F15" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_lists_table --create=__resource_lists</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G15" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceList</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H15" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_lists';</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I15" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceListTableSeeder</v>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J15" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceListTableSeeder::class,</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B16" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_list_relations</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C16" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_list_relation</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E16" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceListRelation</v>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F16" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_list_relations_table --create=__resource_list_relations</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G16" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceListRelation</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H16" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_list_relations';</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I16" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceListRelationTableSeeder</v>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J16" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceListRelationTableSeeder::class,</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B17" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_list_scopes</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C17" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_list_scope</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E17" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceListScope</v>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F17" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_list_scopes_table --create=__resource_list_scopes</v>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G17" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceListScope</v>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H17" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_list_scopes';</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I17" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceListScopeTableSeeder</v>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J17" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceListScopeTableSeeder::class,</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B18" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_list_layout</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C18" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_list_layout</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D18" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E18" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceListLayout</v>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F18" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_list_layout_table --create=__resource_list_layout</v>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G18" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceListLayout</v>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H18" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_list_layout';</v>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I18" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceListLayoutTableSeeder</v>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J18" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceListLayoutTableSeeder::class,</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B19" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_forms</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C19" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_form</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Milestone\Appframe\Model</v>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceForm</v>
-      </c>
-      <c r="F17" s="8" t="str">
-        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_forms_table --create=__resource_forms</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceForm</v>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_forms';</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormTableSeeder</v>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormTableSeeder::class,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="9" t="str">
-        <f>"__"&amp;[Name]</f>
-        <v>__resource_form_defaults</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_form_default</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Milestone\Appframe\Model</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceFormDefault</v>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_form_defaults_table --create=__resource_form_defaults</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceFormDefault</v>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_form_defaults';</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormDefaultTableSeeder</v>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormDefaultTableSeeder::class,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="str">
-        <f>"__"&amp;[Name]</f>
-        <v>__resource_defaults</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_default</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5150,81 +5235,81 @@
       </c>
       <c r="E19" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceDefault</v>
+        <v>ResourceForm</v>
       </c>
       <c r="F19" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_defaults_table --create=__resource_defaults</v>
+        <v>php artisan make:migration create___resource_forms_table --create=__resource_forms</v>
       </c>
       <c r="G19" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceDefault</v>
+        <v>php artisan make:model ResourceForm</v>
       </c>
       <c r="H19" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_defaults';</v>
+        <v>protected $table = '__resource_forms';</v>
       </c>
       <c r="I19" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceDefaultTableSeeder</v>
+        <v>php artisan make:seed ResourceFormTableSeeder</v>
       </c>
       <c r="J19" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceDefaultTableSeeder::class,</v>
+        <v>ResourceFormTableSeeder::class,</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B20" s="9" t="str">
         <f>"__"&amp;[Name]</f>
-        <v>__resource_actions</v>
-      </c>
-      <c r="C20" s="9" t="str">
+        <v>__resource_form_defaults</v>
+      </c>
+      <c r="C20" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_action</v>
-      </c>
-      <c r="D20" s="9" t="str">
+        <v>resource_form_default</v>
+      </c>
+      <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceAction</v>
+        <v>ResourceFormDefault</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_actions_table --create=__resource_actions</v>
+        <v>php artisan make:migration create___resource_form_defaults_table --create=__resource_form_defaults</v>
       </c>
       <c r="G20" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceAction</v>
+        <v>php artisan make:model ResourceFormDefault</v>
       </c>
       <c r="H20" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_actions';</v>
+        <v>protected $table = '__resource_form_defaults';</v>
       </c>
       <c r="I20" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceActionTableSeeder</v>
+        <v>php artisan make:seed ResourceFormDefaultTableSeeder</v>
       </c>
       <c r="J20" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceActionTableSeeder::class,</v>
+        <v>ResourceFormDefaultTableSeeder::class,</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9" t="str">
         <f>"__"&amp;[Name]</f>
-        <v>__resource_action_attrs</v>
+        <v>__resource_defaults</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_action_attr</v>
+        <v>resource_default</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5232,40 +5317,40 @@
       </c>
       <c r="E21" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceActionAttr</v>
+        <v>ResourceDefault</v>
       </c>
       <c r="F21" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_action_attrs_table --create=__resource_action_attrs</v>
+        <v>php artisan make:migration create___resource_defaults_table --create=__resource_defaults</v>
       </c>
       <c r="G21" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceActionAttr</v>
+        <v>php artisan make:model ResourceDefault</v>
       </c>
       <c r="H21" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_action_attrs';</v>
+        <v>protected $table = '__resource_defaults';</v>
       </c>
       <c r="I21" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceActionAttrTableSeeder</v>
+        <v>php artisan make:seed ResourceDefaultTableSeeder</v>
       </c>
       <c r="J21" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceActionAttrTableSeeder::class,</v>
+        <v>ResourceDefaultTableSeeder::class,</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B22" s="9" t="str">
         <f>"__"&amp;[Name]</f>
-        <v>__resource_action_methods</v>
+        <v>__resource_actions</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_action_method</v>
+        <v>resource_action</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5273,245 +5358,245 @@
       </c>
       <c r="E22" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceActionMethod</v>
+        <v>ResourceAction</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_action_methods_table --create=__resource_action_methods</v>
+        <v>php artisan make:migration create___resource_actions_table --create=__resource_actions</v>
       </c>
       <c r="G22" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceActionMethod</v>
+        <v>php artisan make:model ResourceAction</v>
       </c>
       <c r="H22" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_action_methods';</v>
+        <v>protected $table = '__resource_actions';</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceActionMethodTableSeeder</v>
+        <v>php artisan make:seed ResourceActionTableSeeder</v>
       </c>
       <c r="J22" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceActionTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_action_attrs</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_action_attr</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceActionAttr</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_action_attrs_table --create=__resource_action_attrs</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceActionAttr</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_action_attrs';</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceActionAttrTableSeeder</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceActionAttrTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_action_methods</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_action_method</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceActionMethod</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_action_methods_table --create=__resource_action_methods</v>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceActionMethod</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_action_methods';</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceActionMethodTableSeeder</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceActionMethodTableSeeder::class,</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B25" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_action_lists</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C25" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_action_list</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E25" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceActionList</v>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F25" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_action_lists_table --create=__resource_action_lists</v>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G25" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceActionList</v>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H25" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_action_lists';</v>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I25" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceActionListTableSeeder</v>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J25" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceActionListTableSeeder::class,</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B26" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_action_data</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C26" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_action_data</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E26" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceActionData</v>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F26" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_action_data_table --create=__resource_action_data</v>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G26" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceActionData</v>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H26" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_action_data';</v>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I26" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceActionDataTableSeeder</v>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J26" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceActionDataTableSeeder::class,</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B27" s="8" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_roles</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C27" s="8" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_role</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E27" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceRole</v>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F27" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_roles_table --create=__resource_roles</v>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G27" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceRole</v>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H27" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_roles';</v>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I27" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceRoleTableSeeder</v>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J27" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceRoleTableSeeder::class,</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B28" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_form_fields</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C28" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_form_field</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Milestone\Appframe\Model</v>
-      </c>
-      <c r="E26" s="8" t="str">
-        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceFormField</v>
-      </c>
-      <c r="F26" s="8" t="str">
-        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_form_fields_table --create=__resource_form_fields</v>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceFormField</v>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_form_fields';</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormFieldTableSeeder</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormFieldTableSeeder::class,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="9" t="str">
-        <f>"__"&amp;[Name]</f>
-        <v>__resource_form_field_attrs</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_form_field_attr</v>
-      </c>
-      <c r="D27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Milestone\Appframe\Model</v>
-      </c>
-      <c r="E27" s="8" t="str">
-        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceFormFieldAttr</v>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_form_field_attrs_table --create=__resource_form_field_attrs</v>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceFormFieldAttr</v>
-      </c>
-      <c r="H27" s="8" t="str">
-        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_form_field_attrs';</v>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormFieldAttrTableSeeder</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormFieldAttrTableSeeder::class,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="9" t="str">
-        <f>"__"&amp;[Name]</f>
-        <v>__resource_form_field_data</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_form_field_data</v>
       </c>
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5519,40 +5604,40 @@
       </c>
       <c r="E28" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceFormFieldData</v>
+        <v>ResourceFormField</v>
       </c>
       <c r="F28" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_form_field_data_table --create=__resource_form_field_data</v>
+        <v>php artisan make:migration create___resource_form_fields_table --create=__resource_form_fields</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceFormFieldData</v>
+        <v>php artisan make:model ResourceFormField</v>
       </c>
       <c r="H28" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_form_field_data';</v>
+        <v>protected $table = '__resource_form_fields';</v>
       </c>
       <c r="I28" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormFieldDataTableSeeder</v>
+        <v>php artisan make:seed ResourceFormFieldTableSeeder</v>
       </c>
       <c r="J28" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormFieldDataTableSeeder::class,</v>
+        <v>ResourceFormFieldTableSeeder::class,</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="9" t="str">
         <f>"__"&amp;[Name]</f>
-        <v>__resource_form_field_validations</v>
+        <v>__resource_form_field_attrs</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>resource_form_field_validation</v>
+        <v>resource_form_field_attr</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5560,189 +5645,271 @@
       </c>
       <c r="E29" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>ResourceFormFieldValidation</v>
+        <v>ResourceFormFieldAttr</v>
       </c>
       <c r="F29" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___resource_form_field_validations_table --create=__resource_form_field_validations</v>
+        <v>php artisan make:migration create___resource_form_field_attrs_table --create=__resource_form_field_attrs</v>
       </c>
       <c r="G29" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model ResourceFormFieldValidation</v>
+        <v>php artisan make:model ResourceFormFieldAttr</v>
       </c>
       <c r="H29" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__resource_form_field_validations';</v>
+        <v>protected $table = '__resource_form_field_attrs';</v>
       </c>
       <c r="I29" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed ResourceFormFieldValidationTableSeeder</v>
+        <v>php artisan make:seed ResourceFormFieldAttrTableSeeder</v>
       </c>
       <c r="J29" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>ResourceFormFieldValidationTableSeeder::class,</v>
+        <v>ResourceFormFieldAttrTableSeeder::class,</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="9" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_form_field_data</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_form_field_data</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceFormFieldData</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_form_field_data_table --create=__resource_form_field_data</v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceFormFieldData</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_form_field_data';</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceFormFieldDataTableSeeder</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceFormFieldDataTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="9" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_form_field_validations</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_form_field_validation</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceFormFieldValidation</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_form_field_validations_table --create=__resource_form_field_validations</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceFormFieldValidation</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_form_field_validations';</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceFormFieldValidationTableSeeder</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceFormFieldValidationTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B32" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_form_field_options</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C32" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_form_field_option</v>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E32" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceFormFieldOption</v>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F32" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_form_field_options_table --create=__resource_form_field_options</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G32" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceFormFieldOption</v>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H32" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_form_field_options';</v>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I32" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceFormFieldOptionTableSeeder</v>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="J32" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceFormFieldOptionTableSeeder::class,</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B33" s="7" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__resource_form_layout</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C33" s="7" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>resource_form_layout</v>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D33" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E33" s="8" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>ResourceFormLayout</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F33" s="8" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___resource_form_layout_table --create=__resource_form_layout</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G33" s="8" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model ResourceFormLayout</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H33" s="8" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__resource_form_layout';</v>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I33" s="8" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed ResourceFormLayoutTableSeeder</v>
       </c>
-      <c r="J31" s="8" t="str">
+      <c r="J33" s="8" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>ResourceFormLayoutTableSeeder::class,</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="9" t="str">
+      <c r="B34" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__organisation</v>
       </c>
-      <c r="C32" s="9" t="str">
+      <c r="C34" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>organisation</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E32" s="9" t="str">
+      <c r="E34" s="9" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>Organisation</v>
       </c>
-      <c r="F32" s="9" t="str">
+      <c r="F34" s="9" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___organisation_table --create=__organisation</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="G34" s="9" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model Organisation</v>
       </c>
-      <c r="H32" s="9" t="str">
+      <c r="H34" s="9" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__organisation';</v>
       </c>
-      <c r="I32" s="9" t="str">
+      <c r="I34" s="9" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed OrganisationTableSeeder</v>
       </c>
-      <c r="J32" s="9" t="str">
+      <c r="J34" s="9" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>OrganisationTableSeeder::class,</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="9" t="str">
+      <c r="B35" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__organisation_contacts</v>
       </c>
-      <c r="C33" s="9" t="str">
+      <c r="C35" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>organisation_contact</v>
       </c>
-      <c r="D33" s="9" t="str">
+      <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Milestone\Appframe\Model</v>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="E35" s="9" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
         <v>OrganisationContact</v>
       </c>
-      <c r="F33" s="9" t="str">
+      <c r="F35" s="9" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
         <v>php artisan make:migration create___organisation_contacts_table --create=__organisation_contacts</v>
       </c>
-      <c r="G33" s="9" t="str">
+      <c r="G35" s="9" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
         <v>php artisan make:model OrganisationContact</v>
       </c>
-      <c r="H33" s="9" t="str">
+      <c r="H35" s="9" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
         <v>protected $table = '__organisation_contacts';</v>
       </c>
-      <c r="I33" s="9" t="str">
+      <c r="I35" s="9" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed OrganisationContactTableSeeder</v>
       </c>
-      <c r="J33" s="9" t="str">
+      <c r="J35" s="9" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>OrganisationContactTableSeeder::class,</v>
       </c>
@@ -7328,10 +7495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -7369,7 +7536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7553,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -7401,7 +7568,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -7420,7 +7587,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -7445,7 +7612,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -7466,7 +7633,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -7487,7 +7654,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -7508,7 +7675,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +7698,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -7552,7 +7719,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -7575,7 +7742,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -7596,7 +7763,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -7617,7 +7784,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -7638,7 +7805,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -7659,7 +7826,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -7680,7 +7847,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -7701,7 +7868,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -7722,7 +7889,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -7743,7 +7910,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7768,7 +7935,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -7789,7 +7956,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -7808,7 +7975,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>502</v>
       </c>
@@ -7829,7 +7996,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>579</v>
       </c>
@@ -7850,7 +8017,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>580</v>
       </c>
@@ -7871,7 +8038,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>581</v>
       </c>
@@ -7892,7 +8059,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>582</v>
       </c>
@@ -7913,7 +8080,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>583</v>
       </c>
@@ -7934,7 +8101,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -7959,7 +8126,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>584</v>
       </c>
@@ -7984,7 +8151,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>585</v>
       </c>
@@ -8009,7 +8176,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>586</v>
       </c>
@@ -8034,7 +8201,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>587</v>
       </c>
@@ -8059,7 +8226,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>588</v>
       </c>
@@ -8084,7 +8251,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -8103,7 +8270,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -8128,7 +8295,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
@@ -8147,7 +8314,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -8168,7 +8335,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -8189,7 +8356,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -8210,7 +8377,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -8231,7 +8398,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -8252,7 +8419,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -8277,7 +8444,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -8302,7 +8469,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -8327,7 +8494,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -8352,7 +8519,7 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
@@ -8373,7 +8540,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>322</v>
       </c>
@@ -8394,7 +8561,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -8415,7 +8582,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
         <v>92</v>
       </c>
@@ -8436,7 +8603,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
@@ -8457,7 +8624,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -8478,7 +8645,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -8499,7 +8666,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -8518,7 +8685,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -8543,7 +8710,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -8562,7 +8729,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>95</v>
       </c>
@@ -8587,7 +8754,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -8606,7 +8773,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
@@ -8631,7 +8798,7 @@
       </c>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
         <v>125</v>
       </c>
@@ -8652,7 +8819,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
         <v>126</v>
       </c>
@@ -8673,7 +8840,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
         <v>106</v>
       </c>
@@ -8694,7 +8861,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
         <v>107</v>
       </c>
@@ -8715,7 +8882,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
         <v>111</v>
       </c>
@@ -8736,7 +8903,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -8757,7 +8924,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>109</v>
       </c>
@@ -8778,7 +8945,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
         <v>108</v>
       </c>
@@ -8799,7 +8966,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
         <v>117</v>
       </c>
@@ -8818,7 +8985,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -8843,7 +9010,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>119</v>
       </c>
@@ -8864,7 +9031,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
         <v>268</v>
       </c>
@@ -8885,7 +9052,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
         <v>120</v>
       </c>
@@ -8906,7 +9073,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
         <v>122</v>
       </c>
@@ -8925,7 +9092,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>123</v>
       </c>
@@ -8950,7 +9117,7 @@
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" hidden="1">
+    <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
         <v>128</v>
       </c>
@@ -8971,7 +9138,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" s="4" t="s">
         <v>129</v>
       </c>
@@ -8992,7 +9159,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
         <v>130</v>
       </c>
@@ -9013,7 +9180,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" s="4" t="s">
         <v>133</v>
       </c>
@@ -9034,7 +9201,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
@@ -9055,7 +9222,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
         <v>141</v>
       </c>
@@ -9072,7 +9239,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
         <v>142</v>
       </c>
@@ -9097,7 +9264,7 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
         <v>144</v>
       </c>
@@ -9114,7 +9281,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="4" t="s">
         <v>145</v>
       </c>
@@ -9139,7 +9306,7 @@
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
         <v>147</v>
       </c>
@@ -9156,7 +9323,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
         <v>148</v>
       </c>
@@ -9181,7 +9348,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" s="4" t="s">
         <v>151</v>
       </c>
@@ -9202,7 +9369,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" s="4" t="s">
         <v>152</v>
       </c>
@@ -9223,7 +9390,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>194</v>
       </c>
@@ -9244,7 +9411,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" hidden="1">
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
         <v>189</v>
       </c>
@@ -9265,7 +9432,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" hidden="1">
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>190</v>
       </c>
@@ -9286,7 +9453,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
         <v>191</v>
       </c>
@@ -9307,7 +9474,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
         <v>192</v>
       </c>
@@ -9328,7 +9495,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
         <v>196</v>
       </c>
@@ -9349,7 +9516,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>195</v>
       </c>
@@ -9370,7 +9537,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -9387,7 +9554,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
         <v>197</v>
       </c>
@@ -9412,7 +9579,7 @@
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
@@ -9433,7 +9600,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
@@ -9454,7 +9621,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
         <v>203</v>
       </c>
@@ -9475,7 +9642,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9">
       <c r="A100" s="4" t="s">
         <v>244</v>
       </c>
@@ -9496,7 +9663,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" s="4" t="s">
         <v>323</v>
       </c>
@@ -9517,7 +9684,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" s="4" t="s">
         <v>328</v>
       </c>
@@ -9538,7 +9705,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9">
       <c r="A103" s="4" t="s">
         <v>377</v>
       </c>
@@ -9559,7 +9726,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
         <v>379</v>
       </c>
@@ -9580,7 +9747,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
         <v>456</v>
       </c>
@@ -9601,7 +9768,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" s="4" t="s">
         <v>458</v>
       </c>
@@ -9622,7 +9789,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" s="4" t="s">
         <v>460</v>
       </c>
@@ -9643,7 +9810,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
         <v>503</v>
       </c>
@@ -9664,7 +9831,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
         <v>504</v>
       </c>
@@ -9685,7 +9852,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
         <v>505</v>
       </c>
@@ -9706,7 +9873,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
         <v>506</v>
       </c>
@@ -9731,7 +9898,7 @@
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" hidden="1">
+    <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
         <v>507</v>
       </c>
@@ -9756,7 +9923,7 @@
       </c>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" hidden="1">
+    <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
         <v>508</v>
       </c>
@@ -9781,7 +9948,7 @@
       </c>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" hidden="1">
+    <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
         <v>511</v>
       </c>
@@ -9806,7 +9973,7 @@
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" hidden="1">
+    <row r="115" spans="1:9">
       <c r="A115" s="5" t="s">
         <v>537</v>
       </c>
@@ -9831,7 +9998,7 @@
       </c>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" s="4" t="s">
         <v>538</v>
       </c>
@@ -9856,7 +10023,7 @@
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" s="4" t="s">
         <v>542</v>
       </c>
@@ -9877,7 +10044,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="5" t="s">
         <v>541</v>
       </c>
@@ -9898,7 +10065,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" s="4" t="s">
         <v>269</v>
       </c>
@@ -9919,7 +10086,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
         <v>565</v>
       </c>
@@ -10005,15 +10172,80 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="4">
+        <v>64</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I126" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="107" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A123">
-    <cfRule type="duplicateValues" dxfId="106" priority="20"/>
+  <conditionalFormatting sqref="A2:A126">
+    <cfRule type="duplicateValues" dxfId="109" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10025,10 +10257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="K293" sqref="K293:K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -22482,13 +22714,761 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
+    <row r="284" spans="1:11">
+      <c r="A284" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C284" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>increments(</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'id'</v>
+      </c>
+      <c r="E284" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J284" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K284" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'resource_data'</v>
+      </c>
+      <c r="E285" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J285" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K285" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>string(</v>
+      </c>
+      <c r="D286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'title'</v>
+      </c>
+      <c r="E286" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>, 128)</v>
+      </c>
+      <c r="F286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="G286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J286" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K286" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C287" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>string(</v>
+      </c>
+      <c r="D287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'title_field'</v>
+      </c>
+      <c r="E287" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>, 128)</v>
+      </c>
+      <c r="F287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="G287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J287" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K287" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C288" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E288" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="H288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J288" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K288" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C289" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedTinyInteger(</v>
+      </c>
+      <c r="D289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'colspan'</v>
+      </c>
+      <c r="E289" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;default(12)</v>
+      </c>
+      <c r="G289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J289" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K289" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
+      <c r="A290" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C290" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>timestamps(</v>
+      </c>
+      <c r="D290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v/>
+      </c>
+      <c r="E290" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J290" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K290" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
+      <c r="A291" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C291" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'resource_data'</v>
+      </c>
+      <c r="E291" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_data')</v>
+      </c>
+      <c r="H291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J291" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K291" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
+      <c r="A292" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C292" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E292" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J292" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K292" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
+      <c r="A293" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C293" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>increments(</v>
+      </c>
+      <c r="D293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'id'</v>
+      </c>
+      <c r="E293" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J293" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K293" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C294" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'section'</v>
+      </c>
+      <c r="E294" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J294" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K294" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('section')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C295" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>string(</v>
+      </c>
+      <c r="D295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'label'</v>
+      </c>
+      <c r="E295" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>, 128)</v>
+      </c>
+      <c r="F295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="G295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J295" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K295" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C296" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>string(</v>
+      </c>
+      <c r="D296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'attribute'</v>
+      </c>
+      <c r="E296" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>, 64)</v>
+      </c>
+      <c r="F296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="G296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J296" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K296" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C297" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E297" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="H297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J297" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K297" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>timestamps(</v>
+      </c>
+      <c r="D298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v/>
+      </c>
+      <c r="E298" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J298" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K298" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C299" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'section'</v>
+      </c>
+      <c r="E299" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_data_view_sections')</v>
+      </c>
+      <c r="H299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J299" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K299" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('section')-&gt;references('id')-&gt;on('__resource_data_view_sections')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C300" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E300" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J300" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K300" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B283">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
       <formula1>AvailableFields</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A283">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A300">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -22502,10 +23482,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R227"/>
+  <dimension ref="A1:R231"/>
   <sheetViews>
-    <sheetView topLeftCell="B168" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221:B227"/>
+    <sheetView topLeftCell="B158" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30644,7 +31624,7 @@
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" hidden="1">
       <c r="A221" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-0</v>
@@ -30678,7 +31658,7 @@
       <c r="Q221" s="40"/>
       <c r="R221" s="40"/>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" hidden="1">
       <c r="A222" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-1</v>
@@ -30712,7 +31692,7 @@
       <c r="Q222" s="40"/>
       <c r="R222" s="40"/>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" hidden="1">
       <c r="A223" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-2</v>
@@ -30746,7 +31726,7 @@
       <c r="Q223" s="40"/>
       <c r="R223" s="40"/>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" hidden="1">
       <c r="A224" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-3</v>
@@ -30780,7 +31760,7 @@
       <c r="Q224" s="40"/>
       <c r="R224" s="40"/>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" hidden="1">
       <c r="A225" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-4</v>
@@ -30814,7 +31794,7 @@
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" hidden="1">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-5</v>
@@ -30848,7 +31828,7 @@
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" hidden="1">
       <c r="A227" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-6</v>
@@ -30881,6 +31861,166 @@
       <c r="P227" s="40"/>
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
+    </row>
+    <row r="228" spans="1:18" hidden="1">
+      <c r="A228" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resources-28</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C228" s="22">
+        <f>COUNTIF($B$1:$B227,[Table Name])</f>
+        <v>28</v>
+      </c>
+      <c r="D228" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="E228" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="F228" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="G228" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="H228" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="I228" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J228" s="40"/>
+      <c r="K228" s="40"/>
+      <c r="L228" s="40"/>
+      <c r="M228" s="40"/>
+      <c r="N228" s="40"/>
+      <c r="O228" s="40"/>
+      <c r="P228" s="40"/>
+      <c r="Q228" s="40"/>
+      <c r="R228" s="40"/>
+    </row>
+    <row r="229" spans="1:18">
+      <c r="A229" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-34</v>
+      </c>
+      <c r="B229" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C229" s="22">
+        <f>COUNTIF($B$1:$B228,[Table Name])</f>
+        <v>34</v>
+      </c>
+      <c r="D229" s="40">
+        <v>23</v>
+      </c>
+      <c r="E229" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="F229" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="G229" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="H229" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I229" s="40">
+        <v>28</v>
+      </c>
+      <c r="J229" s="40"/>
+      <c r="K229" s="40"/>
+      <c r="L229" s="40"/>
+      <c r="M229" s="40"/>
+      <c r="N229" s="40"/>
+      <c r="O229" s="40"/>
+      <c r="P229" s="40"/>
+      <c r="Q229" s="40"/>
+      <c r="R229" s="40"/>
+    </row>
+    <row r="230" spans="1:18">
+      <c r="A230" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resources-29</v>
+      </c>
+      <c r="B230" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C230" s="22">
+        <f>COUNTIF($B$1:$B229,[Table Name])</f>
+        <v>29</v>
+      </c>
+      <c r="D230" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="E230" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="F230" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="G230" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="H230" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="I230" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" s="40"/>
+      <c r="K230" s="40"/>
+      <c r="L230" s="40"/>
+      <c r="M230" s="40"/>
+      <c r="N230" s="40"/>
+      <c r="O230" s="40"/>
+      <c r="P230" s="40"/>
+      <c r="Q230" s="40"/>
+      <c r="R230" s="40"/>
+    </row>
+    <row r="231" spans="1:18">
+      <c r="A231" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-35</v>
+      </c>
+      <c r="B231" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C231" s="22">
+        <f>COUNTIF($B$1:$B230,[Table Name])</f>
+        <v>35</v>
+      </c>
+      <c r="D231" s="40">
+        <v>26</v>
+      </c>
+      <c r="E231" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="F231" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="G231" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="H231" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I231" s="40">
+        <v>29</v>
+      </c>
+      <c r="J231" s="40"/>
+      <c r="K231" s="40"/>
+      <c r="L231" s="40"/>
+      <c r="M231" s="40"/>
+      <c r="N231" s="40"/>
+      <c r="O231" s="40"/>
+      <c r="P231" s="40"/>
+      <c r="Q231" s="40"/>
+      <c r="R231" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31366,10 +32506,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32168,9 +33308,65 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="20">
+        <f>IFERROR($A28+1,1)</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G29" s="21" t="str">
+        <f>"id"</f>
+        <v>id</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="20">
+        <f>IFERROR($A29+1,1)</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G30" s="21" t="str">
+        <f>"id"</f>
+        <v>id</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
       <formula1>ActualTableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -32183,10 +33379,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:I34"/>
+      <selection activeCell="D36" sqref="D36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33290,9 +34486,73 @@
         <v>27</v>
       </c>
     </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="20">
+        <f>IFERROR($A34+1,1)</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D35" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I35" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="20">
+        <f>IFERROR($A35+1,1)</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D36" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C36">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -33307,8 +34567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33318,14 +34578,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>600</v>
+        <v>443</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="48" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceFormLayout::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -33469,27 +34729,27 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource_form</v>
+        <v>resource</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>form_field</v>
+        <v>name</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>colspan</v>
+        <v>description</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v/>
+        <v>method</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v/>
+        <v>type</v>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v/>
+        <v>relate_resource</v>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
@@ -33583,7 +34843,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="46" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceFormLayout::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -33612,27 +34872,27 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
+        <v xml:space="preserve">'resource' =&gt; '1', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'form_field' =&gt; '4', </v>
+        <v xml:space="preserve">'name' =&gt; 'User Groups', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '12', </v>
+        <v xml:space="preserve">'description' =&gt; 'Which groups this user belongs to', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33685,27 +34945,27 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
+        <v xml:space="preserve">'resource' =&gt; '2', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'form_field' =&gt; '5', </v>
+        <v xml:space="preserve">'name' =&gt; 'Group Users', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '6', </v>
+        <v xml:space="preserve">'description' =&gt; 'List of users belongs to this group', </v>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Users', </v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '1', </v>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33758,27 +35018,27 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_form' =&gt; '2', </v>
+        <v xml:space="preserve">'resource' =&gt; '2', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'form_field' =&gt; '32', </v>
+        <v xml:space="preserve">'name' =&gt; 'Group Roles', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '6', </v>
+        <v xml:space="preserve">'description' =&gt; 'Roles assigneed to this group', </v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33831,27 +35091,27 @@
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
+        <v xml:space="preserve">'resource' =&gt; '3', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'form_field' =&gt; '6', </v>
+        <v xml:space="preserve">'name' =&gt; 'Role Groups', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '12', </v>
+        <v xml:space="preserve">'description' =&gt; 'Details of groups this role assigned to', </v>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
       </c>
       <c r="I12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33904,27 +35164,27 @@
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
+        <v xml:space="preserve">'resource' =&gt; '3', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'form_field' =&gt; '7', </v>
+        <v xml:space="preserve">'name' =&gt; 'Role Resource', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '0', </v>
+        <v xml:space="preserve">'description' =&gt; 'Resources assigned to a role', </v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resources', </v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '11', </v>
       </c>
       <c r="I13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -33977,27 +35237,27 @@
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource_form' =&gt; '3', </v>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'form_field' =&gt; '33', </v>
+        <v xml:space="preserve">'name' =&gt; 'Resource Roles', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'colspan' =&gt; '0', </v>
+        <v xml:space="preserve">'description' =&gt; 'The details of roles who have access to this resource', </v>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34046,31 +35306,31 @@
       </c>
       <c r="B15" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Actions', </v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Get actions available for the resource', </v>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Actions', </v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '7', </v>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34110,7 +35370,7 @@
       </c>
       <c r="R15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -34119,31 +35379,31 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Methods', </v>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Handler details of an action', </v>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Method', </v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '8', </v>
       </c>
       <c r="I16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34183,7 +35443,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -34192,31 +35452,31 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Lists', </v>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Lists where action available', </v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Lists', </v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '9', </v>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34256,7 +35516,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -34265,31 +35525,31 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Data', </v>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource data where action available', </v>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Data', </v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '10', </v>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34329,7 +35589,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -34338,31 +35598,31 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '5', </v>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Organisation Contacts', </v>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Contact details of organisation', </v>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Contacts', </v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '6', </v>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34402,7 +35662,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -34411,31 +35671,31 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '11', </v>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource details', </v>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34475,7 +35735,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -34484,31 +35744,31 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Forms', </v>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Forms available for a resource', </v>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Forms', </v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
       </c>
       <c r="I21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34548,7 +35808,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -34557,31 +35817,31 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Fields', </v>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Fields associated with a form', </v>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Fields', </v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
       </c>
       <c r="I22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34621,7 +35881,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -34630,31 +35890,31 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Attributes', </v>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Attributes of Field', </v>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Attributes', </v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '14', </v>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34694,7 +35954,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -34703,31 +35963,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Options', </v>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Options of Field', </v>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Options', </v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '15', </v>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -34767,7 +36027,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -34776,31 +36036,31 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Validations', </v>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Validation details of field', </v>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Validations', </v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ref="H25:K88" ca="1" si="4">IF(AND($B25=$S$4,H$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)="","","'"&amp;H$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)&amp;"', "),"")</f>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '16', </v>
       </c>
       <c r="I25" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34840,7 +36100,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -34849,31 +36109,31 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'From Resource', </v>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource this form belongs to', </v>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34913,7 +36173,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -34922,31 +36182,31 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Defaults', </v>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Predefined values for a form', </v>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Defaults', </v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '17', </v>
       </c>
       <c r="I27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -34986,7 +36246,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -34995,31 +36255,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Data', </v>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Fields Database binding details', </v>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Data', </v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '18', </v>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35059,7 +36319,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -35068,31 +36328,31 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Relations', </v>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relation of  a resource to another resource', </v>
       </c>
       <c r="F29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35132,7 +36392,7 @@
       </c>
       <c r="R29" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -35141,31 +36401,31 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '18', </v>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Bind Data Resource', </v>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource to which the data to be bind', </v>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35205,7 +36465,7 @@
       </c>
       <c r="R30" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -35214,31 +36474,31 @@
       </c>
       <c r="B31" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '17', </v>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Default Data Resource', </v>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource to which the forms predefined data to be bind', </v>
       </c>
       <c r="F31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35278,7 +36538,7 @@
       </c>
       <c r="R31" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -35287,31 +36547,31 @@
       </c>
       <c r="B32" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource details of a list', </v>
       </c>
       <c r="F32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35351,7 +36611,7 @@
       </c>
       <c r="R32" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -35360,31 +36620,31 @@
       </c>
       <c r="B33" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Relations', </v>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on accessing list', </v>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '20', </v>
       </c>
       <c r="I33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35424,7 +36684,7 @@
       </c>
       <c r="R33" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -35433,31 +36693,31 @@
       </c>
       <c r="B34" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Scopes', </v>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Scopes available on a Resource', </v>
       </c>
       <c r="F34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
       </c>
       <c r="I34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35497,7 +36757,7 @@
       </c>
       <c r="R34" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -35506,31 +36766,31 @@
       </c>
       <c r="B35" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Scopes', </v>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Scopes by which a list to be filtered', </v>
       </c>
       <c r="F35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35570,7 +36830,7 @@
       </c>
       <c r="R35" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -35579,31 +36839,31 @@
       </c>
       <c r="B36" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on a data view', </v>
       </c>
       <c r="F36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '24', </v>
       </c>
       <c r="I36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35643,7 +36903,7 @@
       </c>
       <c r="R36" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -35652,31 +36912,31 @@
       </c>
       <c r="B37" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Details of resource of a record', </v>
       </c>
       <c r="F37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35716,7 +36976,7 @@
       </c>
       <c r="R37" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -35725,31 +36985,31 @@
       </c>
       <c r="B38" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Layout', </v>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Layout of a list', </v>
       </c>
       <c r="F38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '25', </v>
       </c>
       <c r="I38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35789,7 +37049,7 @@
       </c>
       <c r="R38" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -35798,31 +37058,31 @@
       </c>
       <c r="B39" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Nested Relation', </v>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Nested Relation', </v>
       </c>
       <c r="F39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Nest', </v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35862,7 +37122,7 @@
       </c>
       <c r="R39" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -35871,31 +37131,31 @@
       </c>
       <c r="B40" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Related Resource', </v>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Related Resource Details', </v>
       </c>
       <c r="F40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -35935,7 +37195,7 @@
       </c>
       <c r="R40" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -35944,31 +37204,31 @@
       </c>
       <c r="B41" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Layout', </v>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Layout details', </v>
       </c>
       <c r="F41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '27', </v>
       </c>
       <c r="I41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36008,7 +37268,7 @@
       </c>
       <c r="R41" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -36017,31 +37277,31 @@
       </c>
       <c r="B42" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data View Section', </v>
       </c>
       <c r="E42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Section details of data view', </v>
       </c>
       <c r="F42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Sections', </v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '28', </v>
       </c>
       <c r="I42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36081,7 +37341,7 @@
       </c>
       <c r="R42" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -36090,31 +37350,31 @@
       </c>
       <c r="B43" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data View Section Items', </v>
       </c>
       <c r="E43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Items of a data view section', </v>
       </c>
       <c r="F43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Items', </v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '29', </v>
       </c>
       <c r="I43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36154,7 +37414,7 @@
       </c>
       <c r="R43" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -36163,7 +37423,7 @@
       </c>
       <c r="B44" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>;</v>
       </c>
       <c r="C44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -36236,7 +37496,7 @@
       </c>
       <c r="B45" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="625">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1904,6 +1904,15 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>View relation of a data</t>
+  </si>
+  <si>
+    <t>Data item relation</t>
+  </si>
+  <si>
+    <t>View relation of a data item</t>
   </si>
 </sst>
 </file>
@@ -2130,200 +2139,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3642,6 +3458,163 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3904,35 +3877,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="119">
   <autoFilter ref="A1:J35"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="121"/>
-    <tableColumn id="10" name="Table" dataDxfId="120">
+    <tableColumn id="2" name="Name" dataDxfId="118"/>
+    <tableColumn id="10" name="Table" dataDxfId="117">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="119">
+    <tableColumn id="5" name="Singular Name" dataDxfId="116">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="118">
+    <tableColumn id="8" name="Model NS" dataDxfId="115">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="117">
+    <tableColumn id="4" name="Class Name" dataDxfId="114">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="116">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="113">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="115">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="112">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="114">
+    <tableColumn id="3" name="Model Statement" dataDxfId="111">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="113">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="110">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="112">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="109">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3941,56 +3914,56 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="30">
+    <tableColumn id="1" name="No" dataDxfId="15">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="29"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="28">
+    <tableColumn id="2" name="Resource" dataDxfId="14"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="27"/>
-    <tableColumn id="4" name="Description" dataDxfId="26"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="25"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="24"/>
-    <tableColumn id="7" name="Menu" dataDxfId="23"/>
-    <tableColumn id="8" name="Icon" dataDxfId="22"/>
-    <tableColumn id="9" name="Set" dataDxfId="21"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="20"/>
-    <tableColumn id="15" name="ID1" dataDxfId="19"/>
-    <tableColumn id="16" name="ID2" dataDxfId="18"/>
-    <tableColumn id="10" name="On" dataDxfId="17"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="16"/>
-    <tableColumn id="12" name="handler" dataDxfId="15"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
+    <tableColumn id="7" name="Menu" dataDxfId="8"/>
+    <tableColumn id="8" name="Icon" dataDxfId="7"/>
+    <tableColumn id="9" name="Set" dataDxfId="6"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
+    <tableColumn id="15" name="ID1" dataDxfId="4"/>
+    <tableColumn id="16" name="ID2" dataDxfId="3"/>
+    <tableColumn id="10" name="On" dataDxfId="2"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
+    <tableColumn id="12" name="handler" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I126" totalsRowShown="0" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I126" totalsRowShown="0" dataDxfId="105">
   <autoFilter ref="A1:I126">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="107"/>
-    <tableColumn id="2" name="Type" dataDxfId="106"/>
-    <tableColumn id="3" name="Name" dataDxfId="105"/>
-    <tableColumn id="4" name="Length" dataDxfId="104"/>
-    <tableColumn id="5" name="Method1" dataDxfId="103"/>
-    <tableColumn id="6" name="Method2" dataDxfId="102"/>
-    <tableColumn id="7" name="Method3" dataDxfId="101"/>
-    <tableColumn id="8" name="Method4" dataDxfId="100"/>
-    <tableColumn id="9" name="Method5" dataDxfId="99"/>
+    <tableColumn id="1" name="Column" dataDxfId="104"/>
+    <tableColumn id="2" name="Type" dataDxfId="103"/>
+    <tableColumn id="3" name="Name" dataDxfId="102"/>
+    <tableColumn id="4" name="Length" dataDxfId="101"/>
+    <tableColumn id="5" name="Method1" dataDxfId="100"/>
+    <tableColumn id="6" name="Method2" dataDxfId="99"/>
+    <tableColumn id="7" name="Method3" dataDxfId="98"/>
+    <tableColumn id="8" name="Method4" dataDxfId="97"/>
+    <tableColumn id="9" name="Method5" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K300" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K300" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:K300">
     <filterColumn colId="0">
       <filters>
@@ -3999,33 +3972,33 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="13"/>
-    <tableColumn id="3" name="Field" dataDxfId="12"/>
-    <tableColumn id="5" name="Type" dataDxfId="11">
+    <tableColumn id="2" name="Table" dataDxfId="94"/>
+    <tableColumn id="3" name="Field" dataDxfId="93"/>
+    <tableColumn id="5" name="Type" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="10">
+    <tableColumn id="4" name="Name" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="9">
+    <tableColumn id="6" name="Arg2" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="8">
+    <tableColumn id="7" name="Method1" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="7">
+    <tableColumn id="8" name="Method2" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="6">
+    <tableColumn id="9" name="Method3" dataDxfId="87">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="5">
+    <tableColumn id="10" name="Method4" dataDxfId="86">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="4">
+    <tableColumn id="11" name="Method5" dataDxfId="85">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="3">
+    <tableColumn id="12" name="Statement" dataDxfId="84">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4034,8 +4007,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R231" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <autoFilter ref="A1:R231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R233" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R233">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4043,46 +4016,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="96">
+    <tableColumn id="19" name="TRCode" dataDxfId="81">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="95"/>
-    <tableColumn id="2" name="Record No" dataDxfId="94">
+    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
+    <tableColumn id="2" name="Record No" dataDxfId="79">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="93"/>
-    <tableColumn id="4" name="2" dataDxfId="92"/>
-    <tableColumn id="5" name="3" dataDxfId="91"/>
-    <tableColumn id="6" name="4" dataDxfId="90"/>
-    <tableColumn id="7" name="5" dataDxfId="89"/>
-    <tableColumn id="8" name="6" dataDxfId="88"/>
-    <tableColumn id="9" name="7" dataDxfId="87"/>
-    <tableColumn id="10" name="8" dataDxfId="86"/>
-    <tableColumn id="11" name="9" dataDxfId="85"/>
-    <tableColumn id="12" name="10" dataDxfId="84"/>
-    <tableColumn id="13" name="11" dataDxfId="83"/>
-    <tableColumn id="14" name="12" dataDxfId="82"/>
-    <tableColumn id="15" name="13" dataDxfId="81"/>
-    <tableColumn id="16" name="14" dataDxfId="80"/>
-    <tableColumn id="17" name="15" dataDxfId="79"/>
+    <tableColumn id="3" name="1" dataDxfId="78"/>
+    <tableColumn id="4" name="2" dataDxfId="77"/>
+    <tableColumn id="5" name="3" dataDxfId="76"/>
+    <tableColumn id="6" name="4" dataDxfId="75"/>
+    <tableColumn id="7" name="5" dataDxfId="74"/>
+    <tableColumn id="8" name="6" dataDxfId="73"/>
+    <tableColumn id="9" name="7" dataDxfId="72"/>
+    <tableColumn id="10" name="8" dataDxfId="71"/>
+    <tableColumn id="11" name="9" dataDxfId="70"/>
+    <tableColumn id="12" name="10" dataDxfId="69"/>
+    <tableColumn id="13" name="11" dataDxfId="68"/>
+    <tableColumn id="14" name="12" dataDxfId="67"/>
+    <tableColumn id="15" name="13" dataDxfId="66"/>
+    <tableColumn id="16" name="14" dataDxfId="65"/>
+    <tableColumn id="17" name="15" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="63">
   <autoFilter ref="A1:E22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="77"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="76"/>
-    <tableColumn id="20" name="NS" dataDxfId="75">
+    <tableColumn id="1" name="Name" dataDxfId="62"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
+    <tableColumn id="20" name="NS" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="74">
+    <tableColumn id="21" name="Model" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="73">
+    <tableColumn id="4" name="Query Method" dataDxfId="58">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4091,46 +4064,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:I30"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="71">
+    <tableColumn id="1" name="No" dataDxfId="56">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="70"/>
-    <tableColumn id="3" name="Description" dataDxfId="69"/>
-    <tableColumn id="4" name="Title" dataDxfId="68"/>
-    <tableColumn id="5" name="NS" dataDxfId="67">
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Title" dataDxfId="53"/>
+    <tableColumn id="5" name="NS" dataDxfId="52">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="66"/>
-    <tableColumn id="7" name="Key" dataDxfId="65">
+    <tableColumn id="6" name="Table" dataDxfId="51"/>
+    <tableColumn id="7" name="Key" dataDxfId="50">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="64"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="63"/>
+    <tableColumn id="8" name="Controller" dataDxfId="49"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I36" totalsRowShown="0" dataDxfId="62">
-  <autoFilter ref="A1:I36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I38" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I38"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="61">
+    <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="60"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="59"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="58">
+    <tableColumn id="3" name="Resource" dataDxfId="45"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="57"/>
-    <tableColumn id="6" name="Description" dataDxfId="56"/>
-    <tableColumn id="7" name="Method" dataDxfId="55"/>
-    <tableColumn id="8" name="Type" dataDxfId="54"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="53">
+    <tableColumn id="5" name="Name" dataDxfId="42"/>
+    <tableColumn id="6" name="Description" dataDxfId="41"/>
+    <tableColumn id="7" name="Method" dataDxfId="40"/>
+    <tableColumn id="8" name="Type" dataDxfId="39"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4139,47 +4112,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="37">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="51">
+    <tableColumn id="1" name="No" dataDxfId="36">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="50"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="49">
+    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="48"/>
-    <tableColumn id="6" name="Title" dataDxfId="47"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="46"/>
-    <tableColumn id="8" name="Description" dataDxfId="45"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
+    <tableColumn id="6" name="Title" dataDxfId="32"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
+    <tableColumn id="8" name="Description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="43">
+    <tableColumn id="9" name="No" dataDxfId="28">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="42"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="41">
+    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="40"/>
-    <tableColumn id="2" name="Type" dataDxfId="39"/>
-    <tableColumn id="5" name="Label" dataDxfId="38"/>
-    <tableColumn id="6" name="Collection" dataDxfId="37"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="36">
+    <tableColumn id="4" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" name="Label" dataDxfId="23"/>
+    <tableColumn id="6" name="Collection" dataDxfId="22"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="21">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="35"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="34"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="33"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="32"/>
+    <tableColumn id="10" name="Relation" dataDxfId="20"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4472,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+    <sheetView topLeftCell="G11" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -10239,13 +10212,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="111" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="110" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A126">
-    <cfRule type="duplicateValues" dxfId="109" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -23482,10 +23455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R231"/>
+  <dimension ref="A1:R233"/>
   <sheetViews>
     <sheetView topLeftCell="B158" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32021,6 +31994,86 @@
       <c r="P231" s="40"/>
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
+    </row>
+    <row r="232" spans="1:18">
+      <c r="A232" s="42" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-36</v>
+      </c>
+      <c r="B232" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C232" s="42">
+        <f>COUNTIF($B$1:$B231,[Table Name])</f>
+        <v>36</v>
+      </c>
+      <c r="D232" s="43">
+        <v>28</v>
+      </c>
+      <c r="E232" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="F232" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="G232" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H232" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="I232" s="43">
+        <v>26</v>
+      </c>
+      <c r="J232" s="43"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
+      <c r="M232" s="43"/>
+      <c r="N232" s="43"/>
+      <c r="O232" s="43"/>
+      <c r="P232" s="43"/>
+      <c r="Q232" s="43"/>
+      <c r="R232" s="43"/>
+    </row>
+    <row r="233" spans="1:18">
+      <c r="A233" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-37</v>
+      </c>
+      <c r="B233" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C233" s="22">
+        <f>COUNTIF($B$1:$B232,[Table Name])</f>
+        <v>37</v>
+      </c>
+      <c r="D233" s="40">
+        <v>29</v>
+      </c>
+      <c r="E233" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="F233" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G233" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H233" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I233" s="40">
+        <v>26</v>
+      </c>
+      <c r="J233" s="40"/>
+      <c r="K233" s="40"/>
+      <c r="L233" s="40"/>
+      <c r="M233" s="40"/>
+      <c r="N233" s="40"/>
+      <c r="O233" s="40"/>
+      <c r="P233" s="40"/>
+      <c r="Q233" s="40"/>
+      <c r="R233" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33170,7 +33223,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="20">
-        <f>IFERROR($A23+1,1)</f>
+        <f t="shared" ref="A24:A30" si="8">IFERROR($A23+1,1)</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -33198,7 +33251,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="20">
-        <f>IFERROR($A24+1,1)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -33226,7 +33279,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12">
-        <f>IFERROR($A25+1,1)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -33254,7 +33307,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="20">
-        <f>IFERROR($A26+1,1)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -33282,7 +33335,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="20">
-        <f>IFERROR($A27+1,1)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -33310,7 +33363,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="20">
-        <f>IFERROR($A28+1,1)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -33338,7 +33391,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="20">
-        <f>IFERROR($A29+1,1)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -33379,10 +33432,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:I36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34360,7 +34413,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12">
-        <f>IFERROR($A30+1,1)</f>
+        <f t="shared" ref="A31:A36" si="5">IFERROR($A30+1,1)</f>
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -34392,7 +34445,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="20">
-        <f>IFERROR($A31+1,1)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -34424,7 +34477,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="20">
-        <f>IFERROR($A32+1,1)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -34456,7 +34509,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="20">
-        <f>IFERROR($A33+1,1)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -34488,7 +34541,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="20">
-        <f>IFERROR($A34+1,1)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -34520,7 +34573,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="20">
-        <f>IFERROR($A35+1,1)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -34550,9 +34603,73 @@
         <v>29</v>
       </c>
     </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="20">
+        <f>IFERROR($A36+1,1)</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D37" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="20">
+        <f>IFERROR($A37+1,1)</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I38" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C38">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -34567,8 +34684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37423,31 +37540,31 @@
       </c>
       <c r="B44" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '28', </v>
       </c>
       <c r="D44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
       </c>
       <c r="E44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'View relation of a data', </v>
       </c>
       <c r="F44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37487,7 +37604,7 @@
       </c>
       <c r="R44" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -37496,31 +37613,31 @@
       </c>
       <c r="B45" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '29', </v>
       </c>
       <c r="D45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data item relation', </v>
       </c>
       <c r="E45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'View relation of a data item', </v>
       </c>
       <c r="F45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37560,7 +37677,7 @@
       </c>
       <c r="R45" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -37569,7 +37686,7 @@
       </c>
       <c r="B46" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>;</v>
       </c>
       <c r="C46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37642,7 +37759,7 @@
       </c>
       <c r="B47" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="625">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -4007,8 +4007,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R233" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R245" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R245">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4044,8 +4044,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E22" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E24" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E24"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="62"/>
     <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
@@ -23455,10 +23455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView topLeftCell="B158" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView topLeftCell="B218" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32075,6 +32075,422 @@
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
     </row>
+    <row r="234" spans="1:18">
+      <c r="A234" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section-0</v>
+      </c>
+      <c r="B234" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C234" s="22">
+        <f>COUNTIF($B$1:$B233,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G234" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H234" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="I234" s="40"/>
+      <c r="J234" s="40"/>
+      <c r="K234" s="40"/>
+      <c r="L234" s="40"/>
+      <c r="M234" s="40"/>
+      <c r="N234" s="40"/>
+      <c r="O234" s="40"/>
+      <c r="P234" s="40"/>
+      <c r="Q234" s="40"/>
+      <c r="R234" s="40"/>
+    </row>
+    <row r="235" spans="1:18">
+      <c r="A235" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section-1</v>
+      </c>
+      <c r="B235" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C235" s="22">
+        <f>COUNTIF($B$1:$B234,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D235" s="40">
+        <v>1</v>
+      </c>
+      <c r="E235" s="40"/>
+      <c r="F235" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G235" s="40"/>
+      <c r="H235" s="40">
+        <v>12</v>
+      </c>
+      <c r="I235" s="40"/>
+      <c r="J235" s="40"/>
+      <c r="K235" s="40"/>
+      <c r="L235" s="40"/>
+      <c r="M235" s="40"/>
+      <c r="N235" s="40"/>
+      <c r="O235" s="40"/>
+      <c r="P235" s="40"/>
+      <c r="Q235" s="40"/>
+      <c r="R235" s="40"/>
+    </row>
+    <row r="236" spans="1:18">
+      <c r="A236" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section-2</v>
+      </c>
+      <c r="B236" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C236" s="22">
+        <f>COUNTIF($B$1:$B235,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D236" s="40">
+        <v>2</v>
+      </c>
+      <c r="E236" s="40"/>
+      <c r="F236" s="40"/>
+      <c r="G236" s="40"/>
+      <c r="H236" s="40">
+        <v>4</v>
+      </c>
+      <c r="I236" s="40"/>
+      <c r="J236" s="40"/>
+      <c r="K236" s="40"/>
+      <c r="L236" s="40"/>
+      <c r="M236" s="40"/>
+      <c r="N236" s="40"/>
+      <c r="O236" s="40"/>
+      <c r="P236" s="40"/>
+      <c r="Q236" s="40"/>
+      <c r="R236" s="40"/>
+    </row>
+    <row r="237" spans="1:18">
+      <c r="A237" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section-3</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="C237" s="22">
+        <f>COUNTIF($B$1:$B236,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D237" s="40">
+        <v>2</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F237" s="40"/>
+      <c r="G237" s="40">
+        <v>1</v>
+      </c>
+      <c r="H237" s="40">
+        <v>8</v>
+      </c>
+      <c r="I237" s="40"/>
+      <c r="J237" s="40"/>
+      <c r="K237" s="40"/>
+      <c r="L237" s="40"/>
+      <c r="M237" s="40"/>
+      <c r="N237" s="40"/>
+      <c r="O237" s="40"/>
+      <c r="P237" s="40"/>
+      <c r="Q237" s="40"/>
+      <c r="R237" s="40"/>
+    </row>
+    <row r="238" spans="1:18">
+      <c r="A238" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-0</v>
+      </c>
+      <c r="B238" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C238" s="22">
+        <f>COUNTIF($B$1:$B237,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D238" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F238" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G238" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H238" s="40"/>
+      <c r="I238" s="40"/>
+      <c r="J238" s="40"/>
+      <c r="K238" s="40"/>
+      <c r="L238" s="40"/>
+      <c r="M238" s="40"/>
+      <c r="N238" s="40"/>
+      <c r="O238" s="40"/>
+      <c r="P238" s="40"/>
+      <c r="Q238" s="40"/>
+      <c r="R238" s="40"/>
+    </row>
+    <row r="239" spans="1:18">
+      <c r="A239" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-1</v>
+      </c>
+      <c r="B239" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C239" s="22">
+        <f>COUNTIF($B$1:$B238,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D239" s="40">
+        <v>1</v>
+      </c>
+      <c r="E239" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="40"/>
+      <c r="H239" s="40"/>
+      <c r="I239" s="40"/>
+      <c r="J239" s="40"/>
+      <c r="K239" s="40"/>
+      <c r="L239" s="40"/>
+      <c r="M239" s="40"/>
+      <c r="N239" s="40"/>
+      <c r="O239" s="40"/>
+      <c r="P239" s="40"/>
+      <c r="Q239" s="40"/>
+      <c r="R239" s="40"/>
+    </row>
+    <row r="240" spans="1:18">
+      <c r="A240" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-2</v>
+      </c>
+      <c r="B240" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C240" s="22">
+        <f>COUNTIF($B$1:$B239,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D240" s="40">
+        <v>1</v>
+      </c>
+      <c r="E240" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F240" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G240" s="40"/>
+      <c r="H240" s="40"/>
+      <c r="I240" s="40"/>
+      <c r="J240" s="40"/>
+      <c r="K240" s="40"/>
+      <c r="L240" s="40"/>
+      <c r="M240" s="40"/>
+      <c r="N240" s="40"/>
+      <c r="O240" s="40"/>
+      <c r="P240" s="40"/>
+      <c r="Q240" s="40"/>
+      <c r="R240" s="40"/>
+    </row>
+    <row r="241" spans="1:18">
+      <c r="A241" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-3</v>
+      </c>
+      <c r="B241" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C241" s="22">
+        <f>COUNTIF($B$1:$B240,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D241" s="40">
+        <v>1</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G241" s="40">
+        <v>1</v>
+      </c>
+      <c r="H241" s="40"/>
+      <c r="I241" s="40"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="40"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+    </row>
+    <row r="242" spans="1:18">
+      <c r="A242" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-4</v>
+      </c>
+      <c r="B242" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C242" s="22">
+        <f>COUNTIF($B$1:$B241,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D242" s="40">
+        <v>2</v>
+      </c>
+      <c r="E242" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="40"/>
+      <c r="H242" s="40"/>
+      <c r="I242" s="40"/>
+      <c r="J242" s="40"/>
+      <c r="K242" s="40"/>
+      <c r="L242" s="40"/>
+      <c r="M242" s="40"/>
+      <c r="N242" s="40"/>
+      <c r="O242" s="40"/>
+      <c r="P242" s="40"/>
+      <c r="Q242" s="40"/>
+      <c r="R242" s="40"/>
+    </row>
+    <row r="243" spans="1:18">
+      <c r="A243" s="42" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-5</v>
+      </c>
+      <c r="B243" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C243" s="42">
+        <f>COUNTIF($B$1:$B242,[Table Name])</f>
+        <v>5</v>
+      </c>
+      <c r="D243" s="43">
+        <v>2</v>
+      </c>
+      <c r="E243" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F243" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
+      <c r="I243" s="43"/>
+      <c r="J243" s="43"/>
+      <c r="K243" s="43"/>
+      <c r="L243" s="43"/>
+      <c r="M243" s="43"/>
+      <c r="N243" s="43"/>
+      <c r="O243" s="43"/>
+      <c r="P243" s="43"/>
+      <c r="Q243" s="43"/>
+      <c r="R243" s="43"/>
+    </row>
+    <row r="244" spans="1:18">
+      <c r="A244" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-6</v>
+      </c>
+      <c r="B244" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C244" s="22">
+        <f>COUNTIF($B$1:$B243,[Table Name])</f>
+        <v>6</v>
+      </c>
+      <c r="D244" s="40">
+        <v>3</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F244" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G244" s="40"/>
+      <c r="H244" s="40"/>
+      <c r="I244" s="40"/>
+      <c r="J244" s="40"/>
+      <c r="K244" s="40"/>
+      <c r="L244" s="40"/>
+      <c r="M244" s="40"/>
+      <c r="N244" s="40"/>
+      <c r="O244" s="40"/>
+      <c r="P244" s="40"/>
+      <c r="Q244" s="40"/>
+      <c r="R244" s="40"/>
+    </row>
+    <row r="245" spans="1:18">
+      <c r="A245" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data View Section Items-7</v>
+      </c>
+      <c r="B245" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="C245" s="22">
+        <f>COUNTIF($B$1:$B244,[Table Name])</f>
+        <v>7</v>
+      </c>
+      <c r="D245" s="40">
+        <v>3</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F245" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" s="40"/>
+      <c r="H245" s="40"/>
+      <c r="I245" s="40"/>
+      <c r="J245" s="40"/>
+      <c r="K245" s="40"/>
+      <c r="L245" s="40"/>
+      <c r="M245" s="40"/>
+      <c r="N245" s="40"/>
+      <c r="O245" s="40"/>
+      <c r="P245" s="40"/>
+      <c r="Q245" s="40"/>
+      <c r="R245" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -32086,10 +32502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32540,12 +32956,52 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceDataViewSection</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceDataViewSectionItem</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -34684,8 +35140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34695,14 +35151,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>443</v>
+        <v>619</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="48" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceDataViewSectionItem::truncate()</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -34846,27 +35302,27 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource</v>
+        <v>section</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>name</v>
+        <v>label</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>description</v>
+        <v>attribute</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>method</v>
+        <v>relation</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v>type</v>
+        <v/>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v>relate_resource</v>
+        <v/>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
@@ -34960,7 +35416,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="46" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceDataViewSectionItem::truncate()</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -34989,27 +35445,27 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '1', </v>
+        <v xml:space="preserve">'section' =&gt; '1', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'name' =&gt; 'User Groups', </v>
+        <v xml:space="preserve">'label' =&gt; 'Name', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Which groups this user belongs to', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'name', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35062,27 +35518,27 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v xml:space="preserve">'section' =&gt; '1', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Users', </v>
+        <v xml:space="preserve">'label' =&gt; 'Email', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'List of users belongs to this group', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'email', </v>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Users', </v>
+        <v/>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35135,27 +35591,27 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v xml:space="preserve">'section' =&gt; '1', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Roles', </v>
+        <v xml:space="preserve">'label' =&gt; 'Groups', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Roles assigneed to this group', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'title', </v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v xml:space="preserve">'relation' =&gt; '1', </v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35208,27 +35664,27 @@
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v xml:space="preserve">'section' =&gt; '2', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Groups', </v>
+        <v xml:space="preserve">'label' =&gt; 'Name', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of groups this role assigned to', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'name', </v>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35281,27 +35737,27 @@
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v xml:space="preserve">'section' =&gt; '2', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Resource', </v>
+        <v xml:space="preserve">'label' =&gt; 'Email', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resources assigned to a role', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'email', </v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resources', </v>
+        <v/>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="I13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35354,27 +35810,27 @@
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v xml:space="preserve">'section' =&gt; '3', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Roles', </v>
+        <v xml:space="preserve">'label' =&gt; 'Group', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'The details of roles who have access to this resource', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'title', </v>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v/>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35427,27 +35883,27 @@
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v xml:space="preserve">'section' =&gt; '3', </v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Actions', </v>
+        <v xml:space="preserve">'label' =&gt; 'Description', </v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Get actions available for the resource', </v>
+        <v xml:space="preserve">'attribute' =&gt; 'description', </v>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Actions', </v>
+        <v/>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35496,31 +35952,31 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>;</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Methods', </v>
+        <v/>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Handler details of an action', </v>
+        <v/>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Method', </v>
+        <v/>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '8', </v>
+        <v/>
       </c>
       <c r="I16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35560,7 +36016,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -35569,31 +36025,31 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Lists', </v>
+        <v/>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Lists where action available', </v>
+        <v/>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Lists', </v>
+        <v/>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '9', </v>
+        <v/>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35633,7 +36089,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -35642,31 +36098,31 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Data', </v>
+        <v/>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource data where action available', </v>
+        <v/>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '10', </v>
+        <v/>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35706,7 +36162,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -35715,31 +36171,31 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '5', </v>
+        <v/>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Organisation Contacts', </v>
+        <v/>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Contact details of organisation', </v>
+        <v/>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Contacts', </v>
+        <v/>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '6', </v>
+        <v/>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35779,7 +36235,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -35788,31 +36244,31 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details', </v>
+        <v/>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35852,7 +36308,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -35861,31 +36317,31 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Forms', </v>
+        <v/>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Forms available for a resource', </v>
+        <v/>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Forms', </v>
+        <v/>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="I21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35925,7 +36381,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -35934,31 +36390,31 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Fields', </v>
+        <v/>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields associated with a form', </v>
+        <v/>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Fields', </v>
+        <v/>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="I22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35998,7 +36454,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -36007,31 +36463,31 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Attributes', </v>
+        <v/>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Attributes of Field', </v>
+        <v/>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Attributes', </v>
+        <v/>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '14', </v>
+        <v/>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36071,7 +36527,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -36080,31 +36536,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Options', </v>
+        <v/>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Options of Field', </v>
+        <v/>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Options', </v>
+        <v/>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '15', </v>
+        <v/>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36144,7 +36600,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -36153,31 +36609,31 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Validations', </v>
+        <v/>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Validation details of field', </v>
+        <v/>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Validations', </v>
+        <v/>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ref="H25:K88" ca="1" si="4">IF(AND($B25=$S$4,H$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)="","","'"&amp;H$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'relate_resource' =&gt; '16', </v>
+        <v/>
       </c>
       <c r="I25" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36217,7 +36673,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -36226,31 +36682,31 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'From Resource', </v>
+        <v/>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource this form belongs to', </v>
+        <v/>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36290,7 +36746,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -36299,31 +36755,31 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Defaults', </v>
+        <v/>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Predefined values for a form', </v>
+        <v/>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Defaults', </v>
+        <v/>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="I27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36363,7 +36819,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -36372,31 +36828,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Data', </v>
+        <v/>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields Database binding details', </v>
+        <v/>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36436,7 +36892,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -36445,31 +36901,31 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Relations', </v>
+        <v/>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relation of  a resource to another resource', </v>
+        <v/>
       </c>
       <c r="F29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36509,7 +36965,7 @@
       </c>
       <c r="R29" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -36518,31 +36974,31 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Bind Data Resource', </v>
+        <v/>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the data to be bind', </v>
+        <v/>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36582,7 +37038,7 @@
       </c>
       <c r="R30" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -36591,31 +37047,31 @@
       </c>
       <c r="B31" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Default Data Resource', </v>
+        <v/>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the forms predefined data to be bind', </v>
+        <v/>
       </c>
       <c r="F31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36655,7 +37111,7 @@
       </c>
       <c r="R31" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -36664,31 +37120,31 @@
       </c>
       <c r="B32" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details of a list', </v>
+        <v/>
       </c>
       <c r="F32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36728,7 +37184,7 @@
       </c>
       <c r="R32" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -36737,31 +37193,31 @@
       </c>
       <c r="B33" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Relations', </v>
+        <v/>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on accessing list', </v>
+        <v/>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '20', </v>
+        <v/>
       </c>
       <c r="I33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36801,7 +37257,7 @@
       </c>
       <c r="R33" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -36810,31 +37266,31 @@
       </c>
       <c r="B34" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Scopes', </v>
+        <v/>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes available on a Resource', </v>
+        <v/>
       </c>
       <c r="F34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36874,7 +37330,7 @@
       </c>
       <c r="R34" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -36883,31 +37339,31 @@
       </c>
       <c r="B35" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Scopes', </v>
+        <v/>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes by which a list to be filtered', </v>
+        <v/>
       </c>
       <c r="F35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36947,7 +37403,7 @@
       </c>
       <c r="R35" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -36956,31 +37412,31 @@
       </c>
       <c r="B36" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
+        <v/>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on a data view', </v>
+        <v/>
       </c>
       <c r="F36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '24', </v>
+        <v/>
       </c>
       <c r="I36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37020,7 +37476,7 @@
       </c>
       <c r="R36" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -37029,31 +37485,31 @@
       </c>
       <c r="B37" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of resource of a record', </v>
+        <v/>
       </c>
       <c r="F37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37093,7 +37549,7 @@
       </c>
       <c r="R37" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -37102,31 +37558,31 @@
       </c>
       <c r="B38" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Layout', </v>
+        <v/>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout of a list', </v>
+        <v/>
       </c>
       <c r="F38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '25', </v>
+        <v/>
       </c>
       <c r="I38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37166,7 +37622,7 @@
       </c>
       <c r="R38" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -37175,31 +37631,31 @@
       </c>
       <c r="B39" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="F39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Nest', </v>
+        <v/>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37239,7 +37695,7 @@
       </c>
       <c r="R39" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -37248,31 +37704,31 @@
       </c>
       <c r="B40" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Related Resource', </v>
+        <v/>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Related Resource Details', </v>
+        <v/>
       </c>
       <c r="F40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37312,7 +37768,7 @@
       </c>
       <c r="R40" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -37321,31 +37777,31 @@
       </c>
       <c r="B41" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Layout', </v>
+        <v/>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout details', </v>
+        <v/>
       </c>
       <c r="F41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '27', </v>
+        <v/>
       </c>
       <c r="I41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37385,7 +37841,7 @@
       </c>
       <c r="R41" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -37394,31 +37850,31 @@
       </c>
       <c r="B42" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data View Section', </v>
+        <v/>
       </c>
       <c r="E42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Section details of data view', </v>
+        <v/>
       </c>
       <c r="F42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Sections', </v>
+        <v/>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '28', </v>
+        <v/>
       </c>
       <c r="I42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37458,7 +37914,7 @@
       </c>
       <c r="R42" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -37467,31 +37923,31 @@
       </c>
       <c r="B43" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data View Section Items', </v>
+        <v/>
       </c>
       <c r="E43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Items of a data view section', </v>
+        <v/>
       </c>
       <c r="F43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Items', </v>
+        <v/>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '29', </v>
+        <v/>
       </c>
       <c r="I43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37531,7 +37987,7 @@
       </c>
       <c r="R43" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -37540,31 +37996,31 @@
       </c>
       <c r="B44" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '28', </v>
+        <v/>
       </c>
       <c r="D44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
+        <v/>
       </c>
       <c r="E44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'View relation of a data', </v>
+        <v/>
       </c>
       <c r="F44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37604,7 +38060,7 @@
       </c>
       <c r="R44" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -37613,31 +38069,31 @@
       </c>
       <c r="B45" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '29', </v>
+        <v/>
       </c>
       <c r="D45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data item relation', </v>
+        <v/>
       </c>
       <c r="E45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'View relation of a data item', </v>
+        <v/>
       </c>
       <c r="F45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37677,7 +38133,7 @@
       </c>
       <c r="R45" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -37686,7 +38142,7 @@
       </c>
       <c r="B46" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v/>
       </c>
       <c r="C46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37759,7 +38215,7 @@
       </c>
       <c r="B47" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v/>
       </c>
       <c r="C47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="637">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1913,6 +1913,42 @@
   </si>
   <si>
     <t>View relation of a data item</t>
+  </si>
+  <si>
+    <t>EditAdministrator</t>
+  </si>
+  <si>
+    <t>Edit Administrator</t>
+  </si>
+  <si>
+    <t>Update Administrator</t>
+  </si>
+  <si>
+    <t>Edit administrator details</t>
+  </si>
+  <si>
+    <t>EditDeveloper</t>
+  </si>
+  <si>
+    <t>Edit developer details</t>
+  </si>
+  <si>
+    <t>Edit Developer</t>
+  </si>
+  <si>
+    <t>Update Dveloper</t>
+  </si>
+  <si>
+    <t>Name cannot be empty</t>
+  </si>
+  <si>
+    <t>Email address is mandatory</t>
+  </si>
+  <si>
+    <t>Email is not valid</t>
+  </si>
+  <si>
+    <t>-r:update</t>
   </si>
 </sst>
 </file>
@@ -2032,7 +2068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2133,6 +2169,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4007,11 +4046,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R245" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R268" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R268">
     <filterColumn colId="1">
       <filters>
-        <filter val="Resource Relations"/>
+        <filter val="Form Field Attrs"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4112,8 +4151,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G8" totalsRowShown="0" dataDxfId="37">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="37">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="36">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5900,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -23455,10 +23494,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView topLeftCell="B218" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F269" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24753,7 +24792,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-0</v>
@@ -24793,7 +24832,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-1</v>
@@ -24833,7 +24872,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-2</v>
@@ -24873,7 +24912,7 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-3</v>
@@ -24913,7 +24952,7 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-4</v>
@@ -24953,7 +24992,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-5</v>
@@ -24993,7 +25032,7 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-6</v>
@@ -25033,7 +25072,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-7</v>
@@ -25073,7 +25112,7 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-8</v>
@@ -25113,7 +25152,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-9</v>
@@ -25153,7 +25192,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" hidden="1">
       <c r="A46" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-10</v>
@@ -25193,7 +25232,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" hidden="1">
       <c r="A47" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-11</v>
@@ -25233,7 +25272,7 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" hidden="1">
       <c r="A48" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-12</v>
@@ -25273,7 +25312,7 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" hidden="1">
       <c r="A49" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-13</v>
@@ -25313,7 +25352,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" hidden="1">
       <c r="A50" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-14</v>
@@ -28923,7 +28962,7 @@
       <c r="Q149" s="16"/>
       <c r="R149" s="16"/>
     </row>
-    <row r="150" spans="1:18" hidden="1">
+    <row r="150" spans="1:18">
       <c r="A150" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-0</v>
@@ -28957,7 +28996,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18" hidden="1">
+    <row r="151" spans="1:18">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-1</v>
@@ -28991,7 +29030,7 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18" hidden="1">
+    <row r="152" spans="1:18">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-2</v>
@@ -29010,7 +29049,7 @@
         <v>448</v>
       </c>
       <c r="F152" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G152" s="40"/>
       <c r="H152" s="40"/>
@@ -29065,7 +29104,7 @@
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" hidden="1">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-15</v>
@@ -29145,7 +29184,7 @@
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" hidden="1">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-16</v>
@@ -29225,7 +29264,7 @@
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" hidden="1">
       <c r="A158" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-17</v>
@@ -29589,7 +29628,7 @@
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" hidden="1">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-18</v>
@@ -29669,7 +29708,7 @@
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" hidden="1">
       <c r="A170" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-19</v>
@@ -29867,7 +29906,7 @@
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" hidden="1">
       <c r="A175" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-20</v>
@@ -29907,7 +29946,7 @@
       <c r="Q175" s="40"/>
       <c r="R175" s="40"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" hidden="1">
       <c r="A176" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-21</v>
@@ -29947,7 +29986,7 @@
       <c r="Q176" s="40"/>
       <c r="R176" s="40"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" hidden="1">
       <c r="A177" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-22</v>
@@ -29987,7 +30026,7 @@
       <c r="Q177" s="43"/>
       <c r="R177" s="43"/>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" hidden="1">
       <c r="A178" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-23</v>
@@ -30343,7 +30382,7 @@
       <c r="Q187" s="40"/>
       <c r="R187" s="40"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" hidden="1">
       <c r="A188" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-24</v>
@@ -30503,7 +30542,7 @@
       <c r="Q191" s="40"/>
       <c r="R191" s="40"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" hidden="1">
       <c r="A192" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-25</v>
@@ -30543,7 +30582,7 @@
       <c r="Q192" s="43"/>
       <c r="R192" s="43"/>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" hidden="1">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-26</v>
@@ -30583,7 +30622,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" hidden="1">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-27</v>
@@ -30703,7 +30742,7 @@
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" hidden="1">
       <c r="A197" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-28</v>
@@ -30743,7 +30782,7 @@
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" hidden="1">
       <c r="A198" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-29</v>
@@ -31357,7 +31396,7 @@
       <c r="Q214" s="16"/>
       <c r="R214" s="16"/>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" hidden="1">
       <c r="A215" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-30</v>
@@ -31437,7 +31476,7 @@
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" hidden="1">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-31</v>
@@ -31477,7 +31516,7 @@
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" hidden="1">
       <c r="A218" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-32</v>
@@ -31557,7 +31596,7 @@
       <c r="Q219" s="40"/>
       <c r="R219" s="40"/>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" hidden="1">
       <c r="A220" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-33</v>
@@ -31875,7 +31914,7 @@
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" hidden="1">
       <c r="A229" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-34</v>
@@ -31915,7 +31954,7 @@
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" hidden="1">
       <c r="A230" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-29</v>
@@ -31955,7 +31994,7 @@
       <c r="Q230" s="40"/>
       <c r="R230" s="40"/>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" hidden="1">
       <c r="A231" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-35</v>
@@ -31995,7 +32034,7 @@
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" hidden="1">
       <c r="A232" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-36</v>
@@ -32035,7 +32074,7 @@
       <c r="Q232" s="43"/>
       <c r="R232" s="43"/>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" hidden="1">
       <c r="A233" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-37</v>
@@ -32075,7 +32114,7 @@
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" hidden="1">
       <c r="A234" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-0</v>
@@ -32113,7 +32152,7 @@
       <c r="Q234" s="40"/>
       <c r="R234" s="40"/>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" hidden="1">
       <c r="A235" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-1</v>
@@ -32147,7 +32186,7 @@
       <c r="Q235" s="40"/>
       <c r="R235" s="40"/>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" hidden="1">
       <c r="A236" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-2</v>
@@ -32179,7 +32218,7 @@
       <c r="Q236" s="40"/>
       <c r="R236" s="40"/>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" hidden="1">
       <c r="A237" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-3</v>
@@ -32215,7 +32254,7 @@
       <c r="Q237" s="40"/>
       <c r="R237" s="40"/>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" hidden="1">
       <c r="A238" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-0</v>
@@ -32251,7 +32290,7 @@
       <c r="Q238" s="40"/>
       <c r="R238" s="40"/>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" hidden="1">
       <c r="A239" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-1</v>
@@ -32285,7 +32324,7 @@
       <c r="Q239" s="40"/>
       <c r="R239" s="40"/>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" hidden="1">
       <c r="A240" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-2</v>
@@ -32319,7 +32358,7 @@
       <c r="Q240" s="40"/>
       <c r="R240" s="40"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" hidden="1">
       <c r="A241" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-3</v>
@@ -32355,7 +32394,7 @@
       <c r="Q241" s="40"/>
       <c r="R241" s="40"/>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" hidden="1">
       <c r="A242" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-4</v>
@@ -32389,7 +32428,7 @@
       <c r="Q242" s="40"/>
       <c r="R242" s="40"/>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" hidden="1">
       <c r="A243" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-5</v>
@@ -32423,7 +32462,7 @@
       <c r="Q243" s="43"/>
       <c r="R243" s="43"/>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-6</v>
@@ -32457,7 +32496,7 @@
       <c r="Q244" s="40"/>
       <c r="R244" s="40"/>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" hidden="1">
       <c r="A245" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-7</v>
@@ -32490,6 +32529,808 @@
       <c r="P245" s="40"/>
       <c r="Q245" s="40"/>
       <c r="R245" s="40"/>
+    </row>
+    <row r="246" spans="1:18" hidden="1">
+      <c r="A246" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Forms-8</v>
+      </c>
+      <c r="B246" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C246" s="22">
+        <f>COUNTIF($B$1:$B245,[Table Name])</f>
+        <v>8</v>
+      </c>
+      <c r="D246" s="40">
+        <v>1</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="F246" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="G246" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="H246" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="I246" s="40"/>
+      <c r="J246" s="40"/>
+      <c r="K246" s="40"/>
+      <c r="L246" s="40"/>
+      <c r="M246" s="40"/>
+      <c r="N246" s="40"/>
+      <c r="O246" s="40"/>
+      <c r="P246" s="40"/>
+      <c r="Q246" s="40"/>
+      <c r="R246" s="40"/>
+    </row>
+    <row r="247" spans="1:18" hidden="1">
+      <c r="A247" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Forms-9</v>
+      </c>
+      <c r="B247" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C247" s="22">
+        <f>COUNTIF($B$1:$B246,[Table Name])</f>
+        <v>9</v>
+      </c>
+      <c r="D247" s="40">
+        <v>1</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="F247" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="G247" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="H247" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="I247" s="40"/>
+      <c r="J247" s="40"/>
+      <c r="K247" s="40"/>
+      <c r="L247" s="40"/>
+      <c r="M247" s="40"/>
+      <c r="N247" s="40"/>
+      <c r="O247" s="40"/>
+      <c r="P247" s="40"/>
+      <c r="Q247" s="40"/>
+      <c r="R247" s="40"/>
+    </row>
+    <row r="248" spans="1:18" hidden="1">
+      <c r="A248" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Fields-34</v>
+      </c>
+      <c r="B248" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C248" s="22">
+        <f>COUNTIF($B$1:$B247,[Table Name])</f>
+        <v>34</v>
+      </c>
+      <c r="D248" s="40">
+        <v>8</v>
+      </c>
+      <c r="E248" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F248" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G248" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H248" s="40"/>
+      <c r="I248" s="40"/>
+      <c r="J248" s="40"/>
+      <c r="K248" s="40"/>
+      <c r="L248" s="40"/>
+      <c r="M248" s="40"/>
+      <c r="N248" s="40"/>
+      <c r="O248" s="40"/>
+      <c r="P248" s="40"/>
+      <c r="Q248" s="40"/>
+      <c r="R248" s="40"/>
+    </row>
+    <row r="249" spans="1:18" hidden="1">
+      <c r="A249" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Fields-35</v>
+      </c>
+      <c r="B249" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C249" s="22">
+        <f>COUNTIF($B$1:$B248,[Table Name])</f>
+        <v>35</v>
+      </c>
+      <c r="D249" s="40">
+        <v>8</v>
+      </c>
+      <c r="E249" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F249" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G249" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H249" s="40"/>
+      <c r="I249" s="40"/>
+      <c r="J249" s="40"/>
+      <c r="K249" s="40"/>
+      <c r="L249" s="40"/>
+      <c r="M249" s="40"/>
+      <c r="N249" s="40"/>
+      <c r="O249" s="40"/>
+      <c r="P249" s="40"/>
+      <c r="Q249" s="40"/>
+      <c r="R249" s="40"/>
+    </row>
+    <row r="250" spans="1:18" hidden="1">
+      <c r="A250" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Fields-36</v>
+      </c>
+      <c r="B250" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C250" s="22">
+        <f>COUNTIF($B$1:$B249,[Table Name])</f>
+        <v>36</v>
+      </c>
+      <c r="D250" s="40">
+        <v>9</v>
+      </c>
+      <c r="E250" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G250" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H250" s="40"/>
+      <c r="I250" s="40"/>
+      <c r="J250" s="40"/>
+      <c r="K250" s="40"/>
+      <c r="L250" s="40"/>
+      <c r="M250" s="40"/>
+      <c r="N250" s="40"/>
+      <c r="O250" s="40"/>
+      <c r="P250" s="40"/>
+      <c r="Q250" s="40"/>
+      <c r="R250" s="40"/>
+    </row>
+    <row r="251" spans="1:18" hidden="1">
+      <c r="A251" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Fields-37</v>
+      </c>
+      <c r="B251" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C251" s="22">
+        <f>COUNTIF($B$1:$B250,[Table Name])</f>
+        <v>37</v>
+      </c>
+      <c r="D251" s="40">
+        <v>9</v>
+      </c>
+      <c r="E251" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F251" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G251" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H251" s="40"/>
+      <c r="I251" s="40"/>
+      <c r="J251" s="40"/>
+      <c r="K251" s="40"/>
+      <c r="L251" s="40"/>
+      <c r="M251" s="40"/>
+      <c r="N251" s="40"/>
+      <c r="O251" s="40"/>
+      <c r="P251" s="40"/>
+      <c r="Q251" s="40"/>
+      <c r="R251" s="40"/>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="A252" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Attrs-3</v>
+      </c>
+      <c r="B252" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C252" s="22">
+        <f>COUNTIF($B$1:$B251,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D252" s="40">
+        <v>32</v>
+      </c>
+      <c r="E252" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F252" s="40">
+        <v>3</v>
+      </c>
+      <c r="G252" s="40"/>
+      <c r="H252" s="40"/>
+      <c r="I252" s="40"/>
+      <c r="J252" s="40"/>
+      <c r="K252" s="40"/>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="40"/>
+      <c r="O252" s="40"/>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40"/>
+      <c r="R252" s="40"/>
+    </row>
+    <row r="253" spans="1:18">
+      <c r="A253" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Attrs-4</v>
+      </c>
+      <c r="B253" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C253" s="22">
+        <f>COUNTIF($B$1:$B252,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D253" s="40">
+        <v>34</v>
+      </c>
+      <c r="E253" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F253" s="40">
+        <v>3</v>
+      </c>
+      <c r="G253" s="40"/>
+      <c r="H253" s="40"/>
+      <c r="I253" s="40"/>
+      <c r="J253" s="40"/>
+      <c r="K253" s="40"/>
+      <c r="L253" s="40"/>
+      <c r="M253" s="40"/>
+      <c r="N253" s="40"/>
+      <c r="O253" s="40"/>
+      <c r="P253" s="40"/>
+      <c r="Q253" s="40"/>
+      <c r="R253" s="40"/>
+    </row>
+    <row r="254" spans="1:18">
+      <c r="A254" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Attrs-5</v>
+      </c>
+      <c r="B254" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C254" s="22">
+        <f>COUNTIF($B$1:$B253,[Table Name])</f>
+        <v>5</v>
+      </c>
+      <c r="D254" s="40">
+        <v>35</v>
+      </c>
+      <c r="E254" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F254" s="40">
+        <v>3</v>
+      </c>
+      <c r="G254" s="40"/>
+      <c r="H254" s="40"/>
+      <c r="I254" s="40"/>
+      <c r="J254" s="40"/>
+      <c r="K254" s="40"/>
+      <c r="L254" s="40"/>
+      <c r="M254" s="40"/>
+      <c r="N254" s="40"/>
+      <c r="O254" s="40"/>
+      <c r="P254" s="40"/>
+      <c r="Q254" s="40"/>
+      <c r="R254" s="40"/>
+    </row>
+    <row r="255" spans="1:18">
+      <c r="A255" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Attrs-6</v>
+      </c>
+      <c r="B255" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C255" s="22">
+        <f>COUNTIF($B$1:$B254,[Table Name])</f>
+        <v>6</v>
+      </c>
+      <c r="D255" s="40">
+        <v>36</v>
+      </c>
+      <c r="E255" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F255" s="40">
+        <v>3</v>
+      </c>
+      <c r="G255" s="40"/>
+      <c r="H255" s="40"/>
+      <c r="I255" s="40"/>
+      <c r="J255" s="40"/>
+      <c r="K255" s="40"/>
+      <c r="L255" s="40"/>
+      <c r="M255" s="40"/>
+      <c r="N255" s="40"/>
+      <c r="O255" s="40"/>
+      <c r="P255" s="40"/>
+      <c r="Q255" s="40"/>
+      <c r="R255" s="40"/>
+    </row>
+    <row r="256" spans="1:18">
+      <c r="A256" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Attrs-7</v>
+      </c>
+      <c r="B256" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C256" s="22">
+        <f>COUNTIF($B$1:$B255,[Table Name])</f>
+        <v>7</v>
+      </c>
+      <c r="D256" s="40">
+        <v>37</v>
+      </c>
+      <c r="E256" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F256" s="40">
+        <v>3</v>
+      </c>
+      <c r="G256" s="40"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="40"/>
+      <c r="J256" s="40"/>
+      <c r="K256" s="40"/>
+      <c r="L256" s="40"/>
+      <c r="M256" s="40"/>
+      <c r="N256" s="40"/>
+      <c r="O256" s="40"/>
+      <c r="P256" s="40"/>
+      <c r="Q256" s="40"/>
+      <c r="R256" s="40"/>
+    </row>
+    <row r="257" spans="1:18" hidden="1">
+      <c r="A257" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Field Data-34</v>
+      </c>
+      <c r="B257" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C257" s="22">
+        <f>COUNTIF($B$1:$B256,[Table Name])</f>
+        <v>34</v>
+      </c>
+      <c r="D257" s="40">
+        <v>34</v>
+      </c>
+      <c r="E257" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F257" s="40"/>
+      <c r="G257" s="40"/>
+      <c r="H257" s="40"/>
+      <c r="I257" s="40"/>
+      <c r="J257" s="40"/>
+      <c r="K257" s="40"/>
+      <c r="L257" s="40"/>
+      <c r="M257" s="40"/>
+      <c r="N257" s="40"/>
+      <c r="O257" s="40"/>
+      <c r="P257" s="40"/>
+      <c r="Q257" s="40"/>
+      <c r="R257" s="40"/>
+    </row>
+    <row r="258" spans="1:18" hidden="1">
+      <c r="A258" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Field Data-35</v>
+      </c>
+      <c r="B258" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C258" s="22">
+        <f>COUNTIF($B$1:$B257,[Table Name])</f>
+        <v>35</v>
+      </c>
+      <c r="D258" s="40">
+        <v>35</v>
+      </c>
+      <c r="E258" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F258" s="40"/>
+      <c r="G258" s="40"/>
+      <c r="H258" s="40"/>
+      <c r="I258" s="40"/>
+      <c r="J258" s="40"/>
+      <c r="K258" s="40"/>
+      <c r="L258" s="40"/>
+      <c r="M258" s="40"/>
+      <c r="N258" s="40"/>
+      <c r="O258" s="40"/>
+      <c r="P258" s="40"/>
+      <c r="Q258" s="40"/>
+      <c r="R258" s="40"/>
+    </row>
+    <row r="259" spans="1:18" hidden="1">
+      <c r="A259" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Field Data-36</v>
+      </c>
+      <c r="B259" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C259" s="22">
+        <f>COUNTIF($B$1:$B258,[Table Name])</f>
+        <v>36</v>
+      </c>
+      <c r="D259" s="40">
+        <v>36</v>
+      </c>
+      <c r="E259" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" s="40"/>
+      <c r="G259" s="40"/>
+      <c r="H259" s="40"/>
+      <c r="I259" s="40"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="40"/>
+      <c r="L259" s="40"/>
+      <c r="M259" s="40"/>
+      <c r="N259" s="40"/>
+      <c r="O259" s="40"/>
+      <c r="P259" s="40"/>
+      <c r="Q259" s="40"/>
+      <c r="R259" s="40"/>
+    </row>
+    <row r="260" spans="1:18" hidden="1">
+      <c r="A260" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Form Field Data-37</v>
+      </c>
+      <c r="B260" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C260" s="22">
+        <f>COUNTIF($B$1:$B259,[Table Name])</f>
+        <v>37</v>
+      </c>
+      <c r="D260" s="40">
+        <v>37</v>
+      </c>
+      <c r="E260" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F260" s="40"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="40"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="40"/>
+      <c r="L260" s="40"/>
+      <c r="M260" s="40"/>
+      <c r="N260" s="40"/>
+      <c r="O260" s="40"/>
+      <c r="P260" s="40"/>
+      <c r="Q260" s="40"/>
+      <c r="R260" s="40"/>
+    </row>
+    <row r="261" spans="1:18" hidden="1">
+      <c r="A261" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-13</v>
+      </c>
+      <c r="B261" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C261" s="22">
+        <f>COUNTIF($B$1:$B260,[Table Name])</f>
+        <v>13</v>
+      </c>
+      <c r="D261" s="40">
+        <v>34</v>
+      </c>
+      <c r="E261" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F261" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="G261" s="40"/>
+      <c r="H261" s="40"/>
+      <c r="I261" s="40"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="40"/>
+      <c r="L261" s="40"/>
+      <c r="M261" s="40"/>
+      <c r="N261" s="40"/>
+      <c r="O261" s="40"/>
+      <c r="P261" s="40"/>
+      <c r="Q261" s="40"/>
+      <c r="R261" s="40"/>
+    </row>
+    <row r="262" spans="1:18" hidden="1">
+      <c r="A262" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-14</v>
+      </c>
+      <c r="B262" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C262" s="22">
+        <f>COUNTIF($B$1:$B261,[Table Name])</f>
+        <v>14</v>
+      </c>
+      <c r="D262" s="40">
+        <v>35</v>
+      </c>
+      <c r="E262" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F262" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="G262" s="40"/>
+      <c r="H262" s="40"/>
+      <c r="I262" s="40"/>
+      <c r="J262" s="40"/>
+      <c r="K262" s="40"/>
+      <c r="L262" s="40"/>
+      <c r="M262" s="40"/>
+      <c r="N262" s="40"/>
+      <c r="O262" s="40"/>
+      <c r="P262" s="40"/>
+      <c r="Q262" s="40"/>
+      <c r="R262" s="40"/>
+    </row>
+    <row r="263" spans="1:18" hidden="1">
+      <c r="A263" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-15</v>
+      </c>
+      <c r="B263" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C263" s="22">
+        <f>COUNTIF($B$1:$B262,[Table Name])</f>
+        <v>15</v>
+      </c>
+      <c r="D263" s="40">
+        <v>35</v>
+      </c>
+      <c r="E263" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F263" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="G263" s="40"/>
+      <c r="H263" s="40"/>
+      <c r="I263" s="40"/>
+      <c r="J263" s="40"/>
+      <c r="K263" s="40"/>
+      <c r="L263" s="40"/>
+      <c r="M263" s="40"/>
+      <c r="N263" s="40"/>
+      <c r="O263" s="40"/>
+      <c r="P263" s="40"/>
+      <c r="Q263" s="40"/>
+      <c r="R263" s="40"/>
+    </row>
+    <row r="264" spans="1:18" hidden="1">
+      <c r="A264" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-16</v>
+      </c>
+      <c r="B264" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C264" s="22">
+        <f>COUNTIF($B$1:$B263,[Table Name])</f>
+        <v>16</v>
+      </c>
+      <c r="D264" s="40">
+        <v>35</v>
+      </c>
+      <c r="E264" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F264" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="G264" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H264" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I264" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="J264" s="40"/>
+      <c r="K264" s="40"/>
+      <c r="L264" s="40"/>
+      <c r="M264" s="40"/>
+      <c r="N264" s="40"/>
+      <c r="O264" s="40"/>
+      <c r="P264" s="40"/>
+      <c r="Q264" s="40"/>
+      <c r="R264" s="40"/>
+    </row>
+    <row r="265" spans="1:18" hidden="1">
+      <c r="A265" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-17</v>
+      </c>
+      <c r="B265" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" s="22">
+        <f>COUNTIF($B$1:$B264,[Table Name])</f>
+        <v>17</v>
+      </c>
+      <c r="D265" s="40">
+        <v>36</v>
+      </c>
+      <c r="E265" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F265" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="G265" s="40"/>
+      <c r="H265" s="40"/>
+      <c r="I265" s="40"/>
+      <c r="J265" s="40"/>
+      <c r="K265" s="40"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="40"/>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40"/>
+      <c r="R265" s="40"/>
+    </row>
+    <row r="266" spans="1:18" hidden="1">
+      <c r="A266" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-18</v>
+      </c>
+      <c r="B266" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C266" s="22">
+        <f>COUNTIF($B$1:$B265,[Table Name])</f>
+        <v>18</v>
+      </c>
+      <c r="D266" s="40">
+        <v>37</v>
+      </c>
+      <c r="E266" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="F266" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="G266" s="40"/>
+      <c r="H266" s="40"/>
+      <c r="I266" s="40"/>
+      <c r="J266" s="40"/>
+      <c r="K266" s="40"/>
+      <c r="L266" s="40"/>
+      <c r="M266" s="40"/>
+      <c r="N266" s="40"/>
+      <c r="O266" s="40"/>
+      <c r="P266" s="40"/>
+      <c r="Q266" s="40"/>
+      <c r="R266" s="40"/>
+    </row>
+    <row r="267" spans="1:18" hidden="1">
+      <c r="A267" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-19</v>
+      </c>
+      <c r="B267" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C267" s="22">
+        <f>COUNTIF($B$1:$B266,[Table Name])</f>
+        <v>19</v>
+      </c>
+      <c r="D267" s="40">
+        <v>37</v>
+      </c>
+      <c r="E267" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F267" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="G267" s="40"/>
+      <c r="H267" s="40"/>
+      <c r="I267" s="40"/>
+      <c r="J267" s="40"/>
+      <c r="K267" s="40"/>
+      <c r="L267" s="40"/>
+      <c r="M267" s="40"/>
+      <c r="N267" s="40"/>
+      <c r="O267" s="40"/>
+      <c r="P267" s="40"/>
+      <c r="Q267" s="40"/>
+      <c r="R267" s="40"/>
+    </row>
+    <row r="268" spans="1:18" hidden="1">
+      <c r="A268" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Form Field Validations-20</v>
+      </c>
+      <c r="B268" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C268" s="22">
+        <f>COUNTIF($B$1:$B267,[Table Name])</f>
+        <v>20</v>
+      </c>
+      <c r="D268" s="40">
+        <v>37</v>
+      </c>
+      <c r="E268" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F268" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="G268" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H268" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I268" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="J268" s="40"/>
+      <c r="K268" s="40"/>
+      <c r="L268" s="40"/>
+      <c r="M268" s="40"/>
+      <c r="N268" s="40"/>
+      <c r="O268" s="40"/>
+      <c r="P268" s="40"/>
+      <c r="Q268" s="40"/>
+      <c r="R268" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32872,7 +33713,7 @@
         <v>ResourceFormDefault</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" ref="E18:E24" si="1">"truncate"</f>
         <v>truncate</v>
       </c>
     </row>
@@ -32892,7 +33733,7 @@
         <v>ResourceActionList</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -32912,7 +33753,7 @@
         <v>ResourceData</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -32932,7 +33773,7 @@
         <v>ResourceListLayout</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -32952,7 +33793,7 @@
         <v>ResourceFormLayout</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -32972,7 +33813,7 @@
         <v>ResourceDataViewSection</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -32992,7 +33833,7 @@
         <v>ResourceDataViewSectionItem</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>"truncate"</f>
+        <f t="shared" si="1"/>
         <v>truncate</v>
       </c>
     </row>
@@ -35141,7 +35982,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35151,14 +35992,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>619</v>
+        <v>477</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="48" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceDataViewSectionItem::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormFieldValidation::truncate()</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -35302,35 +36143,35 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>section</v>
+        <v>form_field</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>label</v>
+        <v>rule</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>attribute</v>
+        <v>message</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>relation</v>
+        <v>arg1</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v/>
+        <v>arg2</v>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v/>
+        <v>arg3</v>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
-        <v/>
+        <v>arg4</v>
       </c>
       <c r="J5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],J$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],J$4+$B$4,0))</f>
-        <v/>
+        <v>arg5</v>
       </c>
       <c r="K5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],K$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],K$4+$B$4,0))</f>
@@ -35416,7 +36257,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="46" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceDataViewSectionItem::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormFieldValidation::truncate()</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -35445,15 +36286,15 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'section' =&gt; '1', </v>
+        <v xml:space="preserve">'form_field' =&gt; '4', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'label' =&gt; 'Name', </v>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'name', </v>
+        <v xml:space="preserve">'message' =&gt; 'User name is mandatory', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35518,15 +36359,15 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'section' =&gt; '1', </v>
+        <v xml:space="preserve">'form_field' =&gt; '5', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Email', </v>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'email', </v>
+        <v xml:space="preserve">'message' =&gt; 'User email is mandarory', </v>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35591,19 +36432,19 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'section' =&gt; '1', </v>
+        <v xml:space="preserve">'form_field' =&gt; '5', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Groups', </v>
+        <v xml:space="preserve">'rule' =&gt; 'email', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'title', </v>
+        <v xml:space="preserve">'message' =&gt; 'Email should be a valid email address', </v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relation' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35664,23 +36505,23 @@
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'section' =&gt; '2', </v>
+        <v xml:space="preserve">'form_field' =&gt; '5', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Name', </v>
+        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'name', </v>
+        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35737,15 +36578,15 @@
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'section' =&gt; '2', </v>
+        <v xml:space="preserve">'form_field' =&gt; '6', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Email', </v>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'email', </v>
+        <v xml:space="preserve">'message' =&gt; 'User name is mandatory', </v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35810,15 +36651,15 @@
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'section' =&gt; '3', </v>
+        <v xml:space="preserve">'form_field' =&gt; '7', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Group', </v>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'title', </v>
+        <v xml:space="preserve">'message' =&gt; 'User email is mandarory', </v>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35883,15 +36724,15 @@
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'section' =&gt; '3', </v>
+        <v xml:space="preserve">'form_field' =&gt; '7', </v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'label' =&gt; 'Description', </v>
+        <v xml:space="preserve">'rule' =&gt; 'email', </v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'attribute' =&gt; 'description', </v>
+        <v xml:space="preserve">'message' =&gt; 'Email should be a valid email address', </v>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -35952,27 +36793,27 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '7', </v>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36016,7 +36857,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -36025,19 +36866,19 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '32', </v>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Password cannot be empty', </v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36089,7 +36930,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -36098,23 +36939,23 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '32', </v>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'min', </v>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Password length must be minimum of 3', </v>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; '3', </v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36162,7 +37003,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -36171,19 +37012,19 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '33', </v>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Password cannot be empty', </v>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36235,7 +37076,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -36244,23 +37085,23 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '33', </v>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'min', </v>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Password length must be minimum of 3', </v>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; '3', </v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36308,7 +37149,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -36317,19 +37158,19 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '34', </v>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Name cannot be empty', </v>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36381,7 +37222,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -36390,19 +37231,19 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '35', </v>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Email address is mandatory', </v>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36454,7 +37295,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -36463,19 +37304,19 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '35', </v>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'email', </v>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Email is not valid', </v>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36527,7 +37368,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -36536,31 +37377,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '35', </v>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'arg3' =&gt; '-r:update', </v>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36600,7 +37441,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -36609,19 +37450,19 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '36', </v>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Name cannot be empty', </v>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -36673,7 +37514,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -36682,19 +37523,19 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '37', </v>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'required', </v>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Email address is mandatory', </v>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -36746,7 +37587,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -36755,19 +37596,19 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '37', </v>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'email', </v>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'Email is not valid', </v>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -36819,7 +37660,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -36828,31 +37669,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'form_field' =&gt; '37', </v>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'arg3' =&gt; '-r:update', </v>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -36892,7 +37733,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -36901,7 +37742,7 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>;</v>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -36974,7 +37815,7 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -42780,10 +43621,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42994,6 +43835,29 @@
         <v>266</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20">
+        <f>IFERROR($A8+1,1)</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>VLOOKUP([Resource ID],ResourceTable[],2,0)</f>
+        <v>User</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="642">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1726,9 +1726,6 @@
     <t>View details of developer</t>
   </si>
   <si>
-    <t>2,3,5,6,7,8</t>
-  </si>
-  <si>
     <t>Milestone\Appframe\Model</t>
   </si>
   <si>
@@ -1949,6 +1946,24 @@
   </si>
   <si>
     <t>-r:update</t>
+  </si>
+  <si>
+    <t>Edit details of a administrator</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Edit details of a developer</t>
+  </si>
+  <si>
+    <t>FormWithData</t>
+  </si>
+  <si>
+    <t>2,3,5,6,7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -4046,11 +4061,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R268" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R268">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R276" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R276">
     <filterColumn colId="1">
       <filters>
-        <filter val="Form Field Attrs"/>
+        <filter val="Resource Roles"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4083,8 +4098,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E24" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E25" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="62"/>
     <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
@@ -4944,7 +4959,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -4985,7 +5000,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B13" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5026,7 +5041,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5190,7 +5205,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5805,7 +5820,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -7068,7 +7083,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:J9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8010,13 +8025,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -8031,13 +8046,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -8052,13 +8067,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -8073,13 +8088,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -8094,13 +8109,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -8140,13 +8155,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -8165,13 +8180,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -8190,13 +8205,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -8215,13 +8230,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
@@ -8240,13 +8255,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -10100,13 +10115,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D120" s="4">
         <v>64</v>
@@ -10121,7 +10136,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>24</v>
@@ -10142,7 +10157,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>42</v>
@@ -10167,17 +10182,17 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -10186,13 +10201,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
@@ -10205,7 +10220,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>27</v>
@@ -10226,20 +10241,20 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>45</v>
@@ -12083,7 +12098,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12127,7 +12142,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12171,7 +12186,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12215,7 +12230,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12259,7 +12274,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12303,7 +12318,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12435,7 +12450,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12479,7 +12494,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12523,7 +12538,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12567,7 +12582,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12611,7 +12626,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12655,7 +12670,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13183,7 +13198,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13227,7 +13242,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13271,7 +13286,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C69" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13315,7 +13330,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C70" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13359,7 +13374,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C71" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13403,7 +13418,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C72" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13535,7 +13550,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13579,7 +13594,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13623,7 +13638,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13667,7 +13682,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C78" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13711,7 +13726,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13755,7 +13770,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17011,7 +17026,7 @@
         <v>104</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C154" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17055,7 +17070,7 @@
         <v>104</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C155" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17099,7 +17114,7 @@
         <v>104</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C156" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17143,7 +17158,7 @@
         <v>104</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C157" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17319,7 +17334,7 @@
         <v>104</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C161" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17363,7 +17378,7 @@
         <v>104</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17407,7 +17422,7 @@
         <v>104</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C163" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17451,7 +17466,7 @@
         <v>104</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C164" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19695,7 +19710,7 @@
         <v>150</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C215" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19739,7 +19754,7 @@
         <v>150</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C216" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19783,7 +19798,7 @@
         <v>150</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C217" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19827,7 +19842,7 @@
         <v>150</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C218" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20003,7 +20018,7 @@
         <v>150</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C222" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20047,7 +20062,7 @@
         <v>150</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C223" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20091,7 +20106,7 @@
         <v>150</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C224" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20135,7 +20150,7 @@
         <v>150</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C225" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21628,7 +21643,7 @@
     </row>
     <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>21</v>
@@ -21672,7 +21687,7 @@
     </row>
     <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>94</v>
@@ -21716,7 +21731,7 @@
     </row>
     <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>269</v>
@@ -21760,10 +21775,10 @@
     </row>
     <row r="262" spans="1:11" hidden="1">
       <c r="A262" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="C262" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21804,10 +21819,10 @@
     </row>
     <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C263" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21848,10 +21863,10 @@
     </row>
     <row r="264" spans="1:11" hidden="1">
       <c r="A264" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21892,10 +21907,10 @@
     </row>
     <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21936,7 +21951,7 @@
     </row>
     <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>40</v>
@@ -21980,7 +21995,7 @@
     </row>
     <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>95</v>
@@ -22024,10 +22039,10 @@
     </row>
     <row r="268" spans="1:11" hidden="1">
       <c r="A268" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C268" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22068,10 +22083,10 @@
     </row>
     <row r="269" spans="1:11" hidden="1">
       <c r="A269" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C269" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22112,10 +22127,10 @@
     </row>
     <row r="270" spans="1:11" hidden="1">
       <c r="A270" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C270" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22156,7 +22171,7 @@
     </row>
     <row r="271" spans="1:11" hidden="1">
       <c r="A271" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>21</v>
@@ -22200,7 +22215,7 @@
     </row>
     <row r="272" spans="1:11" hidden="1">
       <c r="A272" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>4</v>
@@ -22244,7 +22259,7 @@
     </row>
     <row r="273" spans="1:11" hidden="1">
       <c r="A273" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>57</v>
@@ -22288,7 +22303,7 @@
     </row>
     <row r="274" spans="1:11" hidden="1">
       <c r="A274" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>40</v>
@@ -22332,7 +22347,7 @@
     </row>
     <row r="275" spans="1:11" hidden="1">
       <c r="A275" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>93</v>
@@ -22376,7 +22391,7 @@
     </row>
     <row r="276" spans="1:11" hidden="1">
       <c r="A276" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>60</v>
@@ -22420,7 +22435,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>21</v>
@@ -22464,7 +22479,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>117</v>
@@ -22508,7 +22523,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>122</v>
@@ -22552,10 +22567,10 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C280" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22596,7 +22611,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>40</v>
@@ -22640,7 +22655,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>118</v>
@@ -22684,7 +22699,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>123</v>
@@ -22728,7 +22743,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>21</v>
@@ -22772,7 +22787,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>4</v>
@@ -22816,7 +22831,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>30</v>
@@ -22860,7 +22875,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>55</v>
@@ -22904,10 +22919,10 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C288" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22948,10 +22963,10 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C289" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22992,7 +23007,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>40</v>
@@ -23036,7 +23051,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>93</v>
@@ -23080,10 +23095,10 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C292" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23124,7 +23139,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>21</v>
@@ -23168,10 +23183,10 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="C294" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23212,7 +23227,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>269</v>
@@ -23256,10 +23271,10 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C296" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23300,10 +23315,10 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C297" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23344,7 +23359,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>40</v>
@@ -23388,10 +23403,10 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C299" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23432,10 +23447,10 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C300" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23494,10 +23509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R268"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F269" sqref="F269"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23815,7 +23830,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>174</v>
@@ -24030,7 +24045,7 @@
         <v>184</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>178</v>
@@ -24070,7 +24085,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>182</v>
@@ -24110,7 +24125,7 @@
         <v>185</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>187</v>
@@ -24150,7 +24165,7 @@
         <v>208</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>210</v>
@@ -24190,7 +24205,7 @@
         <v>205</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>207</v>
@@ -24230,7 +24245,7 @@
         <v>292</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>310</v>
@@ -24270,7 +24285,7 @@
         <v>316</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>318</v>
@@ -24310,7 +24325,7 @@
         <v>373</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>374</v>
@@ -24350,7 +24365,7 @@
         <v>386</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>387</v>
@@ -24390,7 +24405,7 @@
         <v>389</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>388</v>
@@ -24430,7 +24445,7 @@
         <v>399</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>400</v>
@@ -24470,7 +24485,7 @@
         <v>406</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>407</v>
@@ -24510,7 +24525,7 @@
         <v>410</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>411</v>
@@ -24528,7 +24543,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" hidden="1">
+    <row r="28" spans="1:18">
       <c r="A28" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-0</v>
@@ -24564,7 +24579,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18">
       <c r="A29" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-1</v>
@@ -24586,7 +24601,7 @@
         <v>382</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -24600,7 +24615,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-2</v>
@@ -24632,7 +24647,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18">
       <c r="A31" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-3</v>
@@ -24664,7 +24679,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-4</v>
@@ -24696,7 +24711,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-5</v>
@@ -24728,7 +24743,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-6</v>
@@ -24760,7 +24775,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-7</v>
@@ -27390,13 +27405,13 @@
         <v>56</v>
       </c>
       <c r="G104" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="H104" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="I104" s="16" t="s">
         <v>580</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>581</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
@@ -28962,7 +28977,7 @@
       <c r="Q149" s="16"/>
       <c r="R149" s="16"/>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" hidden="1">
       <c r="A150" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-0</v>
@@ -28996,30 +29011,36 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" hidden="1">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-1</v>
+        <v>Resources-14</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>447</v>
+        <v>220</v>
       </c>
       <c r="C151" s="22">
         <f>COUNTIF($B$1:$B150,[Table Name])</f>
-        <v>1</v>
-      </c>
-      <c r="D151" s="40">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D151" s="40" t="s">
+        <v>449</v>
       </c>
       <c r="E151" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F151" s="40">
-        <v>3</v>
-      </c>
-      <c r="G151" s="40"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
+        <v>450</v>
+      </c>
+      <c r="F151" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H151" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="I151" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="J151" s="40"/>
       <c r="K151" s="40"/>
       <c r="L151" s="40"/>
@@ -29030,30 +29051,36 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" hidden="1">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-2</v>
+        <v>Resource Relations-15</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C152" s="22">
         <f>COUNTIF($B$1:$B151,[Table Name])</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D152" s="40">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E152" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F152" s="40">
-        <v>3</v>
-      </c>
-      <c r="G152" s="40"/>
-      <c r="H152" s="40"/>
-      <c r="I152" s="40"/>
+        <v>451</v>
+      </c>
+      <c r="F152" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="G152" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="H152" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I152" s="40">
+        <v>14</v>
+      </c>
       <c r="J152" s="40"/>
       <c r="K152" s="40"/>
       <c r="L152" s="40"/>
@@ -29067,29 +29094,29 @@
     <row r="153" spans="1:18" hidden="1">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-14</v>
+        <v>Resources-15</v>
       </c>
       <c r="B153" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C153" s="22">
         <f>COUNTIF($B$1:$B152,[Table Name])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153" s="40" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="E153" s="40" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F153" s="40" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H153" s="40" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I153" s="40" t="s">
         <v>21</v>
@@ -29107,32 +29134,32 @@
     <row r="154" spans="1:18" hidden="1">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-15</v>
+        <v>Resource Relations-16</v>
       </c>
       <c r="B154" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C154" s="22">
         <f>COUNTIF($B$1:$B153,[Table Name])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154" s="40">
         <v>13</v>
       </c>
       <c r="E154" s="40" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="F154" s="40" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="G154" s="40" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="H154" s="40" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="I154" s="40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J154" s="40"/>
       <c r="K154" s="40"/>
@@ -29147,29 +29174,29 @@
     <row r="155" spans="1:18" hidden="1">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-15</v>
+        <v>Resources-16</v>
       </c>
       <c r="B155" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C155" s="22">
         <f>COUNTIF($B$1:$B154,[Table Name])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D155" s="40" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E155" s="40" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F155" s="40" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H155" s="40" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="I155" s="40" t="s">
         <v>21</v>
@@ -29187,32 +29214,32 @@
     <row r="156" spans="1:18" hidden="1">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-16</v>
+        <v>Resource Relations-17</v>
       </c>
       <c r="B156" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C156" s="22">
         <f>COUNTIF($B$1:$B155,[Table Name])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D156" s="40">
         <v>13</v>
       </c>
       <c r="E156" s="40" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F156" s="40" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G156" s="40" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H156" s="40" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="I156" s="40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J156" s="40"/>
       <c r="K156" s="40"/>
@@ -29227,35 +29254,39 @@
     <row r="157" spans="1:18" hidden="1">
       <c r="A157" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-16</v>
+        <v>Form Field Validations-0</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>220</v>
+        <v>477</v>
       </c>
       <c r="C157" s="22">
         <f>COUNTIF($B$1:$B156,[Table Name])</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D157" s="40" t="s">
-        <v>470</v>
+        <v>122</v>
       </c>
       <c r="E157" s="40" t="s">
-        <v>471</v>
+        <v>131</v>
       </c>
       <c r="F157" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>563</v>
+        <v>132</v>
+      </c>
+      <c r="G157" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="H157" s="40" t="s">
-        <v>473</v>
+        <v>38</v>
       </c>
       <c r="I157" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J157" s="40"/>
-      <c r="K157" s="40"/>
+        <v>39</v>
+      </c>
+      <c r="J157" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K157" s="40" t="s">
+        <v>134</v>
+      </c>
       <c r="L157" s="40"/>
       <c r="M157" s="40"/>
       <c r="N157" s="40"/>
@@ -29267,33 +29298,27 @@
     <row r="158" spans="1:18" hidden="1">
       <c r="A158" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-17</v>
+        <v>Form Field Validations-1</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="C158" s="22">
         <f>COUNTIF($B$1:$B157,[Table Name])</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D158" s="40">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E158" s="40" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F158" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="G158" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="H158" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I158" s="40">
-        <v>16</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
       <c r="J158" s="40"/>
       <c r="K158" s="40"/>
       <c r="L158" s="40"/>
@@ -29307,39 +29332,29 @@
     <row r="159" spans="1:18" hidden="1">
       <c r="A159" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-0</v>
+        <v>Form Field Validations-2</v>
       </c>
       <c r="B159" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C159" s="22">
         <f>COUNTIF($B$1:$B158,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D159" s="40" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D159" s="40">
+        <v>5</v>
       </c>
       <c r="E159" s="40" t="s">
-        <v>131</v>
+        <v>478</v>
       </c>
       <c r="F159" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G159" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H159" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I159" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J159" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="K159" s="40" t="s">
-        <v>134</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
       <c r="L159" s="40"/>
       <c r="M159" s="40"/>
       <c r="N159" s="40"/>
@@ -29351,23 +29366,23 @@
     <row r="160" spans="1:18" hidden="1">
       <c r="A160" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-1</v>
+        <v>Form Field Validations-3</v>
       </c>
       <c r="B160" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C160" s="22">
         <f>COUNTIF($B$1:$B159,[Table Name])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E160" s="40" t="s">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="F160" s="40" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G160" s="40"/>
       <c r="H160" s="40"/>
@@ -29385,26 +29400,30 @@
     <row r="161" spans="1:18" hidden="1">
       <c r="A161" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-2</v>
+        <v>Form Field Validations-4</v>
       </c>
       <c r="B161" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C161" s="22">
         <f>COUNTIF($B$1:$B160,[Table Name])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D161" s="40">
         <v>5</v>
       </c>
       <c r="E161" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="G161" s="40"/>
-      <c r="H161" s="40"/>
+        <v>483</v>
+      </c>
+      <c r="G161" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H161" s="40" t="s">
+        <v>271</v>
+      </c>
       <c r="I161" s="40"/>
       <c r="J161" s="40"/>
       <c r="K161" s="40"/>
@@ -29419,23 +29438,23 @@
     <row r="162" spans="1:18" hidden="1">
       <c r="A162" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-3</v>
+        <v>Form Field Validations-5</v>
       </c>
       <c r="B162" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C162" s="22">
         <f>COUNTIF($B$1:$B161,[Table Name])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D162" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E162" s="40" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="F162" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G162" s="40"/>
       <c r="H162" s="40"/>
@@ -29453,30 +29472,26 @@
     <row r="163" spans="1:18" hidden="1">
       <c r="A163" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-4</v>
+        <v>Form Field Validations-6</v>
       </c>
       <c r="B163" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C163" s="22">
         <f>COUNTIF($B$1:$B162,[Table Name])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D163" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E163" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F163" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G163" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H163" s="40" t="s">
-        <v>271</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
       <c r="I163" s="40"/>
       <c r="J163" s="40"/>
       <c r="K163" s="40"/>
@@ -29491,23 +29506,23 @@
     <row r="164" spans="1:18" hidden="1">
       <c r="A164" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-5</v>
+        <v>Form Field Validations-7</v>
       </c>
       <c r="B164" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C164" s="22">
         <f>COUNTIF($B$1:$B163,[Table Name])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D164" s="40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E164" s="40" t="s">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="F164" s="40" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G164" s="40"/>
       <c r="H164" s="40"/>
@@ -29525,26 +29540,30 @@
     <row r="165" spans="1:18" hidden="1">
       <c r="A165" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-6</v>
+        <v>Form Field Validations-8</v>
       </c>
       <c r="B165" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C165" s="22">
         <f>COUNTIF($B$1:$B164,[Table Name])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D165" s="40">
         <v>7</v>
       </c>
       <c r="E165" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F165" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="G165" s="40"/>
-      <c r="H165" s="40"/>
+        <v>483</v>
+      </c>
+      <c r="G165" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H165" s="40" t="s">
+        <v>271</v>
+      </c>
       <c r="I165" s="40"/>
       <c r="J165" s="40"/>
       <c r="K165" s="40"/>
@@ -29559,27 +29578,33 @@
     <row r="166" spans="1:18" hidden="1">
       <c r="A166" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-7</v>
+        <v>Resource Relations-18</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C166" s="22">
         <f>COUNTIF($B$1:$B165,[Table Name])</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D166" s="40">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E166" s="40" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="F166" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="G166" s="40"/>
-      <c r="H166" s="40"/>
-      <c r="I166" s="40"/>
+        <v>485</v>
+      </c>
+      <c r="G166" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H166" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I166" s="40">
+        <v>4</v>
+      </c>
       <c r="J166" s="40"/>
       <c r="K166" s="40"/>
       <c r="L166" s="40"/>
@@ -29593,31 +29618,33 @@
     <row r="167" spans="1:18" hidden="1">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-8</v>
+        <v>Resources-17</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>477</v>
+        <v>220</v>
       </c>
       <c r="C167" s="22">
         <f>COUNTIF($B$1:$B166,[Table Name])</f>
-        <v>8</v>
-      </c>
-      <c r="D167" s="40">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D167" s="40" t="s">
+        <v>486</v>
       </c>
       <c r="E167" s="40" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F167" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G167" s="40" t="s">
-        <v>178</v>
+        <v>488</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>562</v>
       </c>
       <c r="H167" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I167" s="40"/>
+        <v>489</v>
+      </c>
+      <c r="I167" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="J167" s="40"/>
       <c r="K167" s="40"/>
       <c r="L167" s="40"/>
@@ -29631,32 +29658,32 @@
     <row r="168" spans="1:18" hidden="1">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-18</v>
+        <v>Resource Relations-19</v>
       </c>
       <c r="B168" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C168" s="22">
         <f>COUNTIF($B$1:$B167,[Table Name])</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D168" s="40">
         <v>12</v>
       </c>
       <c r="E168" s="40" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F168" s="40" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>208</v>
+        <v>491</v>
       </c>
       <c r="H168" s="40" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="I168" s="40">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J168" s="40"/>
       <c r="K168" s="40"/>
@@ -29671,36 +29698,42 @@
     <row r="169" spans="1:18" hidden="1">
       <c r="A169" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-17</v>
+        <v>Form Defaults-0</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>220</v>
+        <v>488</v>
       </c>
       <c r="C169" s="22">
         <f>COUNTIF($B$1:$B168,[Table Name])</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D169" s="40" t="s">
-        <v>486</v>
+        <v>117</v>
       </c>
       <c r="E169" s="40" t="s">
-        <v>487</v>
+        <v>26</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>563</v>
+        <v>96</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>489</v>
+        <v>127</v>
       </c>
       <c r="I169" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J169" s="40"/>
-      <c r="K169" s="40"/>
-      <c r="L169" s="40"/>
+        <v>578</v>
+      </c>
+      <c r="J169" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="K169" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="L169" s="40" t="s">
+        <v>36</v>
+      </c>
       <c r="M169" s="40"/>
       <c r="N169" s="40"/>
       <c r="O169" s="40"/>
@@ -29711,33 +29744,29 @@
     <row r="170" spans="1:18" hidden="1">
       <c r="A170" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-19</v>
+        <v>Form Defaults-1</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="C170" s="22">
         <f>COUNTIF($B$1:$B169,[Table Name])</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D170" s="40">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E170" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="F170" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="G170" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="H170" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I170" s="40">
-        <v>17</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F170" s="40">
+        <v>3</v>
+      </c>
+      <c r="G170" s="40">
+        <v>1</v>
+      </c>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40"/>
       <c r="J170" s="40"/>
       <c r="K170" s="40"/>
       <c r="L170" s="40"/>
@@ -29751,42 +29780,32 @@
     <row r="171" spans="1:18" hidden="1">
       <c r="A171" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Defaults-0</v>
+        <v>Form Defaults-2</v>
       </c>
       <c r="B171" s="40" t="s">
         <v>488</v>
       </c>
       <c r="C171" s="22">
         <f>COUNTIF($B$1:$B170,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D171" s="40" t="s">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="D171" s="40">
+        <v>3</v>
       </c>
       <c r="E171" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F171" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G171" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H171" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I171" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="J171" s="40" t="s">
-        <v>580</v>
-      </c>
-      <c r="K171" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="L171" s="40" t="s">
-        <v>36</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F171" s="40">
+        <v>2</v>
+      </c>
+      <c r="G171" s="40">
+        <v>1</v>
+      </c>
+      <c r="H171" s="40"/>
+      <c r="I171" s="40"/>
+      <c r="J171" s="40"/>
+      <c r="K171" s="40"/>
+      <c r="L171" s="40"/>
       <c r="M171" s="40"/>
       <c r="N171" s="40"/>
       <c r="O171" s="40"/>
@@ -29797,29 +29816,33 @@
     <row r="172" spans="1:18" hidden="1">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Defaults-1</v>
+        <v>Resources-18</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>488</v>
+        <v>220</v>
       </c>
       <c r="C172" s="22">
         <f>COUNTIF($B$1:$B171,[Table Name])</f>
-        <v>1</v>
-      </c>
-      <c r="D172" s="40">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D172" s="40" t="s">
+        <v>492</v>
       </c>
       <c r="E172" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F172" s="40">
-        <v>3</v>
-      </c>
-      <c r="G172" s="40">
-        <v>1</v>
-      </c>
-      <c r="H172" s="40"/>
-      <c r="I172" s="40"/>
+        <v>493</v>
+      </c>
+      <c r="F172" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="I172" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="J172" s="40"/>
       <c r="K172" s="40"/>
       <c r="L172" s="40"/>
@@ -29833,29 +29856,33 @@
     <row r="173" spans="1:18" hidden="1">
       <c r="A173" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Defaults-2</v>
+        <v>Resource Relations-20</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="C173" s="22">
         <f>COUNTIF($B$1:$B172,[Table Name])</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D173" s="40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E173" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F173" s="40">
-        <v>2</v>
-      </c>
-      <c r="G173" s="40">
-        <v>1</v>
-      </c>
-      <c r="H173" s="40"/>
-      <c r="I173" s="40"/>
+        <v>494</v>
+      </c>
+      <c r="F173" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="G173" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="H173" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="I173" s="40">
+        <v>18</v>
+      </c>
       <c r="J173" s="40"/>
       <c r="K173" s="40"/>
       <c r="L173" s="40"/>
@@ -29869,32 +29896,32 @@
     <row r="174" spans="1:18" hidden="1">
       <c r="A174" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-18</v>
+        <v>Resource Relations-21</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="C174" s="22">
         <f>COUNTIF($B$1:$B173,[Table Name])</f>
-        <v>18</v>
-      </c>
-      <c r="D174" s="40" t="s">
-        <v>492</v>
+        <v>21</v>
+      </c>
+      <c r="D174" s="40">
+        <v>4</v>
       </c>
       <c r="E174" s="40" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="F174" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="G174" s="15" t="s">
-        <v>563</v>
+        <v>497</v>
+      </c>
+      <c r="G174" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="H174" s="40" t="s">
-        <v>495</v>
-      </c>
-      <c r="I174" s="40" t="s">
-        <v>21</v>
+        <v>311</v>
+      </c>
+      <c r="I174" s="40">
+        <v>26</v>
       </c>
       <c r="J174" s="40"/>
       <c r="K174" s="40"/>
@@ -29907,189 +29934,177 @@
       <c r="R174" s="40"/>
     </row>
     <row r="175" spans="1:18" hidden="1">
-      <c r="A175" s="22" t="str">
+      <c r="A175" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-20</v>
+        <v>Resource Relations-22</v>
       </c>
       <c r="B175" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="42">
         <f>COUNTIF($B$1:$B174,[Table Name])</f>
-        <v>20</v>
-      </c>
-      <c r="D175" s="40">
-        <v>13</v>
-      </c>
-      <c r="E175" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="F175" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="G175" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="H175" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="I175" s="40">
+        <v>22</v>
+      </c>
+      <c r="D175" s="43">
         <v>18</v>
       </c>
-      <c r="J175" s="40"/>
-      <c r="K175" s="40"/>
-      <c r="L175" s="40"/>
-      <c r="M175" s="40"/>
-      <c r="N175" s="40"/>
-      <c r="O175" s="40"/>
-      <c r="P175" s="40"/>
-      <c r="Q175" s="40"/>
-      <c r="R175" s="40"/>
+      <c r="E175" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="F175" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="G175" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I175" s="43">
+        <v>4</v>
+      </c>
+      <c r="J175" s="43"/>
+      <c r="K175" s="43"/>
+      <c r="L175" s="43"/>
+      <c r="M175" s="43"/>
+      <c r="N175" s="43"/>
+      <c r="O175" s="43"/>
+      <c r="P175" s="43"/>
+      <c r="Q175" s="43"/>
+      <c r="R175" s="43"/>
     </row>
     <row r="176" spans="1:18" hidden="1">
-      <c r="A176" s="22" t="str">
+      <c r="A176" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-21</v>
+        <v>Resource Relations-23</v>
       </c>
       <c r="B176" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="42">
         <f>COUNTIF($B$1:$B175,[Table Name])</f>
-        <v>21</v>
-      </c>
-      <c r="D176" s="40">
+        <v>23</v>
+      </c>
+      <c r="D176" s="43">
+        <v>17</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="F176" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="G176" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I176" s="43">
         <v>4</v>
       </c>
-      <c r="E176" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="F176" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="G176" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="H176" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I176" s="40">
-        <v>26</v>
-      </c>
-      <c r="J176" s="40"/>
-      <c r="K176" s="40"/>
-      <c r="L176" s="40"/>
-      <c r="M176" s="40"/>
-      <c r="N176" s="40"/>
-      <c r="O176" s="40"/>
-      <c r="P176" s="40"/>
-      <c r="Q176" s="40"/>
-      <c r="R176" s="40"/>
+      <c r="J176" s="43"/>
+      <c r="K176" s="43"/>
+      <c r="L176" s="43"/>
+      <c r="M176" s="43"/>
+      <c r="N176" s="43"/>
+      <c r="O176" s="43"/>
+      <c r="P176" s="43"/>
+      <c r="Q176" s="43"/>
+      <c r="R176" s="43"/>
     </row>
     <row r="177" spans="1:18" hidden="1">
-      <c r="A177" s="42" t="str">
+      <c r="A177" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-22</v>
+        <v>Resource Form Fields-32</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C177" s="42">
+        <v>444</v>
+      </c>
+      <c r="C177" s="22">
         <f>COUNTIF($B$1:$B176,[Table Name])</f>
-        <v>22</v>
-      </c>
-      <c r="D177" s="43">
-        <v>18</v>
-      </c>
-      <c r="E177" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="F177" s="43" t="s">
-        <v>501</v>
-      </c>
-      <c r="G177" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="I177" s="43">
-        <v>4</v>
-      </c>
-      <c r="J177" s="43"/>
-      <c r="K177" s="43"/>
-      <c r="L177" s="43"/>
-      <c r="M177" s="43"/>
-      <c r="N177" s="43"/>
-      <c r="O177" s="43"/>
-      <c r="P177" s="43"/>
-      <c r="Q177" s="43"/>
-      <c r="R177" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="D177" s="40">
+        <v>2</v>
+      </c>
+      <c r="E177" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="F177" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="G177" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="H177" s="40"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="40"/>
+      <c r="L177" s="40"/>
+      <c r="M177" s="40"/>
+      <c r="N177" s="40"/>
+      <c r="O177" s="40"/>
+      <c r="P177" s="40"/>
+      <c r="Q177" s="40"/>
+      <c r="R177" s="40"/>
     </row>
     <row r="178" spans="1:18" hidden="1">
-      <c r="A178" s="42" t="str">
+      <c r="A178" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-23</v>
+        <v>Resource Form Fields-33</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C178" s="42">
+        <v>444</v>
+      </c>
+      <c r="C178" s="22">
         <f>COUNTIF($B$1:$B177,[Table Name])</f>
-        <v>23</v>
-      </c>
-      <c r="D178" s="43">
-        <v>17</v>
-      </c>
-      <c r="E178" s="43" t="s">
-        <v>512</v>
-      </c>
-      <c r="F178" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="G178" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="I178" s="43">
-        <v>4</v>
-      </c>
-      <c r="J178" s="43"/>
-      <c r="K178" s="43"/>
-      <c r="L178" s="43"/>
-      <c r="M178" s="43"/>
-      <c r="N178" s="43"/>
-      <c r="O178" s="43"/>
-      <c r="P178" s="43"/>
-      <c r="Q178" s="43"/>
-      <c r="R178" s="43"/>
+        <v>33</v>
+      </c>
+      <c r="D178" s="40">
+        <v>3</v>
+      </c>
+      <c r="E178" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="F178" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="G178" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="H178" s="40"/>
+      <c r="I178" s="40"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="40"/>
+      <c r="L178" s="40"/>
+      <c r="M178" s="40"/>
+      <c r="N178" s="40"/>
+      <c r="O178" s="40"/>
+      <c r="P178" s="40"/>
+      <c r="Q178" s="40"/>
+      <c r="R178" s="40"/>
     </row>
     <row r="179" spans="1:18" hidden="1">
       <c r="A179" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-32</v>
+        <v>Resource Form Field Data-32</v>
       </c>
       <c r="B179" s="40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C179" s="22">
         <f>COUNTIF($B$1:$B178,[Table Name])</f>
         <v>32</v>
       </c>
       <c r="D179" s="40">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E179" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="F179" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="G179" s="40" t="s">
-        <v>515</v>
-      </c>
+      <c r="F179" s="40"/>
+      <c r="G179" s="40"/>
       <c r="H179" s="40"/>
       <c r="I179" s="40"/>
       <c r="J179" s="40"/>
@@ -30105,27 +30120,23 @@
     <row r="180" spans="1:18" hidden="1">
       <c r="A180" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-33</v>
+        <v>Resource Form Field Data-33</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C180" s="22">
         <f>COUNTIF($B$1:$B179,[Table Name])</f>
         <v>33</v>
       </c>
       <c r="D180" s="40">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E180" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="F180" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="G180" s="40" t="s">
-        <v>515</v>
-      </c>
+      <c r="F180" s="40"/>
+      <c r="G180" s="40"/>
       <c r="H180" s="40"/>
       <c r="I180" s="40"/>
       <c r="J180" s="40"/>
@@ -30141,22 +30152,24 @@
     <row r="181" spans="1:18" hidden="1">
       <c r="A181" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-32</v>
+        <v>Form Field Validations-9</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C181" s="22">
         <f>COUNTIF($B$1:$B180,[Table Name])</f>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D181" s="40">
         <v>32</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="F181" s="40"/>
+        <v>478</v>
+      </c>
+      <c r="F181" s="40" t="s">
+        <v>516</v>
+      </c>
       <c r="G181" s="40"/>
       <c r="H181" s="40"/>
       <c r="I181" s="40"/>
@@ -30173,23 +30186,27 @@
     <row r="182" spans="1:18" hidden="1">
       <c r="A182" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-33</v>
+        <v>Form Field Validations-10</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C182" s="22">
         <f>COUNTIF($B$1:$B181,[Table Name])</f>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D182" s="40">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="F182" s="40"/>
-      <c r="G182" s="40"/>
+        <v>517</v>
+      </c>
+      <c r="F182" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="G182" s="40">
+        <v>3</v>
+      </c>
       <c r="H182" s="40"/>
       <c r="I182" s="40"/>
       <c r="J182" s="40"/>
@@ -30205,17 +30222,17 @@
     <row r="183" spans="1:18" hidden="1">
       <c r="A183" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-9</v>
+        <v>Form Field Validations-11</v>
       </c>
       <c r="B183" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C183" s="22">
         <f>COUNTIF($B$1:$B182,[Table Name])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D183" s="40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E183" s="40" t="s">
         <v>478</v>
@@ -30239,17 +30256,17 @@
     <row r="184" spans="1:18" hidden="1">
       <c r="A184" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-10</v>
+        <v>Form Field Validations-12</v>
       </c>
       <c r="B184" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C184" s="22">
         <f>COUNTIF($B$1:$B183,[Table Name])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D184" s="40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E184" s="40" t="s">
         <v>517</v>
@@ -30275,27 +30292,33 @@
     <row r="185" spans="1:18" hidden="1">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-11</v>
+        <v>Resources-19</v>
       </c>
       <c r="B185" s="40" t="s">
-        <v>477</v>
+        <v>220</v>
       </c>
       <c r="C185" s="22">
         <f>COUNTIF($B$1:$B184,[Table Name])</f>
-        <v>11</v>
-      </c>
-      <c r="D185" s="40">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D185" s="40" t="s">
+        <v>519</v>
       </c>
       <c r="E185" s="40" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="F185" s="40" t="s">
-        <v>516</v>
-      </c>
-      <c r="G185" s="40"/>
-      <c r="H185" s="40"/>
-      <c r="I185" s="40"/>
+        <v>393</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H185" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="I185" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="J185" s="40"/>
       <c r="K185" s="40"/>
       <c r="L185" s="40"/>
@@ -30309,29 +30332,33 @@
     <row r="186" spans="1:18" hidden="1">
       <c r="A186" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-12</v>
+        <v>Resource Relations-24</v>
       </c>
       <c r="B186" s="40" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C186" s="22">
         <f>COUNTIF($B$1:$B185,[Table Name])</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D186" s="40">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>517</v>
+        <v>401</v>
       </c>
       <c r="F186" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="G186" s="40">
-        <v>3</v>
-      </c>
-      <c r="H186" s="40"/>
-      <c r="I186" s="40"/>
+        <v>522</v>
+      </c>
+      <c r="G186" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H186" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I186" s="40">
+        <v>4</v>
+      </c>
       <c r="J186" s="40"/>
       <c r="K186" s="40"/>
       <c r="L186" s="40"/>
@@ -30343,154 +30370,154 @@
       <c r="R186" s="40"/>
     </row>
     <row r="187" spans="1:18" hidden="1">
-      <c r="A187" s="22" t="str">
+      <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-19</v>
+        <v>Resources-20</v>
       </c>
       <c r="B187" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C187" s="22">
+      <c r="C187" s="42">
         <f>COUNTIF($B$1:$B186,[Table Name])</f>
-        <v>19</v>
-      </c>
-      <c r="D187" s="40" t="s">
-        <v>519</v>
-      </c>
-      <c r="E187" s="40" t="s">
-        <v>520</v>
-      </c>
-      <c r="F187" s="40" t="s">
-        <v>393</v>
+        <v>20</v>
+      </c>
+      <c r="D187" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="E187" s="43" t="s">
+        <v>524</v>
+      </c>
+      <c r="F187" s="43" t="s">
+        <v>525</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="H187" s="40" t="s">
-        <v>521</v>
-      </c>
-      <c r="I187" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="H187" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="I187" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
-      <c r="M187" s="40"/>
-      <c r="N187" s="40"/>
-      <c r="O187" s="40"/>
-      <c r="P187" s="40"/>
-      <c r="Q187" s="40"/>
-      <c r="R187" s="40"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="43"/>
+      <c r="N187" s="43"/>
+      <c r="O187" s="43"/>
+      <c r="P187" s="43"/>
+      <c r="Q187" s="43"/>
+      <c r="R187" s="43"/>
     </row>
     <row r="188" spans="1:18" hidden="1">
-      <c r="A188" s="22" t="str">
+      <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-24</v>
+        <v>Resources-21</v>
       </c>
       <c r="B188" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C188" s="22">
+        <v>220</v>
+      </c>
+      <c r="C188" s="42">
         <f>COUNTIF($B$1:$B187,[Table Name])</f>
-        <v>24</v>
-      </c>
-      <c r="D188" s="40">
-        <v>19</v>
-      </c>
-      <c r="E188" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="F188" s="40" t="s">
-        <v>522</v>
-      </c>
-      <c r="G188" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H188" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="I188" s="40">
-        <v>4</v>
-      </c>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="40"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="D188" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E188" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="F188" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H188" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="I188" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" s="43"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="43"/>
+      <c r="M188" s="43"/>
+      <c r="N188" s="43"/>
+      <c r="O188" s="43"/>
+      <c r="P188" s="43"/>
+      <c r="Q188" s="43"/>
+      <c r="R188" s="43"/>
     </row>
     <row r="189" spans="1:18" hidden="1">
-      <c r="A189" s="42" t="str">
+      <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-20</v>
+        <v>Resources-22</v>
       </c>
       <c r="B189" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C189" s="42">
+      <c r="C189" s="22">
         <f>COUNTIF($B$1:$B188,[Table Name])</f>
-        <v>20</v>
-      </c>
-      <c r="D189" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="E189" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="F189" s="43" t="s">
-        <v>525</v>
+        <v>22</v>
+      </c>
+      <c r="D189" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="F189" s="40" t="s">
+        <v>532</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="H189" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="I189" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="H189" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="I189" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J189" s="43"/>
-      <c r="K189" s="43"/>
-      <c r="L189" s="43"/>
-      <c r="M189" s="43"/>
-      <c r="N189" s="43"/>
-      <c r="O189" s="43"/>
-      <c r="P189" s="43"/>
-      <c r="Q189" s="43"/>
-      <c r="R189" s="43"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="40"/>
+      <c r="M189" s="40"/>
+      <c r="N189" s="40"/>
+      <c r="O189" s="40"/>
+      <c r="P189" s="40"/>
+      <c r="Q189" s="40"/>
+      <c r="R189" s="40"/>
     </row>
     <row r="190" spans="1:18" hidden="1">
       <c r="A190" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-21</v>
+        <v>Resource Relations-25</v>
       </c>
       <c r="B190" s="40" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="C190" s="42">
         <f>COUNTIF($B$1:$B189,[Table Name])</f>
-        <v>21</v>
-      </c>
-      <c r="D190" s="43" t="s">
-        <v>527</v>
+        <v>25</v>
+      </c>
+      <c r="D190" s="43">
+        <v>19</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F190" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="G190" s="15" t="s">
-        <v>563</v>
+        <v>524</v>
+      </c>
+      <c r="G190" s="43" t="s">
+        <v>498</v>
       </c>
       <c r="H190" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="I190" s="43" t="s">
-        <v>21</v>
+        <v>311</v>
+      </c>
+      <c r="I190" s="43">
+        <v>20</v>
       </c>
       <c r="J190" s="43"/>
       <c r="K190" s="43"/>
@@ -30503,113 +30530,113 @@
       <c r="R190" s="43"/>
     </row>
     <row r="191" spans="1:18" hidden="1">
-      <c r="A191" s="22" t="str">
+      <c r="A191" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-22</v>
+        <v>Resource Relations-26</v>
       </c>
       <c r="B191" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C191" s="22">
+        <v>443</v>
+      </c>
+      <c r="C191" s="42">
         <f>COUNTIF($B$1:$B190,[Table Name])</f>
-        <v>22</v>
-      </c>
-      <c r="D191" s="40" t="s">
-        <v>530</v>
-      </c>
-      <c r="E191" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="F191" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="G191" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="H191" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="I191" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" s="43">
+        <v>4</v>
+      </c>
+      <c r="E191" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="F191" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="G191" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="H191" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="I191" s="43">
         <v>21</v>
       </c>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
-      <c r="O191" s="40"/>
-      <c r="P191" s="40"/>
-      <c r="Q191" s="40"/>
-      <c r="R191" s="40"/>
+      <c r="J191" s="43"/>
+      <c r="K191" s="43"/>
+      <c r="L191" s="43"/>
+      <c r="M191" s="43"/>
+      <c r="N191" s="43"/>
+      <c r="O191" s="43"/>
+      <c r="P191" s="43"/>
+      <c r="Q191" s="43"/>
+      <c r="R191" s="43"/>
     </row>
     <row r="192" spans="1:18" hidden="1">
-      <c r="A192" s="42" t="str">
+      <c r="A192" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-25</v>
+        <v>Resource Relations-27</v>
       </c>
       <c r="B192" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="C192" s="42">
+      <c r="C192" s="22">
         <f>COUNTIF($B$1:$B191,[Table Name])</f>
-        <v>25</v>
-      </c>
-      <c r="D192" s="43">
+        <v>27</v>
+      </c>
+      <c r="D192" s="40">
         <v>19</v>
       </c>
-      <c r="E192" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="F192" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="G192" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="H192" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="I192" s="43">
-        <v>20</v>
-      </c>
-      <c r="J192" s="43"/>
-      <c r="K192" s="43"/>
-      <c r="L192" s="43"/>
-      <c r="M192" s="43"/>
-      <c r="N192" s="43"/>
-      <c r="O192" s="43"/>
-      <c r="P192" s="43"/>
-      <c r="Q192" s="43"/>
-      <c r="R192" s="43"/>
+      <c r="E192" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="H192" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="I192" s="40">
+        <v>21</v>
+      </c>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="40"/>
+      <c r="O192" s="40"/>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="40"/>
+      <c r="R192" s="40"/>
     </row>
     <row r="193" spans="1:18" hidden="1">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-26</v>
+        <v>Resources-23</v>
       </c>
       <c r="B193" s="40" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="C193" s="42">
         <f>COUNTIF($B$1:$B192,[Table Name])</f>
-        <v>26</v>
-      </c>
-      <c r="D193" s="43">
-        <v>4</v>
-      </c>
-      <c r="E193" s="43" t="s">
-        <v>440</v>
+        <v>23</v>
+      </c>
+      <c r="D193" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="F193" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="G193" s="43" t="s">
-        <v>535</v>
+        <v>395</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>562</v>
       </c>
       <c r="H193" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="I193" s="43">
+        <v>548</v>
+      </c>
+      <c r="I193" s="43" t="s">
         <v>21</v>
       </c>
       <c r="J193" s="43"/>
@@ -30625,31 +30652,31 @@
     <row r="194" spans="1:18" hidden="1">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-27</v>
+        <v>Resources-24</v>
       </c>
       <c r="B194" s="40" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="C194" s="22">
         <f>COUNTIF($B$1:$B193,[Table Name])</f>
-        <v>27</v>
-      </c>
-      <c r="D194" s="40">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D194" s="40" t="s">
+        <v>549</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="F194" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="G194" s="40" t="s">
-        <v>535</v>
+        <v>551</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>562</v>
       </c>
       <c r="H194" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="I194" s="40">
+        <v>552</v>
+      </c>
+      <c r="I194" s="40" t="s">
         <v>21</v>
       </c>
       <c r="J194" s="40"/>
@@ -30663,74 +30690,74 @@
       <c r="R194" s="40"/>
     </row>
     <row r="195" spans="1:18" hidden="1">
-      <c r="A195" s="42" t="str">
+      <c r="A195" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-23</v>
+        <v>Resource Relations-28</v>
       </c>
       <c r="B195" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C195" s="42">
+        <v>443</v>
+      </c>
+      <c r="C195" s="22">
         <f>COUNTIF($B$1:$B194,[Table Name])</f>
+        <v>28</v>
+      </c>
+      <c r="D195" s="40">
         <v>23</v>
       </c>
-      <c r="D195" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="F195" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="H195" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="I195" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J195" s="43"/>
-      <c r="K195" s="43"/>
-      <c r="L195" s="43"/>
-      <c r="M195" s="43"/>
-      <c r="N195" s="43"/>
-      <c r="O195" s="43"/>
-      <c r="P195" s="43"/>
-      <c r="Q195" s="43"/>
-      <c r="R195" s="43"/>
+      <c r="E195" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="G195" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="H195" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I195" s="40">
+        <v>24</v>
+      </c>
+      <c r="J195" s="40"/>
+      <c r="K195" s="40"/>
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="40"/>
+      <c r="O195" s="40"/>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="40"/>
+      <c r="R195" s="40"/>
     </row>
     <row r="196" spans="1:18" hidden="1">
       <c r="A196" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-24</v>
+        <v>Resource Relations-29</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="C196" s="22">
         <f>COUNTIF($B$1:$B195,[Table Name])</f>
-        <v>24</v>
-      </c>
-      <c r="D196" s="40" t="s">
-        <v>549</v>
+        <v>29</v>
+      </c>
+      <c r="D196" s="40">
+        <v>23</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>550</v>
+        <v>401</v>
       </c>
       <c r="F196" s="40" t="s">
-        <v>551</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>563</v>
+        <v>555</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="H196" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="I196" s="40" t="s">
-        <v>21</v>
+        <v>403</v>
+      </c>
+      <c r="I196" s="40">
+        <v>4</v>
       </c>
       <c r="J196" s="40"/>
       <c r="K196" s="40"/>
@@ -30745,35 +30772,37 @@
     <row r="197" spans="1:18" hidden="1">
       <c r="A197" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-28</v>
+        <v>Resource Actions-7</v>
       </c>
       <c r="B197" s="40" t="s">
-        <v>443</v>
+        <v>316</v>
       </c>
       <c r="C197" s="22">
         <f>COUNTIF($B$1:$B196,[Table Name])</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D197" s="40">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F197" s="40" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G197" s="40" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="H197" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I197" s="40">
-        <v>24</v>
-      </c>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
+        <v>343</v>
+      </c>
+      <c r="I197" s="40"/>
+      <c r="J197" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="K197" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L197" s="40"/>
       <c r="M197" s="40"/>
       <c r="N197" s="40"/>
@@ -30785,33 +30814,27 @@
     <row r="198" spans="1:18" hidden="1">
       <c r="A198" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-29</v>
-      </c>
-      <c r="B198" s="40" t="s">
-        <v>443</v>
+        <v>Resource Action Method-7</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C198" s="22">
         <f>COUNTIF($B$1:$B197,[Table Name])</f>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D198" s="40">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="F198" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="G198" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H198" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="I198" s="40">
-        <v>4</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="F198" s="40"/>
+      <c r="G198" s="40">
+        <v>1</v>
+      </c>
+      <c r="H198" s="40"/>
+      <c r="I198" s="40"/>
       <c r="J198" s="40"/>
       <c r="K198" s="40"/>
       <c r="L198" s="40"/>
@@ -30825,37 +30848,27 @@
     <row r="199" spans="1:18" hidden="1">
       <c r="A199" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Actions-7</v>
+        <v>Resource Action List-0</v>
       </c>
       <c r="B199" s="40" t="s">
-        <v>316</v>
+        <v>556</v>
       </c>
       <c r="C199" s="22">
         <f>COUNTIF($B$1:$B198,[Table Name])</f>
-        <v>7</v>
-      </c>
-      <c r="D199" s="40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D199" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="F199" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G199" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H199" s="40" t="s">
-        <v>343</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F199" s="40"/>
+      <c r="G199" s="40"/>
+      <c r="H199" s="40"/>
       <c r="I199" s="40"/>
-      <c r="J199" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="K199" s="40" t="s">
-        <v>341</v>
-      </c>
+      <c r="J199" s="40"/>
+      <c r="K199" s="40"/>
       <c r="L199" s="40"/>
       <c r="M199" s="40"/>
       <c r="N199" s="40"/>
@@ -30867,25 +30880,23 @@
     <row r="200" spans="1:18" hidden="1">
       <c r="A200" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Method-7</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>446</v>
+        <v>Resource Action List-1</v>
+      </c>
+      <c r="B200" s="40" t="s">
+        <v>556</v>
       </c>
       <c r="C200" s="22">
         <f>COUNTIF($B$1:$B199,[Table Name])</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D200" s="40">
         <v>7</v>
       </c>
-      <c r="E200" s="40" t="s">
-        <v>395</v>
+      <c r="E200" s="40">
+        <v>2</v>
       </c>
       <c r="F200" s="40"/>
-      <c r="G200" s="40">
-        <v>1</v>
-      </c>
+      <c r="G200" s="40"/>
       <c r="H200" s="40"/>
       <c r="I200" s="40"/>
       <c r="J200" s="40"/>
@@ -30901,24 +30912,30 @@
     <row r="201" spans="1:18" hidden="1">
       <c r="A201" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action List-0</v>
+        <v>Resource Data-0</v>
       </c>
       <c r="B201" s="40" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C201" s="22">
         <f>COUNTIF($B$1:$B200,[Table Name])</f>
         <v>0</v>
       </c>
       <c r="D201" s="40" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F201" s="40"/>
-      <c r="G201" s="40"/>
-      <c r="H201" s="40"/>
+        <v>26</v>
+      </c>
+      <c r="F201" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H201" s="40" t="s">
+        <v>36</v>
+      </c>
       <c r="I201" s="40"/>
       <c r="J201" s="40"/>
       <c r="K201" s="40"/>
@@ -30933,23 +30950,27 @@
     <row r="202" spans="1:18" hidden="1">
       <c r="A202" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action List-1</v>
+        <v>Resource Data-1</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C202" s="22">
         <f>COUNTIF($B$1:$B201,[Table Name])</f>
         <v>1</v>
       </c>
       <c r="D202" s="40">
-        <v>7</v>
-      </c>
-      <c r="E202" s="40">
-        <v>2</v>
-      </c>
-      <c r="F202" s="40"/>
-      <c r="G202" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="E202" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F202" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="G202" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="H202" s="40"/>
       <c r="I202" s="40"/>
       <c r="J202" s="40"/>
@@ -30965,30 +30986,28 @@
     <row r="203" spans="1:18" hidden="1">
       <c r="A203" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Data-0</v>
+        <v>Resource Data-2</v>
       </c>
       <c r="B203" s="40" t="s">
         <v>557</v>
       </c>
       <c r="C203" s="22">
         <f>COUNTIF($B$1:$B202,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D203" s="40" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="D203" s="40">
+        <v>1</v>
       </c>
       <c r="E203" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="F203" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="G203" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F203" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G203" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H203" s="40" t="s">
-        <v>36</v>
-      </c>
+      <c r="H203" s="40"/>
       <c r="I203" s="40"/>
       <c r="J203" s="40"/>
       <c r="K203" s="40"/>
@@ -31003,31 +31022,37 @@
     <row r="204" spans="1:18" hidden="1">
       <c r="A204" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Data-1</v>
+        <v>Resource Actions-8</v>
       </c>
       <c r="B204" s="40" t="s">
-        <v>557</v>
+        <v>316</v>
       </c>
       <c r="C204" s="22">
         <f>COUNTIF($B$1:$B203,[Table Name])</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D204" s="40">
         <v>1</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="F204" s="40" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G204" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H204" s="40"/>
+        <v>545</v>
+      </c>
+      <c r="H204" s="40" t="s">
+        <v>343</v>
+      </c>
       <c r="I204" s="40"/>
-      <c r="J204" s="40"/>
-      <c r="K204" s="40"/>
+      <c r="J204" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="K204" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L204" s="40"/>
       <c r="M204" s="40"/>
       <c r="N204" s="40"/>
@@ -31039,26 +31064,24 @@
     <row r="205" spans="1:18" hidden="1">
       <c r="A205" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Data-2</v>
+        <v>Resource Action Method-8</v>
       </c>
       <c r="B205" s="40" t="s">
-        <v>557</v>
+        <v>446</v>
       </c>
       <c r="C205" s="22">
         <f>COUNTIF($B$1:$B204,[Table Name])</f>
+        <v>8</v>
+      </c>
+      <c r="D205" s="40">
+        <v>8</v>
+      </c>
+      <c r="E205" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="F205" s="40"/>
+      <c r="G205" s="40">
         <v>2</v>
-      </c>
-      <c r="D205" s="40">
-        <v>1</v>
-      </c>
-      <c r="E205" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="F205" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="G205" s="40" t="s">
-        <v>26</v>
       </c>
       <c r="H205" s="40"/>
       <c r="I205" s="40"/>
@@ -31075,37 +31098,27 @@
     <row r="206" spans="1:18" hidden="1">
       <c r="A206" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Actions-8</v>
+        <v>Resource Action List-2</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>316</v>
+        <v>556</v>
       </c>
       <c r="C206" s="22">
         <f>COUNTIF($B$1:$B205,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D206" s="40">
         <v>8</v>
       </c>
-      <c r="D206" s="40">
-        <v>1</v>
-      </c>
-      <c r="E206" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="F206" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="G206" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H206" s="40" t="s">
-        <v>343</v>
-      </c>
+      <c r="E206" s="40">
+        <v>3</v>
+      </c>
+      <c r="F206" s="40"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="40"/>
       <c r="I206" s="40"/>
-      <c r="J206" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="K206" s="40" t="s">
-        <v>341</v>
-      </c>
+      <c r="J206" s="40"/>
+      <c r="K206" s="40"/>
       <c r="L206" s="40"/>
       <c r="M206" s="40"/>
       <c r="N206" s="40"/>
@@ -31117,27 +31130,33 @@
     <row r="207" spans="1:18" hidden="1">
       <c r="A207" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Method-8</v>
+        <v>Resource List Layout-0</v>
       </c>
       <c r="B207" s="40" t="s">
-        <v>446</v>
+        <v>565</v>
       </c>
       <c r="C207" s="22">
         <f>COUNTIF($B$1:$B206,[Table Name])</f>
-        <v>8</v>
-      </c>
-      <c r="D207" s="40">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="D207" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="F207" s="40"/>
-      <c r="G207" s="40">
-        <v>2</v>
-      </c>
-      <c r="H207" s="40"/>
-      <c r="I207" s="40"/>
+        <v>269</v>
+      </c>
+      <c r="F207" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="G207" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H207" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="I207" s="40" t="s">
+        <v>579</v>
+      </c>
       <c r="J207" s="40"/>
       <c r="K207" s="40"/>
       <c r="L207" s="40"/>
@@ -31151,22 +31170,24 @@
     <row r="208" spans="1:18" hidden="1">
       <c r="A208" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action List-2</v>
+        <v>Resource List Layout-1</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C208" s="22">
         <f>COUNTIF($B$1:$B207,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D208" s="40">
         <v>2</v>
       </c>
-      <c r="D208" s="40">
-        <v>8</v>
-      </c>
-      <c r="E208" s="40">
-        <v>3</v>
-      </c>
-      <c r="F208" s="40"/>
+      <c r="E208" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="G208" s="40"/>
       <c r="H208" s="40"/>
       <c r="I208" s="40"/>
@@ -31183,33 +31204,27 @@
     <row r="209" spans="1:18" hidden="1">
       <c r="A209" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource List Layout-0</v>
+        <v>Resource List Layout-2</v>
       </c>
       <c r="B209" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C209" s="22">
         <f>COUNTIF($B$1:$B208,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D209" s="40" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="D209" s="40">
+        <v>2</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F209" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="G209" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H209" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="I209" s="40" t="s">
-        <v>580</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G209" s="40"/>
+      <c r="H209" s="40"/>
+      <c r="I209" s="40"/>
       <c r="J209" s="40"/>
       <c r="K209" s="40"/>
       <c r="L209" s="40"/>
@@ -31223,17 +31238,17 @@
     <row r="210" spans="1:18" hidden="1">
       <c r="A210" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource List Layout-1</v>
+        <v>Resource List Layout-3</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C210" s="22">
         <f>COUNTIF($B$1:$B209,[Table Name])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210" s="40" t="s">
         <v>1</v>
@@ -31257,17 +31272,17 @@
     <row r="211" spans="1:18" hidden="1">
       <c r="A211" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource List Layout-2</v>
+        <v>Resource List Layout-4</v>
       </c>
       <c r="B211" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C211" s="22">
         <f>COUNTIF($B$1:$B210,[Table Name])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D211" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E211" s="40" t="s">
         <v>272</v>
@@ -31289,182 +31304,194 @@
       <c r="R211" s="40"/>
     </row>
     <row r="212" spans="1:18" hidden="1">
-      <c r="A212" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource List Layout-3</v>
-      </c>
-      <c r="B212" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C212" s="22">
-        <f>COUNTIF($B$1:$B211,[Table Name])</f>
-        <v>3</v>
-      </c>
-      <c r="D212" s="40">
-        <v>3</v>
-      </c>
-      <c r="E212" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F212" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" s="40"/>
-      <c r="H212" s="40"/>
-      <c r="I212" s="40"/>
-      <c r="J212" s="40"/>
-      <c r="K212" s="40"/>
-      <c r="L212" s="40"/>
-      <c r="M212" s="40"/>
-      <c r="N212" s="40"/>
-      <c r="O212" s="40"/>
-      <c r="P212" s="40"/>
-      <c r="Q212" s="40"/>
-      <c r="R212" s="40"/>
-    </row>
-    <row r="213" spans="1:18" hidden="1">
-      <c r="A213" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource List Layout-4</v>
-      </c>
-      <c r="B213" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C213" s="22">
-        <f>COUNTIF($B$1:$B212,[Table Name])</f>
-        <v>4</v>
-      </c>
-      <c r="D213" s="40">
-        <v>3</v>
-      </c>
-      <c r="E213" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="F213" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="G213" s="40"/>
-      <c r="H213" s="40"/>
-      <c r="I213" s="40"/>
-      <c r="J213" s="40"/>
-      <c r="K213" s="40"/>
-      <c r="L213" s="40"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="40"/>
-      <c r="O213" s="40"/>
-      <c r="P213" s="40"/>
-      <c r="Q213" s="40"/>
-      <c r="R213" s="40"/>
-    </row>
-    <row r="214" spans="1:18" hidden="1">
-      <c r="A214" s="19" t="str">
+      <c r="A212" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-25</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B212" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="19">
-        <f>COUNTIF($B$1:$B213,[Table Name])</f>
+      <c r="C212" s="19">
+        <f>COUNTIF($B$1:$B211,[Table Name])</f>
         <v>25</v>
       </c>
-      <c r="D214" s="16" t="s">
+      <c r="D212" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E212" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="F212" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="F214" s="16" t="s">
+      <c r="G212" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="H212" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="G214" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="H214" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="I214" s="16" t="s">
+      <c r="I212" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J214" s="16"/>
-      <c r="K214" s="16"/>
-      <c r="L214" s="16"/>
-      <c r="M214" s="16"/>
-      <c r="N214" s="16"/>
-      <c r="O214" s="16"/>
-      <c r="P214" s="16"/>
-      <c r="Q214" s="16"/>
-      <c r="R214" s="16"/>
-    </row>
-    <row r="215" spans="1:18" hidden="1">
-      <c r="A215" s="19" t="str">
+      <c r="J212" s="16"/>
+      <c r="K212" s="16"/>
+      <c r="L212" s="16"/>
+      <c r="M212" s="16"/>
+      <c r="N212" s="16"/>
+      <c r="O212" s="16"/>
+      <c r="P212" s="16"/>
+      <c r="Q212" s="16"/>
+      <c r="R212" s="16"/>
+    </row>
+    <row r="213" spans="1:18" hidden="1">
+      <c r="A213" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-30</v>
       </c>
+      <c r="B213" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C213" s="19">
+        <f>COUNTIF($B$1:$B212,[Table Name])</f>
+        <v>30</v>
+      </c>
+      <c r="D213" s="16">
+        <v>19</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="G213" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="H213" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I213" s="16">
+        <v>25</v>
+      </c>
+      <c r="J213" s="16"/>
+      <c r="K213" s="16"/>
+      <c r="L213" s="16"/>
+      <c r="M213" s="16"/>
+      <c r="N213" s="16"/>
+      <c r="O213" s="16"/>
+      <c r="P213" s="16"/>
+      <c r="Q213" s="16"/>
+      <c r="R213" s="16"/>
+    </row>
+    <row r="214" spans="1:18" hidden="1">
+      <c r="A214" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resources-26</v>
+      </c>
+      <c r="B214" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C214" s="22">
+        <f>COUNTIF($B$1:$B213,[Table Name])</f>
+        <v>26</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="F214" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="G214" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="H214" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="I214" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J214" s="40"/>
+      <c r="K214" s="40"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40"/>
+      <c r="R214" s="40"/>
+    </row>
+    <row r="215" spans="1:18" hidden="1">
+      <c r="A215" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-31</v>
+      </c>
       <c r="B215" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="C215" s="19">
+      <c r="C215" s="22">
         <f>COUNTIF($B$1:$B214,[Table Name])</f>
-        <v>30</v>
-      </c>
-      <c r="D215" s="16">
-        <v>19</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F215" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="G215" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="H215" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D215" s="40">
+        <v>26</v>
+      </c>
+      <c r="E215" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="F215" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="G215" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="H215" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="I215" s="16">
-        <v>25</v>
-      </c>
-      <c r="J215" s="16"/>
-      <c r="K215" s="16"/>
-      <c r="L215" s="16"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="16"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="16"/>
-      <c r="Q215" s="16"/>
-      <c r="R215" s="16"/>
+      <c r="I215" s="40">
+        <v>26</v>
+      </c>
+      <c r="J215" s="40"/>
+      <c r="K215" s="40"/>
+      <c r="L215" s="40"/>
+      <c r="M215" s="40"/>
+      <c r="N215" s="40"/>
+      <c r="O215" s="40"/>
+      <c r="P215" s="40"/>
+      <c r="Q215" s="40"/>
+      <c r="R215" s="40"/>
     </row>
     <row r="216" spans="1:18" hidden="1">
       <c r="A216" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-26</v>
+        <v>Resource Relations-32</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
       <c r="C216" s="22">
         <f>COUNTIF($B$1:$B215,[Table Name])</f>
+        <v>32</v>
+      </c>
+      <c r="D216" s="40">
         <v>26</v>
       </c>
-      <c r="D216" s="40" t="s">
-        <v>573</v>
-      </c>
       <c r="E216" s="40" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="F216" s="40" t="s">
-        <v>443</v>
+        <v>591</v>
       </c>
       <c r="G216" s="40" t="s">
-        <v>563</v>
+        <v>304</v>
       </c>
       <c r="H216" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="I216" s="40" t="s">
-        <v>21</v>
+        <v>403</v>
+      </c>
+      <c r="I216" s="40">
+        <v>4</v>
       </c>
       <c r="J216" s="40"/>
       <c r="K216" s="40"/>
@@ -31479,32 +31506,32 @@
     <row r="217" spans="1:18" hidden="1">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-31</v>
+        <v>Resources-27</v>
       </c>
       <c r="B217" s="40" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="C217" s="22">
         <f>COUNTIF($B$1:$B216,[Table Name])</f>
-        <v>31</v>
-      </c>
-      <c r="D217" s="40">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D217" s="40" t="s">
+        <v>597</v>
       </c>
       <c r="E217" s="40" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F217" s="40" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G217" s="40" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="H217" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I217" s="40">
-        <v>26</v>
+        <v>600</v>
+      </c>
+      <c r="I217" s="40" t="s">
+        <v>21</v>
       </c>
       <c r="J217" s="40"/>
       <c r="K217" s="40"/>
@@ -31519,32 +31546,32 @@
     <row r="218" spans="1:18" hidden="1">
       <c r="A218" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-32</v>
+        <v>Resource Relations-33</v>
       </c>
       <c r="B218" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C218" s="22">
         <f>COUNTIF($B$1:$B217,[Table Name])</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D218" s="40">
         <v>26</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F218" s="40" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="G218" s="40" t="s">
-        <v>304</v>
+        <v>570</v>
       </c>
       <c r="H218" s="40" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="I218" s="40">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J218" s="40"/>
       <c r="K218" s="40"/>
@@ -31559,33 +31586,27 @@
     <row r="219" spans="1:18" hidden="1">
       <c r="A219" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-27</v>
+        <v>Form Layout-0</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>220</v>
+        <v>599</v>
       </c>
       <c r="C219" s="22">
         <f>COUNTIF($B$1:$B218,[Table Name])</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>598</v>
+        <v>117</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="F219" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="G219" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="H219" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="I219" s="40" t="s">
-        <v>21</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="G219" s="40"/>
+      <c r="H219" s="40"/>
+      <c r="I219" s="40"/>
       <c r="J219" s="40"/>
       <c r="K219" s="40"/>
       <c r="L219" s="40"/>
@@ -31599,33 +31620,27 @@
     <row r="220" spans="1:18" hidden="1">
       <c r="A220" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-33</v>
+        <v>Form Layout-1</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>443</v>
+        <v>599</v>
       </c>
       <c r="C220" s="22">
         <f>COUNTIF($B$1:$B219,[Table Name])</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D220" s="40">
-        <v>26</v>
-      </c>
-      <c r="E220" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="F220" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="G220" s="40" t="s">
-        <v>571</v>
-      </c>
-      <c r="H220" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I220" s="40">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E220" s="40">
+        <v>4</v>
+      </c>
+      <c r="F220" s="40">
+        <v>12</v>
+      </c>
+      <c r="G220" s="40"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="40"/>
       <c r="J220" s="40"/>
       <c r="K220" s="40"/>
       <c r="L220" s="40"/>
@@ -31639,23 +31654,23 @@
     <row r="221" spans="1:18" hidden="1">
       <c r="A221" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-0</v>
+        <v>Form Layout-2</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C221" s="22">
         <f>COUNTIF($B$1:$B220,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D221" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E221" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F221" s="40" t="s">
-        <v>596</v>
+        <v>2</v>
+      </c>
+      <c r="D221" s="40">
+        <v>2</v>
+      </c>
+      <c r="E221" s="40">
+        <v>5</v>
+      </c>
+      <c r="F221" s="40">
+        <v>6</v>
       </c>
       <c r="G221" s="40"/>
       <c r="H221" s="40"/>
@@ -31673,23 +31688,23 @@
     <row r="222" spans="1:18" hidden="1">
       <c r="A222" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-1</v>
+        <v>Form Layout-3</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C222" s="22">
         <f>COUNTIF($B$1:$B221,[Table Name])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222" s="40">
         <v>2</v>
       </c>
       <c r="E222" s="40">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F222" s="40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G222" s="40"/>
       <c r="H222" s="40"/>
@@ -31707,23 +31722,23 @@
     <row r="223" spans="1:18" hidden="1">
       <c r="A223" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-2</v>
+        <v>Form Layout-4</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C223" s="22">
         <f>COUNTIF($B$1:$B222,[Table Name])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D223" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E223" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F223" s="40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G223" s="40"/>
       <c r="H223" s="40"/>
@@ -31741,23 +31756,23 @@
     <row r="224" spans="1:18" hidden="1">
       <c r="A224" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-3</v>
+        <v>Form Layout-5</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C224" s="22">
         <f>COUNTIF($B$1:$B223,[Table Name])</f>
+        <v>5</v>
+      </c>
+      <c r="D224" s="40">
         <v>3</v>
       </c>
-      <c r="D224" s="40">
-        <v>2</v>
-      </c>
       <c r="E224" s="40">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F224" s="40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G224" s="40"/>
       <c r="H224" s="40"/>
@@ -31775,23 +31790,23 @@
     <row r="225" spans="1:18" hidden="1">
       <c r="A225" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-4</v>
+        <v>Form Layout-6</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C225" s="22">
         <f>COUNTIF($B$1:$B224,[Table Name])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D225" s="40">
         <v>3</v>
       </c>
       <c r="E225" s="40">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F225" s="40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G225" s="40"/>
       <c r="H225" s="40"/>
@@ -31809,27 +31824,33 @@
     <row r="226" spans="1:18" hidden="1">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-5</v>
+        <v>Resources-28</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="C226" s="22">
         <f>COUNTIF($B$1:$B225,[Table Name])</f>
-        <v>5</v>
-      </c>
-      <c r="D226" s="40">
-        <v>3</v>
-      </c>
-      <c r="E226" s="40">
-        <v>7</v>
-      </c>
-      <c r="F226" s="40">
-        <v>0</v>
-      </c>
-      <c r="G226" s="40"/>
-      <c r="H226" s="40"/>
-      <c r="I226" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="D226" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="E226" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="F226" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="G226" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="H226" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="I226" s="40" t="s">
+        <v>21</v>
+      </c>
       <c r="J226" s="40"/>
       <c r="K226" s="40"/>
       <c r="L226" s="40"/>
@@ -31843,27 +31864,33 @@
     <row r="227" spans="1:18" hidden="1">
       <c r="A227" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Layout-6</v>
+        <v>Resource Relations-34</v>
       </c>
       <c r="B227" s="40" t="s">
-        <v>600</v>
+        <v>443</v>
       </c>
       <c r="C227" s="22">
         <f>COUNTIF($B$1:$B226,[Table Name])</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D227" s="40">
-        <v>3</v>
-      </c>
-      <c r="E227" s="40">
-        <v>33</v>
-      </c>
-      <c r="F227" s="40">
-        <v>0</v>
-      </c>
-      <c r="G227" s="40"/>
-      <c r="H227" s="40"/>
-      <c r="I227" s="40"/>
+        <v>23</v>
+      </c>
+      <c r="E227" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="F227" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="G227" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="H227" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I227" s="40">
+        <v>28</v>
+      </c>
       <c r="J227" s="40"/>
       <c r="K227" s="40"/>
       <c r="L227" s="40"/>
@@ -31877,29 +31904,29 @@
     <row r="228" spans="1:18" hidden="1">
       <c r="A228" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-28</v>
+        <v>Resources-29</v>
       </c>
       <c r="B228" s="40" t="s">
         <v>220</v>
       </c>
       <c r="C228" s="22">
         <f>COUNTIF($B$1:$B227,[Table Name])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D228" s="40" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F228" s="40" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G228" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H228" s="40" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="I228" s="40" t="s">
         <v>21</v>
@@ -31917,32 +31944,32 @@
     <row r="229" spans="1:18" hidden="1">
       <c r="A229" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-34</v>
+        <v>Resource Relations-35</v>
       </c>
       <c r="B229" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C229" s="22">
         <f>COUNTIF($B$1:$B228,[Table Name])</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D229" s="40">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F229" s="40" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G229" s="40" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="H229" s="40" t="s">
         <v>311</v>
       </c>
       <c r="I229" s="40">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J229" s="40"/>
       <c r="K229" s="40"/>
@@ -31955,74 +31982,74 @@
       <c r="R229" s="40"/>
     </row>
     <row r="230" spans="1:18" hidden="1">
-      <c r="A230" s="22" t="str">
+      <c r="A230" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resources-29</v>
+        <v>Resource Relations-36</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C230" s="22">
+        <v>443</v>
+      </c>
+      <c r="C230" s="42">
         <f>COUNTIF($B$1:$B229,[Table Name])</f>
-        <v>29</v>
-      </c>
-      <c r="D230" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="E230" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="F230" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="G230" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="H230" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="I230" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J230" s="40"/>
-      <c r="K230" s="40"/>
-      <c r="L230" s="40"/>
-      <c r="M230" s="40"/>
-      <c r="N230" s="40"/>
-      <c r="O230" s="40"/>
-      <c r="P230" s="40"/>
-      <c r="Q230" s="40"/>
-      <c r="R230" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="D230" s="43">
+        <v>28</v>
+      </c>
+      <c r="E230" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="F230" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="G230" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H230" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="I230" s="43">
+        <v>26</v>
+      </c>
+      <c r="J230" s="43"/>
+      <c r="K230" s="43"/>
+      <c r="L230" s="43"/>
+      <c r="M230" s="43"/>
+      <c r="N230" s="43"/>
+      <c r="O230" s="43"/>
+      <c r="P230" s="43"/>
+      <c r="Q230" s="43"/>
+      <c r="R230" s="43"/>
     </row>
     <row r="231" spans="1:18" hidden="1">
       <c r="A231" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-35</v>
+        <v>Resource Relations-37</v>
       </c>
       <c r="B231" s="40" t="s">
         <v>443</v>
       </c>
       <c r="C231" s="22">
         <f>COUNTIF($B$1:$B230,[Table Name])</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D231" s="40">
+        <v>29</v>
+      </c>
+      <c r="E231" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="F231" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="G231" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H231" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I231" s="40">
         <v>26</v>
-      </c>
-      <c r="E231" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="F231" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="G231" s="40" t="s">
-        <v>621</v>
-      </c>
-      <c r="H231" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="I231" s="40">
-        <v>29</v>
       </c>
       <c r="J231" s="40"/>
       <c r="K231" s="40"/>
@@ -32035,75 +32062,67 @@
       <c r="R231" s="40"/>
     </row>
     <row r="232" spans="1:18" hidden="1">
-      <c r="A232" s="42" t="str">
+      <c r="A232" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-36</v>
+        <v>Data View Section-0</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="C232" s="42">
+        <v>611</v>
+      </c>
+      <c r="C232" s="22">
         <f>COUNTIF($B$1:$B231,[Table Name])</f>
-        <v>36</v>
-      </c>
-      <c r="D232" s="43">
-        <v>28</v>
-      </c>
-      <c r="E232" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="F232" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="G232" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="H232" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="I232" s="43">
-        <v>26</v>
-      </c>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
-      <c r="M232" s="43"/>
-      <c r="N232" s="43"/>
-      <c r="O232" s="43"/>
-      <c r="P232" s="43"/>
-      <c r="Q232" s="43"/>
-      <c r="R232" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="D232" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G232" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H232" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="I232" s="40"/>
+      <c r="J232" s="40"/>
+      <c r="K232" s="40"/>
+      <c r="L232" s="40"/>
+      <c r="M232" s="40"/>
+      <c r="N232" s="40"/>
+      <c r="O232" s="40"/>
+      <c r="P232" s="40"/>
+      <c r="Q232" s="40"/>
+      <c r="R232" s="40"/>
     </row>
     <row r="233" spans="1:18" hidden="1">
       <c r="A233" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Relations-37</v>
+        <v>Data View Section-1</v>
       </c>
       <c r="B233" s="40" t="s">
-        <v>443</v>
+        <v>611</v>
       </c>
       <c r="C233" s="22">
         <f>COUNTIF($B$1:$B232,[Table Name])</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D233" s="40">
-        <v>29</v>
-      </c>
-      <c r="E233" s="40" t="s">
-        <v>623</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E233" s="40"/>
       <c r="F233" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="G233" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="H233" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="I233" s="40">
         <v>26</v>
       </c>
+      <c r="G233" s="40"/>
+      <c r="H233" s="40">
+        <v>12</v>
+      </c>
+      <c r="I233" s="40"/>
       <c r="J233" s="40"/>
       <c r="K233" s="40"/>
       <c r="L233" s="40"/>
@@ -32117,29 +32136,23 @@
     <row r="234" spans="1:18" hidden="1">
       <c r="A234" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section-0</v>
+        <v>Data View Section-2</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C234" s="22">
         <f>COUNTIF($B$1:$B233,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D234" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="40">
+        <v>2</v>
+      </c>
+      <c r="E234" s="40"/>
+      <c r="F234" s="40"/>
+      <c r="G234" s="40"/>
+      <c r="H234" s="40">
         <v>4</v>
-      </c>
-      <c r="E234" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F234" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G234" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H234" s="40" t="s">
-        <v>596</v>
       </c>
       <c r="I234" s="40"/>
       <c r="J234" s="40"/>
@@ -32155,25 +32168,27 @@
     <row r="235" spans="1:18" hidden="1">
       <c r="A235" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section-1</v>
+        <v>Data View Section-3</v>
       </c>
       <c r="B235" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C235" s="22">
         <f>COUNTIF($B$1:$B234,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D235" s="40">
+        <v>2</v>
+      </c>
+      <c r="E235" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F235" s="40"/>
+      <c r="G235" s="40">
         <v>1</v>
       </c>
-      <c r="D235" s="40">
-        <v>1</v>
-      </c>
-      <c r="E235" s="40"/>
-      <c r="F235" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" s="40"/>
       <c r="H235" s="40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I235" s="40"/>
       <c r="J235" s="40"/>
@@ -32189,24 +32204,28 @@
     <row r="236" spans="1:18" hidden="1">
       <c r="A236" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section-2</v>
+        <v>Data View Section Items-0</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C236" s="22">
         <f>COUNTIF($B$1:$B235,[Table Name])</f>
-        <v>2</v>
-      </c>
-      <c r="D236" s="40">
-        <v>2</v>
-      </c>
-      <c r="E236" s="40"/>
-      <c r="F236" s="40"/>
-      <c r="G236" s="40"/>
-      <c r="H236" s="40">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D236" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="F236" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G236" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H236" s="40"/>
       <c r="I236" s="40"/>
       <c r="J236" s="40"/>
       <c r="K236" s="40"/>
@@ -32221,28 +32240,26 @@
     <row r="237" spans="1:18" hidden="1">
       <c r="A237" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section-3</v>
+        <v>Data View Section Items-1</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C237" s="22">
         <f>COUNTIF($B$1:$B236,[Table Name])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F237" s="40"/>
-      <c r="G237" s="40">
         <v>1</v>
       </c>
-      <c r="H237" s="40">
-        <v>8</v>
-      </c>
+      <c r="F237" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="40"/>
+      <c r="H237" s="40"/>
       <c r="I237" s="40"/>
       <c r="J237" s="40"/>
       <c r="K237" s="40"/>
@@ -32257,27 +32274,25 @@
     <row r="238" spans="1:18" hidden="1">
       <c r="A238" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-0</v>
+        <v>Data View Section Items-2</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C238" s="22">
         <f>COUNTIF($B$1:$B237,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D238" s="40" t="s">
-        <v>607</v>
+        <v>2</v>
+      </c>
+      <c r="D238" s="40">
+        <v>1</v>
       </c>
       <c r="E238" s="40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F238" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G238" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G238" s="40"/>
       <c r="H238" s="40"/>
       <c r="I238" s="40"/>
       <c r="J238" s="40"/>
@@ -32293,25 +32308,27 @@
     <row r="239" spans="1:18" hidden="1">
       <c r="A239" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-1</v>
+        <v>Data View Section Items-3</v>
       </c>
       <c r="B239" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C239" s="22">
         <f>COUNTIF($B$1:$B238,[Table Name])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239" s="40">
         <v>1</v>
       </c>
       <c r="E239" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F239" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G239" s="40">
         <v>1</v>
       </c>
-      <c r="F239" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" s="40"/>
       <c r="H239" s="40"/>
       <c r="I239" s="40"/>
       <c r="J239" s="40"/>
@@ -32327,23 +32344,23 @@
     <row r="240" spans="1:18" hidden="1">
       <c r="A240" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-2</v>
+        <v>Data View Section Items-4</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C240" s="22">
         <f>COUNTIF($B$1:$B239,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D240" s="40">
         <v>2</v>
       </c>
-      <c r="D240" s="40">
+      <c r="E240" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E240" s="40" t="s">
-        <v>272</v>
-      </c>
       <c r="F240" s="40" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="G240" s="40"/>
       <c r="H240" s="40"/>
@@ -32359,61 +32376,59 @@
       <c r="R240" s="40"/>
     </row>
     <row r="241" spans="1:18" hidden="1">
-      <c r="A241" s="22" t="str">
+      <c r="A241" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-3</v>
+        <v>Data View Section Items-5</v>
       </c>
       <c r="B241" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="C241" s="22">
+        <v>618</v>
+      </c>
+      <c r="C241" s="42">
         <f>COUNTIF($B$1:$B240,[Table Name])</f>
-        <v>3</v>
-      </c>
-      <c r="D241" s="40">
-        <v>1</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F241" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G241" s="40">
-        <v>1</v>
-      </c>
-      <c r="H241" s="40"/>
-      <c r="I241" s="40"/>
-      <c r="J241" s="40"/>
-      <c r="K241" s="40"/>
-      <c r="L241" s="40"/>
-      <c r="M241" s="40"/>
-      <c r="N241" s="40"/>
-      <c r="O241" s="40"/>
-      <c r="P241" s="40"/>
-      <c r="Q241" s="40"/>
-      <c r="R241" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="D241" s="43">
+        <v>2</v>
+      </c>
+      <c r="E241" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F241" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G241" s="43"/>
+      <c r="H241" s="43"/>
+      <c r="I241" s="43"/>
+      <c r="J241" s="43"/>
+      <c r="K241" s="43"/>
+      <c r="L241" s="43"/>
+      <c r="M241" s="43"/>
+      <c r="N241" s="43"/>
+      <c r="O241" s="43"/>
+      <c r="P241" s="43"/>
+      <c r="Q241" s="43"/>
+      <c r="R241" s="43"/>
     </row>
     <row r="242" spans="1:18" hidden="1">
       <c r="A242" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-4</v>
+        <v>Data View Section Items-6</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C242" s="22">
         <f>COUNTIF($B$1:$B241,[Table Name])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D242" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G242" s="40"/>
       <c r="H242" s="40"/>
@@ -32429,62 +32444,66 @@
       <c r="R242" s="40"/>
     </row>
     <row r="243" spans="1:18" hidden="1">
-      <c r="A243" s="42" t="str">
+      <c r="A243" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-5</v>
+        <v>Data View Section Items-7</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="C243" s="42">
+        <v>618</v>
+      </c>
+      <c r="C243" s="22">
         <f>COUNTIF($B$1:$B242,[Table Name])</f>
-        <v>5</v>
-      </c>
-      <c r="D243" s="43">
-        <v>2</v>
-      </c>
-      <c r="E243" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="F243" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="G243" s="43"/>
-      <c r="H243" s="43"/>
-      <c r="I243" s="43"/>
-      <c r="J243" s="43"/>
-      <c r="K243" s="43"/>
-      <c r="L243" s="43"/>
-      <c r="M243" s="43"/>
-      <c r="N243" s="43"/>
-      <c r="O243" s="43"/>
-      <c r="P243" s="43"/>
-      <c r="Q243" s="43"/>
-      <c r="R243" s="43"/>
+        <v>7</v>
+      </c>
+      <c r="D243" s="40">
+        <v>3</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F243" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" s="40"/>
+      <c r="H243" s="40"/>
+      <c r="I243" s="40"/>
+      <c r="J243" s="40"/>
+      <c r="K243" s="40"/>
+      <c r="L243" s="40"/>
+      <c r="M243" s="40"/>
+      <c r="N243" s="40"/>
+      <c r="O243" s="40"/>
+      <c r="P243" s="40"/>
+      <c r="Q243" s="40"/>
+      <c r="R243" s="40"/>
     </row>
     <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-6</v>
+        <v>Resource Forms-8</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>619</v>
+        <v>433</v>
       </c>
       <c r="C244" s="22">
         <f>COUNTIF($B$1:$B243,[Table Name])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D244" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
       <c r="F244" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G244" s="40"/>
-      <c r="H244" s="40"/>
+        <v>627</v>
+      </c>
+      <c r="G244" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="H244" s="40" t="s">
+        <v>626</v>
+      </c>
       <c r="I244" s="40"/>
       <c r="J244" s="40"/>
       <c r="K244" s="40"/>
@@ -32499,26 +32518,30 @@
     <row r="245" spans="1:18" hidden="1">
       <c r="A245" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-7</v>
+        <v>Resource Forms-9</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>619</v>
+        <v>433</v>
       </c>
       <c r="C245" s="22">
         <f>COUNTIF($B$1:$B244,[Table Name])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D245" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>298</v>
+        <v>628</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G245" s="40"/>
-      <c r="H245" s="40"/>
+        <v>629</v>
+      </c>
+      <c r="G245" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="H245" s="40" t="s">
+        <v>631</v>
+      </c>
       <c r="I245" s="40"/>
       <c r="J245" s="40"/>
       <c r="K245" s="40"/>
@@ -32533,30 +32556,28 @@
     <row r="246" spans="1:18" hidden="1">
       <c r="A246" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Forms-8</v>
+        <v>Resource Form Fields-34</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C246" s="22">
         <f>COUNTIF($B$1:$B245,[Table Name])</f>
+        <v>34</v>
+      </c>
+      <c r="D246" s="40">
         <v>8</v>
       </c>
-      <c r="D246" s="40">
+      <c r="E246" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G246" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E246" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="F246" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="G246" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="H246" s="40" t="s">
-        <v>627</v>
-      </c>
+      <c r="H246" s="40"/>
       <c r="I246" s="40"/>
       <c r="J246" s="40"/>
       <c r="K246" s="40"/>
@@ -32571,30 +32592,28 @@
     <row r="247" spans="1:18" hidden="1">
       <c r="A247" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Forms-9</v>
+        <v>Resource Form Fields-35</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C247" s="22">
         <f>COUNTIF($B$1:$B246,[Table Name])</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D247" s="40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>629</v>
+        <v>271</v>
       </c>
       <c r="F247" s="40" t="s">
-        <v>630</v>
+        <v>270</v>
       </c>
       <c r="G247" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="H247" s="40" t="s">
-        <v>632</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="H247" s="40"/>
       <c r="I247" s="40"/>
       <c r="J247" s="40"/>
       <c r="K247" s="40"/>
@@ -32609,17 +32628,17 @@
     <row r="248" spans="1:18" hidden="1">
       <c r="A248" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-34</v>
+        <v>Resource Form Fields-36</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>444</v>
       </c>
       <c r="C248" s="22">
         <f>COUNTIF($B$1:$B247,[Table Name])</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D248" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E248" s="40" t="s">
         <v>26</v>
@@ -32645,17 +32664,17 @@
     <row r="249" spans="1:18" hidden="1">
       <c r="A249" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-35</v>
+        <v>Resource Form Fields-37</v>
       </c>
       <c r="B249" s="40" t="s">
         <v>444</v>
       </c>
       <c r="C249" s="22">
         <f>COUNTIF($B$1:$B248,[Table Name])</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D249" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E249" s="40" t="s">
         <v>271</v>
@@ -32681,27 +32700,25 @@
     <row r="250" spans="1:18" hidden="1">
       <c r="A250" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-36</v>
+        <v>Form Field Attrs-1</v>
       </c>
       <c r="B250" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C250" s="22">
         <f>COUNTIF($B$1:$B249,[Table Name])</f>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D250" s="40">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F250" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G250" s="40" t="s">
-        <v>1</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F250" s="40">
+        <v>3</v>
+      </c>
+      <c r="G250" s="40"/>
       <c r="H250" s="40"/>
       <c r="I250" s="40"/>
       <c r="J250" s="40"/>
@@ -32717,27 +32734,25 @@
     <row r="251" spans="1:18" hidden="1">
       <c r="A251" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-37</v>
+        <v>Form Field Attrs-2</v>
       </c>
       <c r="B251" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C251" s="22">
         <f>COUNTIF($B$1:$B250,[Table Name])</f>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D251" s="40">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F251" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G251" s="40" t="s">
-        <v>272</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F251" s="40">
+        <v>3</v>
+      </c>
+      <c r="G251" s="40"/>
       <c r="H251" s="40"/>
       <c r="I251" s="40"/>
       <c r="J251" s="40"/>
@@ -32750,7 +32765,7 @@
       <c r="Q251" s="40"/>
       <c r="R251" s="40"/>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" hidden="1">
       <c r="A252" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-3</v>
@@ -32763,7 +32778,7 @@
         <v>3</v>
       </c>
       <c r="D252" s="40">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E252" s="40" t="s">
         <v>448</v>
@@ -32784,7 +32799,7 @@
       <c r="Q252" s="40"/>
       <c r="R252" s="40"/>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" hidden="1">
       <c r="A253" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-4</v>
@@ -32797,7 +32812,7 @@
         <v>4</v>
       </c>
       <c r="D253" s="40">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E253" s="40" t="s">
         <v>448</v>
@@ -32818,27 +32833,25 @@
       <c r="Q253" s="40"/>
       <c r="R253" s="40"/>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" hidden="1">
       <c r="A254" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-5</v>
+        <v>Resource Form Field Data-34</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C254" s="22">
         <f>COUNTIF($B$1:$B253,[Table Name])</f>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D254" s="40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F254" s="40">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F254" s="40"/>
       <c r="G254" s="40"/>
       <c r="H254" s="40"/>
       <c r="I254" s="40"/>
@@ -32852,27 +32865,25 @@
       <c r="Q254" s="40"/>
       <c r="R254" s="40"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" hidden="1">
       <c r="A255" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-6</v>
+        <v>Resource Form Field Data-35</v>
       </c>
       <c r="B255" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C255" s="22">
         <f>COUNTIF($B$1:$B254,[Table Name])</f>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D255" s="40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F255" s="40">
-        <v>3</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F255" s="40"/>
       <c r="G255" s="40"/>
       <c r="H255" s="40"/>
       <c r="I255" s="40"/>
@@ -32886,27 +32897,25 @@
       <c r="Q255" s="40"/>
       <c r="R255" s="40"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" hidden="1">
       <c r="A256" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-7</v>
+        <v>Resource Form Field Data-36</v>
       </c>
       <c r="B256" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C256" s="22">
         <f>COUNTIF($B$1:$B255,[Table Name])</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D256" s="40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F256" s="40">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F256" s="40"/>
       <c r="G256" s="40"/>
       <c r="H256" s="40"/>
       <c r="I256" s="40"/>
@@ -32923,20 +32932,20 @@
     <row r="257" spans="1:18" hidden="1">
       <c r="A257" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-34</v>
+        <v>Resource Form Field Data-37</v>
       </c>
       <c r="B257" s="40" t="s">
         <v>445</v>
       </c>
       <c r="C257" s="22">
         <f>COUNTIF($B$1:$B256,[Table Name])</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D257" s="40">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="F257" s="40"/>
       <c r="G257" s="40"/>
@@ -32955,22 +32964,24 @@
     <row r="258" spans="1:18" hidden="1">
       <c r="A258" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-35</v>
+        <v>Form Field Validations-13</v>
       </c>
       <c r="B258" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C258" s="22">
         <f>COUNTIF($B$1:$B257,[Table Name])</f>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D258" s="40">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F258" s="40"/>
+        <v>478</v>
+      </c>
+      <c r="F258" s="40" t="s">
+        <v>632</v>
+      </c>
       <c r="G258" s="40"/>
       <c r="H258" s="40"/>
       <c r="I258" s="40"/>
@@ -32987,22 +32998,24 @@
     <row r="259" spans="1:18" hidden="1">
       <c r="A259" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-36</v>
+        <v>Form Field Validations-14</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C259" s="22">
         <f>COUNTIF($B$1:$B258,[Table Name])</f>
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D259" s="40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F259" s="40"/>
+        <v>478</v>
+      </c>
+      <c r="F259" s="40" t="s">
+        <v>633</v>
+      </c>
       <c r="G259" s="40"/>
       <c r="H259" s="40"/>
       <c r="I259" s="40"/>
@@ -33019,22 +33032,24 @@
     <row r="260" spans="1:18" hidden="1">
       <c r="A260" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-37</v>
+        <v>Form Field Validations-15</v>
       </c>
       <c r="B260" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C260" s="22">
         <f>COUNTIF($B$1:$B259,[Table Name])</f>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D260" s="40">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E260" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F260" s="40"/>
+      <c r="F260" s="40" t="s">
+        <v>634</v>
+      </c>
       <c r="G260" s="40"/>
       <c r="H260" s="40"/>
       <c r="I260" s="40"/>
@@ -33051,27 +33066,33 @@
     <row r="261" spans="1:18" hidden="1">
       <c r="A261" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-13</v>
+        <v>Form Field Validations-16</v>
       </c>
       <c r="B261" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C261" s="22">
         <f>COUNTIF($B$1:$B260,[Table Name])</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D261" s="40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F261" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="G261" s="40"/>
-      <c r="H261" s="40"/>
-      <c r="I261" s="40"/>
+        <v>483</v>
+      </c>
+      <c r="G261" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H261" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I261" s="50" t="s">
+        <v>635</v>
+      </c>
       <c r="J261" s="40"/>
       <c r="K261" s="40"/>
       <c r="L261" s="40"/>
@@ -33085,23 +33106,23 @@
     <row r="262" spans="1:18" hidden="1">
       <c r="A262" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-14</v>
+        <v>Form Field Validations-17</v>
       </c>
       <c r="B262" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C262" s="22">
         <f>COUNTIF($B$1:$B261,[Table Name])</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D262" s="40">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E262" s="40" t="s">
         <v>478</v>
       </c>
       <c r="F262" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G262" s="40"/>
       <c r="H262" s="40"/>
@@ -33119,23 +33140,23 @@
     <row r="263" spans="1:18" hidden="1">
       <c r="A263" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-15</v>
+        <v>Form Field Validations-18</v>
       </c>
       <c r="B263" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C263" s="22">
         <f>COUNTIF($B$1:$B262,[Table Name])</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D263" s="40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="F263" s="40" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G263" s="40"/>
       <c r="H263" s="40"/>
@@ -33153,33 +33174,27 @@
     <row r="264" spans="1:18" hidden="1">
       <c r="A264" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-16</v>
+        <v>Form Field Validations-19</v>
       </c>
       <c r="B264" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C264" s="22">
         <f>COUNTIF($B$1:$B263,[Table Name])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D264" s="40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E264" s="40" t="s">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="F264" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G264" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H264" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I264" s="50" t="s">
-        <v>636</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="G264" s="40"/>
+      <c r="H264" s="40"/>
+      <c r="I264" s="40"/>
       <c r="J264" s="40"/>
       <c r="K264" s="40"/>
       <c r="L264" s="40"/>
@@ -33193,27 +33208,33 @@
     <row r="265" spans="1:18" hidden="1">
       <c r="A265" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-17</v>
+        <v>Form Field Validations-20</v>
       </c>
       <c r="B265" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C265" s="22">
         <f>COUNTIF($B$1:$B264,[Table Name])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D265" s="40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E265" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F265" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="G265" s="40"/>
-      <c r="H265" s="40"/>
-      <c r="I265" s="40"/>
+        <v>483</v>
+      </c>
+      <c r="G265" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H265" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="I265" s="50" t="s">
+        <v>635</v>
+      </c>
       <c r="J265" s="40"/>
       <c r="K265" s="40"/>
       <c r="L265" s="40"/>
@@ -33227,29 +33248,37 @@
     <row r="266" spans="1:18" hidden="1">
       <c r="A266" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-18</v>
+        <v>Resource Actions-9</v>
       </c>
       <c r="B266" s="40" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="C266" s="22">
         <f>COUNTIF($B$1:$B265,[Table Name])</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D266" s="40">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>478</v>
+        <v>624</v>
       </c>
       <c r="F266" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="G266" s="40"/>
-      <c r="H266" s="40"/>
+        <v>636</v>
+      </c>
+      <c r="G266" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H266" s="40" t="s">
+        <v>343</v>
+      </c>
       <c r="I266" s="40"/>
-      <c r="J266" s="40"/>
-      <c r="K266" s="40"/>
+      <c r="J266" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="K266" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L266" s="40"/>
       <c r="M266" s="40"/>
       <c r="N266" s="40"/>
@@ -33261,29 +33290,37 @@
     <row r="267" spans="1:18" hidden="1">
       <c r="A267" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-19</v>
+        <v>Resource Actions-10</v>
       </c>
       <c r="B267" s="40" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="C267" s="22">
         <f>COUNTIF($B$1:$B266,[Table Name])</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D267" s="40">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E267" s="40" t="s">
-        <v>271</v>
+        <v>628</v>
       </c>
       <c r="F267" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="G267" s="40"/>
-      <c r="H267" s="40"/>
+        <v>639</v>
+      </c>
+      <c r="G267" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H267" s="40" t="s">
+        <v>343</v>
+      </c>
       <c r="I267" s="40"/>
-      <c r="J267" s="40"/>
-      <c r="K267" s="40"/>
+      <c r="J267" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="K267" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L267" s="40"/>
       <c r="M267" s="40"/>
       <c r="N267" s="40"/>
@@ -33295,33 +33332,25 @@
     <row r="268" spans="1:18" hidden="1">
       <c r="A268" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-20</v>
+        <v>Resource Action List-3</v>
       </c>
       <c r="B268" s="40" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="C268" s="22">
         <f>COUNTIF($B$1:$B267,[Table Name])</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D268" s="40">
-        <v>37</v>
-      </c>
-      <c r="E268" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="F268" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G268" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H268" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I268" s="50" t="s">
-        <v>636</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E268" s="40">
+        <v>2</v>
+      </c>
+      <c r="F268" s="40"/>
+      <c r="G268" s="40"/>
+      <c r="H268" s="40"/>
+      <c r="I268" s="40"/>
       <c r="J268" s="40"/>
       <c r="K268" s="40"/>
       <c r="L268" s="40"/>
@@ -33331,6 +33360,270 @@
       <c r="P268" s="40"/>
       <c r="Q268" s="40"/>
       <c r="R268" s="40"/>
+    </row>
+    <row r="269" spans="1:18" hidden="1">
+      <c r="A269" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action List-4</v>
+      </c>
+      <c r="B269" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C269" s="22">
+        <f>COUNTIF($B$1:$B268,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D269" s="40">
+        <v>10</v>
+      </c>
+      <c r="E269" s="40">
+        <v>3</v>
+      </c>
+      <c r="F269" s="40"/>
+      <c r="G269" s="40"/>
+      <c r="H269" s="40"/>
+      <c r="I269" s="40"/>
+      <c r="J269" s="40"/>
+      <c r="K269" s="40"/>
+      <c r="L269" s="40"/>
+      <c r="M269" s="40"/>
+      <c r="N269" s="40"/>
+      <c r="O269" s="40"/>
+      <c r="P269" s="40"/>
+      <c r="Q269" s="40"/>
+      <c r="R269" s="40"/>
+    </row>
+    <row r="270" spans="1:18" hidden="1">
+      <c r="A270" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Data-0</v>
+      </c>
+      <c r="B270" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C270" s="22">
+        <f>COUNTIF($B$1:$B269,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D270" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E270" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F270" s="40"/>
+      <c r="G270" s="40"/>
+      <c r="H270" s="40"/>
+      <c r="I270" s="40"/>
+      <c r="J270" s="40"/>
+      <c r="K270" s="40"/>
+      <c r="L270" s="40"/>
+      <c r="M270" s="40"/>
+      <c r="N270" s="40"/>
+      <c r="O270" s="40"/>
+      <c r="P270" s="40"/>
+      <c r="Q270" s="40"/>
+      <c r="R270" s="40"/>
+    </row>
+    <row r="271" spans="1:18" hidden="1">
+      <c r="A271" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Data-1</v>
+      </c>
+      <c r="B271" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C271" s="22">
+        <f>COUNTIF($B$1:$B270,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D271" s="40">
+        <v>7</v>
+      </c>
+      <c r="E271" s="40">
+        <v>1</v>
+      </c>
+      <c r="F271" s="40"/>
+      <c r="G271" s="40"/>
+      <c r="H271" s="40"/>
+      <c r="I271" s="40"/>
+      <c r="J271" s="40"/>
+      <c r="K271" s="40"/>
+      <c r="L271" s="40"/>
+      <c r="M271" s="40"/>
+      <c r="N271" s="40"/>
+      <c r="O271" s="40"/>
+      <c r="P271" s="40"/>
+      <c r="Q271" s="40"/>
+      <c r="R271" s="40"/>
+    </row>
+    <row r="272" spans="1:18" hidden="1">
+      <c r="A272" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Data-2</v>
+      </c>
+      <c r="B272" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C272" s="22">
+        <f>COUNTIF($B$1:$B271,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D272" s="40">
+        <v>8</v>
+      </c>
+      <c r="E272" s="40">
+        <v>2</v>
+      </c>
+      <c r="F272" s="40"/>
+      <c r="G272" s="40"/>
+      <c r="H272" s="40"/>
+      <c r="I272" s="40"/>
+      <c r="J272" s="40"/>
+      <c r="K272" s="40"/>
+      <c r="L272" s="40"/>
+      <c r="M272" s="40"/>
+      <c r="N272" s="40"/>
+      <c r="O272" s="40"/>
+      <c r="P272" s="40"/>
+      <c r="Q272" s="40"/>
+      <c r="R272" s="40"/>
+    </row>
+    <row r="273" spans="1:18" hidden="1">
+      <c r="A273" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Data-3</v>
+      </c>
+      <c r="B273" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C273" s="22">
+        <f>COUNTIF($B$1:$B272,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D273" s="40">
+        <v>9</v>
+      </c>
+      <c r="E273" s="40">
+        <v>1</v>
+      </c>
+      <c r="F273" s="40"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="40"/>
+      <c r="I273" s="40"/>
+      <c r="J273" s="40"/>
+      <c r="K273" s="40"/>
+      <c r="L273" s="40"/>
+      <c r="M273" s="40"/>
+      <c r="N273" s="40"/>
+      <c r="O273" s="40"/>
+      <c r="P273" s="40"/>
+      <c r="Q273" s="40"/>
+      <c r="R273" s="40"/>
+    </row>
+    <row r="274" spans="1:18" hidden="1">
+      <c r="A274" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Data-4</v>
+      </c>
+      <c r="B274" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C274" s="22">
+        <f>COUNTIF($B$1:$B273,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D274" s="40">
+        <v>10</v>
+      </c>
+      <c r="E274" s="40">
+        <v>2</v>
+      </c>
+      <c r="F274" s="40"/>
+      <c r="G274" s="40"/>
+      <c r="H274" s="40"/>
+      <c r="I274" s="40"/>
+      <c r="J274" s="40"/>
+      <c r="K274" s="40"/>
+      <c r="L274" s="40"/>
+      <c r="M274" s="40"/>
+      <c r="N274" s="40"/>
+      <c r="O274" s="40"/>
+      <c r="P274" s="40"/>
+      <c r="Q274" s="40"/>
+      <c r="R274" s="40"/>
+    </row>
+    <row r="275" spans="1:18" hidden="1">
+      <c r="A275" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Method-9</v>
+      </c>
+      <c r="B275" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="C275" s="22">
+        <f>COUNTIF($B$1:$B274,[Table Name])</f>
+        <v>9</v>
+      </c>
+      <c r="D275" s="40">
+        <v>9</v>
+      </c>
+      <c r="E275" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="F275" s="40"/>
+      <c r="G275" s="40">
+        <v>8</v>
+      </c>
+      <c r="H275" s="40">
+        <v>1</v>
+      </c>
+      <c r="I275" s="40"/>
+      <c r="J275" s="40"/>
+      <c r="K275" s="40"/>
+      <c r="L275" s="40"/>
+      <c r="M275" s="40"/>
+      <c r="N275" s="40"/>
+      <c r="O275" s="40"/>
+      <c r="P275" s="40"/>
+      <c r="Q275" s="40"/>
+      <c r="R275" s="40"/>
+    </row>
+    <row r="276" spans="1:18" hidden="1">
+      <c r="A276" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Action Method-10</v>
+      </c>
+      <c r="B276" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="C276" s="22">
+        <f>COUNTIF($B$1:$B275,[Table Name])</f>
+        <v>10</v>
+      </c>
+      <c r="D276" s="40">
+        <v>10</v>
+      </c>
+      <c r="E276" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="F276" s="40"/>
+      <c r="G276" s="40">
+        <v>9</v>
+      </c>
+      <c r="H276" s="40">
+        <v>2</v>
+      </c>
+      <c r="I276" s="40"/>
+      <c r="J276" s="40"/>
+      <c r="K276" s="40"/>
+      <c r="L276" s="40"/>
+      <c r="M276" s="40"/>
+      <c r="N276" s="40"/>
+      <c r="O276" s="40"/>
+      <c r="P276" s="40"/>
+      <c r="Q276" s="40"/>
+      <c r="R276" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33343,10 +33636,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33759,10 +34052,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33779,10 +34072,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33799,10 +34092,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33819,10 +34112,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33837,12 +34130,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceActionData</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E25">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -34527,7 +34840,7 @@
         <v>547</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>395</v>
@@ -34580,20 +34893,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="7"/>
@@ -34608,10 +34921,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>443</v>
@@ -34621,7 +34934,7 @@
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G27" s="21" t="str">
         <f>"id"</f>
@@ -34636,20 +34949,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>600</v>
       </c>
       <c r="E28" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G28" s="21" t="str">
         <f>"id"</f>
@@ -34664,20 +34977,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G29" s="21" t="str">
         <f>"id"</f>
@@ -34692,20 +35005,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="E30" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G30" s="21" t="str">
         <f>"id"</f>
@@ -35429,7 +35742,7 @@
         <v>208</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D22" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35717,20 +36030,20 @@
         <v>519</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D31" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>311</v>
@@ -35746,23 +36059,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D32" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>589</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>590</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>311</v>
@@ -35778,7 +36091,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>208</v>
@@ -35788,10 +36101,10 @@
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>304</v>
@@ -35810,23 +36123,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D34" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>311</v>
@@ -35845,20 +36158,20 @@
         <v>547</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D35" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>23</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>311</v>
@@ -35874,23 +36187,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D36" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>311</v>
@@ -35906,10 +36219,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D37" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35919,7 +36232,7 @@
         <v>553</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>304</v>
@@ -35938,20 +36251,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D38" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>29</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>304</v>
@@ -35982,7 +36295,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35992,14 +36305,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="48" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceFormFieldValidation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRole::truncate()</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -36143,35 +36456,35 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>form_field</v>
+        <v>resource</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>rule</v>
+        <v>role</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>message</v>
+        <v>actions_availability</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>arg1</v>
+        <v>actions</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v>arg2</v>
+        <v/>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v>arg3</v>
+        <v/>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
-        <v>arg4</v>
+        <v/>
       </c>
       <c r="J5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],J$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],J$4+$B$4,0))</f>
-        <v>arg5</v>
+        <v/>
       </c>
       <c r="K5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],K$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],K$4+$B$4,0))</f>
@@ -36257,7 +36570,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="46" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceFormFieldValidation::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRole::truncate()</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -36286,19 +36599,19 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'form_field' =&gt; '4', </v>
+        <v xml:space="preserve">'resource' =&gt; '1', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v xml:space="preserve">'role' =&gt; '1', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'User name is mandatory', </v>
+        <v xml:space="preserve">'actions_availability' =&gt; 'Only', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'actions' =&gt; '2,3,5,6,7,8,9,10', </v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36359,15 +36672,15 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'form_field' =&gt; '5', </v>
+        <v xml:space="preserve">'resource' =&gt; '1', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v xml:space="preserve">'role' =&gt; '3', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'User email is mandarory', </v>
+        <v/>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36432,15 +36745,15 @@
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'form_field' =&gt; '5', </v>
+        <v xml:space="preserve">'resource' =&gt; '2', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'email', </v>
+        <v xml:space="preserve">'role' =&gt; '3', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Email should be a valid email address', </v>
+        <v/>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36505,23 +36818,23 @@
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '5', </v>
+        <v xml:space="preserve">'resource' =&gt; '3', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
+        <v xml:space="preserve">'role' =&gt; '3', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
+        <v/>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
+        <v/>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36578,15 +36891,15 @@
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '6', </v>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v xml:space="preserve">'role' =&gt; '2', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'User name is mandatory', </v>
+        <v/>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36651,15 +36964,15 @@
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '7', </v>
+        <v xml:space="preserve">'resource' =&gt; '5', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v xml:space="preserve">'role' =&gt; '1', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'User email is mandarory', </v>
+        <v/>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36724,15 +37037,15 @@
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '7', </v>
+        <v xml:space="preserve">'resource' =&gt; '5', </v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'email', </v>
+        <v xml:space="preserve">'role' =&gt; '3', </v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Email should be a valid email address', </v>
+        <v/>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36793,27 +37106,27 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>;</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
+        <v/>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
+        <v/>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
+        <v/>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36857,7 +37170,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -36866,19 +37179,19 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '32', </v>
+        <v/>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Password cannot be empty', </v>
+        <v/>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36930,7 +37243,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -36939,23 +37252,23 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '32', </v>
+        <v/>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'min', </v>
+        <v/>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Password length must be minimum of 3', </v>
+        <v/>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg1' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37003,7 +37316,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -37012,19 +37325,19 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '33', </v>
+        <v/>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Password cannot be empty', </v>
+        <v/>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37076,7 +37389,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -37085,23 +37398,23 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '33', </v>
+        <v/>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'min', </v>
+        <v/>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Password length must be minimum of 3', </v>
+        <v/>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg1' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37149,7 +37462,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -37158,19 +37471,19 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '34', </v>
+        <v/>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Name cannot be empty', </v>
+        <v/>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37222,7 +37535,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -37231,19 +37544,19 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '35', </v>
+        <v/>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Email address is mandatory', </v>
+        <v/>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37295,7 +37608,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -37304,19 +37617,19 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '35', </v>
+        <v/>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'Email is not valid', </v>
+        <v/>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37368,7 +37681,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -37377,31 +37690,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '35', </v>
+        <v/>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
+        <v/>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
+        <v/>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
+        <v/>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'arg3' =&gt; '-r:update', </v>
+        <v/>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37441,7 +37754,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -37450,19 +37763,19 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '36', </v>
+        <v/>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'message' =&gt; 'Name cannot be empty', </v>
+        <v/>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37514,7 +37827,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -37523,19 +37836,19 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '37', </v>
+        <v/>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'rule' =&gt; 'required', </v>
+        <v/>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'message' =&gt; 'Email address is mandatory', </v>
+        <v/>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37587,7 +37900,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -37596,19 +37909,19 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '37', </v>
+        <v/>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'rule' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'message' =&gt; 'Email is not valid', </v>
+        <v/>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37660,7 +37973,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -37669,31 +37982,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'form_field' =&gt; '37', </v>
+        <v/>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'rule' =&gt; 'unique', </v>
+        <v/>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'message' =&gt; 'This email is already taken, please choose a unique one', </v>
+        <v/>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'arg1' =&gt; 'users', </v>
+        <v/>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'arg2' =&gt; 'email', </v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'arg3' =&gt; '-r:update', </v>
+        <v/>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37733,7 +38046,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -37742,7 +38055,7 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v/>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37815,7 +38128,7 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v/>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -43848,13 +44161,13 @@
         <v>User</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="G9" s="7"/>
     </row>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="643">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1964,6 +1964,9 @@
   </si>
   <si>
     <t>2,3,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>Resource List Relation</t>
   </si>
 </sst>
 </file>
@@ -2170,6 +2173,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2184,9 +2190,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4061,11 +4064,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R276" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R270" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R270">
     <filterColumn colId="1">
       <filters>
-        <filter val="Resource Roles"/>
+        <filter val="Resource Action Data"/>
+        <filter val="Resource Actions"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4098,8 +4102,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E25" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E26"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="62"/>
     <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
@@ -10287,7 +10291,7 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="K293" sqref="K293:K300"/>
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -23509,10 +23513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R270"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24543,7 +24547,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" hidden="1">
       <c r="A28" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-0</v>
@@ -24579,7 +24583,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" hidden="1">
       <c r="A29" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-1</v>
@@ -24615,7 +24619,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" hidden="1">
       <c r="A30" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-2</v>
@@ -24647,7 +24651,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" hidden="1">
       <c r="A31" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-3</v>
@@ -24679,7 +24683,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" hidden="1">
       <c r="A32" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-4</v>
@@ -24711,7 +24715,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-5</v>
@@ -24743,7 +24747,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-6</v>
@@ -24775,7 +24779,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-7</v>
@@ -28421,7 +28425,7 @@
       <c r="Q135" s="16"/>
       <c r="R135" s="16"/>
     </row>
-    <row r="136" spans="1:18" hidden="1">
+    <row r="136" spans="1:18">
       <c r="A136" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-0</v>
@@ -28465,7 +28469,7 @@
       <c r="Q136" s="16"/>
       <c r="R136" s="16"/>
     </row>
-    <row r="137" spans="1:18" hidden="1">
+    <row r="137" spans="1:18">
       <c r="A137" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-1</v>
@@ -28509,7 +28513,7 @@
       <c r="Q137" s="15"/>
       <c r="R137" s="15"/>
     </row>
-    <row r="138" spans="1:18" hidden="1">
+    <row r="138" spans="1:18">
       <c r="A138" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-2</v>
@@ -28553,7 +28557,7 @@
       <c r="Q138" s="15"/>
       <c r="R138" s="15"/>
     </row>
-    <row r="139" spans="1:18" hidden="1">
+    <row r="139" spans="1:18">
       <c r="A139" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-3</v>
@@ -28597,7 +28601,7 @@
       <c r="Q139" s="15"/>
       <c r="R139" s="15"/>
     </row>
-    <row r="140" spans="1:18" hidden="1">
+    <row r="140" spans="1:18">
       <c r="A140" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-4</v>
@@ -28641,7 +28645,7 @@
       <c r="Q140" s="15"/>
       <c r="R140" s="15"/>
     </row>
-    <row r="141" spans="1:18" hidden="1">
+    <row r="141" spans="1:18">
       <c r="A141" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-5</v>
@@ -28685,7 +28689,7 @@
       <c r="Q141" s="15"/>
       <c r="R141" s="15"/>
     </row>
-    <row r="142" spans="1:18" hidden="1">
+    <row r="142" spans="1:18">
       <c r="A142" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-6</v>
@@ -30769,7 +30773,7 @@
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
     </row>
-    <row r="197" spans="1:18" hidden="1">
+    <row r="197" spans="1:18">
       <c r="A197" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-7</v>
@@ -31019,7 +31023,7 @@
       <c r="Q203" s="40"/>
       <c r="R203" s="40"/>
     </row>
-    <row r="204" spans="1:18" hidden="1">
+    <row r="204" spans="1:18">
       <c r="A204" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-8</v>
@@ -32115,9 +32119,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="40"/>
-      <c r="F233" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="F233" s="40"/>
       <c r="G233" s="40"/>
       <c r="H233" s="40">
         <v>12</v>
@@ -32152,7 +32154,7 @@
       <c r="F234" s="40"/>
       <c r="G234" s="40"/>
       <c r="H234" s="40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I234" s="40"/>
       <c r="J234" s="40"/>
@@ -32168,28 +32170,28 @@
     <row r="235" spans="1:18" hidden="1">
       <c r="A235" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section-3</v>
+        <v>Data View Section Items-0</v>
       </c>
       <c r="B235" s="40" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C235" s="22">
         <f>COUNTIF($B$1:$B234,[Table Name])</f>
-        <v>3</v>
-      </c>
-      <c r="D235" s="40">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D235" s="40" t="s">
+        <v>606</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F235" s="40"/>
-      <c r="G235" s="40">
-        <v>1</v>
-      </c>
-      <c r="H235" s="40">
-        <v>8</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F235" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G235" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H235" s="40"/>
       <c r="I235" s="40"/>
       <c r="J235" s="40"/>
       <c r="K235" s="40"/>
@@ -32204,27 +32206,25 @@
     <row r="236" spans="1:18" hidden="1">
       <c r="A236" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-0</v>
+        <v>Data View Section Items-1</v>
       </c>
       <c r="B236" s="40" t="s">
         <v>618</v>
       </c>
       <c r="C236" s="22">
         <f>COUNTIF($B$1:$B235,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D236" s="40" t="s">
-        <v>606</v>
+        <v>1</v>
+      </c>
+      <c r="D236" s="40">
+        <v>1</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="F236" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G236" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G236" s="40"/>
       <c r="H236" s="40"/>
       <c r="I236" s="40"/>
       <c r="J236" s="40"/>
@@ -32240,23 +32240,23 @@
     <row r="237" spans="1:18" hidden="1">
       <c r="A237" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-1</v>
+        <v>Data View Section Items-2</v>
       </c>
       <c r="B237" s="40" t="s">
         <v>618</v>
       </c>
       <c r="C237" s="22">
         <f>COUNTIF($B$1:$B236,[Table Name])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" s="40">
         <v>1</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="F237" s="40" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="G237" s="40"/>
       <c r="H237" s="40"/>
@@ -32274,23 +32274,23 @@
     <row r="238" spans="1:18" hidden="1">
       <c r="A238" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-2</v>
+        <v>Data View Section Items-3</v>
       </c>
       <c r="B238" s="40" t="s">
         <v>618</v>
       </c>
       <c r="C238" s="22">
         <f>COUNTIF($B$1:$B237,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D238" s="40">
         <v>2</v>
       </c>
-      <c r="D238" s="40">
+      <c r="E238" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E238" s="40" t="s">
-        <v>272</v>
-      </c>
       <c r="F238" s="40" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="G238" s="40"/>
       <c r="H238" s="40"/>
@@ -32306,64 +32306,66 @@
       <c r="R238" s="40"/>
     </row>
     <row r="239" spans="1:18" hidden="1">
-      <c r="A239" s="22" t="str">
+      <c r="A239" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-3</v>
+        <v>Data View Section Items-4</v>
       </c>
       <c r="B239" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="C239" s="22">
+      <c r="C239" s="42">
         <f>COUNTIF($B$1:$B238,[Table Name])</f>
-        <v>3</v>
-      </c>
-      <c r="D239" s="40">
-        <v>1</v>
-      </c>
-      <c r="E239" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F239" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G239" s="40">
-        <v>1</v>
-      </c>
-      <c r="H239" s="40"/>
-      <c r="I239" s="40"/>
-      <c r="J239" s="40"/>
-      <c r="K239" s="40"/>
-      <c r="L239" s="40"/>
-      <c r="M239" s="40"/>
-      <c r="N239" s="40"/>
-      <c r="O239" s="40"/>
-      <c r="P239" s="40"/>
-      <c r="Q239" s="40"/>
-      <c r="R239" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="D239" s="43">
+        <v>2</v>
+      </c>
+      <c r="E239" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F239" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G239" s="43"/>
+      <c r="H239" s="43"/>
+      <c r="I239" s="43"/>
+      <c r="J239" s="43"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
+      <c r="M239" s="43"/>
+      <c r="N239" s="43"/>
+      <c r="O239" s="43"/>
+      <c r="P239" s="43"/>
+      <c r="Q239" s="43"/>
+      <c r="R239" s="43"/>
     </row>
     <row r="240" spans="1:18" hidden="1">
       <c r="A240" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-4</v>
+        <v>Resource Forms-8</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>618</v>
+        <v>433</v>
       </c>
       <c r="C240" s="22">
         <f>COUNTIF($B$1:$B239,[Table Name])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D240" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>1</v>
+        <v>624</v>
       </c>
       <c r="F240" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G240" s="40"/>
-      <c r="H240" s="40"/>
+        <v>627</v>
+      </c>
+      <c r="G240" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="H240" s="40" t="s">
+        <v>626</v>
+      </c>
       <c r="I240" s="40"/>
       <c r="J240" s="40"/>
       <c r="K240" s="40"/>
@@ -32376,61 +32378,67 @@
       <c r="R240" s="40"/>
     </row>
     <row r="241" spans="1:18" hidden="1">
-      <c r="A241" s="42" t="str">
+      <c r="A241" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-5</v>
+        <v>Resource Forms-9</v>
       </c>
       <c r="B241" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="C241" s="42">
+        <v>433</v>
+      </c>
+      <c r="C241" s="22">
         <f>COUNTIF($B$1:$B240,[Table Name])</f>
-        <v>5</v>
-      </c>
-      <c r="D241" s="43">
-        <v>2</v>
-      </c>
-      <c r="E241" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="F241" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="G241" s="43"/>
-      <c r="H241" s="43"/>
-      <c r="I241" s="43"/>
-      <c r="J241" s="43"/>
-      <c r="K241" s="43"/>
-      <c r="L241" s="43"/>
-      <c r="M241" s="43"/>
-      <c r="N241" s="43"/>
-      <c r="O241" s="43"/>
-      <c r="P241" s="43"/>
-      <c r="Q241" s="43"/>
-      <c r="R241" s="43"/>
+        <v>9</v>
+      </c>
+      <c r="D241" s="40">
+        <v>1</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="G241" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="H241" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="I241" s="40"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="40"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
     </row>
     <row r="242" spans="1:18" hidden="1">
       <c r="A242" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-6</v>
+        <v>Resource Form Fields-34</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>618</v>
+        <v>444</v>
       </c>
       <c r="C242" s="22">
         <f>COUNTIF($B$1:$B241,[Table Name])</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D242" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G242" s="40"/>
+        <v>270</v>
+      </c>
+      <c r="G242" s="40" t="s">
+        <v>1</v>
+      </c>
       <c r="H242" s="40"/>
       <c r="I242" s="40"/>
       <c r="J242" s="40"/>
@@ -32446,25 +32454,27 @@
     <row r="243" spans="1:18" hidden="1">
       <c r="A243" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Data View Section Items-7</v>
+        <v>Resource Form Fields-35</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>618</v>
+        <v>444</v>
       </c>
       <c r="C243" s="22">
         <f>COUNTIF($B$1:$B242,[Table Name])</f>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D243" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="F243" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G243" s="40"/>
+        <v>270</v>
+      </c>
+      <c r="G243" s="40" t="s">
+        <v>272</v>
+      </c>
       <c r="H243" s="40"/>
       <c r="I243" s="40"/>
       <c r="J243" s="40"/>
@@ -32480,30 +32490,28 @@
     <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Forms-8</v>
+        <v>Resource Form Fields-36</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C244" s="22">
         <f>COUNTIF($B$1:$B243,[Table Name])</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D244" s="40">
+        <v>9</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G244" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E244" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="F244" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="G244" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="H244" s="40" t="s">
-        <v>626</v>
-      </c>
+      <c r="H244" s="40"/>
       <c r="I244" s="40"/>
       <c r="J244" s="40"/>
       <c r="K244" s="40"/>
@@ -32518,30 +32526,28 @@
     <row r="245" spans="1:18" hidden="1">
       <c r="A245" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Forms-9</v>
+        <v>Resource Form Fields-37</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C245" s="22">
         <f>COUNTIF($B$1:$B244,[Table Name])</f>
+        <v>37</v>
+      </c>
+      <c r="D245" s="40">
         <v>9</v>
       </c>
-      <c r="D245" s="40">
-        <v>1</v>
-      </c>
       <c r="E245" s="40" t="s">
-        <v>628</v>
+        <v>271</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>629</v>
+        <v>270</v>
       </c>
       <c r="G245" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="H245" s="40" t="s">
-        <v>631</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="H245" s="40"/>
       <c r="I245" s="40"/>
       <c r="J245" s="40"/>
       <c r="K245" s="40"/>
@@ -32556,27 +32562,25 @@
     <row r="246" spans="1:18" hidden="1">
       <c r="A246" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-34</v>
+        <v>Form Field Attrs-1</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C246" s="22">
         <f>COUNTIF($B$1:$B245,[Table Name])</f>
+        <v>1</v>
+      </c>
+      <c r="D246" s="40">
         <v>34</v>
       </c>
-      <c r="D246" s="40">
-        <v>8</v>
-      </c>
       <c r="E246" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F246" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G246" s="40" t="s">
-        <v>1</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F246" s="40">
+        <v>3</v>
+      </c>
+      <c r="G246" s="40"/>
       <c r="H246" s="40"/>
       <c r="I246" s="40"/>
       <c r="J246" s="40"/>
@@ -32592,27 +32596,25 @@
     <row r="247" spans="1:18" hidden="1">
       <c r="A247" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-35</v>
+        <v>Form Field Attrs-2</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C247" s="22">
         <f>COUNTIF($B$1:$B246,[Table Name])</f>
+        <v>2</v>
+      </c>
+      <c r="D247" s="40">
         <v>35</v>
       </c>
-      <c r="D247" s="40">
-        <v>8</v>
-      </c>
       <c r="E247" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F247" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G247" s="40" t="s">
-        <v>272</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F247" s="40">
+        <v>3</v>
+      </c>
+      <c r="G247" s="40"/>
       <c r="H247" s="40"/>
       <c r="I247" s="40"/>
       <c r="J247" s="40"/>
@@ -32628,27 +32630,25 @@
     <row r="248" spans="1:18" hidden="1">
       <c r="A248" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-36</v>
+        <v>Form Field Attrs-3</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C248" s="22">
         <f>COUNTIF($B$1:$B247,[Table Name])</f>
+        <v>3</v>
+      </c>
+      <c r="D248" s="40">
         <v>36</v>
       </c>
-      <c r="D248" s="40">
-        <v>9</v>
-      </c>
       <c r="E248" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F248" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G248" s="40" t="s">
-        <v>1</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F248" s="40">
+        <v>3</v>
+      </c>
+      <c r="G248" s="40"/>
       <c r="H248" s="40"/>
       <c r="I248" s="40"/>
       <c r="J248" s="40"/>
@@ -32664,27 +32664,25 @@
     <row r="249" spans="1:18" hidden="1">
       <c r="A249" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Fields-37</v>
+        <v>Form Field Attrs-4</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C249" s="22">
         <f>COUNTIF($B$1:$B248,[Table Name])</f>
+        <v>4</v>
+      </c>
+      <c r="D249" s="40">
         <v>37</v>
       </c>
-      <c r="D249" s="40">
-        <v>9</v>
-      </c>
       <c r="E249" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F249" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="G249" s="40" t="s">
-        <v>272</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F249" s="40">
+        <v>3</v>
+      </c>
+      <c r="G249" s="40"/>
       <c r="H249" s="40"/>
       <c r="I249" s="40"/>
       <c r="J249" s="40"/>
@@ -32700,24 +32698,22 @@
     <row r="250" spans="1:18" hidden="1">
       <c r="A250" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-1</v>
+        <v>Resource Form Field Data-34</v>
       </c>
       <c r="B250" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C250" s="22">
         <f>COUNTIF($B$1:$B249,[Table Name])</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D250" s="40">
         <v>34</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F250" s="40">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F250" s="40"/>
       <c r="G250" s="40"/>
       <c r="H250" s="40"/>
       <c r="I250" s="40"/>
@@ -32734,24 +32730,22 @@
     <row r="251" spans="1:18" hidden="1">
       <c r="A251" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-2</v>
+        <v>Resource Form Field Data-35</v>
       </c>
       <c r="B251" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C251" s="22">
         <f>COUNTIF($B$1:$B250,[Table Name])</f>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D251" s="40">
         <v>35</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F251" s="40">
-        <v>3</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F251" s="40"/>
       <c r="G251" s="40"/>
       <c r="H251" s="40"/>
       <c r="I251" s="40"/>
@@ -32768,24 +32762,22 @@
     <row r="252" spans="1:18" hidden="1">
       <c r="A252" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-3</v>
+        <v>Resource Form Field Data-36</v>
       </c>
       <c r="B252" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C252" s="22">
         <f>COUNTIF($B$1:$B251,[Table Name])</f>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D252" s="40">
         <v>36</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F252" s="40">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F252" s="40"/>
       <c r="G252" s="40"/>
       <c r="H252" s="40"/>
       <c r="I252" s="40"/>
@@ -32802,24 +32794,22 @@
     <row r="253" spans="1:18" hidden="1">
       <c r="A253" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Attrs-4</v>
+        <v>Resource Form Field Data-37</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C253" s="22">
         <f>COUNTIF($B$1:$B252,[Table Name])</f>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D253" s="40">
         <v>37</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F253" s="40">
-        <v>3</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F253" s="40"/>
       <c r="G253" s="40"/>
       <c r="H253" s="40"/>
       <c r="I253" s="40"/>
@@ -32836,22 +32826,24 @@
     <row r="254" spans="1:18" hidden="1">
       <c r="A254" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-34</v>
+        <v>Form Field Validations-13</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C254" s="22">
         <f>COUNTIF($B$1:$B253,[Table Name])</f>
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D254" s="40">
         <v>34</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F254" s="40"/>
+        <v>478</v>
+      </c>
+      <c r="F254" s="40" t="s">
+        <v>632</v>
+      </c>
       <c r="G254" s="40"/>
       <c r="H254" s="40"/>
       <c r="I254" s="40"/>
@@ -32868,22 +32860,24 @@
     <row r="255" spans="1:18" hidden="1">
       <c r="A255" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-35</v>
+        <v>Form Field Validations-14</v>
       </c>
       <c r="B255" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C255" s="22">
         <f>COUNTIF($B$1:$B254,[Table Name])</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D255" s="40">
         <v>35</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F255" s="40"/>
+        <v>478</v>
+      </c>
+      <c r="F255" s="40" t="s">
+        <v>633</v>
+      </c>
       <c r="G255" s="40"/>
       <c r="H255" s="40"/>
       <c r="I255" s="40"/>
@@ -32900,22 +32894,24 @@
     <row r="256" spans="1:18" hidden="1">
       <c r="A256" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-36</v>
+        <v>Form Field Validations-15</v>
       </c>
       <c r="B256" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C256" s="22">
         <f>COUNTIF($B$1:$B255,[Table Name])</f>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D256" s="40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F256" s="40"/>
+        <v>271</v>
+      </c>
+      <c r="F256" s="40" t="s">
+        <v>634</v>
+      </c>
       <c r="G256" s="40"/>
       <c r="H256" s="40"/>
       <c r="I256" s="40"/>
@@ -32932,25 +32928,33 @@
     <row r="257" spans="1:18" hidden="1">
       <c r="A257" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Form Field Data-37</v>
+        <v>Form Field Validations-16</v>
       </c>
       <c r="B257" s="40" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="C257" s="22">
         <f>COUNTIF($B$1:$B256,[Table Name])</f>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D257" s="40">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E257" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F257" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="G257" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H257" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F257" s="40"/>
-      <c r="G257" s="40"/>
-      <c r="H257" s="40"/>
-      <c r="I257" s="40"/>
+      <c r="I257" s="44" t="s">
+        <v>635</v>
+      </c>
       <c r="J257" s="40"/>
       <c r="K257" s="40"/>
       <c r="L257" s="40"/>
@@ -32964,17 +32968,17 @@
     <row r="258" spans="1:18" hidden="1">
       <c r="A258" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-13</v>
+        <v>Form Field Validations-17</v>
       </c>
       <c r="B258" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C258" s="22">
         <f>COUNTIF($B$1:$B257,[Table Name])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D258" s="40">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E258" s="40" t="s">
         <v>478</v>
@@ -32998,17 +33002,17 @@
     <row r="259" spans="1:18" hidden="1">
       <c r="A259" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-14</v>
+        <v>Form Field Validations-18</v>
       </c>
       <c r="B259" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C259" s="22">
         <f>COUNTIF($B$1:$B258,[Table Name])</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D259" s="40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E259" s="40" t="s">
         <v>478</v>
@@ -33032,17 +33036,17 @@
     <row r="260" spans="1:18" hidden="1">
       <c r="A260" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-15</v>
+        <v>Form Field Validations-19</v>
       </c>
       <c r="B260" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C260" s="22">
         <f>COUNTIF($B$1:$B259,[Table Name])</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D260" s="40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E260" s="40" t="s">
         <v>271</v>
@@ -33066,17 +33070,17 @@
     <row r="261" spans="1:18" hidden="1">
       <c r="A261" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-16</v>
+        <v>Form Field Validations-20</v>
       </c>
       <c r="B261" s="40" t="s">
         <v>477</v>
       </c>
       <c r="C261" s="22">
         <f>COUNTIF($B$1:$B260,[Table Name])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D261" s="40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E261" s="40" t="s">
         <v>479</v>
@@ -33090,7 +33094,7 @@
       <c r="H261" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="I261" s="50" t="s">
+      <c r="I261" s="44" t="s">
         <v>635</v>
       </c>
       <c r="J261" s="40"/>
@@ -33103,32 +33107,40 @@
       <c r="Q261" s="40"/>
       <c r="R261" s="40"/>
     </row>
-    <row r="262" spans="1:18" hidden="1">
+    <row r="262" spans="1:18">
       <c r="A262" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-17</v>
+        <v>Resource Actions-9</v>
       </c>
       <c r="B262" s="40" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="C262" s="22">
         <f>COUNTIF($B$1:$B261,[Table Name])</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D262" s="40">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>478</v>
+        <v>624</v>
       </c>
       <c r="F262" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="G262" s="40"/>
-      <c r="H262" s="40"/>
+        <v>636</v>
+      </c>
+      <c r="G262" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H262" s="40" t="s">
+        <v>343</v>
+      </c>
       <c r="I262" s="40"/>
-      <c r="J262" s="40"/>
-      <c r="K262" s="40"/>
+      <c r="J262" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="K262" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L262" s="40"/>
       <c r="M262" s="40"/>
       <c r="N262" s="40"/>
@@ -33137,32 +33149,40 @@
       <c r="Q262" s="40"/>
       <c r="R262" s="40"/>
     </row>
-    <row r="263" spans="1:18" hidden="1">
+    <row r="263" spans="1:18">
       <c r="A263" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-18</v>
+        <v>Resource Actions-10</v>
       </c>
       <c r="B263" s="40" t="s">
-        <v>477</v>
+        <v>316</v>
       </c>
       <c r="C263" s="22">
         <f>COUNTIF($B$1:$B262,[Table Name])</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D263" s="40">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="F263" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="G263" s="40"/>
-      <c r="H263" s="40"/>
+        <v>639</v>
+      </c>
+      <c r="G263" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H263" s="40" t="s">
+        <v>343</v>
+      </c>
       <c r="I263" s="40"/>
-      <c r="J263" s="40"/>
-      <c r="K263" s="40"/>
+      <c r="J263" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="K263" s="40" t="s">
+        <v>341</v>
+      </c>
       <c r="L263" s="40"/>
       <c r="M263" s="40"/>
       <c r="N263" s="40"/>
@@ -33174,24 +33194,22 @@
     <row r="264" spans="1:18" hidden="1">
       <c r="A264" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-19</v>
+        <v>Resource Action List-3</v>
       </c>
       <c r="B264" s="40" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="C264" s="22">
         <f>COUNTIF($B$1:$B263,[Table Name])</f>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D264" s="40">
-        <v>37</v>
-      </c>
-      <c r="E264" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F264" s="40" t="s">
-        <v>634</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E264" s="40">
+        <v>2</v>
+      </c>
+      <c r="F264" s="40"/>
       <c r="G264" s="40"/>
       <c r="H264" s="40"/>
       <c r="I264" s="40"/>
@@ -33208,33 +33226,25 @@
     <row r="265" spans="1:18" hidden="1">
       <c r="A265" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Form Field Validations-20</v>
+        <v>Resource Action List-4</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="C265" s="22">
         <f>COUNTIF($B$1:$B264,[Table Name])</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D265" s="40">
-        <v>37</v>
-      </c>
-      <c r="E265" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="F265" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="G265" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H265" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="I265" s="50" t="s">
-        <v>635</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E265" s="40">
+        <v>3</v>
+      </c>
+      <c r="F265" s="40"/>
+      <c r="G265" s="40"/>
+      <c r="H265" s="40"/>
+      <c r="I265" s="40"/>
       <c r="J265" s="40"/>
       <c r="K265" s="40"/>
       <c r="L265" s="40"/>
@@ -33245,40 +33255,30 @@
       <c r="Q265" s="40"/>
       <c r="R265" s="40"/>
     </row>
-    <row r="266" spans="1:18" hidden="1">
+    <row r="266" spans="1:18">
       <c r="A266" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Actions-9</v>
+        <v>Resource Action Data-0</v>
       </c>
       <c r="B266" s="40" t="s">
-        <v>316</v>
+        <v>389</v>
       </c>
       <c r="C266" s="22">
         <f>COUNTIF($B$1:$B265,[Table Name])</f>
-        <v>9</v>
-      </c>
-      <c r="D266" s="40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D266" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="E266" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="F266" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="G266" s="40" t="s">
-        <v>637</v>
-      </c>
-      <c r="H266" s="40" t="s">
-        <v>343</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F266" s="40"/>
+      <c r="G266" s="40"/>
+      <c r="H266" s="40"/>
       <c r="I266" s="40"/>
-      <c r="J266" s="40" t="s">
-        <v>638</v>
-      </c>
-      <c r="K266" s="40" t="s">
-        <v>341</v>
-      </c>
+      <c r="J266" s="40"/>
+      <c r="K266" s="40"/>
       <c r="L266" s="40"/>
       <c r="M266" s="40"/>
       <c r="N266" s="40"/>
@@ -33287,40 +33287,30 @@
       <c r="Q266" s="40"/>
       <c r="R266" s="40"/>
     </row>
-    <row r="267" spans="1:18" hidden="1">
+    <row r="267" spans="1:18">
       <c r="A267" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Actions-10</v>
+        <v>Resource Action Data-1</v>
       </c>
       <c r="B267" s="40" t="s">
-        <v>316</v>
+        <v>389</v>
       </c>
       <c r="C267" s="22">
         <f>COUNTIF($B$1:$B266,[Table Name])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D267" s="40">
+        <v>9</v>
+      </c>
+      <c r="E267" s="40">
         <v>1</v>
       </c>
-      <c r="E267" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="F267" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="G267" s="40" t="s">
-        <v>637</v>
-      </c>
-      <c r="H267" s="40" t="s">
-        <v>343</v>
-      </c>
+      <c r="F267" s="40"/>
+      <c r="G267" s="40"/>
+      <c r="H267" s="40"/>
       <c r="I267" s="40"/>
-      <c r="J267" s="40" t="s">
-        <v>638</v>
-      </c>
-      <c r="K267" s="40" t="s">
-        <v>341</v>
-      </c>
+      <c r="J267" s="40"/>
+      <c r="K267" s="40"/>
       <c r="L267" s="40"/>
       <c r="M267" s="40"/>
       <c r="N267" s="40"/>
@@ -33329,20 +33319,20 @@
       <c r="Q267" s="40"/>
       <c r="R267" s="40"/>
     </row>
-    <row r="268" spans="1:18" hidden="1">
+    <row r="268" spans="1:18">
       <c r="A268" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action List-3</v>
+        <v>Resource Action Data-2</v>
       </c>
       <c r="B268" s="40" t="s">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="C268" s="22">
         <f>COUNTIF($B$1:$B267,[Table Name])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" s="40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E268" s="40">
         <v>2</v>
@@ -33364,24 +33354,28 @@
     <row r="269" spans="1:18" hidden="1">
       <c r="A269" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action List-4</v>
+        <v>Resource Action Method-9</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>556</v>
+        <v>446</v>
       </c>
       <c r="C269" s="22">
         <f>COUNTIF($B$1:$B268,[Table Name])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D269" s="40">
-        <v>10</v>
-      </c>
-      <c r="E269" s="40">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E269" s="40" t="s">
+        <v>640</v>
       </c>
       <c r="F269" s="40"/>
-      <c r="G269" s="40"/>
-      <c r="H269" s="40"/>
+      <c r="G269" s="40">
+        <v>8</v>
+      </c>
+      <c r="H269" s="40">
+        <v>1</v>
+      </c>
       <c r="I269" s="40"/>
       <c r="J269" s="40"/>
       <c r="K269" s="40"/>
@@ -33396,24 +33390,28 @@
     <row r="270" spans="1:18" hidden="1">
       <c r="A270" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Data-0</v>
+        <v>Resource Action Method-10</v>
       </c>
       <c r="B270" s="40" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="C270" s="22">
         <f>COUNTIF($B$1:$B269,[Table Name])</f>
-        <v>0</v>
-      </c>
-      <c r="D270" s="40" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="D270" s="40">
+        <v>10</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>4</v>
+        <v>640</v>
       </c>
       <c r="F270" s="40"/>
-      <c r="G270" s="40"/>
-      <c r="H270" s="40"/>
+      <c r="G270" s="40">
+        <v>9</v>
+      </c>
+      <c r="H270" s="40">
+        <v>2</v>
+      </c>
       <c r="I270" s="40"/>
       <c r="J270" s="40"/>
       <c r="K270" s="40"/>
@@ -33424,206 +33422,6 @@
       <c r="P270" s="40"/>
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
-    </row>
-    <row r="271" spans="1:18" hidden="1">
-      <c r="A271" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Data-1</v>
-      </c>
-      <c r="B271" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C271" s="22">
-        <f>COUNTIF($B$1:$B270,[Table Name])</f>
-        <v>1</v>
-      </c>
-      <c r="D271" s="40">
-        <v>7</v>
-      </c>
-      <c r="E271" s="40">
-        <v>1</v>
-      </c>
-      <c r="F271" s="40"/>
-      <c r="G271" s="40"/>
-      <c r="H271" s="40"/>
-      <c r="I271" s="40"/>
-      <c r="J271" s="40"/>
-      <c r="K271" s="40"/>
-      <c r="L271" s="40"/>
-      <c r="M271" s="40"/>
-      <c r="N271" s="40"/>
-      <c r="O271" s="40"/>
-      <c r="P271" s="40"/>
-      <c r="Q271" s="40"/>
-      <c r="R271" s="40"/>
-    </row>
-    <row r="272" spans="1:18" hidden="1">
-      <c r="A272" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Data-2</v>
-      </c>
-      <c r="B272" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C272" s="22">
-        <f>COUNTIF($B$1:$B271,[Table Name])</f>
-        <v>2</v>
-      </c>
-      <c r="D272" s="40">
-        <v>8</v>
-      </c>
-      <c r="E272" s="40">
-        <v>2</v>
-      </c>
-      <c r="F272" s="40"/>
-      <c r="G272" s="40"/>
-      <c r="H272" s="40"/>
-      <c r="I272" s="40"/>
-      <c r="J272" s="40"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="40"/>
-      <c r="M272" s="40"/>
-      <c r="N272" s="40"/>
-      <c r="O272" s="40"/>
-      <c r="P272" s="40"/>
-      <c r="Q272" s="40"/>
-      <c r="R272" s="40"/>
-    </row>
-    <row r="273" spans="1:18" hidden="1">
-      <c r="A273" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Data-3</v>
-      </c>
-      <c r="B273" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C273" s="22">
-        <f>COUNTIF($B$1:$B272,[Table Name])</f>
-        <v>3</v>
-      </c>
-      <c r="D273" s="40">
-        <v>9</v>
-      </c>
-      <c r="E273" s="40">
-        <v>1</v>
-      </c>
-      <c r="F273" s="40"/>
-      <c r="G273" s="40"/>
-      <c r="H273" s="40"/>
-      <c r="I273" s="40"/>
-      <c r="J273" s="40"/>
-      <c r="K273" s="40"/>
-      <c r="L273" s="40"/>
-      <c r="M273" s="40"/>
-      <c r="N273" s="40"/>
-      <c r="O273" s="40"/>
-      <c r="P273" s="40"/>
-      <c r="Q273" s="40"/>
-      <c r="R273" s="40"/>
-    </row>
-    <row r="274" spans="1:18" hidden="1">
-      <c r="A274" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Data-4</v>
-      </c>
-      <c r="B274" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C274" s="22">
-        <f>COUNTIF($B$1:$B273,[Table Name])</f>
-        <v>4</v>
-      </c>
-      <c r="D274" s="40">
-        <v>10</v>
-      </c>
-      <c r="E274" s="40">
-        <v>2</v>
-      </c>
-      <c r="F274" s="40"/>
-      <c r="G274" s="40"/>
-      <c r="H274" s="40"/>
-      <c r="I274" s="40"/>
-      <c r="J274" s="40"/>
-      <c r="K274" s="40"/>
-      <c r="L274" s="40"/>
-      <c r="M274" s="40"/>
-      <c r="N274" s="40"/>
-      <c r="O274" s="40"/>
-      <c r="P274" s="40"/>
-      <c r="Q274" s="40"/>
-      <c r="R274" s="40"/>
-    </row>
-    <row r="275" spans="1:18" hidden="1">
-      <c r="A275" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Method-9</v>
-      </c>
-      <c r="B275" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="C275" s="22">
-        <f>COUNTIF($B$1:$B274,[Table Name])</f>
-        <v>9</v>
-      </c>
-      <c r="D275" s="40">
-        <v>9</v>
-      </c>
-      <c r="E275" s="40" t="s">
-        <v>640</v>
-      </c>
-      <c r="F275" s="40"/>
-      <c r="G275" s="40">
-        <v>8</v>
-      </c>
-      <c r="H275" s="40">
-        <v>1</v>
-      </c>
-      <c r="I275" s="40"/>
-      <c r="J275" s="40"/>
-      <c r="K275" s="40"/>
-      <c r="L275" s="40"/>
-      <c r="M275" s="40"/>
-      <c r="N275" s="40"/>
-      <c r="O275" s="40"/>
-      <c r="P275" s="40"/>
-      <c r="Q275" s="40"/>
-      <c r="R275" s="40"/>
-    </row>
-    <row r="276" spans="1:18" hidden="1">
-      <c r="A276" s="22" t="str">
-        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
-        <v>Resource Action Method-10</v>
-      </c>
-      <c r="B276" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="C276" s="22">
-        <f>COUNTIF($B$1:$B275,[Table Name])</f>
-        <v>10</v>
-      </c>
-      <c r="D276" s="40">
-        <v>10</v>
-      </c>
-      <c r="E276" s="40" t="s">
-        <v>640</v>
-      </c>
-      <c r="F276" s="40"/>
-      <c r="G276" s="40">
-        <v>9</v>
-      </c>
-      <c r="H276" s="40">
-        <v>2</v>
-      </c>
-      <c r="I276" s="40"/>
-      <c r="J276" s="40"/>
-      <c r="K276" s="40"/>
-      <c r="L276" s="40"/>
-      <c r="M276" s="40"/>
-      <c r="N276" s="40"/>
-      <c r="O276" s="40"/>
-      <c r="P276" s="40"/>
-      <c r="Q276" s="40"/>
-      <c r="R276" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33636,10 +33434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34150,12 +33948,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceListRelation</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -36295,7 +36113,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36304,31 +36122,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="str">
+      <c r="A1" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceRole::truncate()</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+        <v>\Milestone\Appframe\Model\ResourceActionData::truncate()</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="31" t="str">
         <f>""</f>
         <v/>
@@ -36336,28 +36154,28 @@
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="31" t="str">
         <f>";"</f>
         <v>;</v>
@@ -36365,26 +36183,26 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
       <c r="S3" s="31" t="str">
         <f>$I$3</f>
         <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
@@ -36456,19 +36274,19 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource</v>
+        <v>resource_action</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>role</v>
+        <v>resource_data</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>actions_availability</v>
+        <v/>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>actions</v>
+        <v/>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
@@ -36520,74 +36338,74 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="32"/>
-      <c r="B6" s="44" t="str">
+      <c r="B6" s="45" t="str">
         <f>$I$1</f>
         <v>$_ = \DB::statement('SELECT @@GLOBAL.foreign_key_checks');</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="32"/>
-      <c r="B7" s="45" t="str">
+      <c r="B7" s="46" t="str">
         <f>$I$2</f>
         <v>\DB::statement('set foreign_key_checks = 0');</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="32"/>
-      <c r="B8" s="46" t="str">
+      <c r="B8" s="47" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceRole::truncate()</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+        <v>\Milestone\Appframe\Model\ResourceActionData::truncate()</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="29">
@@ -36599,19 +36417,19 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '1', </v>
+        <v xml:space="preserve">'resource_action' =&gt; '9', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'role' =&gt; '1', </v>
+        <v xml:space="preserve">'resource_data' =&gt; '1', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'actions_availability' =&gt; 'Only', </v>
+        <v/>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'actions' =&gt; '2,3,5,6,7,8,9,10', </v>
+        <v/>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36672,11 +36490,11 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '1', </v>
+        <v xml:space="preserve">'resource_action' =&gt; '10', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '3', </v>
+        <v xml:space="preserve">'resource_data' =&gt; '2', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36741,15 +36559,15 @@
       </c>
       <c r="B11" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>;</v>
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36805,7 +36623,7 @@
       </c>
       <c r="R11" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -36814,15 +36632,15 @@
       </c>
       <c r="B12" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36878,7 +36696,7 @@
       </c>
       <c r="R12" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -36887,15 +36705,15 @@
       </c>
       <c r="B13" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36951,7 +36769,7 @@
       </c>
       <c r="R13" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -36960,15 +36778,15 @@
       </c>
       <c r="B14" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '5', </v>
+        <v/>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37024,7 +36842,7 @@
       </c>
       <c r="R14" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -37033,15 +36851,15 @@
       </c>
       <c r="B15" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '5', </v>
+        <v/>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'role' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37097,7 +36915,7 @@
       </c>
       <c r="R15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -37106,7 +36924,7 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v/>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -37179,7 +36997,7 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v/>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -4066,12 +4066,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R270" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:R270">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Resource Action Data"/>
-        <filter val="Resource Actions"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="18">
     <tableColumn id="19" name="TRCode" dataDxfId="81">
@@ -23515,8 +23510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R270"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23583,7 +23578,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
+    <row r="2" spans="1:18">
       <c r="A2" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-0</v>
@@ -23617,7 +23612,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" hidden="1">
+    <row r="3" spans="1:18">
       <c r="A3" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-1</v>
@@ -23651,7 +23646,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18" hidden="1">
+    <row r="4" spans="1:18">
       <c r="A4" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-2</v>
@@ -23685,7 +23680,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18" hidden="1">
+    <row r="5" spans="1:18">
       <c r="A5" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-3</v>
@@ -23719,7 +23714,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" hidden="1">
+    <row r="6" spans="1:18">
       <c r="A6" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-0</v>
@@ -23753,7 +23748,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" hidden="1">
+    <row r="7" spans="1:18">
       <c r="A7" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-1</v>
@@ -23787,7 +23782,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" hidden="1">
+    <row r="8" spans="1:18">
       <c r="A8" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-2</v>
@@ -23821,7 +23816,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" hidden="1">
+    <row r="9" spans="1:18">
       <c r="A9" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-3</v>
@@ -23855,7 +23850,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" hidden="1">
+    <row r="10" spans="1:18">
       <c r="A10" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-0</v>
@@ -23887,7 +23882,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" hidden="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-1</v>
@@ -23919,7 +23914,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" hidden="1">
+    <row r="12" spans="1:18">
       <c r="A12" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-2</v>
@@ -23951,7 +23946,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" hidden="1">
+    <row r="13" spans="1:18">
       <c r="A13" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-3</v>
@@ -23983,7 +23978,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" hidden="1">
+    <row r="14" spans="1:18">
       <c r="A14" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-0</v>
@@ -24027,7 +24022,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-1</v>
@@ -24067,7 +24062,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-2</v>
@@ -24107,7 +24102,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18" hidden="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-3</v>
@@ -24147,7 +24142,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-4</v>
@@ -24187,7 +24182,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18" hidden="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-5</v>
@@ -24227,7 +24222,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-6</v>
@@ -24267,7 +24262,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-7</v>
@@ -24307,7 +24302,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18" hidden="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-8</v>
@@ -24347,7 +24342,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18" hidden="1">
+    <row r="23" spans="1:18">
       <c r="A23" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-9</v>
@@ -24387,7 +24382,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18" hidden="1">
+    <row r="24" spans="1:18">
       <c r="A24" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-10</v>
@@ -24427,7 +24422,7 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-11</v>
@@ -24467,7 +24462,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-12</v>
@@ -24507,7 +24502,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-13</v>
@@ -24547,7 +24542,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" hidden="1">
+    <row r="28" spans="1:18">
       <c r="A28" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-0</v>
@@ -24583,7 +24578,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18">
       <c r="A29" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-1</v>
@@ -24619,7 +24614,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-2</v>
@@ -24651,7 +24646,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18">
       <c r="A31" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-3</v>
@@ -24683,7 +24678,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-4</v>
@@ -24715,7 +24710,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-5</v>
@@ -24747,7 +24742,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-6</v>
@@ -24779,7 +24774,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-7</v>
@@ -24811,7 +24806,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18">
       <c r="A36" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-0</v>
@@ -24851,7 +24846,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18">
       <c r="A37" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-1</v>
@@ -24891,7 +24886,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-2</v>
@@ -24931,7 +24926,7 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18">
       <c r="A39" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-3</v>
@@ -24971,7 +24966,7 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-4</v>
@@ -25011,7 +25006,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18" hidden="1">
+    <row r="41" spans="1:18">
       <c r="A41" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-5</v>
@@ -25051,7 +25046,7 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18" hidden="1">
+    <row r="42" spans="1:18">
       <c r="A42" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-6</v>
@@ -25091,7 +25086,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
     </row>
-    <row r="43" spans="1:18" hidden="1">
+    <row r="43" spans="1:18">
       <c r="A43" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-7</v>
@@ -25131,7 +25126,7 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:18" hidden="1">
+    <row r="44" spans="1:18">
       <c r="A44" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-8</v>
@@ -25171,7 +25166,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
     </row>
-    <row r="45" spans="1:18" hidden="1">
+    <row r="45" spans="1:18">
       <c r="A45" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-9</v>
@@ -25211,7 +25206,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="1:18" hidden="1">
+    <row r="46" spans="1:18">
       <c r="A46" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-10</v>
@@ -25251,7 +25246,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18" hidden="1">
+    <row r="47" spans="1:18">
       <c r="A47" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-11</v>
@@ -25291,7 +25286,7 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="1:18" hidden="1">
+    <row r="48" spans="1:18">
       <c r="A48" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-12</v>
@@ -25331,7 +25326,7 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="1:18" hidden="1">
+    <row r="49" spans="1:18">
       <c r="A49" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-13</v>
@@ -25371,7 +25366,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:18" hidden="1">
+    <row r="50" spans="1:18">
       <c r="A50" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-14</v>
@@ -25411,7 +25406,7 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18" hidden="1">
+    <row r="51" spans="1:18">
       <c r="A51" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-0</v>
@@ -25447,7 +25442,7 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18" hidden="1">
+    <row r="52" spans="1:18">
       <c r="A52" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-1</v>
@@ -25483,7 +25478,7 @@
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
     </row>
-    <row r="53" spans="1:18" hidden="1">
+    <row r="53" spans="1:18">
       <c r="A53" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-2</v>
@@ -25519,7 +25514,7 @@
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18" hidden="1">
+    <row r="54" spans="1:18">
       <c r="A54" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-0</v>
@@ -25555,7 +25550,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18" hidden="1">
+    <row r="55" spans="1:18">
       <c r="A55" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-1</v>
@@ -25591,7 +25586,7 @@
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
     </row>
-    <row r="56" spans="1:18" hidden="1">
+    <row r="56" spans="1:18">
       <c r="A56" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-2</v>
@@ -25627,7 +25622,7 @@
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
     </row>
-    <row r="57" spans="1:18" hidden="1">
+    <row r="57" spans="1:18">
       <c r="A57" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-3</v>
@@ -25663,7 +25658,7 @@
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
     </row>
-    <row r="58" spans="1:18" hidden="1">
+    <row r="58" spans="1:18">
       <c r="A58" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-4</v>
@@ -25699,7 +25694,7 @@
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
     </row>
-    <row r="59" spans="1:18" hidden="1">
+    <row r="59" spans="1:18">
       <c r="A59" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-5</v>
@@ -25735,7 +25730,7 @@
       <c r="Q59" s="15"/>
       <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="1:18" hidden="1">
+    <row r="60" spans="1:18">
       <c r="A60" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-6</v>
@@ -25771,7 +25766,7 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
-    <row r="61" spans="1:18" hidden="1">
+    <row r="61" spans="1:18">
       <c r="A61" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-0</v>
@@ -25803,7 +25798,7 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18" hidden="1">
+    <row r="62" spans="1:18">
       <c r="A62" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-1</v>
@@ -25835,7 +25830,7 @@
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
     </row>
-    <row r="63" spans="1:18" hidden="1">
+    <row r="63" spans="1:18">
       <c r="A63" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-2</v>
@@ -25867,7 +25862,7 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18" hidden="1">
+    <row r="64" spans="1:18">
       <c r="A64" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-0</v>
@@ -25905,7 +25900,7 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18" hidden="1">
+    <row r="65" spans="1:18">
       <c r="A65" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-1</v>
@@ -25943,7 +25938,7 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
     </row>
-    <row r="66" spans="1:18" hidden="1">
+    <row r="66" spans="1:18">
       <c r="A66" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-2</v>
@@ -25981,7 +25976,7 @@
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
     </row>
-    <row r="67" spans="1:18" hidden="1">
+    <row r="67" spans="1:18">
       <c r="A67" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-3</v>
@@ -26019,7 +26014,7 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="1:18" hidden="1">
+    <row r="68" spans="1:18">
       <c r="A68" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-4</v>
@@ -26057,7 +26052,7 @@
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
     </row>
-    <row r="69" spans="1:18" hidden="1">
+    <row r="69" spans="1:18">
       <c r="A69" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-5</v>
@@ -26095,7 +26090,7 @@
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
     </row>
-    <row r="70" spans="1:18" hidden="1">
+    <row r="70" spans="1:18">
       <c r="A70" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-6</v>
@@ -26133,7 +26128,7 @@
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
     </row>
-    <row r="71" spans="1:18" hidden="1">
+    <row r="71" spans="1:18">
       <c r="A71" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-7</v>
@@ -26171,7 +26166,7 @@
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18" hidden="1">
+    <row r="72" spans="1:18">
       <c r="A72" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-0</v>
@@ -26209,7 +26204,7 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18" hidden="1">
+    <row r="73" spans="1:18">
       <c r="A73" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-1</v>
@@ -26247,7 +26242,7 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
     </row>
-    <row r="74" spans="1:18" hidden="1">
+    <row r="74" spans="1:18">
       <c r="A74" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-2</v>
@@ -26285,7 +26280,7 @@
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
     </row>
-    <row r="75" spans="1:18" hidden="1">
+    <row r="75" spans="1:18">
       <c r="A75" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-3</v>
@@ -26323,7 +26318,7 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
     </row>
-    <row r="76" spans="1:18" hidden="1">
+    <row r="76" spans="1:18">
       <c r="A76" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-4</v>
@@ -26361,7 +26356,7 @@
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
     </row>
-    <row r="77" spans="1:18" hidden="1">
+    <row r="77" spans="1:18">
       <c r="A77" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-5</v>
@@ -26399,7 +26394,7 @@
       <c r="Q77" s="15"/>
       <c r="R77" s="15"/>
     </row>
-    <row r="78" spans="1:18" hidden="1">
+    <row r="78" spans="1:18">
       <c r="A78" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-6</v>
@@ -26437,7 +26432,7 @@
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
     </row>
-    <row r="79" spans="1:18" hidden="1">
+    <row r="79" spans="1:18">
       <c r="A79" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-7</v>
@@ -26475,7 +26470,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
     </row>
-    <row r="80" spans="1:18" hidden="1">
+    <row r="80" spans="1:18">
       <c r="A80" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-8</v>
@@ -26513,7 +26508,7 @@
       <c r="Q80" s="15"/>
       <c r="R80" s="15"/>
     </row>
-    <row r="81" spans="1:18" hidden="1">
+    <row r="81" spans="1:18">
       <c r="A81" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-9</v>
@@ -26551,7 +26546,7 @@
       <c r="Q81" s="15"/>
       <c r="R81" s="15"/>
     </row>
-    <row r="82" spans="1:18" hidden="1">
+    <row r="82" spans="1:18">
       <c r="A82" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-10</v>
@@ -26589,7 +26584,7 @@
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
     </row>
-    <row r="83" spans="1:18" hidden="1">
+    <row r="83" spans="1:18">
       <c r="A83" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-11</v>
@@ -26627,7 +26622,7 @@
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
     </row>
-    <row r="84" spans="1:18" hidden="1">
+    <row r="84" spans="1:18">
       <c r="A84" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-12</v>
@@ -26665,7 +26660,7 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="85" spans="1:18" hidden="1">
+    <row r="85" spans="1:18">
       <c r="A85" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-13</v>
@@ -26703,7 +26698,7 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
     </row>
-    <row r="86" spans="1:18" hidden="1">
+    <row r="86" spans="1:18">
       <c r="A86" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-14</v>
@@ -26741,7 +26736,7 @@
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
     </row>
-    <row r="87" spans="1:18" hidden="1">
+    <row r="87" spans="1:18">
       <c r="A87" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-15</v>
@@ -26779,7 +26774,7 @@
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
     </row>
-    <row r="88" spans="1:18" hidden="1">
+    <row r="88" spans="1:18">
       <c r="A88" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-16</v>
@@ -26817,7 +26812,7 @@
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
     </row>
-    <row r="89" spans="1:18" hidden="1">
+    <row r="89" spans="1:18">
       <c r="A89" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-17</v>
@@ -26855,7 +26850,7 @@
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
     </row>
-    <row r="90" spans="1:18" hidden="1">
+    <row r="90" spans="1:18">
       <c r="A90" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-18</v>
@@ -26893,7 +26888,7 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
     </row>
-    <row r="91" spans="1:18" hidden="1">
+    <row r="91" spans="1:18">
       <c r="A91" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-19</v>
@@ -26931,7 +26926,7 @@
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
     </row>
-    <row r="92" spans="1:18" hidden="1">
+    <row r="92" spans="1:18">
       <c r="A92" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-20</v>
@@ -26969,7 +26964,7 @@
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
     </row>
-    <row r="93" spans="1:18" hidden="1">
+    <row r="93" spans="1:18">
       <c r="A93" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-21</v>
@@ -27007,7 +27002,7 @@
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
     </row>
-    <row r="94" spans="1:18" hidden="1">
+    <row r="94" spans="1:18">
       <c r="A94" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-22</v>
@@ -27045,7 +27040,7 @@
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
     </row>
-    <row r="95" spans="1:18" hidden="1">
+    <row r="95" spans="1:18">
       <c r="A95" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-23</v>
@@ -27083,7 +27078,7 @@
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
     </row>
-    <row r="96" spans="1:18" hidden="1">
+    <row r="96" spans="1:18">
       <c r="A96" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-24</v>
@@ -27121,7 +27116,7 @@
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
     </row>
-    <row r="97" spans="1:18" hidden="1">
+    <row r="97" spans="1:18">
       <c r="A97" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-25</v>
@@ -27159,7 +27154,7 @@
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
     </row>
-    <row r="98" spans="1:18" hidden="1">
+    <row r="98" spans="1:18">
       <c r="A98" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-26</v>
@@ -27197,7 +27192,7 @@
       <c r="Q98" s="15"/>
       <c r="R98" s="15"/>
     </row>
-    <row r="99" spans="1:18" hidden="1">
+    <row r="99" spans="1:18">
       <c r="A99" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-27</v>
@@ -27235,7 +27230,7 @@
       <c r="Q99" s="15"/>
       <c r="R99" s="15"/>
     </row>
-    <row r="100" spans="1:18" hidden="1">
+    <row r="100" spans="1:18">
       <c r="A100" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-28</v>
@@ -27273,7 +27268,7 @@
       <c r="Q100" s="15"/>
       <c r="R100" s="15"/>
     </row>
-    <row r="101" spans="1:18" hidden="1">
+    <row r="101" spans="1:18">
       <c r="A101" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-29</v>
@@ -27311,7 +27306,7 @@
       <c r="Q101" s="15"/>
       <c r="R101" s="15"/>
     </row>
-    <row r="102" spans="1:18" hidden="1">
+    <row r="102" spans="1:18">
       <c r="A102" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-30</v>
@@ -27349,7 +27344,7 @@
       <c r="Q102" s="15"/>
       <c r="R102" s="15"/>
     </row>
-    <row r="103" spans="1:18" hidden="1">
+    <row r="103" spans="1:18">
       <c r="A103" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-31</v>
@@ -27387,7 +27382,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18" hidden="1">
+    <row r="104" spans="1:18">
       <c r="A104" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-0</v>
@@ -27427,7 +27422,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18" hidden="1">
+    <row r="105" spans="1:18">
       <c r="A105" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-1</v>
@@ -27459,7 +27454,7 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18" hidden="1">
+    <row r="106" spans="1:18">
       <c r="A106" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-2</v>
@@ -27491,7 +27486,7 @@
       <c r="Q106" s="16"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18" hidden="1">
+    <row r="107" spans="1:18">
       <c r="A107" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-3</v>
@@ -27523,7 +27518,7 @@
       <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18" hidden="1">
+    <row r="108" spans="1:18">
       <c r="A108" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-4</v>
@@ -27555,7 +27550,7 @@
       <c r="Q108" s="16"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18" hidden="1">
+    <row r="109" spans="1:18">
       <c r="A109" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-5</v>
@@ -27587,7 +27582,7 @@
       <c r="Q109" s="16"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18" hidden="1">
+    <row r="110" spans="1:18">
       <c r="A110" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-6</v>
@@ -27619,7 +27614,7 @@
       <c r="Q110" s="16"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18" hidden="1">
+    <row r="111" spans="1:18">
       <c r="A111" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-7</v>
@@ -27651,7 +27646,7 @@
       <c r="Q111" s="16"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18" hidden="1">
+    <row r="112" spans="1:18">
       <c r="A112" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-8</v>
@@ -27683,7 +27678,7 @@
       <c r="Q112" s="16"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18" hidden="1">
+    <row r="113" spans="1:18">
       <c r="A113" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-9</v>
@@ -27715,7 +27710,7 @@
       <c r="Q113" s="16"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18" hidden="1">
+    <row r="114" spans="1:18">
       <c r="A114" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-10</v>
@@ -27747,7 +27742,7 @@
       <c r="Q114" s="16"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18" hidden="1">
+    <row r="115" spans="1:18">
       <c r="A115" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-11</v>
@@ -27779,7 +27774,7 @@
       <c r="Q115" s="16"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18" hidden="1">
+    <row r="116" spans="1:18">
       <c r="A116" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-12</v>
@@ -27811,7 +27806,7 @@
       <c r="Q116" s="16"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18" hidden="1">
+    <row r="117" spans="1:18">
       <c r="A117" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-13</v>
@@ -27843,7 +27838,7 @@
       <c r="Q117" s="16"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18" hidden="1">
+    <row r="118" spans="1:18">
       <c r="A118" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-14</v>
@@ -27875,7 +27870,7 @@
       <c r="Q118" s="16"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18" hidden="1">
+    <row r="119" spans="1:18">
       <c r="A119" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-15</v>
@@ -27907,7 +27902,7 @@
       <c r="Q119" s="16"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18" hidden="1">
+    <row r="120" spans="1:18">
       <c r="A120" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-16</v>
@@ -27939,7 +27934,7 @@
       <c r="Q120" s="16"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18" hidden="1">
+    <row r="121" spans="1:18">
       <c r="A121" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-17</v>
@@ -27971,7 +27966,7 @@
       <c r="Q121" s="16"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18" hidden="1">
+    <row r="122" spans="1:18">
       <c r="A122" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-18</v>
@@ -28003,7 +27998,7 @@
       <c r="Q122" s="16"/>
       <c r="R122" s="16"/>
     </row>
-    <row r="123" spans="1:18" hidden="1">
+    <row r="123" spans="1:18">
       <c r="A123" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-19</v>
@@ -28035,7 +28030,7 @@
       <c r="Q123" s="16"/>
       <c r="R123" s="16"/>
     </row>
-    <row r="124" spans="1:18" hidden="1">
+    <row r="124" spans="1:18">
       <c r="A124" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-20</v>
@@ -28067,7 +28062,7 @@
       <c r="Q124" s="16"/>
       <c r="R124" s="16"/>
     </row>
-    <row r="125" spans="1:18" hidden="1">
+    <row r="125" spans="1:18">
       <c r="A125" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-21</v>
@@ -28099,7 +28094,7 @@
       <c r="Q125" s="16"/>
       <c r="R125" s="16"/>
     </row>
-    <row r="126" spans="1:18" hidden="1">
+    <row r="126" spans="1:18">
       <c r="A126" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-22</v>
@@ -28131,7 +28126,7 @@
       <c r="Q126" s="16"/>
       <c r="R126" s="16"/>
     </row>
-    <row r="127" spans="1:18" hidden="1">
+    <row r="127" spans="1:18">
       <c r="A127" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-23</v>
@@ -28163,7 +28158,7 @@
       <c r="Q127" s="16"/>
       <c r="R127" s="16"/>
     </row>
-    <row r="128" spans="1:18" hidden="1">
+    <row r="128" spans="1:18">
       <c r="A128" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-24</v>
@@ -28195,7 +28190,7 @@
       <c r="Q128" s="16"/>
       <c r="R128" s="16"/>
     </row>
-    <row r="129" spans="1:18" hidden="1">
+    <row r="129" spans="1:18">
       <c r="A129" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-25</v>
@@ -28227,7 +28222,7 @@
       <c r="Q129" s="16"/>
       <c r="R129" s="16"/>
     </row>
-    <row r="130" spans="1:18" hidden="1">
+    <row r="130" spans="1:18">
       <c r="A130" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-26</v>
@@ -28259,7 +28254,7 @@
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
     </row>
-    <row r="131" spans="1:18" hidden="1">
+    <row r="131" spans="1:18">
       <c r="A131" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-27</v>
@@ -28291,7 +28286,7 @@
       <c r="Q131" s="16"/>
       <c r="R131" s="16"/>
     </row>
-    <row r="132" spans="1:18" hidden="1">
+    <row r="132" spans="1:18">
       <c r="A132" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-28</v>
@@ -28323,7 +28318,7 @@
       <c r="Q132" s="16"/>
       <c r="R132" s="16"/>
     </row>
-    <row r="133" spans="1:18" hidden="1">
+    <row r="133" spans="1:18">
       <c r="A133" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-29</v>
@@ -28357,7 +28352,7 @@
       <c r="Q133" s="16"/>
       <c r="R133" s="16"/>
     </row>
-    <row r="134" spans="1:18" hidden="1">
+    <row r="134" spans="1:18">
       <c r="A134" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-30</v>
@@ -28391,7 +28386,7 @@
       <c r="Q134" s="16"/>
       <c r="R134" s="16"/>
     </row>
-    <row r="135" spans="1:18" hidden="1">
+    <row r="135" spans="1:18">
       <c r="A135" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-31</v>
@@ -28733,7 +28728,7 @@
       <c r="Q142" s="16"/>
       <c r="R142" s="16"/>
     </row>
-    <row r="143" spans="1:18" hidden="1">
+    <row r="143" spans="1:18">
       <c r="A143" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-0</v>
@@ -28777,7 +28772,7 @@
       <c r="Q143" s="16"/>
       <c r="R143" s="16"/>
     </row>
-    <row r="144" spans="1:18" hidden="1">
+    <row r="144" spans="1:18">
       <c r="A144" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-1</v>
@@ -28811,7 +28806,7 @@
       <c r="Q144" s="15"/>
       <c r="R144" s="15"/>
     </row>
-    <row r="145" spans="1:18" hidden="1">
+    <row r="145" spans="1:18">
       <c r="A145" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-2</v>
@@ -28845,7 +28840,7 @@
       <c r="Q145" s="15"/>
       <c r="R145" s="15"/>
     </row>
-    <row r="146" spans="1:18" hidden="1">
+    <row r="146" spans="1:18">
       <c r="A146" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-3</v>
@@ -28879,7 +28874,7 @@
       <c r="Q146" s="15"/>
       <c r="R146" s="15"/>
     </row>
-    <row r="147" spans="1:18" hidden="1">
+    <row r="147" spans="1:18">
       <c r="A147" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-4</v>
@@ -28913,7 +28908,7 @@
       <c r="Q147" s="15"/>
       <c r="R147" s="15"/>
     </row>
-    <row r="148" spans="1:18" hidden="1">
+    <row r="148" spans="1:18">
       <c r="A148" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-5</v>
@@ -28947,7 +28942,7 @@
       <c r="Q148" s="15"/>
       <c r="R148" s="15"/>
     </row>
-    <row r="149" spans="1:18" hidden="1">
+    <row r="149" spans="1:18">
       <c r="A149" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-6</v>
@@ -28981,7 +28976,7 @@
       <c r="Q149" s="16"/>
       <c r="R149" s="16"/>
     </row>
-    <row r="150" spans="1:18" hidden="1">
+    <row r="150" spans="1:18">
       <c r="A150" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-0</v>
@@ -29015,7 +29010,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18" hidden="1">
+    <row r="151" spans="1:18">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-14</v>
@@ -29055,7 +29050,7 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18" hidden="1">
+    <row r="152" spans="1:18">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-15</v>
@@ -29095,7 +29090,7 @@
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
     </row>
-    <row r="153" spans="1:18" hidden="1">
+    <row r="153" spans="1:18">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-15</v>
@@ -29135,7 +29130,7 @@
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
     </row>
-    <row r="154" spans="1:18" hidden="1">
+    <row r="154" spans="1:18">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-16</v>
@@ -29175,7 +29170,7 @@
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
     </row>
-    <row r="155" spans="1:18" hidden="1">
+    <row r="155" spans="1:18">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-16</v>
@@ -29215,7 +29210,7 @@
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
     </row>
-    <row r="156" spans="1:18" hidden="1">
+    <row r="156" spans="1:18">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-17</v>
@@ -29255,7 +29250,7 @@
       <c r="Q156" s="40"/>
       <c r="R156" s="40"/>
     </row>
-    <row r="157" spans="1:18" hidden="1">
+    <row r="157" spans="1:18">
       <c r="A157" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-0</v>
@@ -29299,7 +29294,7 @@
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
     </row>
-    <row r="158" spans="1:18" hidden="1">
+    <row r="158" spans="1:18">
       <c r="A158" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-1</v>
@@ -29333,7 +29328,7 @@
       <c r="Q158" s="40"/>
       <c r="R158" s="40"/>
     </row>
-    <row r="159" spans="1:18" hidden="1">
+    <row r="159" spans="1:18">
       <c r="A159" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-2</v>
@@ -29367,7 +29362,7 @@
       <c r="Q159" s="40"/>
       <c r="R159" s="40"/>
     </row>
-    <row r="160" spans="1:18" hidden="1">
+    <row r="160" spans="1:18">
       <c r="A160" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-3</v>
@@ -29401,7 +29396,7 @@
       <c r="Q160" s="40"/>
       <c r="R160" s="40"/>
     </row>
-    <row r="161" spans="1:18" hidden="1">
+    <row r="161" spans="1:18">
       <c r="A161" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-4</v>
@@ -29439,7 +29434,7 @@
       <c r="Q161" s="40"/>
       <c r="R161" s="40"/>
     </row>
-    <row r="162" spans="1:18" hidden="1">
+    <row r="162" spans="1:18">
       <c r="A162" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-5</v>
@@ -29473,7 +29468,7 @@
       <c r="Q162" s="40"/>
       <c r="R162" s="40"/>
     </row>
-    <row r="163" spans="1:18" hidden="1">
+    <row r="163" spans="1:18">
       <c r="A163" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-6</v>
@@ -29507,7 +29502,7 @@
       <c r="Q163" s="40"/>
       <c r="R163" s="40"/>
     </row>
-    <row r="164" spans="1:18" hidden="1">
+    <row r="164" spans="1:18">
       <c r="A164" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-7</v>
@@ -29541,7 +29536,7 @@
       <c r="Q164" s="40"/>
       <c r="R164" s="40"/>
     </row>
-    <row r="165" spans="1:18" hidden="1">
+    <row r="165" spans="1:18">
       <c r="A165" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-8</v>
@@ -29579,7 +29574,7 @@
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
     </row>
-    <row r="166" spans="1:18" hidden="1">
+    <row r="166" spans="1:18">
       <c r="A166" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-18</v>
@@ -29619,7 +29614,7 @@
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
     </row>
-    <row r="167" spans="1:18" hidden="1">
+    <row r="167" spans="1:18">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-17</v>
@@ -29659,7 +29654,7 @@
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
     </row>
-    <row r="168" spans="1:18" hidden="1">
+    <row r="168" spans="1:18">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-19</v>
@@ -29699,7 +29694,7 @@
       <c r="Q168" s="40"/>
       <c r="R168" s="40"/>
     </row>
-    <row r="169" spans="1:18" hidden="1">
+    <row r="169" spans="1:18">
       <c r="A169" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-0</v>
@@ -29745,7 +29740,7 @@
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
     </row>
-    <row r="170" spans="1:18" hidden="1">
+    <row r="170" spans="1:18">
       <c r="A170" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-1</v>
@@ -29781,7 +29776,7 @@
       <c r="Q170" s="40"/>
       <c r="R170" s="40"/>
     </row>
-    <row r="171" spans="1:18" hidden="1">
+    <row r="171" spans="1:18">
       <c r="A171" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-2</v>
@@ -29817,7 +29812,7 @@
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
     </row>
-    <row r="172" spans="1:18" hidden="1">
+    <row r="172" spans="1:18">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-18</v>
@@ -29857,7 +29852,7 @@
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
     </row>
-    <row r="173" spans="1:18" hidden="1">
+    <row r="173" spans="1:18">
       <c r="A173" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-20</v>
@@ -29897,7 +29892,7 @@
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
     </row>
-    <row r="174" spans="1:18" hidden="1">
+    <row r="174" spans="1:18">
       <c r="A174" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-21</v>
@@ -29937,7 +29932,7 @@
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
     </row>
-    <row r="175" spans="1:18" hidden="1">
+    <row r="175" spans="1:18">
       <c r="A175" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-22</v>
@@ -29977,7 +29972,7 @@
       <c r="Q175" s="43"/>
       <c r="R175" s="43"/>
     </row>
-    <row r="176" spans="1:18" hidden="1">
+    <row r="176" spans="1:18">
       <c r="A176" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-23</v>
@@ -30017,7 +30012,7 @@
       <c r="Q176" s="43"/>
       <c r="R176" s="43"/>
     </row>
-    <row r="177" spans="1:18" hidden="1">
+    <row r="177" spans="1:18">
       <c r="A177" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-32</v>
@@ -30053,7 +30048,7 @@
       <c r="Q177" s="40"/>
       <c r="R177" s="40"/>
     </row>
-    <row r="178" spans="1:18" hidden="1">
+    <row r="178" spans="1:18">
       <c r="A178" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-33</v>
@@ -30089,7 +30084,7 @@
       <c r="Q178" s="40"/>
       <c r="R178" s="40"/>
     </row>
-    <row r="179" spans="1:18" hidden="1">
+    <row r="179" spans="1:18">
       <c r="A179" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-32</v>
@@ -30121,7 +30116,7 @@
       <c r="Q179" s="40"/>
       <c r="R179" s="40"/>
     </row>
-    <row r="180" spans="1:18" hidden="1">
+    <row r="180" spans="1:18">
       <c r="A180" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-33</v>
@@ -30153,7 +30148,7 @@
       <c r="Q180" s="40"/>
       <c r="R180" s="40"/>
     </row>
-    <row r="181" spans="1:18" hidden="1">
+    <row r="181" spans="1:18">
       <c r="A181" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-9</v>
@@ -30187,7 +30182,7 @@
       <c r="Q181" s="40"/>
       <c r="R181" s="40"/>
     </row>
-    <row r="182" spans="1:18" hidden="1">
+    <row r="182" spans="1:18">
       <c r="A182" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-10</v>
@@ -30223,7 +30218,7 @@
       <c r="Q182" s="40"/>
       <c r="R182" s="40"/>
     </row>
-    <row r="183" spans="1:18" hidden="1">
+    <row r="183" spans="1:18">
       <c r="A183" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-11</v>
@@ -30257,7 +30252,7 @@
       <c r="Q183" s="40"/>
       <c r="R183" s="40"/>
     </row>
-    <row r="184" spans="1:18" hidden="1">
+    <row r="184" spans="1:18">
       <c r="A184" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-12</v>
@@ -30293,7 +30288,7 @@
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
     </row>
-    <row r="185" spans="1:18" hidden="1">
+    <row r="185" spans="1:18">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-19</v>
@@ -30333,7 +30328,7 @@
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
     </row>
-    <row r="186" spans="1:18" hidden="1">
+    <row r="186" spans="1:18">
       <c r="A186" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-24</v>
@@ -30373,7 +30368,7 @@
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
     </row>
-    <row r="187" spans="1:18" hidden="1">
+    <row r="187" spans="1:18">
       <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-20</v>
@@ -30413,7 +30408,7 @@
       <c r="Q187" s="43"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18" hidden="1">
+    <row r="188" spans="1:18">
       <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-21</v>
@@ -30453,7 +30448,7 @@
       <c r="Q188" s="43"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18" hidden="1">
+    <row r="189" spans="1:18">
       <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-22</v>
@@ -30493,7 +30488,7 @@
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
     </row>
-    <row r="190" spans="1:18" hidden="1">
+    <row r="190" spans="1:18">
       <c r="A190" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-25</v>
@@ -30533,7 +30528,7 @@
       <c r="Q190" s="43"/>
       <c r="R190" s="43"/>
     </row>
-    <row r="191" spans="1:18" hidden="1">
+    <row r="191" spans="1:18">
       <c r="A191" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-26</v>
@@ -30573,7 +30568,7 @@
       <c r="Q191" s="43"/>
       <c r="R191" s="43"/>
     </row>
-    <row r="192" spans="1:18" hidden="1">
+    <row r="192" spans="1:18">
       <c r="A192" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-27</v>
@@ -30613,7 +30608,7 @@
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
     </row>
-    <row r="193" spans="1:18" hidden="1">
+    <row r="193" spans="1:18">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-23</v>
@@ -30653,7 +30648,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18" hidden="1">
+    <row r="194" spans="1:18">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-24</v>
@@ -30693,7 +30688,7 @@
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
     </row>
-    <row r="195" spans="1:18" hidden="1">
+    <row r="195" spans="1:18">
       <c r="A195" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-28</v>
@@ -30733,7 +30728,7 @@
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
     </row>
-    <row r="196" spans="1:18" hidden="1">
+    <row r="196" spans="1:18">
       <c r="A196" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-29</v>
@@ -30815,7 +30810,7 @@
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
     </row>
-    <row r="198" spans="1:18" hidden="1">
+    <row r="198" spans="1:18">
       <c r="A198" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-7</v>
@@ -30849,7 +30844,7 @@
       <c r="Q198" s="40"/>
       <c r="R198" s="40"/>
     </row>
-    <row r="199" spans="1:18" hidden="1">
+    <row r="199" spans="1:18">
       <c r="A199" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-0</v>
@@ -30881,7 +30876,7 @@
       <c r="Q199" s="40"/>
       <c r="R199" s="40"/>
     </row>
-    <row r="200" spans="1:18" hidden="1">
+    <row r="200" spans="1:18">
       <c r="A200" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-1</v>
@@ -30913,7 +30908,7 @@
       <c r="Q200" s="40"/>
       <c r="R200" s="40"/>
     </row>
-    <row r="201" spans="1:18" hidden="1">
+    <row r="201" spans="1:18">
       <c r="A201" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-0</v>
@@ -30951,7 +30946,7 @@
       <c r="Q201" s="40"/>
       <c r="R201" s="40"/>
     </row>
-    <row r="202" spans="1:18" hidden="1">
+    <row r="202" spans="1:18">
       <c r="A202" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-1</v>
@@ -30987,7 +30982,7 @@
       <c r="Q202" s="40"/>
       <c r="R202" s="40"/>
     </row>
-    <row r="203" spans="1:18" hidden="1">
+    <row r="203" spans="1:18">
       <c r="A203" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-2</v>
@@ -31065,7 +31060,7 @@
       <c r="Q204" s="40"/>
       <c r="R204" s="40"/>
     </row>
-    <row r="205" spans="1:18" hidden="1">
+    <row r="205" spans="1:18">
       <c r="A205" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-8</v>
@@ -31099,7 +31094,7 @@
       <c r="Q205" s="40"/>
       <c r="R205" s="40"/>
     </row>
-    <row r="206" spans="1:18" hidden="1">
+    <row r="206" spans="1:18">
       <c r="A206" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-2</v>
@@ -31131,7 +31126,7 @@
       <c r="Q206" s="40"/>
       <c r="R206" s="40"/>
     </row>
-    <row r="207" spans="1:18" hidden="1">
+    <row r="207" spans="1:18">
       <c r="A207" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-0</v>
@@ -31171,7 +31166,7 @@
       <c r="Q207" s="40"/>
       <c r="R207" s="40"/>
     </row>
-    <row r="208" spans="1:18" hidden="1">
+    <row r="208" spans="1:18">
       <c r="A208" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-1</v>
@@ -31205,7 +31200,7 @@
       <c r="Q208" s="40"/>
       <c r="R208" s="40"/>
     </row>
-    <row r="209" spans="1:18" hidden="1">
+    <row r="209" spans="1:18">
       <c r="A209" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-2</v>
@@ -31239,7 +31234,7 @@
       <c r="Q209" s="40"/>
       <c r="R209" s="40"/>
     </row>
-    <row r="210" spans="1:18" hidden="1">
+    <row r="210" spans="1:18">
       <c r="A210" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-3</v>
@@ -31273,7 +31268,7 @@
       <c r="Q210" s="40"/>
       <c r="R210" s="40"/>
     </row>
-    <row r="211" spans="1:18" hidden="1">
+    <row r="211" spans="1:18">
       <c r="A211" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-4</v>
@@ -31307,7 +31302,7 @@
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
     </row>
-    <row r="212" spans="1:18" hidden="1">
+    <row r="212" spans="1:18">
       <c r="A212" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-25</v>
@@ -31347,7 +31342,7 @@
       <c r="Q212" s="16"/>
       <c r="R212" s="16"/>
     </row>
-    <row r="213" spans="1:18" hidden="1">
+    <row r="213" spans="1:18">
       <c r="A213" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-30</v>
@@ -31387,7 +31382,7 @@
       <c r="Q213" s="16"/>
       <c r="R213" s="16"/>
     </row>
-    <row r="214" spans="1:18" hidden="1">
+    <row r="214" spans="1:18">
       <c r="A214" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-26</v>
@@ -31427,7 +31422,7 @@
       <c r="Q214" s="40"/>
       <c r="R214" s="40"/>
     </row>
-    <row r="215" spans="1:18" hidden="1">
+    <row r="215" spans="1:18">
       <c r="A215" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-31</v>
@@ -31467,7 +31462,7 @@
       <c r="Q215" s="40"/>
       <c r="R215" s="40"/>
     </row>
-    <row r="216" spans="1:18" hidden="1">
+    <row r="216" spans="1:18">
       <c r="A216" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-32</v>
@@ -31507,7 +31502,7 @@
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
     </row>
-    <row r="217" spans="1:18" hidden="1">
+    <row r="217" spans="1:18">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-27</v>
@@ -31547,7 +31542,7 @@
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
     </row>
-    <row r="218" spans="1:18" hidden="1">
+    <row r="218" spans="1:18">
       <c r="A218" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-33</v>
@@ -31587,7 +31582,7 @@
       <c r="Q218" s="40"/>
       <c r="R218" s="40"/>
     </row>
-    <row r="219" spans="1:18" hidden="1">
+    <row r="219" spans="1:18">
       <c r="A219" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-0</v>
@@ -31621,7 +31616,7 @@
       <c r="Q219" s="40"/>
       <c r="R219" s="40"/>
     </row>
-    <row r="220" spans="1:18" hidden="1">
+    <row r="220" spans="1:18">
       <c r="A220" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-1</v>
@@ -31655,7 +31650,7 @@
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
     </row>
-    <row r="221" spans="1:18" hidden="1">
+    <row r="221" spans="1:18">
       <c r="A221" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-2</v>
@@ -31689,7 +31684,7 @@
       <c r="Q221" s="40"/>
       <c r="R221" s="40"/>
     </row>
-    <row r="222" spans="1:18" hidden="1">
+    <row r="222" spans="1:18">
       <c r="A222" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-3</v>
@@ -31723,7 +31718,7 @@
       <c r="Q222" s="40"/>
       <c r="R222" s="40"/>
     </row>
-    <row r="223" spans="1:18" hidden="1">
+    <row r="223" spans="1:18">
       <c r="A223" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-4</v>
@@ -31757,7 +31752,7 @@
       <c r="Q223" s="40"/>
       <c r="R223" s="40"/>
     </row>
-    <row r="224" spans="1:18" hidden="1">
+    <row r="224" spans="1:18">
       <c r="A224" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-5</v>
@@ -31791,7 +31786,7 @@
       <c r="Q224" s="40"/>
       <c r="R224" s="40"/>
     </row>
-    <row r="225" spans="1:18" hidden="1">
+    <row r="225" spans="1:18">
       <c r="A225" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-6</v>
@@ -31825,7 +31820,7 @@
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
     </row>
-    <row r="226" spans="1:18" hidden="1">
+    <row r="226" spans="1:18">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-28</v>
@@ -31865,7 +31860,7 @@
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
     </row>
-    <row r="227" spans="1:18" hidden="1">
+    <row r="227" spans="1:18">
       <c r="A227" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-34</v>
@@ -31905,7 +31900,7 @@
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
     </row>
-    <row r="228" spans="1:18" hidden="1">
+    <row r="228" spans="1:18">
       <c r="A228" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-29</v>
@@ -31945,7 +31940,7 @@
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
     </row>
-    <row r="229" spans="1:18" hidden="1">
+    <row r="229" spans="1:18">
       <c r="A229" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-35</v>
@@ -31985,7 +31980,7 @@
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
     </row>
-    <row r="230" spans="1:18" hidden="1">
+    <row r="230" spans="1:18">
       <c r="A230" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-36</v>
@@ -32025,7 +32020,7 @@
       <c r="Q230" s="43"/>
       <c r="R230" s="43"/>
     </row>
-    <row r="231" spans="1:18" hidden="1">
+    <row r="231" spans="1:18">
       <c r="A231" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-37</v>
@@ -32065,7 +32060,7 @@
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
     </row>
-    <row r="232" spans="1:18" hidden="1">
+    <row r="232" spans="1:18">
       <c r="A232" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-0</v>
@@ -32103,7 +32098,7 @@
       <c r="Q232" s="40"/>
       <c r="R232" s="40"/>
     </row>
-    <row r="233" spans="1:18" hidden="1">
+    <row r="233" spans="1:18">
       <c r="A233" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-1</v>
@@ -32135,7 +32130,7 @@
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
     </row>
-    <row r="234" spans="1:18" hidden="1">
+    <row r="234" spans="1:18">
       <c r="A234" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-2</v>
@@ -32167,7 +32162,7 @@
       <c r="Q234" s="40"/>
       <c r="R234" s="40"/>
     </row>
-    <row r="235" spans="1:18" hidden="1">
+    <row r="235" spans="1:18">
       <c r="A235" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-0</v>
@@ -32203,7 +32198,7 @@
       <c r="Q235" s="40"/>
       <c r="R235" s="40"/>
     </row>
-    <row r="236" spans="1:18" hidden="1">
+    <row r="236" spans="1:18">
       <c r="A236" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-1</v>
@@ -32237,7 +32232,7 @@
       <c r="Q236" s="40"/>
       <c r="R236" s="40"/>
     </row>
-    <row r="237" spans="1:18" hidden="1">
+    <row r="237" spans="1:18">
       <c r="A237" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-2</v>
@@ -32271,7 +32266,7 @@
       <c r="Q237" s="40"/>
       <c r="R237" s="40"/>
     </row>
-    <row r="238" spans="1:18" hidden="1">
+    <row r="238" spans="1:18">
       <c r="A238" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-3</v>
@@ -32305,7 +32300,7 @@
       <c r="Q238" s="40"/>
       <c r="R238" s="40"/>
     </row>
-    <row r="239" spans="1:18" hidden="1">
+    <row r="239" spans="1:18">
       <c r="A239" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-4</v>
@@ -32339,7 +32334,7 @@
       <c r="Q239" s="43"/>
       <c r="R239" s="43"/>
     </row>
-    <row r="240" spans="1:18" hidden="1">
+    <row r="240" spans="1:18">
       <c r="A240" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-8</v>
@@ -32377,7 +32372,7 @@
       <c r="Q240" s="40"/>
       <c r="R240" s="40"/>
     </row>
-    <row r="241" spans="1:18" hidden="1">
+    <row r="241" spans="1:18">
       <c r="A241" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-9</v>
@@ -32415,7 +32410,7 @@
       <c r="Q241" s="40"/>
       <c r="R241" s="40"/>
     </row>
-    <row r="242" spans="1:18" hidden="1">
+    <row r="242" spans="1:18">
       <c r="A242" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-34</v>
@@ -32451,7 +32446,7 @@
       <c r="Q242" s="40"/>
       <c r="R242" s="40"/>
     </row>
-    <row r="243" spans="1:18" hidden="1">
+    <row r="243" spans="1:18">
       <c r="A243" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-35</v>
@@ -32487,7 +32482,7 @@
       <c r="Q243" s="40"/>
       <c r="R243" s="40"/>
     </row>
-    <row r="244" spans="1:18" hidden="1">
+    <row r="244" spans="1:18">
       <c r="A244" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-36</v>
@@ -32523,7 +32518,7 @@
       <c r="Q244" s="40"/>
       <c r="R244" s="40"/>
     </row>
-    <row r="245" spans="1:18" hidden="1">
+    <row r="245" spans="1:18">
       <c r="A245" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-37</v>
@@ -32559,7 +32554,7 @@
       <c r="Q245" s="40"/>
       <c r="R245" s="40"/>
     </row>
-    <row r="246" spans="1:18" hidden="1">
+    <row r="246" spans="1:18">
       <c r="A246" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-1</v>
@@ -32593,7 +32588,7 @@
       <c r="Q246" s="40"/>
       <c r="R246" s="40"/>
     </row>
-    <row r="247" spans="1:18" hidden="1">
+    <row r="247" spans="1:18">
       <c r="A247" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-2</v>
@@ -32627,7 +32622,7 @@
       <c r="Q247" s="40"/>
       <c r="R247" s="40"/>
     </row>
-    <row r="248" spans="1:18" hidden="1">
+    <row r="248" spans="1:18">
       <c r="A248" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-3</v>
@@ -32661,7 +32656,7 @@
       <c r="Q248" s="40"/>
       <c r="R248" s="40"/>
     </row>
-    <row r="249" spans="1:18" hidden="1">
+    <row r="249" spans="1:18">
       <c r="A249" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-4</v>
@@ -32695,7 +32690,7 @@
       <c r="Q249" s="40"/>
       <c r="R249" s="40"/>
     </row>
-    <row r="250" spans="1:18" hidden="1">
+    <row r="250" spans="1:18">
       <c r="A250" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-34</v>
@@ -32727,7 +32722,7 @@
       <c r="Q250" s="40"/>
       <c r="R250" s="40"/>
     </row>
-    <row r="251" spans="1:18" hidden="1">
+    <row r="251" spans="1:18">
       <c r="A251" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-35</v>
@@ -32759,7 +32754,7 @@
       <c r="Q251" s="40"/>
       <c r="R251" s="40"/>
     </row>
-    <row r="252" spans="1:18" hidden="1">
+    <row r="252" spans="1:18">
       <c r="A252" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-36</v>
@@ -32791,7 +32786,7 @@
       <c r="Q252" s="40"/>
       <c r="R252" s="40"/>
     </row>
-    <row r="253" spans="1:18" hidden="1">
+    <row r="253" spans="1:18">
       <c r="A253" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-37</v>
@@ -32823,7 +32818,7 @@
       <c r="Q253" s="40"/>
       <c r="R253" s="40"/>
     </row>
-    <row r="254" spans="1:18" hidden="1">
+    <row r="254" spans="1:18">
       <c r="A254" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-13</v>
@@ -32857,7 +32852,7 @@
       <c r="Q254" s="40"/>
       <c r="R254" s="40"/>
     </row>
-    <row r="255" spans="1:18" hidden="1">
+    <row r="255" spans="1:18">
       <c r="A255" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-14</v>
@@ -32891,7 +32886,7 @@
       <c r="Q255" s="40"/>
       <c r="R255" s="40"/>
     </row>
-    <row r="256" spans="1:18" hidden="1">
+    <row r="256" spans="1:18">
       <c r="A256" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-15</v>
@@ -32925,7 +32920,7 @@
       <c r="Q256" s="40"/>
       <c r="R256" s="40"/>
     </row>
-    <row r="257" spans="1:18" hidden="1">
+    <row r="257" spans="1:18">
       <c r="A257" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-16</v>
@@ -32965,7 +32960,7 @@
       <c r="Q257" s="40"/>
       <c r="R257" s="40"/>
     </row>
-    <row r="258" spans="1:18" hidden="1">
+    <row r="258" spans="1:18">
       <c r="A258" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-17</v>
@@ -32999,7 +32994,7 @@
       <c r="Q258" s="40"/>
       <c r="R258" s="40"/>
     </row>
-    <row r="259" spans="1:18" hidden="1">
+    <row r="259" spans="1:18">
       <c r="A259" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-18</v>
@@ -33033,7 +33028,7 @@
       <c r="Q259" s="40"/>
       <c r="R259" s="40"/>
     </row>
-    <row r="260" spans="1:18" hidden="1">
+    <row r="260" spans="1:18">
       <c r="A260" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-19</v>
@@ -33067,7 +33062,7 @@
       <c r="Q260" s="40"/>
       <c r="R260" s="40"/>
     </row>
-    <row r="261" spans="1:18" hidden="1">
+    <row r="261" spans="1:18">
       <c r="A261" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-20</v>
@@ -33191,7 +33186,7 @@
       <c r="Q263" s="40"/>
       <c r="R263" s="40"/>
     </row>
-    <row r="264" spans="1:18" hidden="1">
+    <row r="264" spans="1:18">
       <c r="A264" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-3</v>
@@ -33223,7 +33218,7 @@
       <c r="Q264" s="40"/>
       <c r="R264" s="40"/>
     </row>
-    <row r="265" spans="1:18" hidden="1">
+    <row r="265" spans="1:18">
       <c r="A265" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-4</v>
@@ -33351,7 +33346,7 @@
       <c r="Q268" s="40"/>
       <c r="R268" s="40"/>
     </row>
-    <row r="269" spans="1:18" hidden="1">
+    <row r="269" spans="1:18">
       <c r="A269" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-9</v>
@@ -33387,7 +33382,7 @@
       <c r="Q269" s="40"/>
       <c r="R269" s="40"/>
     </row>
-    <row r="270" spans="1:18" hidden="1">
+    <row r="270" spans="1:18">
       <c r="A270" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-10</v>
@@ -36112,7 +36107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="646">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1967,6 +1967,15 @@
   </si>
   <si>
     <t>Resource List Relation</t>
+  </si>
+  <si>
+    <t>Owner Relation</t>
+  </si>
+  <si>
+    <t>View the owner resource</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -4064,9 +4073,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R270" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R270">
-    <filterColumn colId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R271">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Resource Relations"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="18">
     <tableColumn id="19" name="TRCode" dataDxfId="81">
@@ -4141,8 +4154,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I38" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="A1:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I39"/>
   <tableColumns count="9">
     <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -23508,10 +23521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R270"/>
+  <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23578,7 +23591,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-0</v>
@@ -23612,7 +23625,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-1</v>
@@ -23646,7 +23659,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-2</v>
@@ -23680,7 +23693,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-3</v>
@@ -23714,7 +23727,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-0</v>
@@ -23748,7 +23761,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-1</v>
@@ -23782,7 +23795,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-2</v>
@@ -23816,7 +23829,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-3</v>
@@ -23850,7 +23863,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-0</v>
@@ -23882,7 +23895,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-1</v>
@@ -23914,7 +23927,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-2</v>
@@ -23946,7 +23959,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-3</v>
@@ -23978,7 +23991,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-0</v>
@@ -24022,7 +24035,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-1</v>
@@ -24062,7 +24075,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-2</v>
@@ -24102,7 +24115,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-3</v>
@@ -24142,7 +24155,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-4</v>
@@ -24182,7 +24195,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-5</v>
@@ -24222,7 +24235,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-6</v>
@@ -24262,7 +24275,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-7</v>
@@ -24302,7 +24315,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-8</v>
@@ -24342,7 +24355,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" hidden="1">
       <c r="A23" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-9</v>
@@ -24382,7 +24395,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" hidden="1">
       <c r="A24" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-10</v>
@@ -24422,7 +24435,7 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-11</v>
@@ -24462,7 +24475,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-12</v>
@@ -24502,7 +24515,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-13</v>
@@ -24542,7 +24555,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" hidden="1">
       <c r="A28" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-0</v>
@@ -24578,7 +24591,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" hidden="1">
       <c r="A29" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-1</v>
@@ -24614,7 +24627,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" hidden="1">
       <c r="A30" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-2</v>
@@ -24646,7 +24659,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" hidden="1">
       <c r="A31" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-3</v>
@@ -24678,7 +24691,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" hidden="1">
       <c r="A32" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-4</v>
@@ -24710,7 +24723,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" hidden="1">
       <c r="A33" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-5</v>
@@ -24742,7 +24755,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" hidden="1">
       <c r="A34" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-6</v>
@@ -24774,7 +24787,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" hidden="1">
       <c r="A35" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Roles-7</v>
@@ -25406,7 +25419,7 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" hidden="1">
       <c r="A51" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-0</v>
@@ -25442,7 +25455,7 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" hidden="1">
       <c r="A52" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-1</v>
@@ -25478,7 +25491,7 @@
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" hidden="1">
       <c r="A53" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-2</v>
@@ -25514,7 +25527,7 @@
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" hidden="1">
       <c r="A54" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-0</v>
@@ -25550,7 +25563,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" hidden="1">
       <c r="A55" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-1</v>
@@ -25586,7 +25599,7 @@
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" hidden="1">
       <c r="A56" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-2</v>
@@ -25622,7 +25635,7 @@
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" hidden="1">
       <c r="A57" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-3</v>
@@ -25658,7 +25671,7 @@
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" hidden="1">
       <c r="A58" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-4</v>
@@ -25694,7 +25707,7 @@
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" hidden="1">
       <c r="A59" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-5</v>
@@ -25730,7 +25743,7 @@
       <c r="Q59" s="15"/>
       <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" hidden="1">
       <c r="A60" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-6</v>
@@ -25766,7 +25779,7 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" hidden="1">
       <c r="A61" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-0</v>
@@ -25798,7 +25811,7 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" hidden="1">
       <c r="A62" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-1</v>
@@ -25830,7 +25843,7 @@
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" hidden="1">
       <c r="A63" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-2</v>
@@ -25862,7 +25875,7 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" hidden="1">
       <c r="A64" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-0</v>
@@ -25900,7 +25913,7 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-1</v>
@@ -25938,7 +25951,7 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" hidden="1">
       <c r="A66" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-2</v>
@@ -25976,7 +25989,7 @@
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" hidden="1">
       <c r="A67" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-3</v>
@@ -26014,7 +26027,7 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" hidden="1">
       <c r="A68" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-4</v>
@@ -26052,7 +26065,7 @@
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" hidden="1">
       <c r="A69" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-5</v>
@@ -26090,7 +26103,7 @@
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" hidden="1">
       <c r="A70" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-6</v>
@@ -26128,7 +26141,7 @@
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" hidden="1">
       <c r="A71" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-7</v>
@@ -26166,7 +26179,7 @@
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" hidden="1">
       <c r="A72" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-0</v>
@@ -26204,7 +26217,7 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" hidden="1">
       <c r="A73" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-1</v>
@@ -26242,7 +26255,7 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" hidden="1">
       <c r="A74" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-2</v>
@@ -26280,7 +26293,7 @@
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" hidden="1">
       <c r="A75" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-3</v>
@@ -26318,7 +26331,7 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" hidden="1">
       <c r="A76" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-4</v>
@@ -26356,7 +26369,7 @@
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-5</v>
@@ -26394,7 +26407,7 @@
       <c r="Q77" s="15"/>
       <c r="R77" s="15"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" hidden="1">
       <c r="A78" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-6</v>
@@ -26432,7 +26445,7 @@
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-7</v>
@@ -26470,7 +26483,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-8</v>
@@ -26508,7 +26521,7 @@
       <c r="Q80" s="15"/>
       <c r="R80" s="15"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" hidden="1">
       <c r="A81" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-9</v>
@@ -26546,7 +26559,7 @@
       <c r="Q81" s="15"/>
       <c r="R81" s="15"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" hidden="1">
       <c r="A82" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-10</v>
@@ -26584,7 +26597,7 @@
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" hidden="1">
       <c r="A83" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-11</v>
@@ -26622,7 +26635,7 @@
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" hidden="1">
       <c r="A84" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-12</v>
@@ -26660,7 +26673,7 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" hidden="1">
       <c r="A85" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-13</v>
@@ -26698,7 +26711,7 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" hidden="1">
       <c r="A86" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-14</v>
@@ -26736,7 +26749,7 @@
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-15</v>
@@ -26774,7 +26787,7 @@
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-16</v>
@@ -26812,7 +26825,7 @@
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-17</v>
@@ -26850,7 +26863,7 @@
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" hidden="1">
       <c r="A90" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-18</v>
@@ -26888,7 +26901,7 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-19</v>
@@ -26926,7 +26939,7 @@
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" hidden="1">
       <c r="A92" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-20</v>
@@ -26964,7 +26977,7 @@
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" hidden="1">
       <c r="A93" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-21</v>
@@ -27002,7 +27015,7 @@
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" hidden="1">
       <c r="A94" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-22</v>
@@ -27040,7 +27053,7 @@
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" hidden="1">
       <c r="A95" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-23</v>
@@ -27078,7 +27091,7 @@
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" hidden="1">
       <c r="A96" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-24</v>
@@ -27116,7 +27129,7 @@
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" hidden="1">
       <c r="A97" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-25</v>
@@ -27154,7 +27167,7 @@
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" hidden="1">
       <c r="A98" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-26</v>
@@ -27192,7 +27205,7 @@
       <c r="Q98" s="15"/>
       <c r="R98" s="15"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" hidden="1">
       <c r="A99" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-27</v>
@@ -27230,7 +27243,7 @@
       <c r="Q99" s="15"/>
       <c r="R99" s="15"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" hidden="1">
       <c r="A100" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-28</v>
@@ -27268,7 +27281,7 @@
       <c r="Q100" s="15"/>
       <c r="R100" s="15"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" hidden="1">
       <c r="A101" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-29</v>
@@ -27306,7 +27319,7 @@
       <c r="Q101" s="15"/>
       <c r="R101" s="15"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" hidden="1">
       <c r="A102" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-30</v>
@@ -27344,7 +27357,7 @@
       <c r="Q102" s="15"/>
       <c r="R102" s="15"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" hidden="1">
       <c r="A103" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-31</v>
@@ -27382,7 +27395,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-0</v>
@@ -27422,7 +27435,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" hidden="1">
       <c r="A105" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-1</v>
@@ -27454,7 +27467,7 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-2</v>
@@ -27486,7 +27499,7 @@
       <c r="Q106" s="16"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" hidden="1">
       <c r="A107" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-3</v>
@@ -27518,7 +27531,7 @@
       <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-4</v>
@@ -27550,7 +27563,7 @@
       <c r="Q108" s="16"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-5</v>
@@ -27582,7 +27595,7 @@
       <c r="Q109" s="16"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-6</v>
@@ -27614,7 +27627,7 @@
       <c r="Q110" s="16"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" hidden="1">
       <c r="A111" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-7</v>
@@ -27646,7 +27659,7 @@
       <c r="Q111" s="16"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" hidden="1">
       <c r="A112" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-8</v>
@@ -27678,7 +27691,7 @@
       <c r="Q112" s="16"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" hidden="1">
       <c r="A113" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-9</v>
@@ -27710,7 +27723,7 @@
       <c r="Q113" s="16"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" hidden="1">
       <c r="A114" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-10</v>
@@ -27742,7 +27755,7 @@
       <c r="Q114" s="16"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" hidden="1">
       <c r="A115" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-11</v>
@@ -27774,7 +27787,7 @@
       <c r="Q115" s="16"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" hidden="1">
       <c r="A116" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-12</v>
@@ -27806,7 +27819,7 @@
       <c r="Q116" s="16"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" hidden="1">
       <c r="A117" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-13</v>
@@ -27838,7 +27851,7 @@
       <c r="Q117" s="16"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" hidden="1">
       <c r="A118" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-14</v>
@@ -27870,7 +27883,7 @@
       <c r="Q118" s="16"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" hidden="1">
       <c r="A119" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-15</v>
@@ -27902,7 +27915,7 @@
       <c r="Q119" s="16"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" hidden="1">
       <c r="A120" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-16</v>
@@ -27934,7 +27947,7 @@
       <c r="Q120" s="16"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" hidden="1">
       <c r="A121" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-17</v>
@@ -27966,7 +27979,7 @@
       <c r="Q121" s="16"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" hidden="1">
       <c r="A122" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-18</v>
@@ -27998,7 +28011,7 @@
       <c r="Q122" s="16"/>
       <c r="R122" s="16"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" hidden="1">
       <c r="A123" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-19</v>
@@ -28030,7 +28043,7 @@
       <c r="Q123" s="16"/>
       <c r="R123" s="16"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" hidden="1">
       <c r="A124" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-20</v>
@@ -28062,7 +28075,7 @@
       <c r="Q124" s="16"/>
       <c r="R124" s="16"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" hidden="1">
       <c r="A125" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-21</v>
@@ -28094,7 +28107,7 @@
       <c r="Q125" s="16"/>
       <c r="R125" s="16"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" hidden="1">
       <c r="A126" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-22</v>
@@ -28126,7 +28139,7 @@
       <c r="Q126" s="16"/>
       <c r="R126" s="16"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" hidden="1">
       <c r="A127" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-23</v>
@@ -28158,7 +28171,7 @@
       <c r="Q127" s="16"/>
       <c r="R127" s="16"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" hidden="1">
       <c r="A128" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-24</v>
@@ -28190,7 +28203,7 @@
       <c r="Q128" s="16"/>
       <c r="R128" s="16"/>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" hidden="1">
       <c r="A129" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-25</v>
@@ -28222,7 +28235,7 @@
       <c r="Q129" s="16"/>
       <c r="R129" s="16"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" hidden="1">
       <c r="A130" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-26</v>
@@ -28254,7 +28267,7 @@
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" hidden="1">
       <c r="A131" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-27</v>
@@ -28286,7 +28299,7 @@
       <c r="Q131" s="16"/>
       <c r="R131" s="16"/>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" hidden="1">
       <c r="A132" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-28</v>
@@ -28318,7 +28331,7 @@
       <c r="Q132" s="16"/>
       <c r="R132" s="16"/>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" hidden="1">
       <c r="A133" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-29</v>
@@ -28352,7 +28365,7 @@
       <c r="Q133" s="16"/>
       <c r="R133" s="16"/>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" hidden="1">
       <c r="A134" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-30</v>
@@ -28386,7 +28399,7 @@
       <c r="Q134" s="16"/>
       <c r="R134" s="16"/>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" hidden="1">
       <c r="A135" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-31</v>
@@ -28420,7 +28433,7 @@
       <c r="Q135" s="16"/>
       <c r="R135" s="16"/>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" hidden="1">
       <c r="A136" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-0</v>
@@ -28464,7 +28477,7 @@
       <c r="Q136" s="16"/>
       <c r="R136" s="16"/>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" hidden="1">
       <c r="A137" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-1</v>
@@ -28508,7 +28521,7 @@
       <c r="Q137" s="15"/>
       <c r="R137" s="15"/>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" hidden="1">
       <c r="A138" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-2</v>
@@ -28552,7 +28565,7 @@
       <c r="Q138" s="15"/>
       <c r="R138" s="15"/>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" hidden="1">
       <c r="A139" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-3</v>
@@ -28596,7 +28609,7 @@
       <c r="Q139" s="15"/>
       <c r="R139" s="15"/>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" hidden="1">
       <c r="A140" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-4</v>
@@ -28640,7 +28653,7 @@
       <c r="Q140" s="15"/>
       <c r="R140" s="15"/>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" hidden="1">
       <c r="A141" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-5</v>
@@ -28684,7 +28697,7 @@
       <c r="Q141" s="15"/>
       <c r="R141" s="15"/>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" hidden="1">
       <c r="A142" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-6</v>
@@ -28728,7 +28741,7 @@
       <c r="Q142" s="16"/>
       <c r="R142" s="16"/>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" hidden="1">
       <c r="A143" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-0</v>
@@ -28772,7 +28785,7 @@
       <c r="Q143" s="16"/>
       <c r="R143" s="16"/>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" hidden="1">
       <c r="A144" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-1</v>
@@ -28806,7 +28819,7 @@
       <c r="Q144" s="15"/>
       <c r="R144" s="15"/>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" hidden="1">
       <c r="A145" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-2</v>
@@ -28840,7 +28853,7 @@
       <c r="Q145" s="15"/>
       <c r="R145" s="15"/>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" hidden="1">
       <c r="A146" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-3</v>
@@ -28874,7 +28887,7 @@
       <c r="Q146" s="15"/>
       <c r="R146" s="15"/>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" hidden="1">
       <c r="A147" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-4</v>
@@ -28908,7 +28921,7 @@
       <c r="Q147" s="15"/>
       <c r="R147" s="15"/>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" hidden="1">
       <c r="A148" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-5</v>
@@ -28942,7 +28955,7 @@
       <c r="Q148" s="15"/>
       <c r="R148" s="15"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" hidden="1">
       <c r="A149" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-6</v>
@@ -28976,7 +28989,7 @@
       <c r="Q149" s="16"/>
       <c r="R149" s="16"/>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" hidden="1">
       <c r="A150" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-0</v>
@@ -29010,7 +29023,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" hidden="1">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-14</v>
@@ -29090,7 +29103,7 @@
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" hidden="1">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-15</v>
@@ -29170,7 +29183,7 @@
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" hidden="1">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-16</v>
@@ -29250,7 +29263,7 @@
       <c r="Q156" s="40"/>
       <c r="R156" s="40"/>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" hidden="1">
       <c r="A157" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-0</v>
@@ -29294,7 +29307,7 @@
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" hidden="1">
       <c r="A158" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-1</v>
@@ -29328,7 +29341,7 @@
       <c r="Q158" s="40"/>
       <c r="R158" s="40"/>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" hidden="1">
       <c r="A159" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-2</v>
@@ -29362,7 +29375,7 @@
       <c r="Q159" s="40"/>
       <c r="R159" s="40"/>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" hidden="1">
       <c r="A160" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-3</v>
@@ -29396,7 +29409,7 @@
       <c r="Q160" s="40"/>
       <c r="R160" s="40"/>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" hidden="1">
       <c r="A161" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-4</v>
@@ -29434,7 +29447,7 @@
       <c r="Q161" s="40"/>
       <c r="R161" s="40"/>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" hidden="1">
       <c r="A162" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-5</v>
@@ -29468,7 +29481,7 @@
       <c r="Q162" s="40"/>
       <c r="R162" s="40"/>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" hidden="1">
       <c r="A163" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-6</v>
@@ -29502,7 +29515,7 @@
       <c r="Q163" s="40"/>
       <c r="R163" s="40"/>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" hidden="1">
       <c r="A164" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-7</v>
@@ -29536,7 +29549,7 @@
       <c r="Q164" s="40"/>
       <c r="R164" s="40"/>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" hidden="1">
       <c r="A165" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-8</v>
@@ -29614,7 +29627,7 @@
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" hidden="1">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-17</v>
@@ -29694,7 +29707,7 @@
       <c r="Q168" s="40"/>
       <c r="R168" s="40"/>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" hidden="1">
       <c r="A169" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-0</v>
@@ -29740,7 +29753,7 @@
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" hidden="1">
       <c r="A170" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-1</v>
@@ -29776,7 +29789,7 @@
       <c r="Q170" s="40"/>
       <c r="R170" s="40"/>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" hidden="1">
       <c r="A171" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-2</v>
@@ -29812,7 +29825,7 @@
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" hidden="1">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-18</v>
@@ -30012,7 +30025,7 @@
       <c r="Q176" s="43"/>
       <c r="R176" s="43"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" hidden="1">
       <c r="A177" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-32</v>
@@ -30048,7 +30061,7 @@
       <c r="Q177" s="40"/>
       <c r="R177" s="40"/>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" hidden="1">
       <c r="A178" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-33</v>
@@ -30084,7 +30097,7 @@
       <c r="Q178" s="40"/>
       <c r="R178" s="40"/>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" hidden="1">
       <c r="A179" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-32</v>
@@ -30116,7 +30129,7 @@
       <c r="Q179" s="40"/>
       <c r="R179" s="40"/>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" hidden="1">
       <c r="A180" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-33</v>
@@ -30148,7 +30161,7 @@
       <c r="Q180" s="40"/>
       <c r="R180" s="40"/>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" hidden="1">
       <c r="A181" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-9</v>
@@ -30182,7 +30195,7 @@
       <c r="Q181" s="40"/>
       <c r="R181" s="40"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" hidden="1">
       <c r="A182" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-10</v>
@@ -30218,7 +30231,7 @@
       <c r="Q182" s="40"/>
       <c r="R182" s="40"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" hidden="1">
       <c r="A183" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-11</v>
@@ -30252,7 +30265,7 @@
       <c r="Q183" s="40"/>
       <c r="R183" s="40"/>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" hidden="1">
       <c r="A184" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-12</v>
@@ -30288,7 +30301,7 @@
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" hidden="1">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-19</v>
@@ -30368,7 +30381,7 @@
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" hidden="1">
       <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-20</v>
@@ -30408,7 +30421,7 @@
       <c r="Q187" s="43"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" hidden="1">
       <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-21</v>
@@ -30448,7 +30461,7 @@
       <c r="Q188" s="43"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" hidden="1">
       <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-22</v>
@@ -30608,7 +30621,7 @@
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" hidden="1">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-23</v>
@@ -30648,7 +30661,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" hidden="1">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-24</v>
@@ -30768,7 +30781,7 @@
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" hidden="1">
       <c r="A197" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-7</v>
@@ -30810,7 +30823,7 @@
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" hidden="1">
       <c r="A198" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-7</v>
@@ -30844,7 +30857,7 @@
       <c r="Q198" s="40"/>
       <c r="R198" s="40"/>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" hidden="1">
       <c r="A199" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-0</v>
@@ -30876,7 +30889,7 @@
       <c r="Q199" s="40"/>
       <c r="R199" s="40"/>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" hidden="1">
       <c r="A200" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-1</v>
@@ -30908,7 +30921,7 @@
       <c r="Q200" s="40"/>
       <c r="R200" s="40"/>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" hidden="1">
       <c r="A201" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-0</v>
@@ -30946,7 +30959,7 @@
       <c r="Q201" s="40"/>
       <c r="R201" s="40"/>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" hidden="1">
       <c r="A202" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-1</v>
@@ -30982,7 +30995,7 @@
       <c r="Q202" s="40"/>
       <c r="R202" s="40"/>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" hidden="1">
       <c r="A203" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-2</v>
@@ -31018,7 +31031,7 @@
       <c r="Q203" s="40"/>
       <c r="R203" s="40"/>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" hidden="1">
       <c r="A204" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-8</v>
@@ -31060,7 +31073,7 @@
       <c r="Q204" s="40"/>
       <c r="R204" s="40"/>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" hidden="1">
       <c r="A205" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-8</v>
@@ -31094,7 +31107,7 @@
       <c r="Q205" s="40"/>
       <c r="R205" s="40"/>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" hidden="1">
       <c r="A206" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-2</v>
@@ -31126,7 +31139,7 @@
       <c r="Q206" s="40"/>
       <c r="R206" s="40"/>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" hidden="1">
       <c r="A207" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-0</v>
@@ -31166,7 +31179,7 @@
       <c r="Q207" s="40"/>
       <c r="R207" s="40"/>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" hidden="1">
       <c r="A208" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-1</v>
@@ -31200,7 +31213,7 @@
       <c r="Q208" s="40"/>
       <c r="R208" s="40"/>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" hidden="1">
       <c r="A209" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-2</v>
@@ -31234,7 +31247,7 @@
       <c r="Q209" s="40"/>
       <c r="R209" s="40"/>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" hidden="1">
       <c r="A210" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-3</v>
@@ -31268,7 +31281,7 @@
       <c r="Q210" s="40"/>
       <c r="R210" s="40"/>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" hidden="1">
       <c r="A211" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Layout-4</v>
@@ -31302,7 +31315,7 @@
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" hidden="1">
       <c r="A212" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-25</v>
@@ -31382,7 +31395,7 @@
       <c r="Q213" s="16"/>
       <c r="R213" s="16"/>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" hidden="1">
       <c r="A214" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-26</v>
@@ -31502,7 +31515,7 @@
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" hidden="1">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-27</v>
@@ -31582,7 +31595,7 @@
       <c r="Q218" s="40"/>
       <c r="R218" s="40"/>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" hidden="1">
       <c r="A219" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-0</v>
@@ -31616,7 +31629,7 @@
       <c r="Q219" s="40"/>
       <c r="R219" s="40"/>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" hidden="1">
       <c r="A220" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-1</v>
@@ -31650,7 +31663,7 @@
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" hidden="1">
       <c r="A221" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-2</v>
@@ -31684,7 +31697,7 @@
       <c r="Q221" s="40"/>
       <c r="R221" s="40"/>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" hidden="1">
       <c r="A222" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-3</v>
@@ -31718,7 +31731,7 @@
       <c r="Q222" s="40"/>
       <c r="R222" s="40"/>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" hidden="1">
       <c r="A223" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-4</v>
@@ -31752,7 +31765,7 @@
       <c r="Q223" s="40"/>
       <c r="R223" s="40"/>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" hidden="1">
       <c r="A224" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-5</v>
@@ -31786,7 +31799,7 @@
       <c r="Q224" s="40"/>
       <c r="R224" s="40"/>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" hidden="1">
       <c r="A225" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Layout-6</v>
@@ -31820,7 +31833,7 @@
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" hidden="1">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-28</v>
@@ -31900,7 +31913,7 @@
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" hidden="1">
       <c r="A228" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-29</v>
@@ -32060,7 +32073,7 @@
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" hidden="1">
       <c r="A232" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-0</v>
@@ -32098,7 +32111,7 @@
       <c r="Q232" s="40"/>
       <c r="R232" s="40"/>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" hidden="1">
       <c r="A233" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-1</v>
@@ -32130,7 +32143,7 @@
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" hidden="1">
       <c r="A234" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section-2</v>
@@ -32162,7 +32175,7 @@
       <c r="Q234" s="40"/>
       <c r="R234" s="40"/>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" hidden="1">
       <c r="A235" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-0</v>
@@ -32198,7 +32211,7 @@
       <c r="Q235" s="40"/>
       <c r="R235" s="40"/>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" hidden="1">
       <c r="A236" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-1</v>
@@ -32232,7 +32245,7 @@
       <c r="Q236" s="40"/>
       <c r="R236" s="40"/>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" hidden="1">
       <c r="A237" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-2</v>
@@ -32266,7 +32279,7 @@
       <c r="Q237" s="40"/>
       <c r="R237" s="40"/>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" hidden="1">
       <c r="A238" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-3</v>
@@ -32300,7 +32313,7 @@
       <c r="Q238" s="40"/>
       <c r="R238" s="40"/>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" hidden="1">
       <c r="A239" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Data View Section Items-4</v>
@@ -32334,7 +32347,7 @@
       <c r="Q239" s="43"/>
       <c r="R239" s="43"/>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" hidden="1">
       <c r="A240" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-8</v>
@@ -32372,7 +32385,7 @@
       <c r="Q240" s="40"/>
       <c r="R240" s="40"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" hidden="1">
       <c r="A241" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-9</v>
@@ -32410,7 +32423,7 @@
       <c r="Q241" s="40"/>
       <c r="R241" s="40"/>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" hidden="1">
       <c r="A242" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-34</v>
@@ -32446,7 +32459,7 @@
       <c r="Q242" s="40"/>
       <c r="R242" s="40"/>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" hidden="1">
       <c r="A243" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-35</v>
@@ -32482,7 +32495,7 @@
       <c r="Q243" s="40"/>
       <c r="R243" s="40"/>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" hidden="1">
       <c r="A244" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-36</v>
@@ -32518,7 +32531,7 @@
       <c r="Q244" s="40"/>
       <c r="R244" s="40"/>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" hidden="1">
       <c r="A245" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-37</v>
@@ -32554,7 +32567,7 @@
       <c r="Q245" s="40"/>
       <c r="R245" s="40"/>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" hidden="1">
       <c r="A246" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-1</v>
@@ -32588,7 +32601,7 @@
       <c r="Q246" s="40"/>
       <c r="R246" s="40"/>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" hidden="1">
       <c r="A247" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-2</v>
@@ -32622,7 +32635,7 @@
       <c r="Q247" s="40"/>
       <c r="R247" s="40"/>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" hidden="1">
       <c r="A248" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-3</v>
@@ -32656,7 +32669,7 @@
       <c r="Q248" s="40"/>
       <c r="R248" s="40"/>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" hidden="1">
       <c r="A249" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-4</v>
@@ -32690,7 +32703,7 @@
       <c r="Q249" s="40"/>
       <c r="R249" s="40"/>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" hidden="1">
       <c r="A250" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-34</v>
@@ -32722,7 +32735,7 @@
       <c r="Q250" s="40"/>
       <c r="R250" s="40"/>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" hidden="1">
       <c r="A251" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-35</v>
@@ -32754,7 +32767,7 @@
       <c r="Q251" s="40"/>
       <c r="R251" s="40"/>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" hidden="1">
       <c r="A252" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-36</v>
@@ -32786,7 +32799,7 @@
       <c r="Q252" s="40"/>
       <c r="R252" s="40"/>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" hidden="1">
       <c r="A253" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-37</v>
@@ -32818,7 +32831,7 @@
       <c r="Q253" s="40"/>
       <c r="R253" s="40"/>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" hidden="1">
       <c r="A254" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-13</v>
@@ -32852,7 +32865,7 @@
       <c r="Q254" s="40"/>
       <c r="R254" s="40"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" hidden="1">
       <c r="A255" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-14</v>
@@ -32886,7 +32899,7 @@
       <c r="Q255" s="40"/>
       <c r="R255" s="40"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" hidden="1">
       <c r="A256" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-15</v>
@@ -32920,7 +32933,7 @@
       <c r="Q256" s="40"/>
       <c r="R256" s="40"/>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" hidden="1">
       <c r="A257" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-16</v>
@@ -32960,7 +32973,7 @@
       <c r="Q257" s="40"/>
       <c r="R257" s="40"/>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" hidden="1">
       <c r="A258" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-17</v>
@@ -32994,7 +33007,7 @@
       <c r="Q258" s="40"/>
       <c r="R258" s="40"/>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" hidden="1">
       <c r="A259" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-18</v>
@@ -33028,7 +33041,7 @@
       <c r="Q259" s="40"/>
       <c r="R259" s="40"/>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" hidden="1">
       <c r="A260" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-19</v>
@@ -33062,7 +33075,7 @@
       <c r="Q260" s="40"/>
       <c r="R260" s="40"/>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" hidden="1">
       <c r="A261" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-20</v>
@@ -33102,7 +33115,7 @@
       <c r="Q261" s="40"/>
       <c r="R261" s="40"/>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" hidden="1">
       <c r="A262" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-9</v>
@@ -33144,7 +33157,7 @@
       <c r="Q262" s="40"/>
       <c r="R262" s="40"/>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" hidden="1">
       <c r="A263" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-10</v>
@@ -33186,7 +33199,7 @@
       <c r="Q263" s="40"/>
       <c r="R263" s="40"/>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" hidden="1">
       <c r="A264" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-3</v>
@@ -33218,7 +33231,7 @@
       <c r="Q264" s="40"/>
       <c r="R264" s="40"/>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" hidden="1">
       <c r="A265" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-4</v>
@@ -33250,7 +33263,7 @@
       <c r="Q265" s="40"/>
       <c r="R265" s="40"/>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" hidden="1">
       <c r="A266" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Data-0</v>
@@ -33282,7 +33295,7 @@
       <c r="Q266" s="40"/>
       <c r="R266" s="40"/>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" hidden="1">
       <c r="A267" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Data-1</v>
@@ -33314,7 +33327,7 @@
       <c r="Q267" s="40"/>
       <c r="R267" s="40"/>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" hidden="1">
       <c r="A268" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Data-2</v>
@@ -33346,7 +33359,7 @@
       <c r="Q268" s="40"/>
       <c r="R268" s="40"/>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" hidden="1">
       <c r="A269" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-9</v>
@@ -33382,7 +33395,7 @@
       <c r="Q269" s="40"/>
       <c r="R269" s="40"/>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" hidden="1">
       <c r="A270" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-10</v>
@@ -33417,6 +33430,46 @@
       <c r="P270" s="40"/>
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
+    </row>
+    <row r="271" spans="1:18">
+      <c r="A271" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-38</v>
+      </c>
+      <c r="B271" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C271" s="22">
+        <f>COUNTIF($B$1:$B270,[Table Name])</f>
+        <v>38</v>
+      </c>
+      <c r="D271" s="40">
+        <v>26</v>
+      </c>
+      <c r="E271" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="F271" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="G271" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="H271" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I271" s="40">
+        <v>4</v>
+      </c>
+      <c r="J271" s="40"/>
+      <c r="K271" s="40"/>
+      <c r="L271" s="40"/>
+      <c r="M271" s="40"/>
+      <c r="N271" s="40"/>
+      <c r="O271" s="40"/>
+      <c r="P271" s="40"/>
+      <c r="Q271" s="40"/>
+      <c r="R271" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34855,10 +34908,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:I38"/>
+      <selection activeCell="I39" sqref="D39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36090,9 +36143,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="20">
+        <f>IFERROR($A38+1,1)</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I39" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C39">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -36107,8 +36192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36118,14 +36203,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="49" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceActionData::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
@@ -36269,27 +36354,27 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource_action</v>
+        <v>resource</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>resource_data</v>
+        <v>name</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v/>
+        <v>description</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v/>
+        <v>method</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v/>
+        <v>type</v>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v/>
+        <v>relate_resource</v>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
@@ -36383,7 +36468,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="47" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceActionData::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -36412,27 +36497,27 @@
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_action' =&gt; '9', </v>
+        <v xml:space="preserve">'resource' =&gt; '1', </v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_data' =&gt; '1', </v>
+        <v xml:space="preserve">'name' =&gt; 'User Groups', </v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Which groups this user belongs to', </v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36485,27 +36570,27 @@
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource_action' =&gt; '10', </v>
+        <v xml:space="preserve">'resource' =&gt; '2', </v>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'resource_data' =&gt; '2', </v>
+        <v xml:space="preserve">'name' =&gt; 'Group Users', </v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'List of users belongs to this group', </v>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Users', </v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '1', </v>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36554,31 +36639,31 @@
       </c>
       <c r="B11" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '2', </v>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Group Roles', </v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Roles assigneed to this group', </v>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36618,7 +36703,7 @@
       </c>
       <c r="R11" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -36627,31 +36712,31 @@
       </c>
       <c r="B12" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '3', </v>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Role Groups', </v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Details of groups this role assigned to', </v>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
       </c>
       <c r="I12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36691,7 +36776,7 @@
       </c>
       <c r="R12" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -36700,31 +36785,31 @@
       </c>
       <c r="B13" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '3', </v>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Role Resource', </v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resources assigned to a role', </v>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resources', </v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '11', </v>
       </c>
       <c r="I13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36764,7 +36849,7 @@
       </c>
       <c r="R13" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -36773,31 +36858,31 @@
       </c>
       <c r="B14" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Roles', </v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'The details of roles who have access to this resource', </v>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36837,7 +36922,7 @@
       </c>
       <c r="R14" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -36846,31 +36931,31 @@
       </c>
       <c r="B15" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Actions', </v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Get actions available for the resource', </v>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Actions', </v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '7', </v>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36910,7 +36995,7 @@
       </c>
       <c r="R15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -36919,31 +37004,31 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Methods', </v>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Handler details of an action', </v>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Method', </v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '8', </v>
       </c>
       <c r="I16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -36983,7 +37068,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -36992,31 +37077,31 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Lists', </v>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Lists where action available', </v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Lists', </v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '9', </v>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37056,7 +37141,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -37065,31 +37150,31 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '7', </v>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Action Data', </v>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource data where action available', </v>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Data', </v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '10', </v>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37129,7 +37214,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -37138,31 +37223,31 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '5', </v>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Organisation Contacts', </v>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Contact details of organisation', </v>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Contacts', </v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '6', </v>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37202,7 +37287,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -37211,31 +37296,31 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '11', </v>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource details', </v>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37275,7 +37360,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -37284,31 +37369,31 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Forms', </v>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Forms available for a resource', </v>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Forms', </v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
       </c>
       <c r="I21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37348,7 +37433,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -37357,31 +37442,31 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Fields', </v>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Fields associated with a form', </v>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Fields', </v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
       </c>
       <c r="I22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37421,7 +37506,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -37430,31 +37515,31 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Attributes', </v>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Attributes of Field', </v>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Attributes', </v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '14', </v>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37494,7 +37579,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -37503,31 +37588,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Options', </v>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Options of Field', </v>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Options', </v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '15', </v>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37567,7 +37652,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -37576,31 +37661,31 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Validations', </v>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Validation details of field', </v>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Validations', </v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ref="H25:K88" ca="1" si="4">IF(AND($B25=$S$4,H$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)="","","'"&amp;H$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)&amp;"', "),"")</f>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '16', </v>
       </c>
       <c r="I25" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37640,7 +37725,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -37649,31 +37734,31 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'From Resource', </v>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource this form belongs to', </v>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37713,7 +37798,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -37722,31 +37807,31 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Defaults', </v>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Predefined values for a form', </v>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Defaults', </v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '17', </v>
       </c>
       <c r="I27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37786,7 +37871,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -37795,31 +37880,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field Data', </v>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Fields Database binding details', </v>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Data', </v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '18', </v>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37859,7 +37944,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -37868,31 +37953,31 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Relations', </v>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relation of  a resource to another resource', </v>
       </c>
       <c r="F29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -37932,7 +38017,7 @@
       </c>
       <c r="R29" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -37941,31 +38026,31 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '18', </v>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Bind Data Resource', </v>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource to which the data to be bind', </v>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38005,7 +38090,7 @@
       </c>
       <c r="R30" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -38014,31 +38099,31 @@
       </c>
       <c r="B31" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '17', </v>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Default Data Resource', </v>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource to which the forms predefined data to be bind', </v>
       </c>
       <c r="F31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38078,7 +38163,7 @@
       </c>
       <c r="R31" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -38087,31 +38172,31 @@
       </c>
       <c r="B32" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Resource details of a list', </v>
       </c>
       <c r="F32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38151,7 +38236,7 @@
       </c>
       <c r="R32" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -38160,31 +38245,31 @@
       </c>
       <c r="B33" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Relations', </v>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on accessing list', </v>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '20', </v>
       </c>
       <c r="I33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38224,7 +38309,7 @@
       </c>
       <c r="R33" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -38233,31 +38318,31 @@
       </c>
       <c r="B34" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '4', </v>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Scopes', </v>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Scopes available on a Resource', </v>
       </c>
       <c r="F34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
       </c>
       <c r="I34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38297,7 +38382,7 @@
       </c>
       <c r="R34" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -38306,31 +38391,31 @@
       </c>
       <c r="B35" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Scopes', </v>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Scopes by which a list to be filtered', </v>
       </c>
       <c r="F35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38370,7 +38455,7 @@
       </c>
       <c r="R35" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -38379,31 +38464,31 @@
       </c>
       <c r="B36" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on a data view', </v>
       </c>
       <c r="F36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '24', </v>
       </c>
       <c r="I36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38443,7 +38528,7 @@
       </c>
       <c r="R36" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -38452,31 +38537,31 @@
       </c>
       <c r="B37" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Details of resource of a record', </v>
       </c>
       <c r="F37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38516,7 +38601,7 @@
       </c>
       <c r="R37" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -38525,31 +38610,31 @@
       </c>
       <c r="B38" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '19', </v>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'List Layout', </v>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Layout of a list', </v>
       </c>
       <c r="F38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '25', </v>
       </c>
       <c r="I38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38589,7 +38674,7 @@
       </c>
       <c r="R38" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -38598,31 +38683,31 @@
       </c>
       <c r="B39" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Nested Relation', </v>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Nested Relation', </v>
       </c>
       <c r="F39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Nest', </v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38662,7 +38747,7 @@
       </c>
       <c r="R39" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -38671,31 +38756,31 @@
       </c>
       <c r="B40" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Related Resource', </v>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Related Resource Details', </v>
       </c>
       <c r="F40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38735,7 +38820,7 @@
       </c>
       <c r="R40" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -38744,31 +38829,31 @@
       </c>
       <c r="B41" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form Layout', </v>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Layout details', </v>
       </c>
       <c r="F41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '27', </v>
       </c>
       <c r="I41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38808,7 +38893,7 @@
       </c>
       <c r="R41" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -38817,31 +38902,31 @@
       </c>
       <c r="B42" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '23', </v>
       </c>
       <c r="D42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data View Section', </v>
       </c>
       <c r="E42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Section details of data view', </v>
       </c>
       <c r="F42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Sections', </v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '28', </v>
       </c>
       <c r="I42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38881,7 +38966,7 @@
       </c>
       <c r="R42" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -38890,31 +38975,31 @@
       </c>
       <c r="B43" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data View Section Items', </v>
       </c>
       <c r="E43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Items of a data view section', </v>
       </c>
       <c r="F43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Items', </v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '29', </v>
       </c>
       <c r="I43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38954,7 +39039,7 @@
       </c>
       <c r="R43" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -38963,31 +39048,31 @@
       </c>
       <c r="B44" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '28', </v>
       </c>
       <c r="D44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
       </c>
       <c r="E44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'View relation of a data', </v>
       </c>
       <c r="F44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39027,7 +39112,7 @@
       </c>
       <c r="R44" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -39036,31 +39121,31 @@
       </c>
       <c r="B45" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '29', </v>
       </c>
       <c r="D45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Data item relation', </v>
       </c>
       <c r="E45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'View relation of a data item', </v>
       </c>
       <c r="F45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39100,7 +39185,7 @@
       </c>
       <c r="R45" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -39109,31 +39194,31 @@
       </c>
       <c r="B46" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>-&gt;create([</v>
       </c>
       <c r="C46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '26', </v>
       </c>
       <c r="D46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Owner Relation', </v>
       </c>
       <c r="E46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'View the owner resource', </v>
       </c>
       <c r="F46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Owner', </v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H46" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
       </c>
       <c r="I46" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39173,7 +39258,7 @@
       </c>
       <c r="R46" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -39182,7 +39267,7 @@
       </c>
       <c r="B47" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>;</v>
       </c>
       <c r="C47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -39255,7 +39340,7 @@
       </c>
       <c r="B48" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -1150,9 +1150,6 @@
     <t>List All Developers</t>
   </si>
   <si>
-    <t>['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelations']</t>
-  </si>
-  <si>
     <t>ResourceActionMethod</t>
   </si>
   <si>
@@ -1976,6 +1973,9 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelation']</t>
   </si>
 </sst>
 </file>
@@ -4031,11 +4031,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K300" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:K300">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="roles"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="11">
     <tableColumn id="2" name="Table" dataDxfId="94"/>
@@ -4511,7 +4507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4971,7 +4967,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5012,7 +5008,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B13" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5053,7 +5049,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5217,7 +5213,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B18" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5791,7 +5787,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B32" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5832,7 +5828,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -6199,13 +6195,13 @@
         <v>CreateUserAdministrator</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="str">
@@ -7438,26 +7434,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>343</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>341</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L8" s="20">
         <v>1</v>
@@ -7480,26 +7476,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>343</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>341</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L9" s="20">
         <v>2</v>
@@ -7536,8 +7532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -8016,7 +8012,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -8037,13 +8033,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -8058,13 +8054,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -8079,13 +8075,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -8100,13 +8096,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -8121,13 +8117,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -8167,13 +8163,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -8192,13 +8188,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -8217,13 +8213,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -8242,13 +8238,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
@@ -8267,13 +8263,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -9692,7 +9688,7 @@
         <v>49</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>370</v>
+        <v>645</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>246</v>
@@ -9746,19 +9742,19 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -9767,13 +9763,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D104" s="4">
         <v>1024</v>
@@ -9788,13 +9784,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D105" s="4">
         <v>64</v>
@@ -9809,13 +9805,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D106" s="4">
         <v>128</v>
@@ -9830,19 +9826,19 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -9851,13 +9847,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
@@ -9872,13 +9868,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
@@ -9893,13 +9889,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
@@ -9914,13 +9910,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="1" t="s">
@@ -9939,13 +9935,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -9964,13 +9960,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
@@ -9989,7 +9985,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>42</v>
@@ -10014,13 +10010,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -10039,13 +10035,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
@@ -10064,13 +10060,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
@@ -10085,13 +10081,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -10127,13 +10123,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D120" s="4">
         <v>64</v>
@@ -10148,7 +10144,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>24</v>
@@ -10169,7 +10165,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>42</v>
@@ -10194,17 +10190,17 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -10213,13 +10209,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
@@ -10232,7 +10228,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>27</v>
@@ -10253,20 +10249,20 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>45</v>
@@ -10298,8 +10294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -10345,7 +10341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10389,7 +10385,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10433,7 +10429,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -10477,7 +10473,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -10521,7 +10517,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -10565,7 +10561,7 @@
         <v>$table-&gt;string('namespace', 512)-&gt;nullable()-&gt;default('Milestone\Appframe');</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -10609,7 +10605,7 @@
         <v>$table-&gt;string('table', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -10653,7 +10649,7 @@
         <v>$table-&gt;string('key', 64)-&gt;nullable()-&gt;default('id');</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>$table-&gt;string('controller', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -10741,7 +10737,7 @@
         <v>$table-&gt;string('controller_namespace', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -10873,7 +10869,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -10917,7 +10913,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +10957,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11001,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -11049,7 +11045,7 @@
         <v>$table-&gt;string('arg1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>$table-&gt;string('arg2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -11137,7 +11133,7 @@
         <v>$table-&gt;string('arg3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -11181,7 +11177,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -11225,7 +11221,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -11269,7 +11265,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -11313,7 +11309,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -11357,7 +11353,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -11401,7 +11397,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -11445,7 +11441,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -11489,7 +11485,7 @@
         <v>$table-&gt;enum('type', ['hasOne','hasMany','belongsTo','belongsToMany'])-&gt;default('hasMany');</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>$table-&gt;unsignedInteger('relate_resource')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -11577,7 +11573,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -11621,7 +11617,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -11665,7 +11661,7 @@
         <v>$table-&gt;foreign('relate_resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -11709,7 +11705,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -11885,7 +11881,7 @@
         <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -11929,7 +11925,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -11973,7 +11969,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -12017,7 +12013,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -12061,7 +12057,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -12105,12 +12101,12 @@
         <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12149,12 +12145,12 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12193,12 +12189,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12237,12 +12233,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12281,12 +12277,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12325,12 +12321,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation4')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12369,7 +12365,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation5')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -12413,7 +12409,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1">
+    <row r="49" spans="1:11">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -12457,12 +12453,12 @@
         <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1">
+    <row r="50" spans="1:11">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12501,12 +12497,12 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1">
+    <row r="51" spans="1:11">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12545,12 +12541,12 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1">
+    <row r="52" spans="1:11">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12589,12 +12585,12 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1">
+    <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12633,12 +12629,12 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1">
+    <row r="54" spans="1:11">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12677,12 +12673,12 @@
         <v>$table-&gt;foreign('nest_relation4')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12721,7 +12717,7 @@
         <v>$table-&gt;foreign('nest_relation5')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
@@ -12765,7 +12761,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1">
+    <row r="57" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>5</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
@@ -12853,7 +12849,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
@@ -12897,7 +12893,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1">
+    <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -12941,7 +12937,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1">
+    <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
@@ -12985,7 +12981,7 @@
         <v>$table-&gt;unsignedSmallInteger('items_per_page')-&gt;default('25');</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1">
+    <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1">
+    <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1">
+    <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
@@ -13117,7 +13113,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1">
+    <row r="65" spans="1:11">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -13161,7 +13157,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1">
+    <row r="66" spans="1:11">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -13205,12 +13201,12 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1">
+    <row r="67" spans="1:11">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13249,12 +13245,12 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1">
+    <row r="68" spans="1:11">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13293,12 +13289,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1">
+    <row r="69" spans="1:11">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C69" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13337,12 +13333,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C70" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13381,12 +13377,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C71" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13425,12 +13421,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation4')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C72" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13469,7 +13465,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation5')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
         <v>10</v>
       </c>
@@ -13513,7 +13509,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -13557,12 +13553,12 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13601,12 +13597,12 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1">
+    <row r="76" spans="1:11">
       <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13645,12 +13641,12 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1">
+    <row r="77" spans="1:11">
       <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13689,12 +13685,12 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1">
+    <row r="78" spans="1:11">
       <c r="A78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C78" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13733,12 +13729,12 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1">
+    <row r="79" spans="1:11">
       <c r="A79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13777,12 +13773,12 @@
         <v>$table-&gt;foreign('nest_relation4')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1">
+    <row r="80" spans="1:11">
       <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13821,7 +13817,7 @@
         <v>$table-&gt;foreign('nest_relation5')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1">
+    <row r="81" spans="1:11">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -13865,7 +13861,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1">
+    <row r="82" spans="1:11">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -13909,7 +13905,7 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1">
+    <row r="83" spans="1:11">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -13953,7 +13949,7 @@
         <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1">
+    <row r="84" spans="1:11">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -13997,7 +13993,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1">
+    <row r="85" spans="1:11">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -14041,7 +14037,7 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -14085,7 +14081,7 @@
         <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87" s="4" t="s">
         <v>6</v>
       </c>
@@ -14129,7 +14125,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
@@ -14173,7 +14169,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89" s="4" t="s">
         <v>6</v>
       </c>
@@ -14217,7 +14213,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90" s="4" t="s">
         <v>6</v>
       </c>
@@ -14261,7 +14257,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1">
+    <row r="91" spans="1:11">
       <c r="A91" s="4" t="s">
         <v>6</v>
       </c>
@@ -14305,7 +14301,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1">
+    <row r="92" spans="1:11">
       <c r="A92" s="4" t="s">
         <v>6</v>
       </c>
@@ -14349,7 +14345,7 @@
         <v>$table-&gt;string('action_text', 64)-&gt;default('Submit');</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1">
+    <row r="93" spans="1:11">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
@@ -14393,7 +14389,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1">
+    <row r="94" spans="1:11">
       <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -14481,7 +14477,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1">
+    <row r="96" spans="1:11">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -14525,7 +14521,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1">
+    <row r="97" spans="1:11">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -14569,7 +14565,7 @@
         <v>$table-&gt;unsignedInteger('list')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1">
+    <row r="98" spans="1:11">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -14613,7 +14609,7 @@
         <v>$table-&gt;unsignedInteger('create')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1">
+    <row r="99" spans="1:11">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -14657,7 +14653,7 @@
         <v>$table-&gt;unsignedInteger('read')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1">
+    <row r="100" spans="1:11">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -14701,7 +14697,7 @@
         <v>$table-&gt;unsignedInteger('update')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -14745,7 +14741,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1">
+    <row r="102" spans="1:11">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14785,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1">
+    <row r="103" spans="1:11">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -14833,7 +14829,7 @@
         <v>$table-&gt;foreign('list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1">
+    <row r="104" spans="1:11">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -14877,7 +14873,7 @@
         <v>$table-&gt;foreign('create')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1">
+    <row r="105" spans="1:11">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -14921,7 +14917,7 @@
         <v>$table-&gt;foreign('read')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1">
+    <row r="106" spans="1:11">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14961,7 @@
         <v>$table-&gt;foreign('update')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1">
+    <row r="107" spans="1:11">
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
@@ -15009,7 +15005,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1">
+    <row r="108" spans="1:11">
       <c r="A108" s="4" t="s">
         <v>8</v>
       </c>
@@ -15053,7 +15049,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1">
+    <row r="109" spans="1:11">
       <c r="A109" s="4" t="s">
         <v>8</v>
       </c>
@@ -15097,7 +15093,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1">
+    <row r="110" spans="1:11">
       <c r="A110" s="4" t="s">
         <v>8</v>
       </c>
@@ -15141,7 +15137,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1">
+    <row r="111" spans="1:11">
       <c r="A111" s="4" t="s">
         <v>8</v>
       </c>
@@ -15185,7 +15181,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1">
+    <row r="112" spans="1:11">
       <c r="A112" s="4" t="s">
         <v>8</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>$table-&gt;enum('type', ['primary','secondary','success','danger','warning','info','light','dark','link','outline-primary','outline-secondary','outline-success','outline-danger','outline-warning','outline-info','outline-light','outline-dark'])-&gt;default('outline-info');</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1">
+    <row r="113" spans="1:11">
       <c r="A113" s="4" t="s">
         <v>8</v>
       </c>
@@ -15273,7 +15269,7 @@
         <v>$table-&gt;string('menu', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1">
+    <row r="114" spans="1:11">
       <c r="A114" s="4" t="s">
         <v>8</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>$table-&gt;string('icon', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1">
+    <row r="115" spans="1:11">
       <c r="A115" s="4" t="s">
         <v>8</v>
       </c>
@@ -15361,7 +15357,7 @@
         <v>$table-&gt;enum('set', ['far','fas','fab'])-&gt;default('far');</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
+    <row r="116" spans="1:11">
       <c r="A116" s="4" t="s">
         <v>8</v>
       </c>
@@ -15405,7 +15401,7 @@
         <v>$table-&gt;string('on', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1">
+    <row r="117" spans="1:11">
       <c r="A117" s="4" t="s">
         <v>8</v>
       </c>
@@ -15449,7 +15445,7 @@
         <v>$table-&gt;string('confirm', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1">
+    <row r="118" spans="1:11">
       <c r="A118" s="4" t="s">
         <v>8</v>
       </c>
@@ -15493,7 +15489,7 @@
         <v>$table-&gt;string('handler', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1">
+    <row r="119" spans="1:11">
       <c r="A119" s="4" t="s">
         <v>8</v>
       </c>
@@ -15537,7 +15533,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1">
+    <row r="120" spans="1:11">
       <c r="A120" s="4" t="s">
         <v>8</v>
       </c>
@@ -15581,7 +15577,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1">
+    <row r="121" spans="1:11">
       <c r="A121" s="4" t="s">
         <v>100</v>
       </c>
@@ -15625,7 +15621,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1">
+    <row r="122" spans="1:11">
       <c r="A122" s="4" t="s">
         <v>100</v>
       </c>
@@ -15669,7 +15665,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1">
+    <row r="123" spans="1:11">
       <c r="A123" s="4" t="s">
         <v>100</v>
       </c>
@@ -15713,7 +15709,7 @@
         <v>$table-&gt;string('name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1">
+    <row r="124" spans="1:11">
       <c r="A124" s="4" t="s">
         <v>100</v>
       </c>
@@ -15757,7 +15753,7 @@
         <v>$table-&gt;string('value', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1">
+    <row r="125" spans="1:11">
       <c r="A125" s="4" t="s">
         <v>100</v>
       </c>
@@ -15801,7 +15797,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1">
+    <row r="126" spans="1:11">
       <c r="A126" s="4" t="s">
         <v>100</v>
       </c>
@@ -15845,7 +15841,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1">
+    <row r="127" spans="1:11">
       <c r="A127" s="4" t="s">
         <v>101</v>
       </c>
@@ -15889,7 +15885,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1">
+    <row r="128" spans="1:11">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -15933,7 +15929,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1">
+    <row r="129" spans="1:11">
       <c r="A129" s="4" t="s">
         <v>101</v>
       </c>
@@ -15950,7 +15946,7 @@
       </c>
       <c r="E129" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, ['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelations'])</v>
+        <v>, ['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelation'])</v>
       </c>
       <c r="F129" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
@@ -15974,10 +15970,10 @@
       </c>
       <c r="K129" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;enum('type', ['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelations'])-&gt;default('Method');</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1">
+        <v>$table-&gt;enum('type', ['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelation'])-&gt;default('Method');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>101</v>
       </c>
@@ -16021,7 +16017,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1">
+    <row r="131" spans="1:11">
       <c r="A131" s="4" t="s">
         <v>101</v>
       </c>
@@ -16065,7 +16061,7 @@
         <v>$table-&gt;string('idn1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1">
+    <row r="132" spans="1:11">
       <c r="A132" s="4" t="s">
         <v>101</v>
       </c>
@@ -16109,7 +16105,7 @@
         <v>$table-&gt;string('idn2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1">
+    <row r="133" spans="1:11">
       <c r="A133" s="4" t="s">
         <v>101</v>
       </c>
@@ -16153,7 +16149,7 @@
         <v>$table-&gt;string('idn3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1">
+    <row r="134" spans="1:11">
       <c r="A134" s="4" t="s">
         <v>101</v>
       </c>
@@ -16197,7 +16193,7 @@
         <v>$table-&gt;string('idn4', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1">
+    <row r="135" spans="1:11">
       <c r="A135" s="4" t="s">
         <v>101</v>
       </c>
@@ -16241,7 +16237,7 @@
         <v>$table-&gt;string('idn5', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1">
+    <row r="136" spans="1:11">
       <c r="A136" s="4" t="s">
         <v>101</v>
       </c>
@@ -16285,7 +16281,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1">
+    <row r="137" spans="1:11">
       <c r="A137" s="4" t="s">
         <v>101</v>
       </c>
@@ -16329,7 +16325,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1">
+    <row r="138" spans="1:11">
       <c r="A138" s="4" t="s">
         <v>102</v>
       </c>
@@ -16373,7 +16369,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1">
+    <row r="139" spans="1:11">
       <c r="A139" s="4" t="s">
         <v>102</v>
       </c>
@@ -16417,7 +16413,7 @@
         <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1">
+    <row r="140" spans="1:11">
       <c r="A140" s="4" t="s">
         <v>102</v>
       </c>
@@ -16461,7 +16457,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1">
+    <row r="141" spans="1:11">
       <c r="A141" s="4" t="s">
         <v>102</v>
       </c>
@@ -16505,7 +16501,7 @@
         <v>$table-&gt;string('type', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1">
+    <row r="142" spans="1:11">
       <c r="A142" s="4" t="s">
         <v>102</v>
       </c>
@@ -16549,7 +16545,7 @@
         <v>$table-&gt;string('label', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1">
+    <row r="143" spans="1:11">
       <c r="A143" s="4" t="s">
         <v>102</v>
       </c>
@@ -16593,7 +16589,7 @@
         <v>$table-&gt;string('collection', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1">
+    <row r="144" spans="1:11">
       <c r="A144" s="4" t="s">
         <v>102</v>
       </c>
@@ -16637,7 +16633,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1">
+    <row r="145" spans="1:11">
       <c r="A145" s="4" t="s">
         <v>102</v>
       </c>
@@ -16681,7 +16677,7 @@
         <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1">
+    <row r="146" spans="1:11">
       <c r="A146" s="4" t="s">
         <v>103</v>
       </c>
@@ -16725,7 +16721,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1">
+    <row r="147" spans="1:11">
       <c r="A147" s="4" t="s">
         <v>103</v>
       </c>
@@ -16769,7 +16765,7 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1">
+    <row r="148" spans="1:11">
       <c r="A148" s="4" t="s">
         <v>103</v>
       </c>
@@ -16813,7 +16809,7 @@
         <v>$table-&gt;string('name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1">
+    <row r="149" spans="1:11">
       <c r="A149" s="4" t="s">
         <v>103</v>
       </c>
@@ -16857,7 +16853,7 @@
         <v>$table-&gt;string('value', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1">
+    <row r="150" spans="1:11">
       <c r="A150" s="4" t="s">
         <v>103</v>
       </c>
@@ -16901,7 +16897,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1">
+    <row r="151" spans="1:11">
       <c r="A151" s="4" t="s">
         <v>103</v>
       </c>
@@ -16945,7 +16941,7 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1">
+    <row r="152" spans="1:11">
       <c r="A152" s="4" t="s">
         <v>104</v>
       </c>
@@ -16989,7 +16985,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1">
+    <row r="153" spans="1:11">
       <c r="A153" s="4" t="s">
         <v>104</v>
       </c>
@@ -17033,12 +17029,12 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1">
+    <row r="154" spans="1:11">
       <c r="A154" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C154" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17077,12 +17073,12 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1">
+    <row r="155" spans="1:11">
       <c r="A155" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C155" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17121,12 +17117,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1">
+    <row r="156" spans="1:11">
       <c r="A156" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C156" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17165,12 +17161,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1">
+    <row r="157" spans="1:11">
       <c r="A157" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C157" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17209,7 +17205,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1">
+    <row r="158" spans="1:11">
       <c r="A158" s="4" t="s">
         <v>104</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1">
+    <row r="159" spans="1:11">
       <c r="A159" s="4" t="s">
         <v>104</v>
       </c>
@@ -17297,7 +17293,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1">
+    <row r="160" spans="1:11">
       <c r="A160" s="4" t="s">
         <v>104</v>
       </c>
@@ -17341,12 +17337,12 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1">
+    <row r="161" spans="1:11">
       <c r="A161" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C161" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17385,12 +17381,12 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1">
+    <row r="162" spans="1:11">
       <c r="A162" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17429,12 +17425,12 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1">
+    <row r="163" spans="1:11">
       <c r="A163" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C163" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17473,12 +17469,12 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1">
+    <row r="164" spans="1:11">
       <c r="A164" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C164" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17517,7 +17513,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1">
+    <row r="165" spans="1:11">
       <c r="A165" s="4" t="s">
         <v>105</v>
       </c>
@@ -17561,7 +17557,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1">
+    <row r="166" spans="1:11">
       <c r="A166" s="4" t="s">
         <v>105</v>
       </c>
@@ -17605,7 +17601,7 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1">
+    <row r="167" spans="1:11">
       <c r="A167" s="4" t="s">
         <v>105</v>
       </c>
@@ -17649,7 +17645,7 @@
         <v>$table-&gt;string('rule', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1">
+    <row r="168" spans="1:11">
       <c r="A168" s="4" t="s">
         <v>105</v>
       </c>
@@ -17693,7 +17689,7 @@
         <v>$table-&gt;string('message', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1">
+    <row r="169" spans="1:11">
       <c r="A169" s="4" t="s">
         <v>105</v>
       </c>
@@ -17737,7 +17733,7 @@
         <v>$table-&gt;string('arg1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1">
+    <row r="170" spans="1:11">
       <c r="A170" s="4" t="s">
         <v>105</v>
       </c>
@@ -17781,7 +17777,7 @@
         <v>$table-&gt;string('arg2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1">
+    <row r="171" spans="1:11">
       <c r="A171" s="4" t="s">
         <v>105</v>
       </c>
@@ -17825,7 +17821,7 @@
         <v>$table-&gt;string('arg3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1">
+    <row r="172" spans="1:11">
       <c r="A172" s="4" t="s">
         <v>105</v>
       </c>
@@ -17869,7 +17865,7 @@
         <v>$table-&gt;string('arg4', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1">
+    <row r="173" spans="1:11">
       <c r="A173" s="4" t="s">
         <v>105</v>
       </c>
@@ -17913,7 +17909,7 @@
         <v>$table-&gt;string('arg5', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1">
+    <row r="174" spans="1:11">
       <c r="A174" s="4" t="s">
         <v>105</v>
       </c>
@@ -17957,7 +17953,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1">
+    <row r="175" spans="1:11">
       <c r="A175" s="4" t="s">
         <v>105</v>
       </c>
@@ -18001,7 +17997,7 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1">
+    <row r="176" spans="1:11">
       <c r="A176" s="4" t="s">
         <v>135</v>
       </c>
@@ -18045,7 +18041,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1">
+    <row r="177" spans="1:11">
       <c r="A177" s="4" t="s">
         <v>135</v>
       </c>
@@ -18089,7 +18085,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1">
+    <row r="178" spans="1:11">
       <c r="A178" s="4" t="s">
         <v>135</v>
       </c>
@@ -18133,7 +18129,7 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1">
+    <row r="179" spans="1:11">
       <c r="A179" s="4" t="s">
         <v>135</v>
       </c>
@@ -18177,7 +18173,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1">
+    <row r="180" spans="1:11">
       <c r="A180" s="4" t="s">
         <v>135</v>
       </c>
@@ -18221,7 +18217,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1">
+    <row r="181" spans="1:11">
       <c r="A181" s="4" t="s">
         <v>135</v>
       </c>
@@ -18265,7 +18261,7 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1">
+    <row r="182" spans="1:11">
       <c r="A182" s="4" t="s">
         <v>136</v>
       </c>
@@ -18309,7 +18305,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1">
+    <row r="183" spans="1:11">
       <c r="A183" s="4" t="s">
         <v>136</v>
       </c>
@@ -18353,7 +18349,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1">
+    <row r="184" spans="1:11">
       <c r="A184" s="4" t="s">
         <v>136</v>
       </c>
@@ -18397,7 +18393,7 @@
         <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1">
+    <row r="185" spans="1:11">
       <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
@@ -18441,7 +18437,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1">
+    <row r="186" spans="1:11">
       <c r="A186" s="4" t="s">
         <v>136</v>
       </c>
@@ -18485,7 +18481,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1">
+    <row r="187" spans="1:11">
       <c r="A187" s="4" t="s">
         <v>136</v>
       </c>
@@ -18529,7 +18525,7 @@
         <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1">
+    <row r="188" spans="1:11">
       <c r="A188" s="4" t="s">
         <v>137</v>
       </c>
@@ -18573,7 +18569,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1">
+    <row r="189" spans="1:11">
       <c r="A189" s="4" t="s">
         <v>137</v>
       </c>
@@ -18617,7 +18613,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1">
+    <row r="190" spans="1:11">
       <c r="A190" s="4" t="s">
         <v>137</v>
       </c>
@@ -18661,7 +18657,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1">
+    <row r="191" spans="1:11">
       <c r="A191" s="4" t="s">
         <v>137</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1">
+    <row r="192" spans="1:11">
       <c r="A192" s="4" t="s">
         <v>137</v>
       </c>
@@ -18749,7 +18745,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1">
+    <row r="193" spans="1:11">
       <c r="A193" s="4" t="s">
         <v>138</v>
       </c>
@@ -18793,7 +18789,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1">
+    <row r="194" spans="1:11">
       <c r="A194" s="4" t="s">
         <v>138</v>
       </c>
@@ -18837,7 +18833,7 @@
         <v>$table-&gt;unsignedInteger('group');</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1">
+    <row r="195" spans="1:11">
       <c r="A195" s="4" t="s">
         <v>138</v>
       </c>
@@ -18881,7 +18877,7 @@
         <v>$table-&gt;unsignedInteger('user');</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1">
+    <row r="196" spans="1:11">
       <c r="A196" s="4" t="s">
         <v>138</v>
       </c>
@@ -18925,7 +18921,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1">
+    <row r="197" spans="1:11">
       <c r="A197" s="4" t="s">
         <v>138</v>
       </c>
@@ -18969,7 +18965,7 @@
         <v>$table-&gt;foreign('group')-&gt;references('id')-&gt;on('__groups')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1">
+    <row r="198" spans="1:11">
       <c r="A198" s="4" t="s">
         <v>138</v>
       </c>
@@ -19233,7 +19229,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1">
+    <row r="204" spans="1:11">
       <c r="A204" s="4" t="s">
         <v>140</v>
       </c>
@@ -19277,7 +19273,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1">
+    <row r="205" spans="1:11">
       <c r="A205" s="4" t="s">
         <v>140</v>
       </c>
@@ -19321,7 +19317,7 @@
         <v>$table-&gt;unsignedInteger('group');</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1">
+    <row r="206" spans="1:11">
       <c r="A206" s="4" t="s">
         <v>140</v>
       </c>
@@ -19365,7 +19361,7 @@
         <v>$table-&gt;unsignedInteger('role');</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1">
+    <row r="207" spans="1:11">
       <c r="A207" s="4" t="s">
         <v>140</v>
       </c>
@@ -19409,7 +19405,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1">
+    <row r="208" spans="1:11">
       <c r="A208" s="4" t="s">
         <v>140</v>
       </c>
@@ -19453,7 +19449,7 @@
         <v>$table-&gt;foreign('group')-&gt;references('id')-&gt;on('__groups')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1">
+    <row r="209" spans="1:11">
       <c r="A209" s="4" t="s">
         <v>140</v>
       </c>
@@ -19497,7 +19493,7 @@
         <v>$table-&gt;foreign('role')-&gt;references('id')-&gt;on('__roles')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1">
+    <row r="210" spans="1:11">
       <c r="A210" s="4" t="s">
         <v>150</v>
       </c>
@@ -19541,7 +19537,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1">
+    <row r="211" spans="1:11">
       <c r="A211" s="4" t="s">
         <v>150</v>
       </c>
@@ -19585,7 +19581,7 @@
         <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1">
+    <row r="212" spans="1:11">
       <c r="A212" s="4" t="s">
         <v>150</v>
       </c>
@@ -19629,7 +19625,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1">
+    <row r="213" spans="1:11">
       <c r="A213" s="4" t="s">
         <v>150</v>
       </c>
@@ -19673,7 +19669,7 @@
         <v>$table-&gt;string('value', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1">
+    <row r="214" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>150</v>
       </c>
@@ -19717,12 +19713,12 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1">
+    <row r="215" spans="1:11">
       <c r="A215" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C215" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19761,12 +19757,12 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1">
+    <row r="216" spans="1:11">
       <c r="A216" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C216" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19805,12 +19801,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1">
+    <row r="217" spans="1:11">
       <c r="A217" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C217" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19849,12 +19845,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1">
+    <row r="218" spans="1:11">
       <c r="A218" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C218" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19893,7 +19889,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1">
+    <row r="219" spans="1:11">
       <c r="A219" s="4" t="s">
         <v>150</v>
       </c>
@@ -19937,7 +19933,7 @@
         <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1">
+    <row r="220" spans="1:11">
       <c r="A220" s="4" t="s">
         <v>150</v>
       </c>
@@ -19981,7 +19977,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1">
+    <row r="221" spans="1:11">
       <c r="A221" s="4" t="s">
         <v>150</v>
       </c>
@@ -20025,12 +20021,12 @@
         <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1">
+    <row r="222" spans="1:11">
       <c r="A222" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C222" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20069,12 +20065,12 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1">
+    <row r="223" spans="1:11">
       <c r="A223" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C223" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20113,12 +20109,12 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1">
+    <row r="224" spans="1:11">
       <c r="A224" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C224" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20157,12 +20153,12 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1">
+    <row r="225" spans="1:11">
       <c r="A225" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C225" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20201,7 +20197,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1">
+    <row r="226" spans="1:11">
       <c r="A226" s="4" t="s">
         <v>188</v>
       </c>
@@ -20245,7 +20241,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1">
+    <row r="227" spans="1:11">
       <c r="A227" s="4" t="s">
         <v>188</v>
       </c>
@@ -20289,7 +20285,7 @@
         <v>$table-&gt;string('name', 512)-&gt;index();</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1">
+    <row r="228" spans="1:11">
       <c r="A228" s="4" t="s">
         <v>188</v>
       </c>
@@ -20333,7 +20329,7 @@
         <v>$table-&gt;string('name_short', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1">
+    <row r="229" spans="1:11">
       <c r="A229" s="4" t="s">
         <v>188</v>
       </c>
@@ -20377,7 +20373,7 @@
         <v>$table-&gt;string('name_long', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1">
+    <row r="230" spans="1:11">
       <c r="A230" s="4" t="s">
         <v>188</v>
       </c>
@@ -20421,7 +20417,7 @@
         <v>$table-&gt;string('address_line1', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1">
+    <row r="231" spans="1:11">
       <c r="A231" s="4" t="s">
         <v>188</v>
       </c>
@@ -20465,7 +20461,7 @@
         <v>$table-&gt;string('address_line2', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1">
+    <row r="232" spans="1:11">
       <c r="A232" s="4" t="s">
         <v>188</v>
       </c>
@@ -20509,7 +20505,7 @@
         <v>$table-&gt;string('address_short', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1">
+    <row r="233" spans="1:11">
       <c r="A233" s="4" t="s">
         <v>188</v>
       </c>
@@ -20553,7 +20549,7 @@
         <v>$table-&gt;string('address_long', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1">
+    <row r="234" spans="1:11">
       <c r="A234" s="4" t="s">
         <v>188</v>
       </c>
@@ -20597,7 +20593,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1">
+    <row r="235" spans="1:11">
       <c r="A235" s="4" t="s">
         <v>193</v>
       </c>
@@ -20641,7 +20637,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1">
+    <row r="236" spans="1:11">
       <c r="A236" s="4" t="s">
         <v>193</v>
       </c>
@@ -20685,7 +20681,7 @@
         <v>$table-&gt;unsignedInteger('organisation');</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1">
+    <row r="237" spans="1:11">
       <c r="A237" s="4" t="s">
         <v>193</v>
       </c>
@@ -20729,7 +20725,7 @@
         <v>$table-&gt;enum('type', ['number','email','address'])-&gt;default('number');</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1">
+    <row r="238" spans="1:11">
       <c r="A238" s="4" t="s">
         <v>193</v>
       </c>
@@ -20773,7 +20769,7 @@
         <v>$table-&gt;string('type_name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1">
+    <row r="239" spans="1:11">
       <c r="A239" s="4" t="s">
         <v>193</v>
       </c>
@@ -20817,7 +20813,7 @@
         <v>$table-&gt;string('detail', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1">
+    <row r="240" spans="1:11">
       <c r="A240" s="4" t="s">
         <v>193</v>
       </c>
@@ -20861,7 +20857,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1">
+    <row r="241" spans="1:11">
       <c r="A241" s="4" t="s">
         <v>193</v>
       </c>
@@ -20905,7 +20901,7 @@
         <v>$table-&gt;foreign('organisation')-&gt;references('id')-&gt;on('__organisation')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1">
+    <row r="242" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>212</v>
       </c>
@@ -20949,7 +20945,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1">
+    <row r="243" spans="1:11">
       <c r="A243" s="4" t="s">
         <v>212</v>
       </c>
@@ -20993,7 +20989,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1">
+    <row r="244" spans="1:11">
       <c r="A244" s="4" t="s">
         <v>212</v>
       </c>
@@ -21037,12 +21033,12 @@
         <v>$table-&gt;unsignedInteger('role');</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1">
+    <row r="245" spans="1:11">
       <c r="A245" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C245" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21081,12 +21077,12 @@
         <v>$table-&gt;enum('actions_availability', ['All','Only','Except'])-&gt;default('All');</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1">
+    <row r="246" spans="1:11">
       <c r="A246" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C246" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21125,7 +21121,7 @@
         <v>$table-&gt;string('actions', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1">
+    <row r="247" spans="1:11">
       <c r="A247" s="4" t="s">
         <v>212</v>
       </c>
@@ -21169,7 +21165,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1">
+    <row r="248" spans="1:11">
       <c r="A248" s="4" t="s">
         <v>212</v>
       </c>
@@ -21213,7 +21209,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1">
+    <row r="249" spans="1:11">
       <c r="A249" s="4" t="s">
         <v>212</v>
       </c>
@@ -21257,9 +21253,9 @@
         <v>$table-&gt;foreign('role')-&gt;references('id')-&gt;on('__roles')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1">
+    <row r="250" spans="1:11">
       <c r="A250" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>21</v>
@@ -21301,9 +21297,9 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1">
+    <row r="251" spans="1:11">
       <c r="A251" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>122</v>
@@ -21345,9 +21341,9 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1">
+    <row r="252" spans="1:11">
       <c r="A252" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>94</v>
@@ -21389,12 +21385,12 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1">
+    <row r="253" spans="1:11">
       <c r="A253" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="C253" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21433,12 +21429,12 @@
         <v>$table-&gt;string('value_attr', 64)-&gt;default('id');</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1">
+    <row r="254" spans="1:11">
       <c r="A254" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C254" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21477,12 +21473,12 @@
         <v>$table-&gt;string('label_attr', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1">
+    <row r="255" spans="1:11">
       <c r="A255" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C255" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21521,9 +21517,9 @@
         <v>$table-&gt;enum('preload', ['Yes','No'])-&gt;default('Yes');</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1">
+    <row r="256" spans="1:11">
       <c r="A256" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>40</v>
@@ -21565,9 +21561,9 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1">
+    <row r="257" spans="1:11">
       <c r="A257" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>123</v>
@@ -21609,9 +21605,9 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1">
+    <row r="258" spans="1:11">
       <c r="A258" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>95</v>
@@ -21653,9 +21649,9 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1">
+    <row r="259" spans="1:11">
       <c r="A259" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>21</v>
@@ -21697,9 +21693,9 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1">
+    <row r="260" spans="1:11">
       <c r="A260" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>94</v>
@@ -21741,9 +21737,9 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1">
+    <row r="261" spans="1:11">
       <c r="A261" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>269</v>
@@ -21785,12 +21781,12 @@
         <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1">
+    <row r="262" spans="1:11">
       <c r="A262" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="C262" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21829,12 +21825,12 @@
         <v>$table-&gt;string('field', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1">
+    <row r="263" spans="1:11">
       <c r="A263" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C263" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21873,12 +21869,12 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1">
+    <row r="264" spans="1:11">
       <c r="A264" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21917,12 +21913,12 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1">
+    <row r="265" spans="1:11">
       <c r="A265" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21961,9 +21957,9 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1">
+    <row r="266" spans="1:11">
       <c r="A266" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>40</v>
@@ -22005,9 +22001,9 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1">
+    <row r="267" spans="1:11">
       <c r="A267" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>95</v>
@@ -22049,12 +22045,12 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1">
+    <row r="268" spans="1:11">
       <c r="A268" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C268" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22093,12 +22089,12 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1">
+    <row r="269" spans="1:11">
       <c r="A269" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C269" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22137,12 +22133,12 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1">
+    <row r="270" spans="1:11">
       <c r="A270" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C270" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22181,9 +22177,9 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1">
+    <row r="271" spans="1:11">
       <c r="A271" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>21</v>
@@ -22225,9 +22221,9 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1">
+    <row r="272" spans="1:11">
       <c r="A272" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>4</v>
@@ -22269,9 +22265,9 @@
         <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1">
+    <row r="273" spans="1:11">
       <c r="A273" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>57</v>
@@ -22313,9 +22309,9 @@
         <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1">
+    <row r="274" spans="1:11">
       <c r="A274" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>40</v>
@@ -22357,9 +22353,9 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1">
+    <row r="275" spans="1:11">
       <c r="A275" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>93</v>
@@ -22401,9 +22397,9 @@
         <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1">
+    <row r="276" spans="1:11">
       <c r="A276" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>60</v>
@@ -22447,7 +22443,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>21</v>
@@ -22491,7 +22487,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>117</v>
@@ -22535,7 +22531,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>122</v>
@@ -22579,10 +22575,10 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C280" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22623,7 +22619,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>40</v>
@@ -22667,7 +22663,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>118</v>
@@ -22711,7 +22707,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>123</v>
@@ -22755,7 +22751,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>21</v>
@@ -22799,7 +22795,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>4</v>
@@ -22843,7 +22839,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>30</v>
@@ -22887,7 +22883,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>55</v>
@@ -22931,10 +22927,10 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C288" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22975,10 +22971,10 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C289" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23019,7 +23015,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>40</v>
@@ -23063,7 +23059,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>93</v>
@@ -23107,10 +23103,10 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C292" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23151,7 +23147,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>21</v>
@@ -23195,10 +23191,10 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="C294" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23239,7 +23235,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>269</v>
@@ -23283,10 +23279,10 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C296" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23327,10 +23323,10 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C297" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23371,7 +23367,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>40</v>
@@ -23415,10 +23411,10 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C299" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23459,10 +23455,10 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C300" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23537,58 +23533,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>160</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>428</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1">
@@ -23842,7 +23838,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>174</v>
@@ -24057,7 +24053,7 @@
         <v>184</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>178</v>
@@ -24097,7 +24093,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>182</v>
@@ -24137,7 +24133,7 @@
         <v>185</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>187</v>
@@ -24177,7 +24173,7 @@
         <v>208</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>210</v>
@@ -24217,7 +24213,7 @@
         <v>205</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>207</v>
@@ -24257,7 +24253,7 @@
         <v>292</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>310</v>
@@ -24297,7 +24293,7 @@
         <v>316</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>318</v>
@@ -24328,19 +24324,19 @@
         <v>8</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>374</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>21</v>
@@ -24368,19 +24364,19 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>387</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>21</v>
@@ -24408,19 +24404,19 @@
         <v>10</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>21</v>
@@ -24448,19 +24444,19 @@
         <v>11</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="G25" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>21</v>
@@ -24488,19 +24484,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>406</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>407</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>21</v>
@@ -24528,19 +24524,19 @@
         <v>13</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="G27" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>410</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>21</v>
@@ -24574,10 +24570,10 @@
         <v>147</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -24610,10 +24606,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -24825,7 +24821,7 @@
         <v>Resource Relations-0</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C36" s="18">
         <f>COUNTIF($B$1:$B35,[Table Name])</f>
@@ -24865,7 +24861,7 @@
         <v>Resource Relations-1</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C37" s="18">
         <f>COUNTIF($B$1:$B36,[Table Name])</f>
@@ -24905,7 +24901,7 @@
         <v>Resource Relations-2</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C38" s="18">
         <f>COUNTIF($B$1:$B37,[Table Name])</f>
@@ -24945,7 +24941,7 @@
         <v>Resource Relations-3</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C39" s="18">
         <f>COUNTIF($B$1:$B38,[Table Name])</f>
@@ -24985,7 +24981,7 @@
         <v>Resource Relations-4</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C40" s="18">
         <f>COUNTIF($B$1:$B39,[Table Name])</f>
@@ -25025,7 +25021,7 @@
         <v>Resource Relations-5</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C41" s="18">
         <f>COUNTIF($B$1:$B40,[Table Name])</f>
@@ -25038,7 +25034,7 @@
         <v>226</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>220</v>
@@ -25065,7 +25061,7 @@
         <v>Resource Relations-6</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="18">
         <f>COUNTIF($B$1:$B41,[Table Name])</f>
@@ -25105,7 +25101,7 @@
         <v>Resource Relations-7</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C43" s="18">
         <f>COUNTIF($B$1:$B42,[Table Name])</f>
@@ -25145,7 +25141,7 @@
         <v>Resource Relations-8</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C44" s="18">
         <f>COUNTIF($B$1:$B43,[Table Name])</f>
@@ -25155,16 +25151,16 @@
         <v>7</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>347</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I44" s="15">
         <v>8</v>
@@ -25185,7 +25181,7 @@
         <v>Resource Relations-9</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C45" s="18">
         <f>COUNTIF($B$1:$B44,[Table Name])</f>
@@ -25195,13 +25191,13 @@
         <v>7</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F45" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>393</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>311</v>
@@ -25225,7 +25221,7 @@
         <v>Resource Relations-10</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C46" s="18">
         <f>COUNTIF($B$1:$B45,[Table Name])</f>
@@ -25235,13 +25231,13 @@
         <v>7</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F46" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>311</v>
@@ -25265,7 +25261,7 @@
         <v>Resource Relations-11</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C47" s="18">
         <f>COUNTIF($B$1:$B46,[Table Name])</f>
@@ -25305,7 +25301,7 @@
         <v>Resource Relations-12</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C48" s="18">
         <f>COUNTIF($B$1:$B47,[Table Name])</f>
@@ -25315,16 +25311,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>208</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I48" s="15">
         <v>4</v>
@@ -25345,7 +25341,7 @@
         <v>Resource Relations-13</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C49" s="18">
         <f>COUNTIF($B$1:$B48,[Table Name])</f>
@@ -25355,13 +25351,13 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>434</v>
-      </c>
       <c r="G49" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>311</v>
@@ -25385,7 +25381,7 @@
         <v>Resource Relations-14</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C50" s="18">
         <f>COUNTIF($B$1:$B49,[Table Name])</f>
@@ -25395,13 +25391,13 @@
         <v>12</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F50" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>435</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>436</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>311</v>
@@ -25425,7 +25421,7 @@
         <v>Resource Scopes-0</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C51" s="18">
         <f>COUNTIF($B$1:$B50,[Table Name])</f>
@@ -25461,7 +25457,7 @@
         <v>Resource Scopes-1</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C52" s="18">
         <f>COUNTIF($B$1:$B51,[Table Name])</f>
@@ -25497,7 +25493,7 @@
         <v>Resource Scopes-2</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C53" s="18">
         <f>COUNTIF($B$1:$B52,[Table Name])</f>
@@ -25533,7 +25529,7 @@
         <v>Resource Lists-0</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C54" s="18">
         <f>COUNTIF($B$1:$B53,[Table Name])</f>
@@ -25569,7 +25565,7 @@
         <v>Resource Lists-1</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C55" s="18">
         <f>COUNTIF($B$1:$B54,[Table Name])</f>
@@ -25605,7 +25601,7 @@
         <v>Resource Lists-2</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" s="18">
         <f>COUNTIF($B$1:$B55,[Table Name])</f>
@@ -25641,7 +25637,7 @@
         <v>Resource Lists-3</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C57" s="18">
         <f>COUNTIF($B$1:$B56,[Table Name])</f>
@@ -25677,7 +25673,7 @@
         <v>Resource Lists-4</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C58" s="18">
         <f>COUNTIF($B$1:$B57,[Table Name])</f>
@@ -25713,7 +25709,7 @@
         <v>Resource Lists-5</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C59" s="18">
         <f>COUNTIF($B$1:$B58,[Table Name])</f>
@@ -25749,7 +25745,7 @@
         <v>Resource Lists-6</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C60" s="18">
         <f>COUNTIF($B$1:$B59,[Table Name])</f>
@@ -25785,7 +25781,7 @@
         <v>Resource List Scopes-0</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C61" s="18">
         <f>COUNTIF($B$1:$B60,[Table Name])</f>
@@ -25817,7 +25813,7 @@
         <v>Resource List Scopes-1</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C62" s="18">
         <f>COUNTIF($B$1:$B61,[Table Name])</f>
@@ -25849,7 +25845,7 @@
         <v>Resource List Scopes-2</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C63" s="18">
         <f>COUNTIF($B$1:$B62,[Table Name])</f>
@@ -25881,7 +25877,7 @@
         <v>Resource Forms-0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C64" s="18">
         <f>COUNTIF($B$1:$B63,[Table Name])</f>
@@ -25919,7 +25915,7 @@
         <v>Resource Forms-1</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" s="18">
         <f>COUNTIF($B$1:$B64,[Table Name])</f>
@@ -25957,7 +25953,7 @@
         <v>Resource Forms-2</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C66" s="18">
         <f>COUNTIF($B$1:$B65,[Table Name])</f>
@@ -25995,7 +25991,7 @@
         <v>Resource Forms-3</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C67" s="18">
         <f>COUNTIF($B$1:$B66,[Table Name])</f>
@@ -26033,7 +26029,7 @@
         <v>Resource Forms-4</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68" s="18">
         <f>COUNTIF($B$1:$B67,[Table Name])</f>
@@ -26071,7 +26067,7 @@
         <v>Resource Forms-5</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C69" s="18">
         <f>COUNTIF($B$1:$B68,[Table Name])</f>
@@ -26109,7 +26105,7 @@
         <v>Resource Forms-6</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C70" s="18">
         <f>COUNTIF($B$1:$B69,[Table Name])</f>
@@ -26147,7 +26143,7 @@
         <v>Resource Forms-7</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C71" s="18">
         <f>COUNTIF($B$1:$B70,[Table Name])</f>
@@ -26185,7 +26181,7 @@
         <v>Resource Form Fields-0</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C72" s="18">
         <f>COUNTIF($B$1:$B71,[Table Name])</f>
@@ -26223,7 +26219,7 @@
         <v>Resource Form Fields-1</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C73" s="18">
         <f>COUNTIF($B$1:$B72,[Table Name])</f>
@@ -26261,7 +26257,7 @@
         <v>Resource Form Fields-2</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C74" s="18">
         <f>COUNTIF($B$1:$B73,[Table Name])</f>
@@ -26299,7 +26295,7 @@
         <v>Resource Form Fields-3</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C75" s="18">
         <f>COUNTIF($B$1:$B74,[Table Name])</f>
@@ -26337,7 +26333,7 @@
         <v>Resource Form Fields-4</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C76" s="18">
         <f>COUNTIF($B$1:$B75,[Table Name])</f>
@@ -26375,7 +26371,7 @@
         <v>Resource Form Fields-5</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C77" s="18">
         <f>COUNTIF($B$1:$B76,[Table Name])</f>
@@ -26413,7 +26409,7 @@
         <v>Resource Form Fields-6</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C78" s="18">
         <f>COUNTIF($B$1:$B77,[Table Name])</f>
@@ -26451,7 +26447,7 @@
         <v>Resource Form Fields-7</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="18">
         <f>COUNTIF($B$1:$B78,[Table Name])</f>
@@ -26489,7 +26485,7 @@
         <v>Resource Form Fields-8</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C80" s="18">
         <f>COUNTIF($B$1:$B79,[Table Name])</f>
@@ -26527,7 +26523,7 @@
         <v>Resource Form Fields-9</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C81" s="18">
         <f>COUNTIF($B$1:$B80,[Table Name])</f>
@@ -26565,7 +26561,7 @@
         <v>Resource Form Fields-10</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C82" s="18">
         <f>COUNTIF($B$1:$B81,[Table Name])</f>
@@ -26603,7 +26599,7 @@
         <v>Resource Form Fields-11</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C83" s="18">
         <f>COUNTIF($B$1:$B82,[Table Name])</f>
@@ -26641,7 +26637,7 @@
         <v>Resource Form Fields-12</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C84" s="18">
         <f>COUNTIF($B$1:$B83,[Table Name])</f>
@@ -26679,7 +26675,7 @@
         <v>Resource Form Fields-13</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C85" s="18">
         <f>COUNTIF($B$1:$B84,[Table Name])</f>
@@ -26717,7 +26713,7 @@
         <v>Resource Form Fields-14</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C86" s="18">
         <f>COUNTIF($B$1:$B85,[Table Name])</f>
@@ -26755,7 +26751,7 @@
         <v>Resource Form Fields-15</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C87" s="18">
         <f>COUNTIF($B$1:$B86,[Table Name])</f>
@@ -26793,7 +26789,7 @@
         <v>Resource Form Fields-16</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C88" s="18">
         <f>COUNTIF($B$1:$B87,[Table Name])</f>
@@ -26831,7 +26827,7 @@
         <v>Resource Form Fields-17</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C89" s="18">
         <f>COUNTIF($B$1:$B88,[Table Name])</f>
@@ -26869,7 +26865,7 @@
         <v>Resource Form Fields-18</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C90" s="18">
         <f>COUNTIF($B$1:$B89,[Table Name])</f>
@@ -26907,7 +26903,7 @@
         <v>Resource Form Fields-19</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C91" s="18">
         <f>COUNTIF($B$1:$B90,[Table Name])</f>
@@ -26945,7 +26941,7 @@
         <v>Resource Form Fields-20</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C92" s="18">
         <f>COUNTIF($B$1:$B91,[Table Name])</f>
@@ -26983,7 +26979,7 @@
         <v>Resource Form Fields-21</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C93" s="18">
         <f>COUNTIF($B$1:$B92,[Table Name])</f>
@@ -27021,7 +27017,7 @@
         <v>Resource Form Fields-22</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C94" s="18">
         <f>COUNTIF($B$1:$B93,[Table Name])</f>
@@ -27059,7 +27055,7 @@
         <v>Resource Form Fields-23</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C95" s="18">
         <f>COUNTIF($B$1:$B94,[Table Name])</f>
@@ -27097,7 +27093,7 @@
         <v>Resource Form Fields-24</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C96" s="18">
         <f>COUNTIF($B$1:$B95,[Table Name])</f>
@@ -27135,7 +27131,7 @@
         <v>Resource Form Fields-25</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C97" s="18">
         <f>COUNTIF($B$1:$B96,[Table Name])</f>
@@ -27173,7 +27169,7 @@
         <v>Resource Form Fields-26</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C98" s="18">
         <f>COUNTIF($B$1:$B97,[Table Name])</f>
@@ -27211,7 +27207,7 @@
         <v>Resource Form Fields-27</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C99" s="18">
         <f>COUNTIF($B$1:$B98,[Table Name])</f>
@@ -27249,7 +27245,7 @@
         <v>Resource Form Fields-28</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C100" s="18">
         <f>COUNTIF($B$1:$B99,[Table Name])</f>
@@ -27287,7 +27283,7 @@
         <v>Resource Form Fields-29</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C101" s="18">
         <f>COUNTIF($B$1:$B100,[Table Name])</f>
@@ -27325,7 +27321,7 @@
         <v>Resource Form Fields-30</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C102" s="18">
         <f>COUNTIF($B$1:$B101,[Table Name])</f>
@@ -27363,7 +27359,7 @@
         <v>Resource Form Fields-31</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C103" s="18">
         <f>COUNTIF($B$1:$B102,[Table Name])</f>
@@ -27401,7 +27397,7 @@
         <v>Resource Form Field Data-0</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C104" s="18">
         <f>COUNTIF($B$1:$B103,[Table Name])</f>
@@ -27417,13 +27413,13 @@
         <v>56</v>
       </c>
       <c r="G104" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="H104" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="I104" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>580</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
@@ -27441,7 +27437,7 @@
         <v>Resource Form Field Data-1</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C105" s="18">
         <f>COUNTIF($B$1:$B104,[Table Name])</f>
@@ -27473,7 +27469,7 @@
         <v>Resource Form Field Data-2</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C106" s="18">
         <f>COUNTIF($B$1:$B105,[Table Name])</f>
@@ -27505,7 +27501,7 @@
         <v>Resource Form Field Data-3</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C107" s="18">
         <f>COUNTIF($B$1:$B106,[Table Name])</f>
@@ -27537,7 +27533,7 @@
         <v>Resource Form Field Data-4</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C108" s="18">
         <f>COUNTIF($B$1:$B107,[Table Name])</f>
@@ -27569,7 +27565,7 @@
         <v>Resource Form Field Data-5</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C109" s="18">
         <f>COUNTIF($B$1:$B108,[Table Name])</f>
@@ -27601,7 +27597,7 @@
         <v>Resource Form Field Data-6</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C110" s="18">
         <f>COUNTIF($B$1:$B109,[Table Name])</f>
@@ -27633,7 +27629,7 @@
         <v>Resource Form Field Data-7</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C111" s="18">
         <f>COUNTIF($B$1:$B110,[Table Name])</f>
@@ -27665,7 +27661,7 @@
         <v>Resource Form Field Data-8</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C112" s="18">
         <f>COUNTIF($B$1:$B111,[Table Name])</f>
@@ -27697,7 +27693,7 @@
         <v>Resource Form Field Data-9</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C113" s="18">
         <f>COUNTIF($B$1:$B112,[Table Name])</f>
@@ -27729,7 +27725,7 @@
         <v>Resource Form Field Data-10</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C114" s="18">
         <f>COUNTIF($B$1:$B113,[Table Name])</f>
@@ -27761,7 +27757,7 @@
         <v>Resource Form Field Data-11</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C115" s="18">
         <f>COUNTIF($B$1:$B114,[Table Name])</f>
@@ -27793,7 +27789,7 @@
         <v>Resource Form Field Data-12</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C116" s="18">
         <f>COUNTIF($B$1:$B115,[Table Name])</f>
@@ -27825,7 +27821,7 @@
         <v>Resource Form Field Data-13</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C117" s="18">
         <f>COUNTIF($B$1:$B116,[Table Name])</f>
@@ -27857,7 +27853,7 @@
         <v>Resource Form Field Data-14</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C118" s="18">
         <f>COUNTIF($B$1:$B117,[Table Name])</f>
@@ -27889,7 +27885,7 @@
         <v>Resource Form Field Data-15</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C119" s="18">
         <f>COUNTIF($B$1:$B118,[Table Name])</f>
@@ -27921,7 +27917,7 @@
         <v>Resource Form Field Data-16</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C120" s="18">
         <f>COUNTIF($B$1:$B119,[Table Name])</f>
@@ -27953,7 +27949,7 @@
         <v>Resource Form Field Data-17</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C121" s="18">
         <f>COUNTIF($B$1:$B120,[Table Name])</f>
@@ -27985,7 +27981,7 @@
         <v>Resource Form Field Data-18</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C122" s="18">
         <f>COUNTIF($B$1:$B121,[Table Name])</f>
@@ -28017,7 +28013,7 @@
         <v>Resource Form Field Data-19</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C123" s="18">
         <f>COUNTIF($B$1:$B122,[Table Name])</f>
@@ -28049,7 +28045,7 @@
         <v>Resource Form Field Data-20</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C124" s="18">
         <f>COUNTIF($B$1:$B123,[Table Name])</f>
@@ -28081,7 +28077,7 @@
         <v>Resource Form Field Data-21</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C125" s="18">
         <f>COUNTIF($B$1:$B124,[Table Name])</f>
@@ -28113,7 +28109,7 @@
         <v>Resource Form Field Data-22</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C126" s="18">
         <f>COUNTIF($B$1:$B125,[Table Name])</f>
@@ -28145,7 +28141,7 @@
         <v>Resource Form Field Data-23</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C127" s="18">
         <f>COUNTIF($B$1:$B126,[Table Name])</f>
@@ -28177,7 +28173,7 @@
         <v>Resource Form Field Data-24</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C128" s="18">
         <f>COUNTIF($B$1:$B127,[Table Name])</f>
@@ -28209,7 +28205,7 @@
         <v>Resource Form Field Data-25</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C129" s="18">
         <f>COUNTIF($B$1:$B128,[Table Name])</f>
@@ -28241,7 +28237,7 @@
         <v>Resource Form Field Data-26</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C130" s="18">
         <f>COUNTIF($B$1:$B129,[Table Name])</f>
@@ -28273,7 +28269,7 @@
         <v>Resource Form Field Data-27</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C131" s="18">
         <f>COUNTIF($B$1:$B130,[Table Name])</f>
@@ -28305,7 +28301,7 @@
         <v>Resource Form Field Data-28</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C132" s="18">
         <f>COUNTIF($B$1:$B131,[Table Name])</f>
@@ -28337,7 +28333,7 @@
         <v>Resource Form Field Data-29</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C133" s="18">
         <f>COUNTIF($B$1:$B132,[Table Name])</f>
@@ -28371,7 +28367,7 @@
         <v>Resource Form Field Data-30</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C134" s="18">
         <f>COUNTIF($B$1:$B133,[Table Name])</f>
@@ -28405,7 +28401,7 @@
         <v>Resource Form Field Data-31</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C135" s="18">
         <f>COUNTIF($B$1:$B134,[Table Name])</f>
@@ -28747,7 +28743,7 @@
         <v>Resource Action Method-0</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C143" s="18">
         <f>COUNTIF($B$1:$B142,[Table Name])</f>
@@ -28791,7 +28787,7 @@
         <v>Resource Action Method-1</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C144" s="18">
         <f>COUNTIF($B$1:$B143,[Table Name])</f>
@@ -28825,7 +28821,7 @@
         <v>Resource Action Method-2</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C145" s="18">
         <f>COUNTIF($B$1:$B144,[Table Name])</f>
@@ -28859,7 +28855,7 @@
         <v>Resource Action Method-3</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C146" s="18">
         <f>COUNTIF($B$1:$B145,[Table Name])</f>
@@ -28893,7 +28889,7 @@
         <v>Resource Action Method-4</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C147" s="18">
         <f>COUNTIF($B$1:$B146,[Table Name])</f>
@@ -28927,7 +28923,7 @@
         <v>Resource Action Method-5</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C148" s="18">
         <f>COUNTIF($B$1:$B147,[Table Name])</f>
@@ -28961,7 +28957,7 @@
         <v>Resource Action Method-6</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C149" s="18">
         <f>COUNTIF($B$1:$B148,[Table Name])</f>
@@ -28995,7 +28991,7 @@
         <v>Form Field Attrs-0</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C150" s="22">
         <f>COUNTIF($B$1:$B149,[Table Name])</f>
@@ -29036,19 +29032,19 @@
         <v>14</v>
       </c>
       <c r="D151" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="E151" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E151" s="40" t="s">
+      <c r="F151" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="F151" s="40" t="s">
+      <c r="G151" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H151" s="40" t="s">
         <v>451</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H151" s="40" t="s">
-        <v>452</v>
       </c>
       <c r="I151" s="40" t="s">
         <v>21</v>
@@ -29069,7 +29065,7 @@
         <v>Resource Relations-15</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C152" s="22">
         <f>COUNTIF($B$1:$B151,[Table Name])</f>
@@ -29079,13 +29075,13 @@
         <v>13</v>
       </c>
       <c r="E152" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F152" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="G152" s="40" t="s">
         <v>453</v>
-      </c>
-      <c r="G152" s="40" t="s">
-        <v>454</v>
       </c>
       <c r="H152" s="40" t="s">
         <v>311</v>
@@ -29116,19 +29112,19 @@
         <v>15</v>
       </c>
       <c r="D153" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="E153" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="E153" s="40" t="s">
+      <c r="F153" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="F153" s="40" t="s">
+      <c r="G153" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H153" s="40" t="s">
         <v>466</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H153" s="40" t="s">
-        <v>467</v>
       </c>
       <c r="I153" s="40" t="s">
         <v>21</v>
@@ -29149,7 +29145,7 @@
         <v>Resource Relations-16</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C154" s="22">
         <f>COUNTIF($B$1:$B153,[Table Name])</f>
@@ -29159,16 +29155,16 @@
         <v>13</v>
       </c>
       <c r="E154" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F154" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G154" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H154" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I154" s="40">
         <v>15</v>
@@ -29196,19 +29192,19 @@
         <v>16</v>
       </c>
       <c r="D155" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E155" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="F155" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="F155" s="40" t="s">
+      <c r="G155" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H155" s="40" t="s">
         <v>472</v>
-      </c>
-      <c r="G155" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H155" s="40" t="s">
-        <v>473</v>
       </c>
       <c r="I155" s="40" t="s">
         <v>21</v>
@@ -29229,7 +29225,7 @@
         <v>Resource Relations-17</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C156" s="22">
         <f>COUNTIF($B$1:$B155,[Table Name])</f>
@@ -29239,13 +29235,13 @@
         <v>13</v>
       </c>
       <c r="E156" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="F156" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="F156" s="40" t="s">
+      <c r="G156" s="40" t="s">
         <v>475</v>
-      </c>
-      <c r="G156" s="40" t="s">
-        <v>476</v>
       </c>
       <c r="H156" s="40" t="s">
         <v>311</v>
@@ -29269,7 +29265,7 @@
         <v>Form Field Validations-0</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C157" s="22">
         <f>COUNTIF($B$1:$B156,[Table Name])</f>
@@ -29313,7 +29309,7 @@
         <v>Form Field Validations-1</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C158" s="22">
         <f>COUNTIF($B$1:$B157,[Table Name])</f>
@@ -29323,10 +29319,10 @@
         <v>4</v>
       </c>
       <c r="E158" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F158" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G158" s="40"/>
       <c r="H158" s="40"/>
@@ -29347,7 +29343,7 @@
         <v>Form Field Validations-2</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C159" s="22">
         <f>COUNTIF($B$1:$B158,[Table Name])</f>
@@ -29357,10 +29353,10 @@
         <v>5</v>
       </c>
       <c r="E159" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F159" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G159" s="40"/>
       <c r="H159" s="40"/>
@@ -29381,7 +29377,7 @@
         <v>Form Field Validations-3</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C160" s="22">
         <f>COUNTIF($B$1:$B159,[Table Name])</f>
@@ -29394,7 +29390,7 @@
         <v>271</v>
       </c>
       <c r="F160" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G160" s="40"/>
       <c r="H160" s="40"/>
@@ -29415,7 +29411,7 @@
         <v>Form Field Validations-4</v>
       </c>
       <c r="B161" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C161" s="22">
         <f>COUNTIF($B$1:$B160,[Table Name])</f>
@@ -29425,10 +29421,10 @@
         <v>5</v>
       </c>
       <c r="E161" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G161" s="40" t="s">
         <v>178</v>
@@ -29453,7 +29449,7 @@
         <v>Form Field Validations-5</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C162" s="22">
         <f>COUNTIF($B$1:$B161,[Table Name])</f>
@@ -29463,10 +29459,10 @@
         <v>6</v>
       </c>
       <c r="E162" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F162" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G162" s="40"/>
       <c r="H162" s="40"/>
@@ -29487,7 +29483,7 @@
         <v>Form Field Validations-6</v>
       </c>
       <c r="B163" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C163" s="22">
         <f>COUNTIF($B$1:$B162,[Table Name])</f>
@@ -29497,10 +29493,10 @@
         <v>7</v>
       </c>
       <c r="E163" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F163" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G163" s="40"/>
       <c r="H163" s="40"/>
@@ -29521,7 +29517,7 @@
         <v>Form Field Validations-7</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C164" s="22">
         <f>COUNTIF($B$1:$B163,[Table Name])</f>
@@ -29534,7 +29530,7 @@
         <v>271</v>
       </c>
       <c r="F164" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G164" s="40"/>
       <c r="H164" s="40"/>
@@ -29555,7 +29551,7 @@
         <v>Form Field Validations-8</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C165" s="22">
         <f>COUNTIF($B$1:$B164,[Table Name])</f>
@@ -29565,10 +29561,10 @@
         <v>7</v>
       </c>
       <c r="E165" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F165" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G165" s="40" t="s">
         <v>178</v>
@@ -29593,7 +29589,7 @@
         <v>Resource Relations-18</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C166" s="22">
         <f>COUNTIF($B$1:$B165,[Table Name])</f>
@@ -29603,16 +29599,16 @@
         <v>12</v>
       </c>
       <c r="E166" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="F166" s="40" t="s">
         <v>484</v>
-      </c>
-      <c r="F166" s="40" t="s">
-        <v>485</v>
       </c>
       <c r="G166" s="40" t="s">
         <v>208</v>
       </c>
       <c r="H166" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I166" s="40">
         <v>4</v>
@@ -29640,19 +29636,19 @@
         <v>17</v>
       </c>
       <c r="D167" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="E167" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="E167" s="40" t="s">
+      <c r="F167" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="F167" s="40" t="s">
+      <c r="G167" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H167" s="40" t="s">
         <v>488</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H167" s="40" t="s">
-        <v>489</v>
       </c>
       <c r="I167" s="40" t="s">
         <v>21</v>
@@ -29673,7 +29669,7 @@
         <v>Resource Relations-19</v>
       </c>
       <c r="B168" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C168" s="22">
         <f>COUNTIF($B$1:$B167,[Table Name])</f>
@@ -29683,13 +29679,13 @@
         <v>12</v>
       </c>
       <c r="E168" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F168" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="G168" s="40" t="s">
         <v>490</v>
-      </c>
-      <c r="G168" s="40" t="s">
-        <v>491</v>
       </c>
       <c r="H168" s="40" t="s">
         <v>311</v>
@@ -29713,7 +29709,7 @@
         <v>Form Defaults-0</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C169" s="22">
         <f>COUNTIF($B$1:$B168,[Table Name])</f>
@@ -29735,13 +29731,13 @@
         <v>127</v>
       </c>
       <c r="I169" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="J169" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="J169" s="40" t="s">
+      <c r="K169" s="40" t="s">
         <v>579</v>
-      </c>
-      <c r="K169" s="40" t="s">
-        <v>580</v>
       </c>
       <c r="L169" s="40" t="s">
         <v>36</v>
@@ -29759,7 +29755,7 @@
         <v>Form Defaults-1</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C170" s="22">
         <f>COUNTIF($B$1:$B169,[Table Name])</f>
@@ -29795,7 +29791,7 @@
         <v>Form Defaults-2</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C171" s="22">
         <f>COUNTIF($B$1:$B170,[Table Name])</f>
@@ -29838,19 +29834,19 @@
         <v>18</v>
       </c>
       <c r="D172" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="E172" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="E172" s="40" t="s">
+      <c r="F172" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="F172" s="40" t="s">
+      <c r="G172" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H172" s="40" t="s">
         <v>494</v>
-      </c>
-      <c r="G172" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H172" s="40" t="s">
-        <v>495</v>
       </c>
       <c r="I172" s="40" t="s">
         <v>21</v>
@@ -29871,7 +29867,7 @@
         <v>Resource Relations-20</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C173" s="22">
         <f>COUNTIF($B$1:$B172,[Table Name])</f>
@@ -29881,16 +29877,16 @@
         <v>13</v>
       </c>
       <c r="E173" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F173" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I173" s="40">
         <v>18</v>
@@ -29911,7 +29907,7 @@
         <v>Resource Relations-21</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C174" s="22">
         <f>COUNTIF($B$1:$B173,[Table Name])</f>
@@ -29921,13 +29917,13 @@
         <v>4</v>
       </c>
       <c r="E174" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F174" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="G174" s="40" t="s">
         <v>497</v>
-      </c>
-      <c r="G174" s="40" t="s">
-        <v>498</v>
       </c>
       <c r="H174" s="40" t="s">
         <v>311</v>
@@ -29951,7 +29947,7 @@
         <v>Resource Relations-22</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C175" s="42">
         <f>COUNTIF($B$1:$B174,[Table Name])</f>
@@ -29961,16 +29957,16 @@
         <v>18</v>
       </c>
       <c r="E175" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="F175" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="F175" s="43" t="s">
-        <v>501</v>
       </c>
       <c r="G175" s="43" t="s">
         <v>304</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I175" s="43">
         <v>4</v>
@@ -29991,7 +29987,7 @@
         <v>Resource Relations-23</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C176" s="42">
         <f>COUNTIF($B$1:$B175,[Table Name])</f>
@@ -30001,16 +29997,16 @@
         <v>17</v>
       </c>
       <c r="E176" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="F176" s="43" t="s">
         <v>512</v>
-      </c>
-      <c r="F176" s="43" t="s">
-        <v>513</v>
       </c>
       <c r="G176" s="43" t="s">
         <v>304</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I176" s="43">
         <v>4</v>
@@ -30031,7 +30027,7 @@
         <v>Resource Form Fields-32</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C177" s="22">
         <f>COUNTIF($B$1:$B176,[Table Name])</f>
@@ -30041,13 +30037,13 @@
         <v>2</v>
       </c>
       <c r="E177" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="F177" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="G177" s="40" t="s">
         <v>514</v>
-      </c>
-      <c r="F177" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="G177" s="40" t="s">
-        <v>515</v>
       </c>
       <c r="H177" s="40"/>
       <c r="I177" s="40"/>
@@ -30067,7 +30063,7 @@
         <v>Resource Form Fields-33</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C178" s="22">
         <f>COUNTIF($B$1:$B177,[Table Name])</f>
@@ -30077,13 +30073,13 @@
         <v>3</v>
       </c>
       <c r="E178" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="F178" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="G178" s="40" t="s">
         <v>514</v>
-      </c>
-      <c r="F178" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="G178" s="40" t="s">
-        <v>515</v>
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="40"/>
@@ -30103,7 +30099,7 @@
         <v>Resource Form Field Data-32</v>
       </c>
       <c r="B179" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C179" s="22">
         <f>COUNTIF($B$1:$B178,[Table Name])</f>
@@ -30113,7 +30109,7 @@
         <v>32</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="40"/>
@@ -30135,7 +30131,7 @@
         <v>Resource Form Field Data-33</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C180" s="22">
         <f>COUNTIF($B$1:$B179,[Table Name])</f>
@@ -30145,7 +30141,7 @@
         <v>33</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -30167,7 +30163,7 @@
         <v>Form Field Validations-9</v>
       </c>
       <c r="B181" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C181" s="22">
         <f>COUNTIF($B$1:$B180,[Table Name])</f>
@@ -30177,10 +30173,10 @@
         <v>32</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G181" s="40"/>
       <c r="H181" s="40"/>
@@ -30201,7 +30197,7 @@
         <v>Form Field Validations-10</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C182" s="22">
         <f>COUNTIF($B$1:$B181,[Table Name])</f>
@@ -30211,10 +30207,10 @@
         <v>32</v>
       </c>
       <c r="E182" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="F182" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="F182" s="40" t="s">
-        <v>518</v>
       </c>
       <c r="G182" s="40">
         <v>3</v>
@@ -30237,7 +30233,7 @@
         <v>Form Field Validations-11</v>
       </c>
       <c r="B183" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C183" s="22">
         <f>COUNTIF($B$1:$B182,[Table Name])</f>
@@ -30247,10 +30243,10 @@
         <v>33</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F183" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G183" s="40"/>
       <c r="H183" s="40"/>
@@ -30271,7 +30267,7 @@
         <v>Form Field Validations-12</v>
       </c>
       <c r="B184" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C184" s="22">
         <f>COUNTIF($B$1:$B183,[Table Name])</f>
@@ -30281,10 +30277,10 @@
         <v>33</v>
       </c>
       <c r="E184" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="F184" s="40" t="s">
         <v>517</v>
-      </c>
-      <c r="F184" s="40" t="s">
-        <v>518</v>
       </c>
       <c r="G184" s="40">
         <v>3</v>
@@ -30314,19 +30310,19 @@
         <v>19</v>
       </c>
       <c r="D185" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="E185" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="E185" s="40" t="s">
+      <c r="F185" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H185" s="40" t="s">
         <v>520</v>
-      </c>
-      <c r="F185" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H185" s="40" t="s">
-        <v>521</v>
       </c>
       <c r="I185" s="40" t="s">
         <v>21</v>
@@ -30347,7 +30343,7 @@
         <v>Resource Relations-24</v>
       </c>
       <c r="B186" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C186" s="22">
         <f>COUNTIF($B$1:$B185,[Table Name])</f>
@@ -30357,16 +30353,16 @@
         <v>19</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F186" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G186" s="40" t="s">
         <v>208</v>
       </c>
       <c r="H186" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I186" s="40">
         <v>4</v>
@@ -30394,19 +30390,19 @@
         <v>20</v>
       </c>
       <c r="D187" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="E187" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="E187" s="43" t="s">
+      <c r="F187" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="F187" s="43" t="s">
+      <c r="G187" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H187" s="43" t="s">
         <v>525</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H187" s="43" t="s">
-        <v>526</v>
       </c>
       <c r="I187" s="43" t="s">
         <v>21</v>
@@ -30434,19 +30430,19 @@
         <v>21</v>
       </c>
       <c r="D188" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="E188" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="E188" s="43" t="s">
+      <c r="F188" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H188" s="43" t="s">
         <v>528</v>
-      </c>
-      <c r="F188" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H188" s="43" t="s">
-        <v>529</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>21</v>
@@ -30474,19 +30470,19 @@
         <v>22</v>
       </c>
       <c r="D189" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="E189" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="E189" s="40" t="s">
+      <c r="F189" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="F189" s="40" t="s">
+      <c r="G189" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H189" s="40" t="s">
         <v>532</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H189" s="40" t="s">
-        <v>533</v>
       </c>
       <c r="I189" s="40" t="s">
         <v>21</v>
@@ -30507,7 +30503,7 @@
         <v>Resource Relations-25</v>
       </c>
       <c r="B190" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C190" s="42">
         <f>COUNTIF($B$1:$B189,[Table Name])</f>
@@ -30517,13 +30513,13 @@
         <v>19</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F190" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G190" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H190" s="43" t="s">
         <v>311</v>
@@ -30547,7 +30543,7 @@
         <v>Resource Relations-26</v>
       </c>
       <c r="B191" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C191" s="42">
         <f>COUNTIF($B$1:$B190,[Table Name])</f>
@@ -30557,13 +30553,13 @@
         <v>4</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F191" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="G191" s="43" t="s">
         <v>534</v>
-      </c>
-      <c r="G191" s="43" t="s">
-        <v>535</v>
       </c>
       <c r="H191" s="43" t="s">
         <v>311</v>
@@ -30587,7 +30583,7 @@
         <v>Resource Relations-27</v>
       </c>
       <c r="B192" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C192" s="22">
         <f>COUNTIF($B$1:$B191,[Table Name])</f>
@@ -30597,13 +30593,13 @@
         <v>19</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F192" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G192" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H192" s="40" t="s">
         <v>216</v>
@@ -30634,19 +30630,19 @@
         <v>23</v>
       </c>
       <c r="D193" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F193" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H193" s="43" t="s">
         <v>547</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F193" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H193" s="43" t="s">
-        <v>548</v>
       </c>
       <c r="I193" s="43" t="s">
         <v>21</v>
@@ -30674,19 +30670,19 @@
         <v>24</v>
       </c>
       <c r="D194" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="E194" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="E194" s="40" t="s">
+      <c r="F194" s="40" t="s">
         <v>550</v>
       </c>
-      <c r="F194" s="40" t="s">
+      <c r="G194" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H194" s="40" t="s">
         <v>551</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H194" s="40" t="s">
-        <v>552</v>
       </c>
       <c r="I194" s="40" t="s">
         <v>21</v>
@@ -30707,7 +30703,7 @@
         <v>Resource Relations-28</v>
       </c>
       <c r="B195" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C195" s="22">
         <f>COUNTIF($B$1:$B194,[Table Name])</f>
@@ -30717,13 +30713,13 @@
         <v>23</v>
       </c>
       <c r="E195" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="F195" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="F195" s="40" t="s">
-        <v>554</v>
-      </c>
       <c r="G195" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H195" s="40" t="s">
         <v>311</v>
@@ -30747,7 +30743,7 @@
         <v>Resource Relations-29</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C196" s="22">
         <f>COUNTIF($B$1:$B195,[Table Name])</f>
@@ -30757,16 +30753,16 @@
         <v>23</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F196" s="40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G196" s="40" t="s">
         <v>208</v>
       </c>
       <c r="H196" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I196" s="40">
         <v>4</v>
@@ -30797,20 +30793,20 @@
         <v>1</v>
       </c>
       <c r="E197" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="F197" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="F197" s="40" t="s">
+      <c r="G197" s="40" t="s">
         <v>544</v>
-      </c>
-      <c r="G197" s="40" t="s">
-        <v>545</v>
       </c>
       <c r="H197" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I197" s="40"/>
       <c r="J197" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K197" s="40" t="s">
         <v>341</v>
@@ -30829,7 +30825,7 @@
         <v>Resource Action Method-7</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C198" s="22">
         <f>COUNTIF($B$1:$B197,[Table Name])</f>
@@ -30839,7 +30835,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="40">
@@ -30863,7 +30859,7 @@
         <v>Resource Action List-0</v>
       </c>
       <c r="B199" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C199" s="22">
         <f>COUNTIF($B$1:$B198,[Table Name])</f>
@@ -30895,7 +30891,7 @@
         <v>Resource Action List-1</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C200" s="22">
         <f>COUNTIF($B$1:$B199,[Table Name])</f>
@@ -30927,7 +30923,7 @@
         <v>Resource Data-0</v>
       </c>
       <c r="B201" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C201" s="22">
         <f>COUNTIF($B$1:$B200,[Table Name])</f>
@@ -30965,7 +30961,7 @@
         <v>Resource Data-1</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C202" s="22">
         <f>COUNTIF($B$1:$B201,[Table Name])</f>
@@ -30975,10 +30971,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F202" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G202" s="40" t="s">
         <v>26</v>
@@ -31001,7 +30997,7 @@
         <v>Resource Data-2</v>
       </c>
       <c r="B203" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C203" s="22">
         <f>COUNTIF($B$1:$B202,[Table Name])</f>
@@ -31011,10 +31007,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="F203" s="40" t="s">
         <v>559</v>
-      </c>
-      <c r="F203" s="40" t="s">
-        <v>560</v>
       </c>
       <c r="G203" s="40" t="s">
         <v>26</v>
@@ -31047,20 +31043,20 @@
         <v>1</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F204" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G204" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H204" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I204" s="40"/>
       <c r="J204" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K204" s="40" t="s">
         <v>341</v>
@@ -31079,7 +31075,7 @@
         <v>Resource Action Method-8</v>
       </c>
       <c r="B205" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C205" s="22">
         <f>COUNTIF($B$1:$B204,[Table Name])</f>
@@ -31089,7 +31085,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F205" s="40"/>
       <c r="G205" s="40">
@@ -31113,7 +31109,7 @@
         <v>Resource Action List-2</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C206" s="22">
         <f>COUNTIF($B$1:$B205,[Table Name])</f>
@@ -31145,7 +31141,7 @@
         <v>Resource List Layout-0</v>
       </c>
       <c r="B207" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C207" s="22">
         <f>COUNTIF($B$1:$B206,[Table Name])</f>
@@ -31158,16 +31154,16 @@
         <v>269</v>
       </c>
       <c r="F207" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G207" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H207" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="I207" s="40" t="s">
         <v>578</v>
-      </c>
-      <c r="I207" s="40" t="s">
-        <v>579</v>
       </c>
       <c r="J207" s="40"/>
       <c r="K207" s="40"/>
@@ -31185,7 +31181,7 @@
         <v>Resource List Layout-1</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C208" s="22">
         <f>COUNTIF($B$1:$B207,[Table Name])</f>
@@ -31219,7 +31215,7 @@
         <v>Resource List Layout-2</v>
       </c>
       <c r="B209" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C209" s="22">
         <f>COUNTIF($B$1:$B208,[Table Name])</f>
@@ -31253,7 +31249,7 @@
         <v>Resource List Layout-3</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C210" s="22">
         <f>COUNTIF($B$1:$B209,[Table Name])</f>
@@ -31287,7 +31283,7 @@
         <v>Resource List Layout-4</v>
       </c>
       <c r="B211" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C211" s="22">
         <f>COUNTIF($B$1:$B210,[Table Name])</f>
@@ -31328,19 +31324,19 @@
         <v>25</v>
       </c>
       <c r="D212" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="E212" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="F212" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="F212" s="16" t="s">
+      <c r="G212" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="H212" s="16" t="s">
         <v>568</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="H212" s="16" t="s">
-        <v>569</v>
       </c>
       <c r="I212" s="16" t="s">
         <v>21</v>
@@ -31361,7 +31357,7 @@
         <v>Resource Relations-30</v>
       </c>
       <c r="B213" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C213" s="19">
         <f>COUNTIF($B$1:$B212,[Table Name])</f>
@@ -31371,13 +31367,13 @@
         <v>19</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>311</v>
@@ -31408,19 +31404,19 @@
         <v>26</v>
       </c>
       <c r="D214" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="E214" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="E214" s="40" t="s">
+      <c r="F214" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="G214" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H214" s="40" t="s">
         <v>573</v>
-      </c>
-      <c r="F214" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="G214" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="H214" s="40" t="s">
-        <v>574</v>
       </c>
       <c r="I214" s="40" t="s">
         <v>21</v>
@@ -31441,7 +31437,7 @@
         <v>Resource Relations-31</v>
       </c>
       <c r="B215" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C215" s="22">
         <f>COUNTIF($B$1:$B214,[Table Name])</f>
@@ -31451,13 +31447,13 @@
         <v>26</v>
       </c>
       <c r="E215" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="F215" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="G215" s="40" t="s">
         <v>588</v>
-      </c>
-      <c r="F215" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="G215" s="40" t="s">
-        <v>589</v>
       </c>
       <c r="H215" s="40" t="s">
         <v>311</v>
@@ -31481,7 +31477,7 @@
         <v>Resource Relations-32</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C216" s="22">
         <f>COUNTIF($B$1:$B215,[Table Name])</f>
@@ -31491,16 +31487,16 @@
         <v>26</v>
       </c>
       <c r="E216" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="F216" s="40" t="s">
         <v>590</v>
-      </c>
-      <c r="F216" s="40" t="s">
-        <v>591</v>
       </c>
       <c r="G216" s="40" t="s">
         <v>304</v>
       </c>
       <c r="H216" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I216" s="40">
         <v>4</v>
@@ -31528,19 +31524,19 @@
         <v>27</v>
       </c>
       <c r="D217" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E217" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="E217" s="40" t="s">
+      <c r="F217" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="F217" s="40" t="s">
+      <c r="G217" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H217" s="40" t="s">
         <v>599</v>
-      </c>
-      <c r="G217" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="H217" s="40" t="s">
-        <v>600</v>
       </c>
       <c r="I217" s="40" t="s">
         <v>21</v>
@@ -31561,7 +31557,7 @@
         <v>Resource Relations-33</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C218" s="22">
         <f>COUNTIF($B$1:$B217,[Table Name])</f>
@@ -31571,13 +31567,13 @@
         <v>26</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F218" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G218" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H218" s="40" t="s">
         <v>311</v>
@@ -31601,7 +31597,7 @@
         <v>Form Layout-0</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C219" s="22">
         <f>COUNTIF($B$1:$B218,[Table Name])</f>
@@ -31614,7 +31610,7 @@
         <v>122</v>
       </c>
       <c r="F219" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G219" s="40"/>
       <c r="H219" s="40"/>
@@ -31635,7 +31631,7 @@
         <v>Form Layout-1</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C220" s="22">
         <f>COUNTIF($B$1:$B219,[Table Name])</f>
@@ -31669,7 +31665,7 @@
         <v>Form Layout-2</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C221" s="22">
         <f>COUNTIF($B$1:$B220,[Table Name])</f>
@@ -31703,7 +31699,7 @@
         <v>Form Layout-3</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C222" s="22">
         <f>COUNTIF($B$1:$B221,[Table Name])</f>
@@ -31737,7 +31733,7 @@
         <v>Form Layout-4</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C223" s="22">
         <f>COUNTIF($B$1:$B222,[Table Name])</f>
@@ -31771,7 +31767,7 @@
         <v>Form Layout-5</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C224" s="22">
         <f>COUNTIF($B$1:$B223,[Table Name])</f>
@@ -31805,7 +31801,7 @@
         <v>Form Layout-6</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C225" s="22">
         <f>COUNTIF($B$1:$B224,[Table Name])</f>
@@ -31846,19 +31842,19 @@
         <v>28</v>
       </c>
       <c r="D226" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="E226" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="E226" s="40" t="s">
+      <c r="F226" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="F226" s="40" t="s">
+      <c r="G226" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H226" s="40" t="s">
         <v>611</v>
-      </c>
-      <c r="G226" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="H226" s="40" t="s">
-        <v>612</v>
       </c>
       <c r="I226" s="40" t="s">
         <v>21</v>
@@ -31879,7 +31875,7 @@
         <v>Resource Relations-34</v>
       </c>
       <c r="B227" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C227" s="22">
         <f>COUNTIF($B$1:$B226,[Table Name])</f>
@@ -31889,13 +31885,13 @@
         <v>23</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F227" s="40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G227" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H227" s="40" t="s">
         <v>311</v>
@@ -31926,19 +31922,19 @@
         <v>29</v>
       </c>
       <c r="D228" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E228" s="40" t="s">
         <v>616</v>
       </c>
-      <c r="E228" s="40" t="s">
+      <c r="F228" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="F228" s="40" t="s">
+      <c r="G228" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H228" s="40" t="s">
         <v>618</v>
-      </c>
-      <c r="G228" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="H228" s="40" t="s">
-        <v>619</v>
       </c>
       <c r="I228" s="40" t="s">
         <v>21</v>
@@ -31959,7 +31955,7 @@
         <v>Resource Relations-35</v>
       </c>
       <c r="B229" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C229" s="22">
         <f>COUNTIF($B$1:$B228,[Table Name])</f>
@@ -31969,13 +31965,13 @@
         <v>26</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F229" s="40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G229" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H229" s="40" t="s">
         <v>311</v>
@@ -31999,7 +31995,7 @@
         <v>Resource Relations-36</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C230" s="42">
         <f>COUNTIF($B$1:$B229,[Table Name])</f>
@@ -32009,16 +32005,16 @@
         <v>28</v>
       </c>
       <c r="E230" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F230" s="43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G230" s="43" t="s">
         <v>304</v>
       </c>
       <c r="H230" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I230" s="43">
         <v>26</v>
@@ -32039,7 +32035,7 @@
         <v>Resource Relations-37</v>
       </c>
       <c r="B231" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C231" s="22">
         <f>COUNTIF($B$1:$B230,[Table Name])</f>
@@ -32049,16 +32045,16 @@
         <v>29</v>
       </c>
       <c r="E231" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="F231" s="40" t="s">
         <v>622</v>
-      </c>
-      <c r="F231" s="40" t="s">
-        <v>623</v>
       </c>
       <c r="G231" s="40" t="s">
         <v>304</v>
       </c>
       <c r="H231" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I231" s="40">
         <v>26</v>
@@ -32079,7 +32075,7 @@
         <v>Data View Section-0</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C232" s="22">
         <f>COUNTIF($B$1:$B231,[Table Name])</f>
@@ -32098,7 +32094,7 @@
         <v>56</v>
       </c>
       <c r="H232" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I232" s="40"/>
       <c r="J232" s="40"/>
@@ -32117,7 +32113,7 @@
         <v>Data View Section-1</v>
       </c>
       <c r="B233" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C233" s="22">
         <f>COUNTIF($B$1:$B232,[Table Name])</f>
@@ -32149,7 +32145,7 @@
         <v>Data View Section-2</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C234" s="22">
         <f>COUNTIF($B$1:$B233,[Table Name])</f>
@@ -32181,14 +32177,14 @@
         <v>Data View Section Items-0</v>
       </c>
       <c r="B235" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C235" s="22">
         <f>COUNTIF($B$1:$B234,[Table Name])</f>
         <v>0</v>
       </c>
       <c r="D235" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E235" s="40" t="s">
         <v>269</v>
@@ -32217,7 +32213,7 @@
         <v>Data View Section Items-1</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C236" s="22">
         <f>COUNTIF($B$1:$B235,[Table Name])</f>
@@ -32251,7 +32247,7 @@
         <v>Data View Section Items-2</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C237" s="22">
         <f>COUNTIF($B$1:$B236,[Table Name])</f>
@@ -32285,7 +32281,7 @@
         <v>Data View Section Items-3</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C238" s="22">
         <f>COUNTIF($B$1:$B237,[Table Name])</f>
@@ -32319,7 +32315,7 @@
         <v>Data View Section Items-4</v>
       </c>
       <c r="B239" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C239" s="42">
         <f>COUNTIF($B$1:$B238,[Table Name])</f>
@@ -32353,7 +32349,7 @@
         <v>Resource Forms-8</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C240" s="22">
         <f>COUNTIF($B$1:$B239,[Table Name])</f>
@@ -32363,16 +32359,16 @@
         <v>1</v>
       </c>
       <c r="E240" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="F240" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="G240" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="F240" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="G240" s="40" t="s">
+      <c r="H240" s="40" t="s">
         <v>625</v>
-      </c>
-      <c r="H240" s="40" t="s">
-        <v>626</v>
       </c>
       <c r="I240" s="40"/>
       <c r="J240" s="40"/>
@@ -32391,7 +32387,7 @@
         <v>Resource Forms-9</v>
       </c>
       <c r="B241" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C241" s="22">
         <f>COUNTIF($B$1:$B240,[Table Name])</f>
@@ -32401,16 +32397,16 @@
         <v>1</v>
       </c>
       <c r="E241" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="F241" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="F241" s="40" t="s">
+      <c r="G241" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="G241" s="40" t="s">
+      <c r="H241" s="40" t="s">
         <v>630</v>
-      </c>
-      <c r="H241" s="40" t="s">
-        <v>631</v>
       </c>
       <c r="I241" s="40"/>
       <c r="J241" s="40"/>
@@ -32429,7 +32425,7 @@
         <v>Resource Form Fields-34</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C242" s="22">
         <f>COUNTIF($B$1:$B241,[Table Name])</f>
@@ -32465,7 +32461,7 @@
         <v>Resource Form Fields-35</v>
       </c>
       <c r="B243" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C243" s="22">
         <f>COUNTIF($B$1:$B242,[Table Name])</f>
@@ -32501,7 +32497,7 @@
         <v>Resource Form Fields-36</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C244" s="22">
         <f>COUNTIF($B$1:$B243,[Table Name])</f>
@@ -32537,7 +32533,7 @@
         <v>Resource Form Fields-37</v>
       </c>
       <c r="B245" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C245" s="22">
         <f>COUNTIF($B$1:$B244,[Table Name])</f>
@@ -32573,7 +32569,7 @@
         <v>Form Field Attrs-1</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C246" s="22">
         <f>COUNTIF($B$1:$B245,[Table Name])</f>
@@ -32583,7 +32579,7 @@
         <v>34</v>
       </c>
       <c r="E246" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F246" s="40">
         <v>3</v>
@@ -32607,7 +32603,7 @@
         <v>Form Field Attrs-2</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C247" s="22">
         <f>COUNTIF($B$1:$B246,[Table Name])</f>
@@ -32617,7 +32613,7 @@
         <v>35</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F247" s="40">
         <v>3</v>
@@ -32641,7 +32637,7 @@
         <v>Form Field Attrs-3</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C248" s="22">
         <f>COUNTIF($B$1:$B247,[Table Name])</f>
@@ -32651,7 +32647,7 @@
         <v>36</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F248" s="40">
         <v>3</v>
@@ -32675,7 +32671,7 @@
         <v>Form Field Attrs-4</v>
       </c>
       <c r="B249" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C249" s="22">
         <f>COUNTIF($B$1:$B248,[Table Name])</f>
@@ -32685,7 +32681,7 @@
         <v>37</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F249" s="40">
         <v>3</v>
@@ -32709,7 +32705,7 @@
         <v>Resource Form Field Data-34</v>
       </c>
       <c r="B250" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C250" s="22">
         <f>COUNTIF($B$1:$B249,[Table Name])</f>
@@ -32741,7 +32737,7 @@
         <v>Resource Form Field Data-35</v>
       </c>
       <c r="B251" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C251" s="22">
         <f>COUNTIF($B$1:$B250,[Table Name])</f>
@@ -32773,7 +32769,7 @@
         <v>Resource Form Field Data-36</v>
       </c>
       <c r="B252" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C252" s="22">
         <f>COUNTIF($B$1:$B251,[Table Name])</f>
@@ -32805,7 +32801,7 @@
         <v>Resource Form Field Data-37</v>
       </c>
       <c r="B253" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C253" s="22">
         <f>COUNTIF($B$1:$B252,[Table Name])</f>
@@ -32837,7 +32833,7 @@
         <v>Form Field Validations-13</v>
       </c>
       <c r="B254" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C254" s="22">
         <f>COUNTIF($B$1:$B253,[Table Name])</f>
@@ -32847,10 +32843,10 @@
         <v>34</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G254" s="40"/>
       <c r="H254" s="40"/>
@@ -32871,7 +32867,7 @@
         <v>Form Field Validations-14</v>
       </c>
       <c r="B255" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C255" s="22">
         <f>COUNTIF($B$1:$B254,[Table Name])</f>
@@ -32881,10 +32877,10 @@
         <v>35</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F255" s="40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G255" s="40"/>
       <c r="H255" s="40"/>
@@ -32905,7 +32901,7 @@
         <v>Form Field Validations-15</v>
       </c>
       <c r="B256" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C256" s="22">
         <f>COUNTIF($B$1:$B255,[Table Name])</f>
@@ -32918,7 +32914,7 @@
         <v>271</v>
       </c>
       <c r="F256" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G256" s="40"/>
       <c r="H256" s="40"/>
@@ -32939,7 +32935,7 @@
         <v>Form Field Validations-16</v>
       </c>
       <c r="B257" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C257" s="22">
         <f>COUNTIF($B$1:$B256,[Table Name])</f>
@@ -32949,10 +32945,10 @@
         <v>35</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F257" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G257" s="40" t="s">
         <v>178</v>
@@ -32961,7 +32957,7 @@
         <v>271</v>
       </c>
       <c r="I257" s="44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J257" s="40"/>
       <c r="K257" s="40"/>
@@ -32979,7 +32975,7 @@
         <v>Form Field Validations-17</v>
       </c>
       <c r="B258" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C258" s="22">
         <f>COUNTIF($B$1:$B257,[Table Name])</f>
@@ -32989,10 +32985,10 @@
         <v>36</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F258" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G258" s="40"/>
       <c r="H258" s="40"/>
@@ -33013,7 +33009,7 @@
         <v>Form Field Validations-18</v>
       </c>
       <c r="B259" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C259" s="22">
         <f>COUNTIF($B$1:$B258,[Table Name])</f>
@@ -33023,10 +33019,10 @@
         <v>37</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F259" s="40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G259" s="40"/>
       <c r="H259" s="40"/>
@@ -33047,7 +33043,7 @@
         <v>Form Field Validations-19</v>
       </c>
       <c r="B260" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C260" s="22">
         <f>COUNTIF($B$1:$B259,[Table Name])</f>
@@ -33060,7 +33056,7 @@
         <v>271</v>
       </c>
       <c r="F260" s="40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G260" s="40"/>
       <c r="H260" s="40"/>
@@ -33081,7 +33077,7 @@
         <v>Form Field Validations-20</v>
       </c>
       <c r="B261" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C261" s="22">
         <f>COUNTIF($B$1:$B260,[Table Name])</f>
@@ -33091,10 +33087,10 @@
         <v>37</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F261" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G261" s="40" t="s">
         <v>178</v>
@@ -33103,7 +33099,7 @@
         <v>271</v>
       </c>
       <c r="I261" s="44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J261" s="40"/>
       <c r="K261" s="40"/>
@@ -33131,20 +33127,20 @@
         <v>1</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F262" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="G262" s="40" t="s">
         <v>636</v>
-      </c>
-      <c r="G262" s="40" t="s">
-        <v>637</v>
       </c>
       <c r="H262" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I262" s="40"/>
       <c r="J262" s="40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K262" s="40" t="s">
         <v>341</v>
@@ -33173,20 +33169,20 @@
         <v>1</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F263" s="40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G263" s="40" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H263" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I263" s="40"/>
       <c r="J263" s="40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K263" s="40" t="s">
         <v>341</v>
@@ -33205,7 +33201,7 @@
         <v>Resource Action List-3</v>
       </c>
       <c r="B264" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C264" s="22">
         <f>COUNTIF($B$1:$B263,[Table Name])</f>
@@ -33237,7 +33233,7 @@
         <v>Resource Action List-4</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C265" s="22">
         <f>COUNTIF($B$1:$B264,[Table Name])</f>
@@ -33269,7 +33265,7 @@
         <v>Resource Action Data-0</v>
       </c>
       <c r="B266" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C266" s="22">
         <f>COUNTIF($B$1:$B265,[Table Name])</f>
@@ -33301,7 +33297,7 @@
         <v>Resource Action Data-1</v>
       </c>
       <c r="B267" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C267" s="22">
         <f>COUNTIF($B$1:$B266,[Table Name])</f>
@@ -33333,7 +33329,7 @@
         <v>Resource Action Data-2</v>
       </c>
       <c r="B268" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C268" s="22">
         <f>COUNTIF($B$1:$B267,[Table Name])</f>
@@ -33365,7 +33361,7 @@
         <v>Resource Action Method-9</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C269" s="22">
         <f>COUNTIF($B$1:$B268,[Table Name])</f>
@@ -33375,7 +33371,7 @@
         <v>9</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F269" s="40"/>
       <c r="G269" s="40">
@@ -33401,7 +33397,7 @@
         <v>Resource Action Method-10</v>
       </c>
       <c r="B270" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C270" s="22">
         <f>COUNTIF($B$1:$B269,[Table Name])</f>
@@ -33411,7 +33407,7 @@
         <v>10</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F270" s="40"/>
       <c r="G270" s="40">
@@ -33437,7 +33433,7 @@
         <v>Resource Relations-38</v>
       </c>
       <c r="B271" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C271" s="22">
         <f>COUNTIF($B$1:$B270,[Table Name])</f>
@@ -33447,16 +33443,16 @@
         <v>26</v>
       </c>
       <c r="E271" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="F271" s="40" t="s">
         <v>643</v>
       </c>
-      <c r="F271" s="40" t="s">
+      <c r="G271" s="40" t="s">
         <v>644</v>
       </c>
-      <c r="G271" s="40" t="s">
-        <v>645</v>
-      </c>
       <c r="H271" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I271" s="40">
         <v>4</v>
@@ -33504,16 +33500,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -33618,7 +33614,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -33638,7 +33634,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -33658,7 +33654,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -33678,7 +33674,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -33698,7 +33694,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -33718,7 +33714,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>102</v>
@@ -33738,7 +33734,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>104</v>
@@ -33778,7 +33774,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>101</v>
@@ -33798,7 +33794,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>103</v>
@@ -33818,7 +33814,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>105</v>
@@ -33838,7 +33834,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>150</v>
@@ -33858,7 +33854,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
@@ -33878,7 +33874,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -33898,10 +33894,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33918,10 +33914,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33938,10 +33934,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33958,10 +33954,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -33978,7 +33974,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>136</v>
@@ -33998,7 +33994,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -34283,20 +34279,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" ref="G9:G14" si="3">"id"</f>
@@ -34311,20 +34307,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G10" s="21" t="str">
         <f t="shared" si="3"/>
@@ -34339,20 +34335,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11" s="21" t="str">
         <f t="shared" si="3"/>
@@ -34367,20 +34363,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G12" s="21" t="str">
         <f t="shared" si="3"/>
@@ -34395,20 +34391,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="3"/>
@@ -34423,20 +34419,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G14" s="21" t="str">
         <f t="shared" si="3"/>
@@ -34451,20 +34447,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G15" s="21" t="str">
         <f t="shared" ref="G15:G20" si="5">"id"</f>
@@ -34479,20 +34475,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="E16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G16" s="21" t="str">
         <f t="shared" si="5"/>
@@ -34507,20 +34503,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" si="5"/>
@@ -34535,20 +34531,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G18" s="21" t="str">
         <f t="shared" si="5"/>
@@ -34563,20 +34559,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G19" s="21" t="str">
         <f t="shared" si="5"/>
@@ -34591,20 +34587,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G20" s="21" t="str">
         <f t="shared" si="5"/>
@@ -34619,20 +34615,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="E21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G21" s="21" t="str">
         <f t="shared" ref="G21:G26" si="7">"id"</f>
@@ -34647,20 +34643,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G22" s="21" t="str">
         <f t="shared" si="7"/>
@@ -34675,20 +34671,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="E23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G23" s="21" t="str">
         <f t="shared" si="7"/>
@@ -34703,20 +34699,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" si="7"/>
@@ -34731,20 +34727,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="E25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G25" s="21" t="str">
         <f t="shared" si="7"/>
@@ -34759,20 +34755,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="7"/>
@@ -34787,20 +34783,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G27" s="21" t="str">
         <f>"id"</f>
@@ -34815,20 +34811,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="E28" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G28" s="21" t="str">
         <f>"id"</f>
@@ -34843,20 +34839,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G29" s="21" t="str">
         <f>"id"</f>
@@ -34871,20 +34867,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>618</v>
       </c>
       <c r="E30" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G30" s="21" t="str">
         <f>"id"</f>
@@ -34938,7 +34934,7 @@
         <v>208</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>345</v>
@@ -34956,7 +34952,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -35096,7 +35092,7 @@
         <v>319</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35106,7 +35102,7 @@
         <v>226</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>220</v>
@@ -35192,23 +35188,23 @@
         <v>317</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>347</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I9" s="27">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35224,20 +35220,20 @@
         <v>317</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>392</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>393</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>311</v>
@@ -35256,20 +35252,20 @@
         <v>317</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>7</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>394</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>395</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>311</v>
@@ -35317,7 +35313,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>208</v>
@@ -35327,16 +35323,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I13" s="27">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35352,20 +35348,20 @@
         <v>208</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>4</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>311</v>
@@ -35381,23 +35377,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D15" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>12</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>311</v>
@@ -35413,23 +35409,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D16" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>453</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>454</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>311</v>
@@ -35445,23 +35441,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>311</v>
@@ -35477,23 +35473,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D18" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="22" t="s">
         <v>475</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>476</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>311</v>
@@ -35509,7 +35505,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>208</v>
@@ -35519,16 +35515,16 @@
         <v>12</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I19" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35541,23 +35537,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>491</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>311</v>
@@ -35573,26 +35569,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D21" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I21" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35608,20 +35604,20 @@
         <v>208</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D22" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>4</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>311</v>
@@ -35637,7 +35633,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>208</v>
@@ -35647,16 +35643,16 @@
         <v>18</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>304</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I23" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35669,7 +35665,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>208</v>
@@ -35679,16 +35675,16 @@
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>304</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I24" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35701,7 +35697,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>208</v>
@@ -35711,16 +35707,16 @@
         <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I25" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35733,23 +35729,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D26" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>311</v>
@@ -35768,20 +35764,20 @@
         <v>208</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D27" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>311</v>
@@ -35797,23 +35793,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D28" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>216</v>
@@ -35829,23 +35825,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D29" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="G29" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>311</v>
@@ -35861,7 +35857,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>208</v>
@@ -35871,16 +35867,16 @@
         <v>23</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I30" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35893,23 +35889,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D31" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>311</v>
@@ -35925,23 +35921,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D32" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>588</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>589</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>311</v>
@@ -35957,7 +35953,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>208</v>
@@ -35967,16 +35963,16 @@
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>304</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I33" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -35989,23 +35985,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D34" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>311</v>
@@ -36021,23 +36017,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D35" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>23</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>311</v>
@@ -36053,23 +36049,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D36" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>311</v>
@@ -36085,26 +36081,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D37" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>28</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>304</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I37" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -36117,26 +36113,26 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D38" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>29</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>304</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I38" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -36149,7 +36145,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>208</v>
@@ -36159,16 +36155,16 @@
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="G39" s="22" t="s">
-        <v>645</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I39" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -36192,7 +36188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -36203,7 +36199,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -36239,7 +36235,7 @@
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
       <c r="E2" s="49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
@@ -36272,7 +36268,7 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
       <c r="I3" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
@@ -44059,13 +44055,13 @@
         <v>User</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="G9" s="7"/>
     </row>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="650">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1976,6 +1976,18 @@
   </si>
   <si>
     <t>['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelation']</t>
+  </si>
+  <si>
+    <t>field_option_enum</t>
+  </si>
+  <si>
+    <t>default('No')</t>
+  </si>
+  <si>
+    <t>resource_list_nullable</t>
+  </si>
+  <si>
+    <t>resource_list_nullable_foreign</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2217,163 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3723,42 +3891,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3943,35 +4075,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="129">
   <autoFilter ref="A1:J35"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="118"/>
-    <tableColumn id="10" name="Table" dataDxfId="117">
+    <tableColumn id="2" name="Name" dataDxfId="128"/>
+    <tableColumn id="10" name="Table" dataDxfId="127">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="116">
+    <tableColumn id="5" name="Singular Name" dataDxfId="126">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="115">
+    <tableColumn id="8" name="Model NS" dataDxfId="125">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="114">
+    <tableColumn id="4" name="Class Name" dataDxfId="124">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="113">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="123">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="112">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="122">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="111">
+    <tableColumn id="3" name="Model Statement" dataDxfId="121">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="110">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="120">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="109">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="119">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3980,87 +4112,87 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="15">
+    <tableColumn id="1" name="No" dataDxfId="28">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="14"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="13">
+    <tableColumn id="2" name="Resource" dataDxfId="27"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
-    <tableColumn id="4" name="Description" dataDxfId="11"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
-    <tableColumn id="7" name="Menu" dataDxfId="8"/>
-    <tableColumn id="8" name="Icon" dataDxfId="7"/>
-    <tableColumn id="9" name="Set" dataDxfId="6"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
-    <tableColumn id="15" name="ID1" dataDxfId="4"/>
-    <tableColumn id="16" name="ID2" dataDxfId="3"/>
-    <tableColumn id="10" name="On" dataDxfId="2"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
-    <tableColumn id="12" name="handler" dataDxfId="0"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="25"/>
+    <tableColumn id="4" name="Description" dataDxfId="24"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="23"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="22"/>
+    <tableColumn id="7" name="Menu" dataDxfId="21"/>
+    <tableColumn id="8" name="Icon" dataDxfId="20"/>
+    <tableColumn id="9" name="Set" dataDxfId="19"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="18"/>
+    <tableColumn id="15" name="ID1" dataDxfId="17"/>
+    <tableColumn id="16" name="ID2" dataDxfId="16"/>
+    <tableColumn id="10" name="On" dataDxfId="15"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="14"/>
+    <tableColumn id="12" name="handler" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I126" totalsRowShown="0" dataDxfId="105">
-  <autoFilter ref="A1:I126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I129" totalsRowShown="0" dataDxfId="118">
+  <autoFilter ref="A1:I129">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="104"/>
-    <tableColumn id="2" name="Type" dataDxfId="103"/>
-    <tableColumn id="3" name="Name" dataDxfId="102"/>
-    <tableColumn id="4" name="Length" dataDxfId="101"/>
-    <tableColumn id="5" name="Method1" dataDxfId="100"/>
-    <tableColumn id="6" name="Method2" dataDxfId="99"/>
-    <tableColumn id="7" name="Method3" dataDxfId="98"/>
-    <tableColumn id="8" name="Method4" dataDxfId="97"/>
-    <tableColumn id="9" name="Method5" dataDxfId="96"/>
+    <tableColumn id="1" name="Column" dataDxfId="117"/>
+    <tableColumn id="2" name="Type" dataDxfId="116"/>
+    <tableColumn id="3" name="Name" dataDxfId="115"/>
+    <tableColumn id="4" name="Length" dataDxfId="114"/>
+    <tableColumn id="5" name="Method1" dataDxfId="113"/>
+    <tableColumn id="6" name="Method2" dataDxfId="112"/>
+    <tableColumn id="7" name="Method3" dataDxfId="111"/>
+    <tableColumn id="8" name="Method4" dataDxfId="110"/>
+    <tableColumn id="9" name="Method5" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K300" totalsRowShown="0" dataDxfId="95">
-  <autoFilter ref="A1:K300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K302" totalsRowShown="0" dataDxfId="108">
+  <autoFilter ref="A1:K302">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="94"/>
-    <tableColumn id="3" name="Field" dataDxfId="93"/>
-    <tableColumn id="5" name="Type" dataDxfId="92">
+    <tableColumn id="2" name="Table" dataDxfId="107"/>
+    <tableColumn id="3" name="Field" dataDxfId="106"/>
+    <tableColumn id="5" name="Type" dataDxfId="105">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="91">
+    <tableColumn id="4" name="Name" dataDxfId="104">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="90">
+    <tableColumn id="6" name="Arg2" dataDxfId="103">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="89">
+    <tableColumn id="7" name="Method1" dataDxfId="102">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="88">
+    <tableColumn id="8" name="Method2" dataDxfId="101">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="87">
+    <tableColumn id="9" name="Method3" dataDxfId="100">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="86">
+    <tableColumn id="10" name="Method4" dataDxfId="99">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="85">
+    <tableColumn id="11" name="Method5" dataDxfId="98">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="84">
+    <tableColumn id="12" name="Statement" dataDxfId="97">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4069,7 +4201,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:R271">
     <filterColumn colId="1">
       <filters>
@@ -4078,46 +4210,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="81">
+    <tableColumn id="19" name="TRCode" dataDxfId="94">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
-    <tableColumn id="2" name="Record No" dataDxfId="79">
+    <tableColumn id="1" name="Table Name" dataDxfId="93"/>
+    <tableColumn id="2" name="Record No" dataDxfId="92">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="78"/>
-    <tableColumn id="4" name="2" dataDxfId="77"/>
-    <tableColumn id="5" name="3" dataDxfId="76"/>
-    <tableColumn id="6" name="4" dataDxfId="75"/>
-    <tableColumn id="7" name="5" dataDxfId="74"/>
-    <tableColumn id="8" name="6" dataDxfId="73"/>
-    <tableColumn id="9" name="7" dataDxfId="72"/>
-    <tableColumn id="10" name="8" dataDxfId="71"/>
-    <tableColumn id="11" name="9" dataDxfId="70"/>
-    <tableColumn id="12" name="10" dataDxfId="69"/>
-    <tableColumn id="13" name="11" dataDxfId="68"/>
-    <tableColumn id="14" name="12" dataDxfId="67"/>
-    <tableColumn id="15" name="13" dataDxfId="66"/>
-    <tableColumn id="16" name="14" dataDxfId="65"/>
-    <tableColumn id="17" name="15" dataDxfId="64"/>
+    <tableColumn id="3" name="1" dataDxfId="91"/>
+    <tableColumn id="4" name="2" dataDxfId="90"/>
+    <tableColumn id="5" name="3" dataDxfId="89"/>
+    <tableColumn id="6" name="4" dataDxfId="88"/>
+    <tableColumn id="7" name="5" dataDxfId="87"/>
+    <tableColumn id="8" name="6" dataDxfId="86"/>
+    <tableColumn id="9" name="7" dataDxfId="85"/>
+    <tableColumn id="10" name="8" dataDxfId="84"/>
+    <tableColumn id="11" name="9" dataDxfId="83"/>
+    <tableColumn id="12" name="10" dataDxfId="82"/>
+    <tableColumn id="13" name="11" dataDxfId="81"/>
+    <tableColumn id="14" name="12" dataDxfId="80"/>
+    <tableColumn id="15" name="13" dataDxfId="79"/>
+    <tableColumn id="16" name="14" dataDxfId="78"/>
+    <tableColumn id="17" name="15" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="76">
   <autoFilter ref="A1:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="62"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
-    <tableColumn id="20" name="NS" dataDxfId="60">
+    <tableColumn id="1" name="Name" dataDxfId="75"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="74"/>
+    <tableColumn id="20" name="NS" dataDxfId="73">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="59">
+    <tableColumn id="21" name="Model" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="58">
+    <tableColumn id="4" name="Query Method" dataDxfId="71">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4126,46 +4258,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="70">
   <autoFilter ref="A1:I30"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="56">
+    <tableColumn id="1" name="No" dataDxfId="69">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Title" dataDxfId="53"/>
-    <tableColumn id="5" name="NS" dataDxfId="52">
+    <tableColumn id="2" name="Name" dataDxfId="68"/>
+    <tableColumn id="3" name="Description" dataDxfId="67"/>
+    <tableColumn id="4" name="Title" dataDxfId="66"/>
+    <tableColumn id="5" name="NS" dataDxfId="65">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="51"/>
-    <tableColumn id="7" name="Key" dataDxfId="50">
+    <tableColumn id="6" name="Table" dataDxfId="64"/>
+    <tableColumn id="7" name="Key" dataDxfId="63">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="49"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
+    <tableColumn id="8" name="Controller" dataDxfId="62"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="60">
   <autoFilter ref="A1:I39"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="46">
+    <tableColumn id="1" name="No" dataDxfId="59">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="45"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="43">
+    <tableColumn id="3" name="Resource" dataDxfId="58"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="57"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="42"/>
-    <tableColumn id="6" name="Description" dataDxfId="41"/>
-    <tableColumn id="7" name="Method" dataDxfId="40"/>
-    <tableColumn id="8" name="Type" dataDxfId="39"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="38">
+    <tableColumn id="5" name="Name" dataDxfId="55"/>
+    <tableColumn id="6" name="Description" dataDxfId="54"/>
+    <tableColumn id="7" name="Method" dataDxfId="53"/>
+    <tableColumn id="8" name="Type" dataDxfId="52"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="51">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4174,47 +4306,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="50">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="36">
+    <tableColumn id="1" name="No" dataDxfId="49">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="34">
+    <tableColumn id="2" name="Resource ID" dataDxfId="48"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="47">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
-    <tableColumn id="6" name="Title" dataDxfId="32"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
-    <tableColumn id="8" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="46"/>
+    <tableColumn id="6" name="Title" dataDxfId="45"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="44"/>
+    <tableColumn id="8" name="Description" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="42">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="28">
+    <tableColumn id="9" name="No" dataDxfId="41">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="26">
+    <tableColumn id="1" name="Form Id" dataDxfId="40"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="39">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" name="Type" dataDxfId="24"/>
-    <tableColumn id="5" name="Label" dataDxfId="23"/>
-    <tableColumn id="6" name="Collection" dataDxfId="22"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="21">
+    <tableColumn id="4" name="Name" dataDxfId="38"/>
+    <tableColumn id="2" name="Type" dataDxfId="37"/>
+    <tableColumn id="5" name="Label" dataDxfId="36"/>
+    <tableColumn id="6" name="Collection" dataDxfId="35"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="34">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="20"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
+    <tableColumn id="10" name="Relation" dataDxfId="33"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="32"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="31"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4507,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7530,10 +7662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -9796,7 +9928,7 @@
         <v>64</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -9847,34 +9979,34 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
-        <v>502</v>
+        <v>646</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D108" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="E108" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
@@ -9889,13 +10021,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
@@ -9910,88 +10042,84 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="E111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I112" s="5"/>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I113" s="4"/>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>56</v>
+        <v>509</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
@@ -10009,130 +10137,134 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F116" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G116" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H116" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I116" s="4"/>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="5" t="s">
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5" t="s">
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D119" s="4">
-        <v>128</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="4" t="s">
-        <v>563</v>
+        <v>269</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>563</v>
+        <v>269</v>
       </c>
       <c r="D120" s="4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>29</v>
@@ -10144,82 +10276,84 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="4"/>
+        <v>563</v>
+      </c>
+      <c r="D121" s="4">
+        <v>64</v>
+      </c>
       <c r="E121" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>593</v>
+        <v>42</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>594</v>
+        <v>56</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>593</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>25</v>
+        <v>595</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -10228,19 +10362,17 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" s="4">
-        <v>64</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -10249,38 +10381,111 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="4">
+        <v>64</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4" t="s">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G127" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H127" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I126" s="4"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I129" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="107" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A126">
-    <cfRule type="duplicateValues" dxfId="106" priority="20"/>
+  <conditionalFormatting sqref="A2:A129">
+    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A129">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A129">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10292,10 +10497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K300"/>
+  <dimension ref="A1:K302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -21346,23 +21551,23 @@
         <v>454</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C252" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v>'method'</v>
       </c>
       <c r="E252" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21382,7 +21587,7 @@
       </c>
       <c r="K252" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
+        <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -21390,27 +21595,27 @@
         <v>454</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>455</v>
+        <v>648</v>
       </c>
       <c r="C253" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'value_attr'</v>
+        <v>'resource_list'</v>
       </c>
       <c r="E253" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 64)</v>
+        <v>)</v>
       </c>
       <c r="F253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -21426,7 +21631,7 @@
       </c>
       <c r="K253" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('value_attr', 64)-&gt;default('id');</v>
+        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -21434,7 +21639,7 @@
         <v>454</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C254" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21442,11 +21647,11 @@
       </c>
       <c r="D254" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'label_attr'</v>
+        <v>'value_attr'</v>
       </c>
       <c r="E254" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>, 64)</v>
       </c>
       <c r="F254" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
@@ -21470,7 +21675,7 @@
       </c>
       <c r="K254" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('label_attr', 128)-&gt;nullable();</v>
+        <v>$table-&gt;string('value_attr', 64)-&gt;nullable();</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -21478,23 +21683,23 @@
         <v>454</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C255" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>enum(</v>
+        <v>string(</v>
       </c>
       <c r="D255" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'preload'</v>
+        <v>'label_attr'</v>
       </c>
       <c r="E255" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, ['Yes','No'])</v>
+        <v>, 128)</v>
       </c>
       <c r="F255" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default('Yes')</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G255" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21514,7 +21719,7 @@
       </c>
       <c r="K255" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;enum('preload', ['Yes','No'])-&gt;default('Yes');</v>
+        <v>$table-&gt;string('label_attr', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -21522,23 +21727,23 @@
         <v>454</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>40</v>
+        <v>646</v>
       </c>
       <c r="C256" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>enum(</v>
       </c>
       <c r="D256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'enum'</v>
       </c>
       <c r="E256" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, ['Yes','No'])</v>
       </c>
       <c r="F256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;default('No')</v>
       </c>
       <c r="G256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21558,7 +21763,7 @@
       </c>
       <c r="K256" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;enum('enum', ['Yes','No'])-&gt;default('No');</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -21566,35 +21771,35 @@
         <v>454</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="C257" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>enum(</v>
       </c>
       <c r="D257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v>'preload'</v>
       </c>
       <c r="E257" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, ['Yes','No'])</v>
       </c>
       <c r="F257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;default('Yes')</v>
       </c>
       <c r="G257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_form_fields')</v>
+        <v/>
       </c>
       <c r="H257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21602,7 +21807,7 @@
       </c>
       <c r="K257" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;enum('preload', ['Yes','No'])-&gt;default('Yes');</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -21610,15 +21815,15 @@
         <v>454</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C258" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v/>
       </c>
       <c r="E258" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21626,19 +21831,19 @@
       </c>
       <c r="F258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_lists')</v>
+        <v/>
       </c>
       <c r="H258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21646,23 +21851,23 @@
       </c>
       <c r="K258" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;timestamps();</v>
       </c>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="4" t="s">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C259" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>foreign(</v>
       </c>
       <c r="D259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'form_field'</v>
       </c>
       <c r="E259" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21670,19 +21875,19 @@
       </c>
       <c r="F259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_form_fields')</v>
       </c>
       <c r="H259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21690,19 +21895,19 @@
       </c>
       <c r="K259" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
+        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="4" t="s">
-        <v>562</v>
+        <v>454</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>94</v>
+        <v>649</v>
       </c>
       <c r="C260" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
@@ -21714,19 +21919,19 @@
       </c>
       <c r="F260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_lists')</v>
       </c>
       <c r="H260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21734,7 +21939,7 @@
       </c>
       <c r="K260" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
+        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -21742,23 +21947,23 @@
         <v>562</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C261" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>increments(</v>
       </c>
       <c r="D261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'label'</v>
+        <v>'id'</v>
       </c>
       <c r="E261" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="G261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21778,7 +21983,7 @@
       </c>
       <c r="K261" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
+        <v>$table-&gt;increments('id');</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -21786,23 +21991,23 @@
         <v>562</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>563</v>
+        <v>94</v>
       </c>
       <c r="C262" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'field'</v>
+        <v>'resource_list'</v>
       </c>
       <c r="E262" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 64)</v>
+        <v>)</v>
       </c>
       <c r="F262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21822,7 +22027,7 @@
       </c>
       <c r="K262" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('field', 64)-&gt;nullable();</v>
+        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -21830,27 +22035,27 @@
         <v>562</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>575</v>
+        <v>269</v>
       </c>
       <c r="C263" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'label'</v>
       </c>
       <c r="E263" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -21866,7 +22071,7 @@
       </c>
       <c r="K263" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -21874,27 +22079,27 @@
         <v>562</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation1'</v>
+        <v>'field'</v>
       </c>
       <c r="E264" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 64)</v>
       </c>
       <c r="F264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -21910,7 +22115,7 @@
       </c>
       <c r="K264" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;string('field', 64)-&gt;nullable();</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -21918,7 +22123,7 @@
         <v>562</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21926,7 +22131,7 @@
       </c>
       <c r="D265" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation2'</v>
+        <v>'relation'</v>
       </c>
       <c r="E265" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21954,7 +22159,7 @@
       </c>
       <c r="K265" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -21962,15 +22167,15 @@
         <v>562</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>40</v>
+        <v>577</v>
       </c>
       <c r="C266" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'nest_relation1'</v>
       </c>
       <c r="E266" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21978,11 +22183,11 @@
       </c>
       <c r="F266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -21998,7 +22203,7 @@
       </c>
       <c r="K266" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -22006,15 +22211,15 @@
         <v>562</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>95</v>
+        <v>578</v>
       </c>
       <c r="C267" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v>'nest_relation2'</v>
       </c>
       <c r="E267" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22022,19 +22227,19 @@
       </c>
       <c r="F267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_lists')</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22042,7 +22247,7 @@
       </c>
       <c r="K267" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -22050,15 +22255,15 @@
         <v>562</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="C268" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v/>
       </c>
       <c r="E268" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22066,19 +22271,19 @@
       </c>
       <c r="F268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v/>
       </c>
       <c r="H268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22086,7 +22291,7 @@
       </c>
       <c r="K268" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+        <v>$table-&gt;timestamps();</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -22094,7 +22299,7 @@
         <v>562</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>582</v>
+        <v>95</v>
       </c>
       <c r="C269" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22102,7 +22307,7 @@
       </c>
       <c r="D269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation1'</v>
+        <v>'resource_list'</v>
       </c>
       <c r="E269" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22114,7 +22319,7 @@
       </c>
       <c r="G269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v>-&gt;on('__resource_lists')</v>
       </c>
       <c r="H269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22122,7 +22327,7 @@
       </c>
       <c r="I269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22130,7 +22335,7 @@
       </c>
       <c r="K269" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -22138,7 +22343,7 @@
         <v>562</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C270" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22146,7 +22351,7 @@
       </c>
       <c r="D270" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation2'</v>
+        <v>'relation'</v>
       </c>
       <c r="E270" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22174,95 +22379,95 @@
       </c>
       <c r="K270" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C271" s="5" t="str">
+      <c r="A271" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C271" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
-      </c>
-      <c r="D271" s="5" t="str">
+        <v>foreign(</v>
+      </c>
+      <c r="D271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
-      </c>
-      <c r="E271" s="8" t="str">
+        <v>'nest_relation1'</v>
+      </c>
+      <c r="E271" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F271" s="5" t="str">
+      <c r="F271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
-      </c>
-      <c r="G271" s="5" t="str">
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
-      </c>
-      <c r="H271" s="5" t="str">
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
-      </c>
-      <c r="I271" s="5" t="str">
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
-      </c>
-      <c r="J271" s="5" t="str">
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J271" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K271" s="5" t="str">
+      <c r="K271" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
+        <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="5" t="str">
+      <c r="A272" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C272" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
-      </c>
-      <c r="D272" s="5" t="str">
+        <v>foreign(</v>
+      </c>
+      <c r="D272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
-      </c>
-      <c r="E272" s="8" t="str">
+        <v>'nest_relation2'</v>
+      </c>
+      <c r="E272" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F272" s="5" t="str">
+      <c r="F272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
-      </c>
-      <c r="G272" s="5" t="str">
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
-      </c>
-      <c r="H272" s="5" t="str">
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
-      </c>
-      <c r="I272" s="5" t="str">
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
-      </c>
-      <c r="J272" s="5" t="str">
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J272" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K272" s="5" t="str">
+      <c r="K272" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
+        <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -22270,15 +22475,15 @@
         <v>570</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C273" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>increments(</v>
       </c>
       <c r="D273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'scope'</v>
+        <v>'id'</v>
       </c>
       <c r="E273" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22286,7 +22491,7 @@
       </c>
       <c r="F273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22306,7 +22511,7 @@
       </c>
       <c r="K273" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
+        <v>$table-&gt;increments('id');</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -22314,15 +22519,15 @@
         <v>570</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C274" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'resource_data'</v>
       </c>
       <c r="E274" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22330,7 +22535,7 @@
       </c>
       <c r="F274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22350,7 +22555,7 @@
       </c>
       <c r="K274" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -22358,15 +22563,15 @@
         <v>570</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C275" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v>'scope'</v>
       </c>
       <c r="E275" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22374,19 +22579,19 @@
       </c>
       <c r="F275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data')</v>
+        <v/>
       </c>
       <c r="H275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22394,111 +22599,111 @@
       </c>
       <c r="K275" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C276" s="4" t="str">
+      <c r="B276" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C276" s="5" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>timestamps(</v>
+      </c>
+      <c r="D276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v/>
+      </c>
+      <c r="E276" s="8" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J276" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K276" s="5" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="A277" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C277" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
         <v>foreign(</v>
       </c>
-      <c r="D276" s="4" t="str">
+      <c r="D277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'resource_data'</v>
+      </c>
+      <c r="E277" s="8" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_data')</v>
+      </c>
+      <c r="H277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J277" s="5" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K277" s="5" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
+      <c r="A278" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C278" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
         <v>'scope'</v>
-      </c>
-      <c r="E276" s="7" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
-      </c>
-      <c r="F276" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G276" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_scopes')</v>
-      </c>
-      <c r="H276" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I276" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
-      </c>
-      <c r="J276" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
-        <v/>
-      </c>
-      <c r="K276" s="4" t="str">
-        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
-      <c r="A277" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C277" s="4" t="str">
-        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
-      </c>
-      <c r="D277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
-      </c>
-      <c r="E277" s="7" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
-      </c>
-      <c r="F277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
-      </c>
-      <c r="G277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
-      </c>
-      <c r="H277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
-      </c>
-      <c r="I277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
-      </c>
-      <c r="J277" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
-        <v/>
-      </c>
-      <c r="K277" s="4" t="str">
-        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
-      <c r="A278" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C278" s="4" t="str">
-        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
-      </c>
-      <c r="D278" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
       </c>
       <c r="E278" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22506,19 +22711,19 @@
       </c>
       <c r="F278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_scopes')</v>
       </c>
       <c r="H278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22526,7 +22731,7 @@
       </c>
       <c r="K278" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
+        <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -22534,15 +22739,15 @@
         <v>592</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="C279" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>increments(</v>
       </c>
       <c r="D279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v>'id'</v>
       </c>
       <c r="E279" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22550,7 +22755,7 @@
       </c>
       <c r="F279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22570,7 +22775,7 @@
       </c>
       <c r="K279" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
+        <v>$table-&gt;increments('id');</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -22578,15 +22783,15 @@
         <v>592</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>601</v>
+        <v>117</v>
       </c>
       <c r="C280" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedTinyInteger(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'colspan'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E280" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22594,7 +22799,7 @@
       </c>
       <c r="F280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default(12)</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22614,7 +22819,7 @@
       </c>
       <c r="K280" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
+        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -22622,15 +22827,15 @@
         <v>592</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="C281" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'form_field'</v>
       </c>
       <c r="E281" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22638,7 +22843,7 @@
       </c>
       <c r="F281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22658,7 +22863,7 @@
       </c>
       <c r="K281" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -22666,15 +22871,15 @@
         <v>592</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>118</v>
+        <v>601</v>
       </c>
       <c r="C282" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedTinyInteger(</v>
       </c>
       <c r="D282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
+        <v>'colspan'</v>
       </c>
       <c r="E282" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22682,19 +22887,19 @@
       </c>
       <c r="F282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;default(12)</v>
       </c>
       <c r="G282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_forms')</v>
+        <v/>
       </c>
       <c r="H282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22702,7 +22907,7 @@
       </c>
       <c r="K282" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -22710,15 +22915,15 @@
         <v>592</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C283" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v/>
       </c>
       <c r="E283" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22726,19 +22931,19 @@
       </c>
       <c r="F283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_form_fields')</v>
+        <v/>
       </c>
       <c r="H283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22746,23 +22951,23 @@
       </c>
       <c r="K283" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;timestamps();</v>
       </c>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C284" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>foreign(</v>
       </c>
       <c r="D284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E284" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22770,19 +22975,19 @@
       </c>
       <c r="F284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_forms')</v>
       </c>
       <c r="H284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22790,23 +22995,23 @@
       </c>
       <c r="K284" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
+        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C285" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v>'form_field'</v>
       </c>
       <c r="E285" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22814,19 +23019,19 @@
       </c>
       <c r="F285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_form_fields')</v>
       </c>
       <c r="H285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22834,7 +23039,7 @@
       </c>
       <c r="K285" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
+        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -22842,23 +23047,23 @@
         <v>602</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C286" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>increments(</v>
       </c>
       <c r="D286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'title'</v>
+        <v>'id'</v>
       </c>
       <c r="E286" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="G286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22878,7 +23083,7 @@
       </c>
       <c r="K286" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
+        <v>$table-&gt;increments('id');</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -22886,23 +23091,23 @@
         <v>602</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C287" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'title_field'</v>
+        <v>'resource_data'</v>
       </c>
       <c r="E287" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22922,7 +23127,7 @@
       </c>
       <c r="K287" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
+        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -22930,27 +23135,27 @@
         <v>602</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>575</v>
+        <v>30</v>
       </c>
       <c r="C288" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'title'</v>
       </c>
       <c r="E288" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22966,7 +23171,7 @@
       </c>
       <c r="K288" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -22974,23 +23179,23 @@
         <v>602</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>601</v>
+        <v>55</v>
       </c>
       <c r="C289" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedTinyInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'colspan'</v>
+        <v>'title_field'</v>
       </c>
       <c r="E289" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default(12)</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23010,7 +23215,7 @@
       </c>
       <c r="K289" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
+        <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -23018,15 +23223,15 @@
         <v>602</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>40</v>
+        <v>575</v>
       </c>
       <c r="C290" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'relation'</v>
       </c>
       <c r="E290" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23034,11 +23239,11 @@
       </c>
       <c r="F290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23054,7 +23259,7 @@
       </c>
       <c r="K290" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -23062,15 +23267,15 @@
         <v>602</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>93</v>
+        <v>601</v>
       </c>
       <c r="C291" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedTinyInteger(</v>
       </c>
       <c r="D291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v>'colspan'</v>
       </c>
       <c r="E291" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23078,19 +23283,19 @@
       </c>
       <c r="F291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;default(12)</v>
       </c>
       <c r="G291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data')</v>
+        <v/>
       </c>
       <c r="H291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23098,7 +23303,7 @@
       </c>
       <c r="K291" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -23106,15 +23311,15 @@
         <v>602</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="C292" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v/>
       </c>
       <c r="E292" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23122,19 +23327,19 @@
       </c>
       <c r="F292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v/>
       </c>
       <c r="H292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23142,23 +23347,23 @@
       </c>
       <c r="K292" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+        <v>$table-&gt;timestamps();</v>
       </c>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C293" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>foreign(</v>
       </c>
       <c r="D293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'resource_data'</v>
       </c>
       <c r="E293" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23166,19 +23371,19 @@
       </c>
       <c r="F293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_data')</v>
       </c>
       <c r="H293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23186,23 +23391,23 @@
       </c>
       <c r="K293" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
+        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="C294" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'section'</v>
+        <v>'relation'</v>
       </c>
       <c r="E294" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23210,19 +23415,19 @@
       </c>
       <c r="F294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23230,7 +23435,7 @@
       </c>
       <c r="K294" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('section')-&gt;index();</v>
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -23238,23 +23443,23 @@
         <v>603</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C295" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>increments(</v>
       </c>
       <c r="D295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'label'</v>
+        <v>'id'</v>
       </c>
       <c r="E295" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="G295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23274,7 +23479,7 @@
       </c>
       <c r="K295" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
+        <v>$table-&gt;increments('id');</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -23282,23 +23487,23 @@
         <v>603</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C296" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'attribute'</v>
+        <v>'section'</v>
       </c>
       <c r="E296" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 64)</v>
+        <v>)</v>
       </c>
       <c r="F296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23318,7 +23523,7 @@
       </c>
       <c r="K296" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
+        <v>$table-&gt;unsignedInteger('section')-&gt;index();</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -23326,27 +23531,27 @@
         <v>603</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>575</v>
+        <v>269</v>
       </c>
       <c r="C297" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'label'</v>
       </c>
       <c r="E297" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23362,7 +23567,7 @@
       </c>
       <c r="K297" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -23370,23 +23575,23 @@
         <v>603</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>40</v>
+        <v>606</v>
       </c>
       <c r="C298" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>string(</v>
       </c>
       <c r="D298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'attribute'</v>
       </c>
       <c r="E298" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 64)</v>
       </c>
       <c r="F298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23406,7 +23611,7 @@
       </c>
       <c r="K298" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
+        <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -23414,15 +23619,15 @@
         <v>603</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="C299" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'section'</v>
+        <v>'relation'</v>
       </c>
       <c r="E299" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23430,19 +23635,19 @@
       </c>
       <c r="F299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data_view_sections')</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23450,7 +23655,7 @@
       </c>
       <c r="K299" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('section')-&gt;references('id')-&gt;on('__resource_data_view_sections')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -23458,15 +23663,15 @@
         <v>603</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="C300" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v/>
       </c>
       <c r="E300" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23474,25 +23679,113 @@
       </c>
       <c r="F300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v/>
       </c>
       <c r="H300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
       <c r="K300" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C301" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'section'</v>
+      </c>
+      <c r="E301" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_data_view_sections')</v>
+      </c>
+      <c r="H301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J301" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K301" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('section')-&gt;references('id')-&gt;on('__resource_data_view_sections')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C302" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E302" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J302" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K302" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
@@ -23500,10 +23793,10 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B302">
       <formula1>AvailableFields</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A300">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A302">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="653">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1988,6 +1988,15 @@
   </si>
   <si>
     <t>resource_list_nullable_foreign</t>
+  </si>
+  <si>
+    <t>resource_form_collection</t>
+  </si>
+  <si>
+    <t>resource_form_collection_foreign</t>
+  </si>
+  <si>
+    <t>collection_form</t>
   </si>
 </sst>
 </file>
@@ -2217,127 +2226,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="125">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3891,6 +3780,66 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4075,35 +4024,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J35" totalsRowShown="0" dataDxfId="129">
-  <autoFilter ref="A1:J35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="124">
+  <autoFilter ref="A1:J36"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="128"/>
-    <tableColumn id="10" name="Table" dataDxfId="127">
+    <tableColumn id="2" name="Name" dataDxfId="123"/>
+    <tableColumn id="10" name="Table" dataDxfId="122">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="126">
+    <tableColumn id="5" name="Singular Name" dataDxfId="121">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="125">
+    <tableColumn id="8" name="Model NS" dataDxfId="120">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="124">
+    <tableColumn id="4" name="Class Name" dataDxfId="119">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="123">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="118">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="122">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="117">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="121">
+    <tableColumn id="3" name="Model Statement" dataDxfId="116">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="120">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="115">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="119">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="114">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4112,87 +4061,87 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="28">
+    <tableColumn id="1" name="No" dataDxfId="18">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="27"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="26">
+    <tableColumn id="2" name="Resource" dataDxfId="17"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="25"/>
-    <tableColumn id="4" name="Description" dataDxfId="24"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="23"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="22"/>
-    <tableColumn id="7" name="Menu" dataDxfId="21"/>
-    <tableColumn id="8" name="Icon" dataDxfId="20"/>
-    <tableColumn id="9" name="Set" dataDxfId="19"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="18"/>
-    <tableColumn id="15" name="ID1" dataDxfId="17"/>
-    <tableColumn id="16" name="ID2" dataDxfId="16"/>
-    <tableColumn id="10" name="On" dataDxfId="15"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="14"/>
-    <tableColumn id="12" name="handler" dataDxfId="13"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="15"/>
+    <tableColumn id="4" name="Description" dataDxfId="14"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="13"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="12"/>
+    <tableColumn id="7" name="Menu" dataDxfId="11"/>
+    <tableColumn id="8" name="Icon" dataDxfId="10"/>
+    <tableColumn id="9" name="Set" dataDxfId="9"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="8"/>
+    <tableColumn id="15" name="ID1" dataDxfId="7"/>
+    <tableColumn id="16" name="ID2" dataDxfId="6"/>
+    <tableColumn id="10" name="On" dataDxfId="5"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="4"/>
+    <tableColumn id="12" name="handler" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I129" totalsRowShown="0" dataDxfId="118">
-  <autoFilter ref="A1:I129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I131" totalsRowShown="0" dataDxfId="108">
+  <autoFilter ref="A1:I131">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="117"/>
-    <tableColumn id="2" name="Type" dataDxfId="116"/>
-    <tableColumn id="3" name="Name" dataDxfId="115"/>
-    <tableColumn id="4" name="Length" dataDxfId="114"/>
-    <tableColumn id="5" name="Method1" dataDxfId="113"/>
-    <tableColumn id="6" name="Method2" dataDxfId="112"/>
-    <tableColumn id="7" name="Method3" dataDxfId="111"/>
-    <tableColumn id="8" name="Method4" dataDxfId="110"/>
-    <tableColumn id="9" name="Method5" dataDxfId="109"/>
+    <tableColumn id="1" name="Column" dataDxfId="107"/>
+    <tableColumn id="2" name="Type" dataDxfId="106"/>
+    <tableColumn id="3" name="Name" dataDxfId="105"/>
+    <tableColumn id="4" name="Length" dataDxfId="104"/>
+    <tableColumn id="5" name="Method1" dataDxfId="103"/>
+    <tableColumn id="6" name="Method2" dataDxfId="102"/>
+    <tableColumn id="7" name="Method3" dataDxfId="101"/>
+    <tableColumn id="8" name="Method4" dataDxfId="100"/>
+    <tableColumn id="9" name="Method5" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K302" totalsRowShown="0" dataDxfId="108">
-  <autoFilter ref="A1:K302">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="98">
+  <autoFilter ref="A1:K310">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="107"/>
-    <tableColumn id="3" name="Field" dataDxfId="106"/>
-    <tableColumn id="5" name="Type" dataDxfId="105">
+    <tableColumn id="2" name="Table" dataDxfId="97"/>
+    <tableColumn id="3" name="Field" dataDxfId="96"/>
+    <tableColumn id="5" name="Type" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="104">
+    <tableColumn id="4" name="Name" dataDxfId="94">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="103">
+    <tableColumn id="6" name="Arg2" dataDxfId="93">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="102">
+    <tableColumn id="7" name="Method1" dataDxfId="92">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="101">
+    <tableColumn id="8" name="Method2" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="100">
+    <tableColumn id="9" name="Method3" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="99">
+    <tableColumn id="10" name="Method4" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="98">
+    <tableColumn id="11" name="Method5" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="97">
+    <tableColumn id="12" name="Statement" dataDxfId="87">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4201,7 +4150,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:R271">
     <filterColumn colId="1">
       <filters>
@@ -4210,46 +4159,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="94">
+    <tableColumn id="19" name="TRCode" dataDxfId="84">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="93"/>
-    <tableColumn id="2" name="Record No" dataDxfId="92">
+    <tableColumn id="1" name="Table Name" dataDxfId="83"/>
+    <tableColumn id="2" name="Record No" dataDxfId="82">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="91"/>
-    <tableColumn id="4" name="2" dataDxfId="90"/>
-    <tableColumn id="5" name="3" dataDxfId="89"/>
-    <tableColumn id="6" name="4" dataDxfId="88"/>
-    <tableColumn id="7" name="5" dataDxfId="87"/>
-    <tableColumn id="8" name="6" dataDxfId="86"/>
-    <tableColumn id="9" name="7" dataDxfId="85"/>
-    <tableColumn id="10" name="8" dataDxfId="84"/>
-    <tableColumn id="11" name="9" dataDxfId="83"/>
-    <tableColumn id="12" name="10" dataDxfId="82"/>
-    <tableColumn id="13" name="11" dataDxfId="81"/>
-    <tableColumn id="14" name="12" dataDxfId="80"/>
-    <tableColumn id="15" name="13" dataDxfId="79"/>
-    <tableColumn id="16" name="14" dataDxfId="78"/>
-    <tableColumn id="17" name="15" dataDxfId="77"/>
+    <tableColumn id="3" name="1" dataDxfId="81"/>
+    <tableColumn id="4" name="2" dataDxfId="80"/>
+    <tableColumn id="5" name="3" dataDxfId="79"/>
+    <tableColumn id="6" name="4" dataDxfId="78"/>
+    <tableColumn id="7" name="5" dataDxfId="77"/>
+    <tableColumn id="8" name="6" dataDxfId="76"/>
+    <tableColumn id="9" name="7" dataDxfId="75"/>
+    <tableColumn id="10" name="8" dataDxfId="74"/>
+    <tableColumn id="11" name="9" dataDxfId="73"/>
+    <tableColumn id="12" name="10" dataDxfId="72"/>
+    <tableColumn id="13" name="11" dataDxfId="71"/>
+    <tableColumn id="14" name="12" dataDxfId="70"/>
+    <tableColumn id="15" name="13" dataDxfId="69"/>
+    <tableColumn id="16" name="14" dataDxfId="68"/>
+    <tableColumn id="17" name="15" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="66">
   <autoFilter ref="A1:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="75"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="74"/>
-    <tableColumn id="20" name="NS" dataDxfId="73">
+    <tableColumn id="1" name="Name" dataDxfId="65"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="64"/>
+    <tableColumn id="20" name="NS" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="72">
+    <tableColumn id="21" name="Model" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="71">
+    <tableColumn id="4" name="Query Method" dataDxfId="61">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4258,46 +4207,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="60">
   <autoFilter ref="A1:I30"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="69">
+    <tableColumn id="1" name="No" dataDxfId="59">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="68"/>
-    <tableColumn id="3" name="Description" dataDxfId="67"/>
-    <tableColumn id="4" name="Title" dataDxfId="66"/>
-    <tableColumn id="5" name="NS" dataDxfId="65">
+    <tableColumn id="2" name="Name" dataDxfId="58"/>
+    <tableColumn id="3" name="Description" dataDxfId="57"/>
+    <tableColumn id="4" name="Title" dataDxfId="56"/>
+    <tableColumn id="5" name="NS" dataDxfId="55">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="64"/>
-    <tableColumn id="7" name="Key" dataDxfId="63">
+    <tableColumn id="6" name="Table" dataDxfId="54"/>
+    <tableColumn id="7" name="Key" dataDxfId="53">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="62"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="61"/>
+    <tableColumn id="8" name="Controller" dataDxfId="52"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="50">
   <autoFilter ref="A1:I39"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="59">
+    <tableColumn id="1" name="No" dataDxfId="49">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="58"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="57"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="56">
+    <tableColumn id="3" name="Resource" dataDxfId="48"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="47"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="46">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="55"/>
-    <tableColumn id="6" name="Description" dataDxfId="54"/>
-    <tableColumn id="7" name="Method" dataDxfId="53"/>
-    <tableColumn id="8" name="Type" dataDxfId="52"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="51">
+    <tableColumn id="5" name="Name" dataDxfId="45"/>
+    <tableColumn id="6" name="Description" dataDxfId="44"/>
+    <tableColumn id="7" name="Method" dataDxfId="43"/>
+    <tableColumn id="8" name="Type" dataDxfId="42"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4306,47 +4255,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="49">
+    <tableColumn id="1" name="No" dataDxfId="39">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="48"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="47">
+    <tableColumn id="2" name="Resource ID" dataDxfId="38"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="37">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="46"/>
-    <tableColumn id="6" name="Title" dataDxfId="45"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="44"/>
-    <tableColumn id="8" name="Description" dataDxfId="43"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="36"/>
+    <tableColumn id="6" name="Title" dataDxfId="35"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="34"/>
+    <tableColumn id="8" name="Description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="32">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="41">
+    <tableColumn id="9" name="No" dataDxfId="31">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="40"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="39">
+    <tableColumn id="1" name="Form Id" dataDxfId="30"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="38"/>
-    <tableColumn id="2" name="Type" dataDxfId="37"/>
-    <tableColumn id="5" name="Label" dataDxfId="36"/>
-    <tableColumn id="6" name="Collection" dataDxfId="35"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="34">
+    <tableColumn id="4" name="Name" dataDxfId="28"/>
+    <tableColumn id="2" name="Type" dataDxfId="27"/>
+    <tableColumn id="5" name="Label" dataDxfId="26"/>
+    <tableColumn id="6" name="Collection" dataDxfId="25"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="24">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="33"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="32"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="31"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="30"/>
+    <tableColumn id="10" name="Relation" dataDxfId="23"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="22"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="21"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4637,10 +4586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4700,7 +4649,7 @@
         <v>user</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D35" si="0">"Milestone\Appframe\Model"</f>
+        <f t="shared" ref="D2:D36" si="0">"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="E2" s="8" t="str">
@@ -6001,56 +5950,56 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__resource_form_collection</v>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>resource_form_collection</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>ResourceFormCollection</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___resource_form_collection_table --create=__resource_form_collection</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model ResourceFormCollection</v>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__resource_form_collection';</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed ResourceFormCollectionTableSeeder</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>ResourceFormCollectionTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B35" s="9" t="str">
         <f>"__"&amp;[Name]</f>
         <v>__organisation</v>
       </c>
-      <c r="C34" s="9" t="str">
+      <c r="C35" s="9" t="str">
         <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
         <v>organisation</v>
-      </c>
-      <c r="D34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Milestone\Appframe\Model</v>
-      </c>
-      <c r="E34" s="9" t="str">
-        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>Organisation</v>
-      </c>
-      <c r="F34" s="9" t="str">
-        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___organisation_table --create=__organisation</v>
-      </c>
-      <c r="G34" s="9" t="str">
-        <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model Organisation</v>
-      </c>
-      <c r="H34" s="9" t="str">
-        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__organisation';</v>
-      </c>
-      <c r="I34" s="9" t="str">
-        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
-        <v>php artisan make:seed OrganisationTableSeeder</v>
-      </c>
-      <c r="J34" s="9" t="str">
-        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
-        <v>OrganisationTableSeeder::class,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="9" t="str">
-        <f>"__"&amp;[Name]</f>
-        <v>__organisation_contacts</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
-        <v>organisation_contact</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6058,25 +6007,66 @@
       </c>
       <c r="E35" s="9" t="str">
         <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
-        <v>OrganisationContact</v>
+        <v>Organisation</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
-        <v>php artisan make:migration create___organisation_contacts_table --create=__organisation_contacts</v>
+        <v>php artisan make:migration create___organisation_table --create=__organisation</v>
       </c>
       <c r="G35" s="9" t="str">
         <f>"php artisan make:model "&amp;[Class Name]</f>
-        <v>php artisan make:model OrganisationContact</v>
+        <v>php artisan make:model Organisation</v>
       </c>
       <c r="H35" s="9" t="str">
         <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
-        <v>protected $table = '__organisation_contacts';</v>
+        <v>protected $table = '__organisation';</v>
       </c>
       <c r="I35" s="9" t="str">
         <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
+        <v>php artisan make:seed OrganisationTableSeeder</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
+        <v>OrganisationTableSeeder::class,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <f>"__"&amp;[Name]</f>
+        <v>__organisation_contacts</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</f>
+        <v>organisation_contact</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f>SUBSTITUTE(PROPER([Singular Name]),"_","")</f>
+        <v>OrganisationContact</v>
+      </c>
+      <c r="F36" s="9" t="str">
+        <f>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</f>
+        <v>php artisan make:migration create___organisation_contacts_table --create=__organisation_contacts</v>
+      </c>
+      <c r="G36" s="9" t="str">
+        <f>"php artisan make:model "&amp;[Class Name]</f>
+        <v>php artisan make:model OrganisationContact</v>
+      </c>
+      <c r="H36" s="9" t="str">
+        <f>"protected $table = '"&amp;[Table]&amp;"';"</f>
+        <v>protected $table = '__organisation_contacts';</v>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</f>
         <v>php artisan make:seed OrganisationContactTableSeeder</v>
       </c>
-      <c r="J35" s="9" t="str">
+      <c r="J36" s="9" t="str">
         <f>[Class Name]&amp;"TableSeeder"&amp;"::class,"</f>
         <v>OrganisationContactTableSeeder::class,</v>
       </c>
@@ -7662,10 +7652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -10471,21 +10461,68 @@
       </c>
       <c r="I129" s="4"/>
     </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A129">
-    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
+  <conditionalFormatting sqref="A2:A131">
+    <cfRule type="duplicateValues" dxfId="111" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:A131">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10497,10 +10534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="K304" sqref="K304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -23790,13 +23827,365 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>increments(</v>
+      </c>
+      <c r="D303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'id'</v>
+      </c>
+      <c r="E303" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J303" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K303" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C304" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'resource_form'</v>
+      </c>
+      <c r="E304" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J304" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K304" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C305" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'collection_form'</v>
+      </c>
+      <c r="E305" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J305" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K305" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('collection_form')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C306" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E306" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;nullable()</v>
+      </c>
+      <c r="H306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J306" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K306" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C307" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>timestamps(</v>
+      </c>
+      <c r="D307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v/>
+      </c>
+      <c r="E307" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v/>
+      </c>
+      <c r="G307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v/>
+      </c>
+      <c r="H307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v/>
+      </c>
+      <c r="I307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v/>
+      </c>
+      <c r="J307" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K307" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C308" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'resource_form'</v>
+      </c>
+      <c r="E308" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_forms')</v>
+      </c>
+      <c r="H308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J308" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K308" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C309" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'collection_form'</v>
+      </c>
+      <c r="E309" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_forms')</v>
+      </c>
+      <c r="H309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J309" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K309" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('collection_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C310" s="4" t="str">
+        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
+        <v>foreign(</v>
+      </c>
+      <c r="D310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
+        <v>'relation'</v>
+      </c>
+      <c r="E310" s="7" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
+        <v>)</v>
+      </c>
+      <c r="F310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
+        <v>-&gt;on('__resource_relations')</v>
+      </c>
+      <c r="H310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
+        <v>-&gt;onDelete('set null')</v>
+      </c>
+      <c r="J310" s="4" t="str">
+        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
+        <v/>
+      </c>
+      <c r="K310" s="4" t="str">
+        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B302">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B310">
       <formula1>AvailableFields</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A302">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A310">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="659">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -1997,6 +1997,24 @@
   </si>
   <si>
     <t>collection_form</t>
+  </si>
+  <si>
+    <t>ResourceFormCollection</t>
+  </si>
+  <si>
+    <t>Collection/Detail Form</t>
+  </si>
+  <si>
+    <t>Collection Form</t>
+  </si>
+  <si>
+    <t>__resource_form_collection</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collection/Detail form</t>
   </si>
 </sst>
 </file>
@@ -2226,43 +2244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3840,6 +3822,18 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4024,35 +4018,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="122">
   <autoFilter ref="A1:J36"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="10" name="Table" dataDxfId="122">
+    <tableColumn id="2" name="Name" dataDxfId="121"/>
+    <tableColumn id="10" name="Table" dataDxfId="120">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="121">
+    <tableColumn id="5" name="Singular Name" dataDxfId="119">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="120">
+    <tableColumn id="8" name="Model NS" dataDxfId="118">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="119">
+    <tableColumn id="4" name="Class Name" dataDxfId="117">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="118">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="116">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="117">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="115">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="116">
+    <tableColumn id="3" name="Model Statement" dataDxfId="114">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="115">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="113">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="114">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="112">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4061,87 +4055,87 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="18">
+    <tableColumn id="1" name="No" dataDxfId="15">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="17"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="16">
+    <tableColumn id="2" name="Resource" dataDxfId="14"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="15"/>
-    <tableColumn id="4" name="Description" dataDxfId="14"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="13"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="12"/>
-    <tableColumn id="7" name="Menu" dataDxfId="11"/>
-    <tableColumn id="8" name="Icon" dataDxfId="10"/>
-    <tableColumn id="9" name="Set" dataDxfId="9"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="8"/>
-    <tableColumn id="15" name="ID1" dataDxfId="7"/>
-    <tableColumn id="16" name="ID2" dataDxfId="6"/>
-    <tableColumn id="10" name="On" dataDxfId="5"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="4"/>
-    <tableColumn id="12" name="handler" dataDxfId="3"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
+    <tableColumn id="7" name="Menu" dataDxfId="8"/>
+    <tableColumn id="8" name="Icon" dataDxfId="7"/>
+    <tableColumn id="9" name="Set" dataDxfId="6"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
+    <tableColumn id="15" name="ID1" dataDxfId="4"/>
+    <tableColumn id="16" name="ID2" dataDxfId="3"/>
+    <tableColumn id="10" name="On" dataDxfId="2"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
+    <tableColumn id="12" name="handler" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I131" totalsRowShown="0" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I131" totalsRowShown="0" dataDxfId="105">
   <autoFilter ref="A1:I131">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="107"/>
-    <tableColumn id="2" name="Type" dataDxfId="106"/>
-    <tableColumn id="3" name="Name" dataDxfId="105"/>
-    <tableColumn id="4" name="Length" dataDxfId="104"/>
-    <tableColumn id="5" name="Method1" dataDxfId="103"/>
-    <tableColumn id="6" name="Method2" dataDxfId="102"/>
-    <tableColumn id="7" name="Method3" dataDxfId="101"/>
-    <tableColumn id="8" name="Method4" dataDxfId="100"/>
-    <tableColumn id="9" name="Method5" dataDxfId="99"/>
+    <tableColumn id="1" name="Column" dataDxfId="104"/>
+    <tableColumn id="2" name="Type" dataDxfId="103"/>
+    <tableColumn id="3" name="Name" dataDxfId="102"/>
+    <tableColumn id="4" name="Length" dataDxfId="101"/>
+    <tableColumn id="5" name="Method1" dataDxfId="100"/>
+    <tableColumn id="6" name="Method2" dataDxfId="99"/>
+    <tableColumn id="7" name="Method3" dataDxfId="98"/>
+    <tableColumn id="8" name="Method4" dataDxfId="97"/>
+    <tableColumn id="9" name="Method5" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:K310">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="97"/>
-    <tableColumn id="3" name="Field" dataDxfId="96"/>
-    <tableColumn id="5" name="Type" dataDxfId="95">
+    <tableColumn id="2" name="Table" dataDxfId="94"/>
+    <tableColumn id="3" name="Field" dataDxfId="93"/>
+    <tableColumn id="5" name="Type" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="94">
+    <tableColumn id="4" name="Name" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="93">
+    <tableColumn id="6" name="Arg2" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="92">
+    <tableColumn id="7" name="Method1" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="91">
+    <tableColumn id="8" name="Method2" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="90">
+    <tableColumn id="9" name="Method3" dataDxfId="87">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="89">
+    <tableColumn id="10" name="Method4" dataDxfId="86">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="88">
+    <tableColumn id="11" name="Method5" dataDxfId="85">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="87">
+    <tableColumn id="12" name="Statement" dataDxfId="84">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4150,55 +4144,55 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R271" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
-  <autoFilter ref="A1:R271">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R273" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R273">
     <filterColumn colId="1">
       <filters>
-        <filter val="Resource Relations"/>
+        <filter val="Resources"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="84">
+    <tableColumn id="19" name="TRCode" dataDxfId="81">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="83"/>
-    <tableColumn id="2" name="Record No" dataDxfId="82">
+    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
+    <tableColumn id="2" name="Record No" dataDxfId="79">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="81"/>
-    <tableColumn id="4" name="2" dataDxfId="80"/>
-    <tableColumn id="5" name="3" dataDxfId="79"/>
-    <tableColumn id="6" name="4" dataDxfId="78"/>
-    <tableColumn id="7" name="5" dataDxfId="77"/>
-    <tableColumn id="8" name="6" dataDxfId="76"/>
-    <tableColumn id="9" name="7" dataDxfId="75"/>
-    <tableColumn id="10" name="8" dataDxfId="74"/>
-    <tableColumn id="11" name="9" dataDxfId="73"/>
-    <tableColumn id="12" name="10" dataDxfId="72"/>
-    <tableColumn id="13" name="11" dataDxfId="71"/>
-    <tableColumn id="14" name="12" dataDxfId="70"/>
-    <tableColumn id="15" name="13" dataDxfId="69"/>
-    <tableColumn id="16" name="14" dataDxfId="68"/>
-    <tableColumn id="17" name="15" dataDxfId="67"/>
+    <tableColumn id="3" name="1" dataDxfId="78"/>
+    <tableColumn id="4" name="2" dataDxfId="77"/>
+    <tableColumn id="5" name="3" dataDxfId="76"/>
+    <tableColumn id="6" name="4" dataDxfId="75"/>
+    <tableColumn id="7" name="5" dataDxfId="74"/>
+    <tableColumn id="8" name="6" dataDxfId="73"/>
+    <tableColumn id="9" name="7" dataDxfId="72"/>
+    <tableColumn id="10" name="8" dataDxfId="71"/>
+    <tableColumn id="11" name="9" dataDxfId="70"/>
+    <tableColumn id="12" name="10" dataDxfId="69"/>
+    <tableColumn id="13" name="11" dataDxfId="68"/>
+    <tableColumn id="14" name="12" dataDxfId="67"/>
+    <tableColumn id="15" name="13" dataDxfId="66"/>
+    <tableColumn id="16" name="14" dataDxfId="65"/>
+    <tableColumn id="17" name="15" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="63">
   <autoFilter ref="A1:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="65"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="64"/>
-    <tableColumn id="20" name="NS" dataDxfId="63">
+    <tableColumn id="1" name="Name" dataDxfId="62"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
+    <tableColumn id="20" name="NS" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="62">
+    <tableColumn id="21" name="Model" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="61">
+    <tableColumn id="4" name="Query Method" dataDxfId="58">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4207,46 +4201,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I30" totalsRowShown="0" dataDxfId="60">
-  <autoFilter ref="A1:I30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I31" totalsRowShown="0" dataDxfId="57">
+  <autoFilter ref="A1:I31"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="59">
+    <tableColumn id="1" name="No" dataDxfId="56">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="58"/>
-    <tableColumn id="3" name="Description" dataDxfId="57"/>
-    <tableColumn id="4" name="Title" dataDxfId="56"/>
-    <tableColumn id="5" name="NS" dataDxfId="55">
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Title" dataDxfId="53"/>
+    <tableColumn id="5" name="NS" dataDxfId="52">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="54"/>
-    <tableColumn id="7" name="Key" dataDxfId="53">
+    <tableColumn id="6" name="Table" dataDxfId="51"/>
+    <tableColumn id="7" name="Key" dataDxfId="50">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="52"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="51"/>
+    <tableColumn id="8" name="Controller" dataDxfId="49"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I39" totalsRowShown="0" dataDxfId="50">
-  <autoFilter ref="A1:I39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I40" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I40"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="49">
+    <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="48"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="47"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="46">
+    <tableColumn id="3" name="Resource" dataDxfId="45"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="45"/>
-    <tableColumn id="6" name="Description" dataDxfId="44"/>
-    <tableColumn id="7" name="Method" dataDxfId="43"/>
-    <tableColumn id="8" name="Type" dataDxfId="42"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="41">
+    <tableColumn id="5" name="Name" dataDxfId="42"/>
+    <tableColumn id="6" name="Description" dataDxfId="41"/>
+    <tableColumn id="7" name="Method" dataDxfId="40"/>
+    <tableColumn id="8" name="Type" dataDxfId="39"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4255,47 +4249,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="37">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="39">
+    <tableColumn id="1" name="No" dataDxfId="36">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="38"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="37">
+    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="36"/>
-    <tableColumn id="6" name="Title" dataDxfId="35"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="34"/>
-    <tableColumn id="8" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
+    <tableColumn id="6" name="Title" dataDxfId="32"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
+    <tableColumn id="8" name="Description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="31">
+    <tableColumn id="9" name="No" dataDxfId="28">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="30"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="29">
+    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" name="Type" dataDxfId="27"/>
-    <tableColumn id="5" name="Label" dataDxfId="26"/>
-    <tableColumn id="6" name="Collection" dataDxfId="25"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="24">
+    <tableColumn id="4" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" name="Label" dataDxfId="23"/>
+    <tableColumn id="6" name="Collection" dataDxfId="22"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="21">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="23"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="22"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="21"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="20"/>
+    <tableColumn id="10" name="Relation" dataDxfId="20"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4588,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10507,22 +10501,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="112" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A131">
-    <cfRule type="duplicateValues" dxfId="111" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="110" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -24199,10 +24193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R271"/>
+  <dimension ref="A1:R273"/>
   <sheetViews>
-    <sheetView topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B167" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24669,7 +24663,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" hidden="1">
+    <row r="14" spans="1:18">
       <c r="A14" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-0</v>
@@ -24713,7 +24707,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-1</v>
@@ -24753,7 +24747,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-2</v>
@@ -24793,7 +24787,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18" hidden="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-3</v>
@@ -24833,7 +24827,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-4</v>
@@ -24873,7 +24867,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18" hidden="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-5</v>
@@ -24913,7 +24907,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-6</v>
@@ -24953,7 +24947,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-7</v>
@@ -24993,7 +24987,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18" hidden="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-8</v>
@@ -25033,7 +25027,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18" hidden="1">
+    <row r="23" spans="1:18">
       <c r="A23" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-9</v>
@@ -25073,7 +25067,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18" hidden="1">
+    <row r="24" spans="1:18">
       <c r="A24" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-10</v>
@@ -25113,7 +25107,7 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-11</v>
@@ -25153,7 +25147,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-12</v>
@@ -25193,7 +25187,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-13</v>
@@ -25497,7 +25491,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-0</v>
@@ -25537,7 +25531,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-1</v>
@@ -25577,7 +25571,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-2</v>
@@ -25617,7 +25611,7 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-3</v>
@@ -25657,7 +25651,7 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-4</v>
@@ -25697,7 +25691,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-5</v>
@@ -25737,7 +25731,7 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-6</v>
@@ -25777,7 +25771,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-7</v>
@@ -25817,7 +25811,7 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-8</v>
@@ -25857,7 +25851,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-9</v>
@@ -25897,7 +25891,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" hidden="1">
       <c r="A46" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-10</v>
@@ -25937,7 +25931,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" hidden="1">
       <c r="A47" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-11</v>
@@ -25977,7 +25971,7 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" hidden="1">
       <c r="A48" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-12</v>
@@ -26017,7 +26011,7 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" hidden="1">
       <c r="A49" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-13</v>
@@ -26057,7 +26051,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" hidden="1">
       <c r="A50" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-14</v>
@@ -29701,7 +29695,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18" hidden="1">
+    <row r="151" spans="1:18">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-14</v>
@@ -29741,7 +29735,7 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" hidden="1">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-15</v>
@@ -29781,7 +29775,7 @@
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
     </row>
-    <row r="153" spans="1:18" hidden="1">
+    <row r="153" spans="1:18">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-15</v>
@@ -29821,7 +29815,7 @@
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" hidden="1">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-16</v>
@@ -29861,7 +29855,7 @@
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
     </row>
-    <row r="155" spans="1:18" hidden="1">
+    <row r="155" spans="1:18">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-16</v>
@@ -29901,7 +29895,7 @@
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" hidden="1">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-17</v>
@@ -30265,7 +30259,7 @@
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" hidden="1">
       <c r="A166" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-18</v>
@@ -30305,7 +30299,7 @@
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
     </row>
-    <row r="167" spans="1:18" hidden="1">
+    <row r="167" spans="1:18">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-17</v>
@@ -30345,7 +30339,7 @@
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" hidden="1">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-19</v>
@@ -30503,7 +30497,7 @@
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
     </row>
-    <row r="172" spans="1:18" hidden="1">
+    <row r="172" spans="1:18">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-18</v>
@@ -30543,7 +30537,7 @@
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" hidden="1">
       <c r="A173" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-20</v>
@@ -30583,7 +30577,7 @@
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" hidden="1">
       <c r="A174" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-21</v>
@@ -30623,7 +30617,7 @@
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" hidden="1">
       <c r="A175" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-22</v>
@@ -30663,7 +30657,7 @@
       <c r="Q175" s="43"/>
       <c r="R175" s="43"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" hidden="1">
       <c r="A176" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-23</v>
@@ -30979,7 +30973,7 @@
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
     </row>
-    <row r="185" spans="1:18" hidden="1">
+    <row r="185" spans="1:18">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-19</v>
@@ -31019,7 +31013,7 @@
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" hidden="1">
       <c r="A186" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-24</v>
@@ -31059,7 +31053,7 @@
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
     </row>
-    <row r="187" spans="1:18" hidden="1">
+    <row r="187" spans="1:18">
       <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-20</v>
@@ -31099,7 +31093,7 @@
       <c r="Q187" s="43"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18" hidden="1">
+    <row r="188" spans="1:18">
       <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-21</v>
@@ -31139,7 +31133,7 @@
       <c r="Q188" s="43"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18" hidden="1">
+    <row r="189" spans="1:18">
       <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-22</v>
@@ -31179,7 +31173,7 @@
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" hidden="1">
       <c r="A190" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-25</v>
@@ -31219,7 +31213,7 @@
       <c r="Q190" s="43"/>
       <c r="R190" s="43"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" hidden="1">
       <c r="A191" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-26</v>
@@ -31259,7 +31253,7 @@
       <c r="Q191" s="43"/>
       <c r="R191" s="43"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" hidden="1">
       <c r="A192" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-27</v>
@@ -31299,7 +31293,7 @@
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
     </row>
-    <row r="193" spans="1:18" hidden="1">
+    <row r="193" spans="1:18">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-23</v>
@@ -31339,7 +31333,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18" hidden="1">
+    <row r="194" spans="1:18">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-24</v>
@@ -31379,7 +31373,7 @@
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" hidden="1">
       <c r="A195" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-28</v>
@@ -31419,7 +31413,7 @@
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" hidden="1">
       <c r="A196" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-29</v>
@@ -31993,7 +31987,7 @@
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
     </row>
-    <row r="212" spans="1:18" hidden="1">
+    <row r="212" spans="1:18">
       <c r="A212" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-25</v>
@@ -32033,7 +32027,7 @@
       <c r="Q212" s="16"/>
       <c r="R212" s="16"/>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" hidden="1">
       <c r="A213" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-30</v>
@@ -32073,7 +32067,7 @@
       <c r="Q213" s="16"/>
       <c r="R213" s="16"/>
     </row>
-    <row r="214" spans="1:18" hidden="1">
+    <row r="214" spans="1:18">
       <c r="A214" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-26</v>
@@ -32113,7 +32107,7 @@
       <c r="Q214" s="40"/>
       <c r="R214" s="40"/>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" hidden="1">
       <c r="A215" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-31</v>
@@ -32153,7 +32147,7 @@
       <c r="Q215" s="40"/>
       <c r="R215" s="40"/>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" hidden="1">
       <c r="A216" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-32</v>
@@ -32193,7 +32187,7 @@
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
     </row>
-    <row r="217" spans="1:18" hidden="1">
+    <row r="217" spans="1:18">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-27</v>
@@ -32233,7 +32227,7 @@
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" hidden="1">
       <c r="A218" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-33</v>
@@ -32511,7 +32505,7 @@
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
     </row>
-    <row r="226" spans="1:18" hidden="1">
+    <row r="226" spans="1:18">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-28</v>
@@ -32551,7 +32545,7 @@
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" hidden="1">
       <c r="A227" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-34</v>
@@ -32591,7 +32585,7 @@
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
     </row>
-    <row r="228" spans="1:18" hidden="1">
+    <row r="228" spans="1:18">
       <c r="A228" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-29</v>
@@ -32631,7 +32625,7 @@
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" hidden="1">
       <c r="A229" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-35</v>
@@ -32671,7 +32665,7 @@
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" hidden="1">
       <c r="A230" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-36</v>
@@ -32711,7 +32705,7 @@
       <c r="Q230" s="43"/>
       <c r="R230" s="43"/>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" hidden="1">
       <c r="A231" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-37</v>
@@ -34109,7 +34103,7 @@
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" hidden="1">
       <c r="A271" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-38</v>
@@ -34148,6 +34142,86 @@
       <c r="P271" s="40"/>
       <c r="Q271" s="40"/>
       <c r="R271" s="40"/>
+    </row>
+    <row r="272" spans="1:18">
+      <c r="A272" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resources-30</v>
+      </c>
+      <c r="B272" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C272" s="22">
+        <f>COUNTIF($B$1:$B271,[Table Name])</f>
+        <v>30</v>
+      </c>
+      <c r="D272" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="E272" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="F272" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="G272" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="H272" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="I272" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J272" s="40"/>
+      <c r="K272" s="40"/>
+      <c r="L272" s="40"/>
+      <c r="M272" s="40"/>
+      <c r="N272" s="40"/>
+      <c r="O272" s="40"/>
+      <c r="P272" s="40"/>
+      <c r="Q272" s="40"/>
+      <c r="R272" s="40"/>
+    </row>
+    <row r="273" spans="1:18" hidden="1">
+      <c r="A273" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-39</v>
+      </c>
+      <c r="B273" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" s="22">
+        <f>COUNTIF($B$1:$B272,[Table Name])</f>
+        <v>39</v>
+      </c>
+      <c r="D273" s="40">
+        <v>12</v>
+      </c>
+      <c r="E273" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="F273" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="G273" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="H273" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="I273" s="40">
+        <v>30</v>
+      </c>
+      <c r="J273" s="40"/>
+      <c r="K273" s="40"/>
+      <c r="L273" s="40"/>
+      <c r="M273" s="40"/>
+      <c r="N273" s="40"/>
+      <c r="O273" s="40"/>
+      <c r="P273" s="40"/>
+      <c r="Q273" s="40"/>
+      <c r="R273" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34713,10 +34787,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="B30:G30"/>
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35571,9 +35645,37 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="20">
+        <f>IFERROR($A30+1,1)</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f>"Milestone\Appframe\Model"</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="G31" s="21" t="str">
+        <f>"id"</f>
+        <v>id</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
       <formula1>ActualTableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -35586,10 +35688,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="D39:I39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36853,9 +36955,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="20">
+        <f>IFERROR($A39+1,1)</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C40">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -36870,8 +37004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39945,31 +40079,31 @@
       </c>
       <c r="B47" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '12', </v>
       </c>
       <c r="D47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Collections', </v>
       </c>
       <c r="E47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Collection/Detail form', </v>
       </c>
       <c r="F47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Collections', </v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
       </c>
       <c r="H47" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '30', </v>
       </c>
       <c r="I47" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40009,7 +40143,7 @@
       </c>
       <c r="R47" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -40018,7 +40152,7 @@
       </c>
       <c r="B48" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>;</v>
       </c>
       <c r="C48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -40091,7 +40225,7 @@
       </c>
       <c r="B49" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="660">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -2015,6 +2015,9 @@
   </si>
   <si>
     <t>Collection/Detail form</t>
+  </si>
+  <si>
+    <t>Form Collection</t>
   </si>
 </sst>
 </file>
@@ -4144,11 +4147,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R273" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R274" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R274">
     <filterColumn colId="1">
       <filters>
-        <filter val="Resources"/>
+        <filter val="Resource Relations"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4181,8 +4184,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E26" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E27" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E27"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="62"/>
     <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
@@ -4225,8 +4228,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I40" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="A1:I40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I41" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I41"/>
   <tableColumns count="9">
     <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -24193,10 +24196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R273"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
-    <sheetView topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView topLeftCell="B213" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24663,7 +24666,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-0</v>
@@ -24707,7 +24710,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-1</v>
@@ -24747,7 +24750,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-2</v>
@@ -24787,7 +24790,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-3</v>
@@ -24827,7 +24830,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-4</v>
@@ -24867,7 +24870,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-5</v>
@@ -24907,7 +24910,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-6</v>
@@ -24947,7 +24950,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-7</v>
@@ -24987,7 +24990,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-8</v>
@@ -25027,7 +25030,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" hidden="1">
       <c r="A23" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-9</v>
@@ -25067,7 +25070,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" hidden="1">
       <c r="A24" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-10</v>
@@ -25107,7 +25110,7 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-11</v>
@@ -25147,7 +25150,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-12</v>
@@ -25187,7 +25190,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-13</v>
@@ -25491,7 +25494,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18">
       <c r="A36" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-0</v>
@@ -25531,7 +25534,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18">
       <c r="A37" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-1</v>
@@ -25571,7 +25574,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
     </row>
-    <row r="38" spans="1:18" hidden="1">
+    <row r="38" spans="1:18">
       <c r="A38" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-2</v>
@@ -25611,7 +25614,7 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="1:18" hidden="1">
+    <row r="39" spans="1:18">
       <c r="A39" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-3</v>
@@ -25651,7 +25654,7 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18" hidden="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-4</v>
@@ -25691,7 +25694,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18" hidden="1">
+    <row r="41" spans="1:18">
       <c r="A41" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-5</v>
@@ -25731,7 +25734,7 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18" hidden="1">
+    <row r="42" spans="1:18">
       <c r="A42" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-6</v>
@@ -25771,7 +25774,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
     </row>
-    <row r="43" spans="1:18" hidden="1">
+    <row r="43" spans="1:18">
       <c r="A43" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-7</v>
@@ -25811,7 +25814,7 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:18" hidden="1">
+    <row r="44" spans="1:18">
       <c r="A44" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-8</v>
@@ -25851,7 +25854,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
     </row>
-    <row r="45" spans="1:18" hidden="1">
+    <row r="45" spans="1:18">
       <c r="A45" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-9</v>
@@ -25891,7 +25894,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="1:18" hidden="1">
+    <row r="46" spans="1:18">
       <c r="A46" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-10</v>
@@ -25931,7 +25934,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18" hidden="1">
+    <row r="47" spans="1:18">
       <c r="A47" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-11</v>
@@ -25971,7 +25974,7 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="1:18" hidden="1">
+    <row r="48" spans="1:18">
       <c r="A48" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-12</v>
@@ -26011,7 +26014,7 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="1:18" hidden="1">
+    <row r="49" spans="1:18">
       <c r="A49" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-13</v>
@@ -26051,7 +26054,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:18" hidden="1">
+    <row r="50" spans="1:18">
       <c r="A50" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-14</v>
@@ -29695,7 +29698,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" hidden="1">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-14</v>
@@ -29735,7 +29738,7 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18" hidden="1">
+    <row r="152" spans="1:18">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-15</v>
@@ -29775,7 +29778,7 @@
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" hidden="1">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-15</v>
@@ -29815,7 +29818,7 @@
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
     </row>
-    <row r="154" spans="1:18" hidden="1">
+    <row r="154" spans="1:18">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-16</v>
@@ -29855,7 +29858,7 @@
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" hidden="1">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-16</v>
@@ -29895,7 +29898,7 @@
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
     </row>
-    <row r="156" spans="1:18" hidden="1">
+    <row r="156" spans="1:18">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-17</v>
@@ -30259,7 +30262,7 @@
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
     </row>
-    <row r="166" spans="1:18" hidden="1">
+    <row r="166" spans="1:18">
       <c r="A166" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-18</v>
@@ -30299,7 +30302,7 @@
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" hidden="1">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-17</v>
@@ -30339,7 +30342,7 @@
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
     </row>
-    <row r="168" spans="1:18" hidden="1">
+    <row r="168" spans="1:18">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-19</v>
@@ -30497,7 +30500,7 @@
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" hidden="1">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-18</v>
@@ -30537,7 +30540,7 @@
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
     </row>
-    <row r="173" spans="1:18" hidden="1">
+    <row r="173" spans="1:18">
       <c r="A173" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-20</v>
@@ -30577,7 +30580,7 @@
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
     </row>
-    <row r="174" spans="1:18" hidden="1">
+    <row r="174" spans="1:18">
       <c r="A174" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-21</v>
@@ -30617,7 +30620,7 @@
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
     </row>
-    <row r="175" spans="1:18" hidden="1">
+    <row r="175" spans="1:18">
       <c r="A175" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-22</v>
@@ -30657,7 +30660,7 @@
       <c r="Q175" s="43"/>
       <c r="R175" s="43"/>
     </row>
-    <row r="176" spans="1:18" hidden="1">
+    <row r="176" spans="1:18">
       <c r="A176" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-23</v>
@@ -30973,7 +30976,7 @@
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" hidden="1">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-19</v>
@@ -31013,7 +31016,7 @@
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
     </row>
-    <row r="186" spans="1:18" hidden="1">
+    <row r="186" spans="1:18">
       <c r="A186" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-24</v>
@@ -31053,7 +31056,7 @@
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" hidden="1">
       <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-20</v>
@@ -31093,7 +31096,7 @@
       <c r="Q187" s="43"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" hidden="1">
       <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-21</v>
@@ -31133,7 +31136,7 @@
       <c r="Q188" s="43"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" hidden="1">
       <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-22</v>
@@ -31173,7 +31176,7 @@
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
     </row>
-    <row r="190" spans="1:18" hidden="1">
+    <row r="190" spans="1:18">
       <c r="A190" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-25</v>
@@ -31213,7 +31216,7 @@
       <c r="Q190" s="43"/>
       <c r="R190" s="43"/>
     </row>
-    <row r="191" spans="1:18" hidden="1">
+    <row r="191" spans="1:18">
       <c r="A191" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-26</v>
@@ -31253,7 +31256,7 @@
       <c r="Q191" s="43"/>
       <c r="R191" s="43"/>
     </row>
-    <row r="192" spans="1:18" hidden="1">
+    <row r="192" spans="1:18">
       <c r="A192" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-27</v>
@@ -31293,7 +31296,7 @@
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" hidden="1">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-23</v>
@@ -31333,7 +31336,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" hidden="1">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-24</v>
@@ -31373,7 +31376,7 @@
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
     </row>
-    <row r="195" spans="1:18" hidden="1">
+    <row r="195" spans="1:18">
       <c r="A195" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-28</v>
@@ -31413,7 +31416,7 @@
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
     </row>
-    <row r="196" spans="1:18" hidden="1">
+    <row r="196" spans="1:18">
       <c r="A196" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-29</v>
@@ -31987,7 +31990,7 @@
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" hidden="1">
       <c r="A212" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-25</v>
@@ -32027,7 +32030,7 @@
       <c r="Q212" s="16"/>
       <c r="R212" s="16"/>
     </row>
-    <row r="213" spans="1:18" hidden="1">
+    <row r="213" spans="1:18">
       <c r="A213" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-30</v>
@@ -32067,7 +32070,7 @@
       <c r="Q213" s="16"/>
       <c r="R213" s="16"/>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" hidden="1">
       <c r="A214" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-26</v>
@@ -32107,7 +32110,7 @@
       <c r="Q214" s="40"/>
       <c r="R214" s="40"/>
     </row>
-    <row r="215" spans="1:18" hidden="1">
+    <row r="215" spans="1:18">
       <c r="A215" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-31</v>
@@ -32147,7 +32150,7 @@
       <c r="Q215" s="40"/>
       <c r="R215" s="40"/>
     </row>
-    <row r="216" spans="1:18" hidden="1">
+    <row r="216" spans="1:18">
       <c r="A216" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-32</v>
@@ -32187,7 +32190,7 @@
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" hidden="1">
       <c r="A217" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-27</v>
@@ -32227,7 +32230,7 @@
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
     </row>
-    <row r="218" spans="1:18" hidden="1">
+    <row r="218" spans="1:18">
       <c r="A218" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-33</v>
@@ -32505,7 +32508,7 @@
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" hidden="1">
       <c r="A226" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-28</v>
@@ -32545,7 +32548,7 @@
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
     </row>
-    <row r="227" spans="1:18" hidden="1">
+    <row r="227" spans="1:18">
       <c r="A227" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-34</v>
@@ -32585,7 +32588,7 @@
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" hidden="1">
       <c r="A228" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-29</v>
@@ -32625,7 +32628,7 @@
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
     </row>
-    <row r="229" spans="1:18" hidden="1">
+    <row r="229" spans="1:18">
       <c r="A229" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-35</v>
@@ -32665,7 +32668,7 @@
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
     </row>
-    <row r="230" spans="1:18" hidden="1">
+    <row r="230" spans="1:18">
       <c r="A230" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-36</v>
@@ -32705,7 +32708,7 @@
       <c r="Q230" s="43"/>
       <c r="R230" s="43"/>
     </row>
-    <row r="231" spans="1:18" hidden="1">
+    <row r="231" spans="1:18">
       <c r="A231" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-37</v>
@@ -34103,7 +34106,7 @@
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
     </row>
-    <row r="271" spans="1:18" hidden="1">
+    <row r="271" spans="1:18">
       <c r="A271" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-38</v>
@@ -34143,7 +34146,7 @@
       <c r="Q271" s="40"/>
       <c r="R271" s="40"/>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" hidden="1">
       <c r="A272" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-30</v>
@@ -34183,7 +34186,7 @@
       <c r="Q272" s="40"/>
       <c r="R272" s="40"/>
     </row>
-    <row r="273" spans="1:18" hidden="1">
+    <row r="273" spans="1:18">
       <c r="A273" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-39</v>
@@ -34222,6 +34225,46 @@
       <c r="P273" s="40"/>
       <c r="Q273" s="40"/>
       <c r="R273" s="40"/>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="A274" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-40</v>
+      </c>
+      <c r="B274" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C274" s="22">
+        <f>COUNTIF($B$1:$B273,[Table Name])</f>
+        <v>40</v>
+      </c>
+      <c r="D274" s="40">
+        <v>30</v>
+      </c>
+      <c r="E274" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F274" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="G274" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="H274" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="I274" s="40">
+        <v>12</v>
+      </c>
+      <c r="J274" s="40"/>
+      <c r="K274" s="40"/>
+      <c r="L274" s="40"/>
+      <c r="M274" s="40"/>
+      <c r="N274" s="40"/>
+      <c r="O274" s="40"/>
+      <c r="P274" s="40"/>
+      <c r="Q274" s="40"/>
+      <c r="R274" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34234,10 +34277,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34768,12 +34811,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceFormCollection</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -35688,10 +35751,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:I40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36987,9 +37050,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="20">
+        <f>IFERROR($A40+1,1)</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I41" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C41">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -37004,8 +37099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40152,31 +40247,31 @@
       </c>
       <c r="B48" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '30', </v>
       </c>
       <c r="D48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Collection Form', </v>
       </c>
       <c r="E48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Collection Form', </v>
       </c>
       <c r="F48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Form', </v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H48" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
       </c>
       <c r="I48" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40216,7 +40311,7 @@
       </c>
       <c r="R48" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -40225,7 +40320,7 @@
       </c>
       <c r="B49" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>;</v>
       </c>
       <c r="C49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -40298,7 +40393,7 @@
       </c>
       <c r="B50" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="661">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -2018,6 +2018,9 @@
   </si>
   <si>
     <t>Form Collection</t>
+  </si>
+  <si>
+    <t>Details of Relation</t>
   </si>
 </sst>
 </file>
@@ -4147,8 +4150,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R274" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R275" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R275">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4228,8 +4231,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I41" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="A1:I41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I42" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I42"/>
   <tableColumns count="9">
     <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -24196,10 +24199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34265,6 +34268,46 @@
       <c r="P274" s="40"/>
       <c r="Q274" s="40"/>
       <c r="R274" s="40"/>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="A275" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-41</v>
+      </c>
+      <c r="B275" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" s="22">
+        <f>COUNTIF($B$1:$B274,[Table Name])</f>
+        <v>41</v>
+      </c>
+      <c r="D275" s="40">
+        <v>30</v>
+      </c>
+      <c r="E275" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F275" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="G275" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H275" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="I275" s="40">
+        <v>26</v>
+      </c>
+      <c r="J275" s="40"/>
+      <c r="K275" s="40"/>
+      <c r="L275" s="40"/>
+      <c r="M275" s="40"/>
+      <c r="N275" s="40"/>
+      <c r="O275" s="40"/>
+      <c r="P275" s="40"/>
+      <c r="Q275" s="40"/>
+      <c r="R275" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35751,10 +35794,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:I41"/>
+      <selection activeCell="D42" sqref="D42:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37082,9 +37125,41 @@
         <v>12</v>
       </c>
     </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="20">
+        <f>IFERROR($A41+1,1)</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I42" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C42">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -37099,8 +37174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40320,31 +40395,31 @@
       </c>
       <c r="B49" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '30', </v>
       </c>
       <c r="D49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Relation', </v>
       </c>
       <c r="E49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Details of Relation', </v>
       </c>
       <c r="F49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H49" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I49" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40384,7 +40459,7 @@
       </c>
       <c r="R49" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -40393,7 +40468,7 @@
       </c>
       <c r="B50" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>;</v>
       </c>
       <c r="C50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -40466,7 +40541,7 @@
       </c>
       <c r="B51" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="663">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -2021,6 +2021,12 @@
   </si>
   <si>
     <t>Details of Relation</t>
+  </si>
+  <si>
+    <t>Field details</t>
+  </si>
+  <si>
+    <t>Form details</t>
   </si>
 </sst>
 </file>
@@ -4150,8 +4156,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R275" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R277" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R277">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4231,8 +4237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I42" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="A1:I42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I44" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="A1:I44"/>
   <tableColumns count="9">
     <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -24199,10 +24205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R275"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34308,6 +34314,86 @@
       <c r="P275" s="40"/>
       <c r="Q275" s="40"/>
       <c r="R275" s="40"/>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="A276" s="42" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-42</v>
+      </c>
+      <c r="B276" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C276" s="42">
+        <f>COUNTIF($B$1:$B275,[Table Name])</f>
+        <v>42</v>
+      </c>
+      <c r="D276" s="43">
+        <v>15</v>
+      </c>
+      <c r="E276" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="G276" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="I276" s="43">
+        <v>13</v>
+      </c>
+      <c r="J276" s="43"/>
+      <c r="K276" s="43"/>
+      <c r="L276" s="43"/>
+      <c r="M276" s="43"/>
+      <c r="N276" s="43"/>
+      <c r="O276" s="43"/>
+      <c r="P276" s="43"/>
+      <c r="Q276" s="43"/>
+      <c r="R276" s="43"/>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="A277" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Resource Relations-43</v>
+      </c>
+      <c r="B277" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C277" s="22">
+        <f>COUNTIF($B$1:$B276,[Table Name])</f>
+        <v>43</v>
+      </c>
+      <c r="D277" s="40">
+        <v>13</v>
+      </c>
+      <c r="E277" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="F277" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="G277" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="H277" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="I277" s="40">
+        <v>12</v>
+      </c>
+      <c r="J277" s="40"/>
+      <c r="K277" s="40"/>
+      <c r="L277" s="40"/>
+      <c r="M277" s="40"/>
+      <c r="N277" s="40"/>
+      <c r="O277" s="40"/>
+      <c r="P277" s="40"/>
+      <c r="Q277" s="40"/>
+      <c r="R277" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35794,10 +35880,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:I42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36967,7 +37053,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="20">
-        <f>IFERROR($A36+1,1)</f>
+        <f t="shared" ref="A37:A42" si="6">IFERROR($A36+1,1)</f>
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -36999,7 +37085,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="20">
-        <f>IFERROR($A37+1,1)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -37031,7 +37117,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="20">
-        <f>IFERROR($A38+1,1)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -37063,7 +37149,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="20">
-        <f>IFERROR($A39+1,1)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -37095,7 +37181,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="20">
-        <f>IFERROR($A40+1,1)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -37127,7 +37213,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="20">
-        <f>IFERROR($A41+1,1)</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -37157,9 +37243,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="20">
+        <f>IFERROR($A42+1,1)</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I43" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="20">
+        <f>IFERROR($A43+1,1)</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="7">
+        <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I44" s="41">
+        <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C44">
       <formula1>Resources</formula1>
     </dataValidation>
   </dataValidations>
@@ -37174,8 +37324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40468,31 +40618,31 @@
       </c>
       <c r="B50" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '15', </v>
       </c>
       <c r="D50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Field', </v>
       </c>
       <c r="E50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Field details', </v>
       </c>
       <c r="F50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Field', </v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H50" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
       </c>
       <c r="I50" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40532,7 +40682,7 @@
       </c>
       <c r="R50" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -40541,31 +40691,31 @@
       </c>
       <c r="B51" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v>-&gt;create([</v>
       </c>
       <c r="C51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'resource' =&gt; '13', </v>
       </c>
       <c r="D51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'name' =&gt; 'Form', </v>
       </c>
       <c r="E51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'description' =&gt; 'Form details', </v>
       </c>
       <c r="F51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'method' =&gt; 'Form', </v>
       </c>
       <c r="G51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
       </c>
       <c r="H51" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
       </c>
       <c r="I51" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40605,7 +40755,7 @@
       </c>
       <c r="R51" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>])</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -40614,7 +40764,7 @@
       </c>
       <c r="B52" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>;</v>
       </c>
       <c r="C52" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -40687,7 +40837,7 @@
       </c>
       <c r="B53" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C53" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -1537,12 +1537,6 @@
     <t>relation1</t>
   </si>
   <si>
-    <t>Bind Data Resource</t>
-  </si>
-  <si>
-    <t>Resource to which the data to be bind</t>
-  </si>
-  <si>
     <t>resource_relation</t>
   </si>
   <si>
@@ -2027,6 +2021,12 @@
   </si>
   <si>
     <t>Form details</t>
+  </si>
+  <si>
+    <t>Bind Data Relation</t>
+  </si>
+  <si>
+    <t>Relation to which the data to be bind</t>
   </si>
 </sst>
 </file>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B13" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B14" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B18" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B34" s="7" t="str">
         <f>"__"&amp;[Name]</f>
@@ -6323,13 +6323,13 @@
         <v>CreateUserAdministrator</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="str">
@@ -7562,20 +7562,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>343</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>341</v>
@@ -7604,20 +7604,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>560</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>343</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>341</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -8161,13 +8161,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -8182,13 +8182,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -8203,13 +8203,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -8224,13 +8224,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -8245,13 +8245,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -8291,13 +8291,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -8316,13 +8316,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -8341,13 +8341,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -8366,13 +8366,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
@@ -8391,13 +8391,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -9816,7 +9816,7 @@
         <v>49</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>246</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
@@ -9987,7 +9987,7 @@
         <v>461</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>24</v>
@@ -10017,13 +10017,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
@@ -10038,13 +10038,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
@@ -10059,7 +10059,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>42</v>
@@ -10084,13 +10084,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -10109,13 +10109,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
@@ -10134,7 +10134,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>42</v>
@@ -10159,13 +10159,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -10184,13 +10184,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
@@ -10209,13 +10209,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
@@ -10230,13 +10230,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -10272,13 +10272,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D121" s="4">
         <v>64</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>24</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>42</v>
@@ -10339,17 +10339,17 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -10358,13 +10358,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
@@ -10377,7 +10377,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>27</v>
@@ -10398,20 +10398,20 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>45</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>24</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>42</v>
@@ -10469,13 +10469,13 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -10488,13 +10488,13 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
@@ -12354,7 +12354,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12398,7 +12398,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12442,7 +12442,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12486,7 +12486,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12530,7 +12530,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12574,7 +12574,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12706,7 +12706,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12750,7 +12750,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12794,7 +12794,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12838,7 +12838,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12882,7 +12882,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -12926,7 +12926,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13454,7 +13454,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13498,7 +13498,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13542,7 +13542,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C69" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13586,7 +13586,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C70" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13630,7 +13630,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C71" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13674,7 +13674,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C72" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13806,7 +13806,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13850,7 +13850,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13894,7 +13894,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13938,7 +13938,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C78" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -13982,7 +13982,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C79" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -14026,7 +14026,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C80" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17282,7 +17282,7 @@
         <v>104</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C154" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17326,7 +17326,7 @@
         <v>104</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C155" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17370,7 +17370,7 @@
         <v>104</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C156" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17414,7 +17414,7 @@
         <v>104</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C157" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17590,7 +17590,7 @@
         <v>104</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C161" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17634,7 +17634,7 @@
         <v>104</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C162" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17678,7 +17678,7 @@
         <v>104</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C163" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -17722,7 +17722,7 @@
         <v>104</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C164" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -19966,7 +19966,7 @@
         <v>150</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C215" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20010,7 +20010,7 @@
         <v>150</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C216" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20054,7 +20054,7 @@
         <v>150</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C217" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20098,7 +20098,7 @@
         <v>150</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C218" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20274,7 +20274,7 @@
         <v>150</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C222" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20318,7 +20318,7 @@
         <v>150</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C223" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20362,7 +20362,7 @@
         <v>150</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C224" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -20406,7 +20406,7 @@
         <v>150</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C225" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21638,7 +21638,7 @@
         <v>454</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C253" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21770,7 +21770,7 @@
         <v>454</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C256" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21946,7 +21946,7 @@
         <v>454</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C260" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21987,7 +21987,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>21</v>
@@ -22031,7 +22031,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>94</v>
@@ -22075,7 +22075,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>269</v>
@@ -22119,10 +22119,10 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22163,10 +22163,10 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22207,10 +22207,10 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C266" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22251,10 +22251,10 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C267" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22295,7 +22295,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>40</v>
@@ -22339,7 +22339,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>95</v>
@@ -22383,10 +22383,10 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C270" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22427,10 +22427,10 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C271" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22471,10 +22471,10 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C272" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22515,7 +22515,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>21</v>
@@ -22559,7 +22559,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>4</v>
@@ -22603,7 +22603,7 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>57</v>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>40</v>
@@ -22691,7 +22691,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>93</v>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>60</v>
@@ -22779,7 +22779,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>21</v>
@@ -22823,7 +22823,7 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>117</v>
@@ -22867,7 +22867,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>122</v>
@@ -22911,10 +22911,10 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C282" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22955,7 +22955,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>40</v>
@@ -22999,7 +22999,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>118</v>
@@ -23043,7 +23043,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>123</v>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>21</v>
@@ -23131,7 +23131,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>4</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>30</v>
@@ -23219,7 +23219,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>55</v>
@@ -23263,10 +23263,10 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C290" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23307,10 +23307,10 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C291" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23351,7 +23351,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>40</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>93</v>
@@ -23439,10 +23439,10 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C294" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23483,7 +23483,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>21</v>
@@ -23527,10 +23527,10 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C296" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23571,7 +23571,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>269</v>
@@ -23615,10 +23615,10 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C298" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23659,10 +23659,10 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C299" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23703,7 +23703,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>40</v>
@@ -23747,10 +23747,10 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C301" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23791,10 +23791,10 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C302" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23835,7 +23835,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>21</v>
@@ -23879,7 +23879,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>117</v>
@@ -23923,10 +23923,10 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C305" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23967,10 +23967,10 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C306" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -24011,7 +24011,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>40</v>
@@ -24055,7 +24055,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>118</v>
@@ -24099,10 +24099,10 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C309" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -24143,10 +24143,10 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C310" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -24207,8 +24207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R277"/>
   <sheetViews>
-    <sheetView topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView topLeftCell="B152" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175:I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24526,7 +24526,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>174</v>
@@ -24741,7 +24741,7 @@
         <v>184</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>178</v>
@@ -24781,7 +24781,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>182</v>
@@ -24821,7 +24821,7 @@
         <v>185</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>187</v>
@@ -24861,7 +24861,7 @@
         <v>208</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>210</v>
@@ -24901,7 +24901,7 @@
         <v>205</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>207</v>
@@ -24941,7 +24941,7 @@
         <v>292</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>310</v>
@@ -24981,7 +24981,7 @@
         <v>316</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>318</v>
@@ -25021,7 +25021,7 @@
         <v>372</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>373</v>
@@ -25061,7 +25061,7 @@
         <v>385</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>386</v>
@@ -25101,7 +25101,7 @@
         <v>388</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>387</v>
@@ -25141,7 +25141,7 @@
         <v>398</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>399</v>
@@ -25181,7 +25181,7 @@
         <v>405</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>406</v>
@@ -25221,7 +25221,7 @@
         <v>409</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>410</v>
@@ -25297,7 +25297,7 @@
         <v>381</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -28101,13 +28101,13 @@
         <v>56</v>
       </c>
       <c r="G104" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="I104" s="16" t="s">
         <v>577</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
@@ -29729,7 +29729,7 @@
         <v>450</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H151" s="40" t="s">
         <v>451</v>
@@ -29809,7 +29809,7 @@
         <v>465</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H153" s="40" t="s">
         <v>466</v>
@@ -29889,7 +29889,7 @@
         <v>471</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H155" s="40" t="s">
         <v>472</v>
@@ -30333,7 +30333,7 @@
         <v>487</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H167" s="40" t="s">
         <v>488</v>
@@ -30419,13 +30419,13 @@
         <v>127</v>
       </c>
       <c r="I169" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="J169" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="K169" s="40" t="s">
         <v>577</v>
-      </c>
-      <c r="J169" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="K169" s="40" t="s">
-        <v>579</v>
       </c>
       <c r="L169" s="40" t="s">
         <v>36</v>
@@ -30531,7 +30531,7 @@
         <v>493</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H172" s="40" t="s">
         <v>494</v>
@@ -30645,10 +30645,10 @@
         <v>18</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>499</v>
+        <v>661</v>
       </c>
       <c r="F175" s="43" t="s">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="G175" s="43" t="s">
         <v>304</v>
@@ -30657,7 +30657,7 @@
         <v>402</v>
       </c>
       <c r="I175" s="43">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J175" s="43"/>
       <c r="K175" s="43"/>
@@ -30685,10 +30685,10 @@
         <v>17</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F176" s="43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G176" s="43" t="s">
         <v>304</v>
@@ -30725,13 +30725,13 @@
         <v>2</v>
       </c>
       <c r="E177" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F177" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G177" s="40" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H177" s="40"/>
       <c r="I177" s="40"/>
@@ -30761,13 +30761,13 @@
         <v>3</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G178" s="40" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="40"/>
@@ -30797,7 +30797,7 @@
         <v>32</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="40"/>
@@ -30829,7 +30829,7 @@
         <v>33</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -30864,7 +30864,7 @@
         <v>477</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G181" s="40"/>
       <c r="H181" s="40"/>
@@ -30895,10 +30895,10 @@
         <v>32</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G182" s="40">
         <v>3</v>
@@ -30934,7 +30934,7 @@
         <v>477</v>
       </c>
       <c r="F183" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G183" s="40"/>
       <c r="H183" s="40"/>
@@ -30965,10 +30965,10 @@
         <v>33</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F184" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G184" s="40">
         <v>3</v>
@@ -30998,19 +30998,19 @@
         <v>19</v>
       </c>
       <c r="D185" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E185" s="40" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F185" s="40" t="s">
         <v>392</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H185" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I185" s="40" t="s">
         <v>21</v>
@@ -31044,7 +31044,7 @@
         <v>400</v>
       </c>
       <c r="F186" s="40" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G186" s="40" t="s">
         <v>208</v>
@@ -31078,19 +31078,19 @@
         <v>20</v>
       </c>
       <c r="D187" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="E187" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="F187" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="E187" s="43" t="s">
+      <c r="G187" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H187" s="43" t="s">
         <v>523</v>
-      </c>
-      <c r="F187" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="H187" s="43" t="s">
-        <v>525</v>
       </c>
       <c r="I187" s="43" t="s">
         <v>21</v>
@@ -31118,19 +31118,19 @@
         <v>21</v>
       </c>
       <c r="D188" s="43" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F188" s="43" t="s">
         <v>439</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H188" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>21</v>
@@ -31158,19 +31158,19 @@
         <v>22</v>
       </c>
       <c r="D189" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="F189" s="40" t="s">
         <v>529</v>
       </c>
-      <c r="E189" s="40" t="s">
+      <c r="G189" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H189" s="40" t="s">
         <v>530</v>
-      </c>
-      <c r="F189" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="H189" s="40" t="s">
-        <v>532</v>
       </c>
       <c r="I189" s="40" t="s">
         <v>21</v>
@@ -31201,10 +31201,10 @@
         <v>19</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F190" s="43" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G190" s="43" t="s">
         <v>497</v>
@@ -31244,10 +31244,10 @@
         <v>439</v>
       </c>
       <c r="F191" s="43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G191" s="43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H191" s="43" t="s">
         <v>311</v>
@@ -31281,13 +31281,13 @@
         <v>19</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F192" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G192" s="40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H192" s="40" t="s">
         <v>216</v>
@@ -31318,19 +31318,19 @@
         <v>23</v>
       </c>
       <c r="D193" s="43" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F193" s="43" t="s">
         <v>394</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H193" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I193" s="43" t="s">
         <v>21</v>
@@ -31358,19 +31358,19 @@
         <v>24</v>
       </c>
       <c r="D194" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="E194" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="F194" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="E194" s="40" t="s">
+      <c r="G194" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H194" s="40" t="s">
         <v>549</v>
-      </c>
-      <c r="F194" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="H194" s="40" t="s">
-        <v>551</v>
       </c>
       <c r="I194" s="40" t="s">
         <v>21</v>
@@ -31401,10 +31401,10 @@
         <v>23</v>
       </c>
       <c r="E195" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F195" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G195" s="40" t="s">
         <v>497</v>
@@ -31444,7 +31444,7 @@
         <v>400</v>
       </c>
       <c r="F196" s="40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G196" s="40" t="s">
         <v>208</v>
@@ -31481,20 +31481,20 @@
         <v>1</v>
       </c>
       <c r="E197" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="F197" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="G197" s="40" t="s">
         <v>542</v>
-      </c>
-      <c r="F197" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="G197" s="40" t="s">
-        <v>544</v>
       </c>
       <c r="H197" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I197" s="40"/>
       <c r="J197" s="40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K197" s="40" t="s">
         <v>341</v>
@@ -31547,7 +31547,7 @@
         <v>Resource Action List-0</v>
       </c>
       <c r="B199" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C199" s="22">
         <f>COUNTIF($B$1:$B198,[Table Name])</f>
@@ -31579,7 +31579,7 @@
         <v>Resource Action List-1</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C200" s="22">
         <f>COUNTIF($B$1:$B199,[Table Name])</f>
@@ -31611,7 +31611,7 @@
         <v>Resource Data-0</v>
       </c>
       <c r="B201" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C201" s="22">
         <f>COUNTIF($B$1:$B200,[Table Name])</f>
@@ -31649,7 +31649,7 @@
         <v>Resource Data-1</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C202" s="22">
         <f>COUNTIF($B$1:$B201,[Table Name])</f>
@@ -31659,10 +31659,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F202" s="40" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G202" s="40" t="s">
         <v>26</v>
@@ -31685,7 +31685,7 @@
         <v>Resource Data-2</v>
       </c>
       <c r="B203" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C203" s="22">
         <f>COUNTIF($B$1:$B202,[Table Name])</f>
@@ -31695,10 +31695,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F203" s="40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G203" s="40" t="s">
         <v>26</v>
@@ -31731,20 +31731,20 @@
         <v>1</v>
       </c>
       <c r="E204" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="F204" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="F204" s="40" t="s">
-        <v>560</v>
-      </c>
       <c r="G204" s="40" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H204" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I204" s="40"/>
       <c r="J204" s="40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K204" s="40" t="s">
         <v>341</v>
@@ -31797,7 +31797,7 @@
         <v>Resource Action List-2</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C206" s="22">
         <f>COUNTIF($B$1:$B205,[Table Name])</f>
@@ -31829,7 +31829,7 @@
         <v>Resource List Layout-0</v>
       </c>
       <c r="B207" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C207" s="22">
         <f>COUNTIF($B$1:$B206,[Table Name])</f>
@@ -31842,16 +31842,16 @@
         <v>269</v>
       </c>
       <c r="F207" s="40" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G207" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H207" s="40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I207" s="40" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J207" s="40"/>
       <c r="K207" s="40"/>
@@ -31869,7 +31869,7 @@
         <v>Resource List Layout-1</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C208" s="22">
         <f>COUNTIF($B$1:$B207,[Table Name])</f>
@@ -31903,7 +31903,7 @@
         <v>Resource List Layout-2</v>
       </c>
       <c r="B209" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C209" s="22">
         <f>COUNTIF($B$1:$B208,[Table Name])</f>
@@ -31937,7 +31937,7 @@
         <v>Resource List Layout-3</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C210" s="22">
         <f>COUNTIF($B$1:$B209,[Table Name])</f>
@@ -31971,7 +31971,7 @@
         <v>Resource List Layout-4</v>
       </c>
       <c r="B211" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C211" s="22">
         <f>COUNTIF($B$1:$B210,[Table Name])</f>
@@ -32012,19 +32012,19 @@
         <v>25</v>
       </c>
       <c r="D212" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="F212" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="G212" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="H212" s="16" t="s">
         <v>566</v>
-      </c>
-      <c r="F212" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="H212" s="16" t="s">
-        <v>568</v>
       </c>
       <c r="I212" s="16" t="s">
         <v>21</v>
@@ -32055,13 +32055,13 @@
         <v>19</v>
       </c>
       <c r="E213" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="G213" s="16" t="s">
         <v>567</v>
-      </c>
-      <c r="F213" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="G213" s="16" t="s">
-        <v>569</v>
       </c>
       <c r="H213" s="16" t="s">
         <v>311</v>
@@ -32092,19 +32092,19 @@
         <v>26</v>
       </c>
       <c r="D214" s="40" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F214" s="40" t="s">
         <v>442</v>
       </c>
       <c r="G214" s="40" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H214" s="40" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I214" s="40" t="s">
         <v>21</v>
@@ -32135,13 +32135,13 @@
         <v>26</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F215" s="40" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G215" s="40" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H215" s="40" t="s">
         <v>311</v>
@@ -32175,10 +32175,10 @@
         <v>26</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F216" s="40" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G216" s="40" t="s">
         <v>304</v>
@@ -32212,19 +32212,19 @@
         <v>27</v>
       </c>
       <c r="D217" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="E217" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F217" s="40" t="s">
         <v>596</v>
       </c>
-      <c r="E217" s="40" t="s">
+      <c r="G217" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H217" s="40" t="s">
         <v>597</v>
-      </c>
-      <c r="F217" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="G217" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="H217" s="40" t="s">
-        <v>599</v>
       </c>
       <c r="I217" s="40" t="s">
         <v>21</v>
@@ -32255,13 +32255,13 @@
         <v>26</v>
       </c>
       <c r="E218" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="F218" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="F218" s="40" t="s">
-        <v>600</v>
-      </c>
       <c r="G218" s="40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H218" s="40" t="s">
         <v>311</v>
@@ -32285,7 +32285,7 @@
         <v>Form Layout-0</v>
       </c>
       <c r="B219" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C219" s="22">
         <f>COUNTIF($B$1:$B218,[Table Name])</f>
@@ -32298,7 +32298,7 @@
         <v>122</v>
       </c>
       <c r="F219" s="40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G219" s="40"/>
       <c r="H219" s="40"/>
@@ -32319,7 +32319,7 @@
         <v>Form Layout-1</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C220" s="22">
         <f>COUNTIF($B$1:$B219,[Table Name])</f>
@@ -32353,7 +32353,7 @@
         <v>Form Layout-2</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C221" s="22">
         <f>COUNTIF($B$1:$B220,[Table Name])</f>
@@ -32387,7 +32387,7 @@
         <v>Form Layout-3</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C222" s="22">
         <f>COUNTIF($B$1:$B221,[Table Name])</f>
@@ -32421,7 +32421,7 @@
         <v>Form Layout-4</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C223" s="22">
         <f>COUNTIF($B$1:$B222,[Table Name])</f>
@@ -32455,7 +32455,7 @@
         <v>Form Layout-5</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C224" s="22">
         <f>COUNTIF($B$1:$B223,[Table Name])</f>
@@ -32489,7 +32489,7 @@
         <v>Form Layout-6</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C225" s="22">
         <f>COUNTIF($B$1:$B224,[Table Name])</f>
@@ -32530,19 +32530,19 @@
         <v>28</v>
       </c>
       <c r="D226" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E226" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="F226" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="E226" s="40" t="s">
+      <c r="G226" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H226" s="40" t="s">
         <v>609</v>
-      </c>
-      <c r="F226" s="40" t="s">
-        <v>610</v>
-      </c>
-      <c r="G226" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="H226" s="40" t="s">
-        <v>611</v>
       </c>
       <c r="I226" s="40" t="s">
         <v>21</v>
@@ -32573,13 +32573,13 @@
         <v>23</v>
       </c>
       <c r="E227" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="F227" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="G227" s="40" t="s">
         <v>610</v>
-      </c>
-      <c r="F227" s="40" t="s">
-        <v>613</v>
-      </c>
-      <c r="G227" s="40" t="s">
-        <v>612</v>
       </c>
       <c r="H227" s="40" t="s">
         <v>311</v>
@@ -32610,19 +32610,19 @@
         <v>29</v>
       </c>
       <c r="D228" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="E228" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="F228" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="E228" s="40" t="s">
+      <c r="G228" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H228" s="40" t="s">
         <v>616</v>
-      </c>
-      <c r="F228" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="G228" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="H228" s="40" t="s">
-        <v>618</v>
       </c>
       <c r="I228" s="40" t="s">
         <v>21</v>
@@ -32653,13 +32653,13 @@
         <v>26</v>
       </c>
       <c r="E229" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="F229" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="G229" s="40" t="s">
         <v>617</v>
-      </c>
-      <c r="F229" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="G229" s="40" t="s">
-        <v>619</v>
       </c>
       <c r="H229" s="40" t="s">
         <v>311</v>
@@ -32693,10 +32693,10 @@
         <v>28</v>
       </c>
       <c r="E230" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F230" s="43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G230" s="43" t="s">
         <v>304</v>
@@ -32733,10 +32733,10 @@
         <v>29</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F231" s="40" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G231" s="40" t="s">
         <v>304</v>
@@ -32763,7 +32763,7 @@
         <v>Data View Section-0</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C232" s="22">
         <f>COUNTIF($B$1:$B231,[Table Name])</f>
@@ -32782,7 +32782,7 @@
         <v>56</v>
       </c>
       <c r="H232" s="40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I232" s="40"/>
       <c r="J232" s="40"/>
@@ -32801,7 +32801,7 @@
         <v>Data View Section-1</v>
       </c>
       <c r="B233" s="40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C233" s="22">
         <f>COUNTIF($B$1:$B232,[Table Name])</f>
@@ -32833,7 +32833,7 @@
         <v>Data View Section-2</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C234" s="22">
         <f>COUNTIF($B$1:$B233,[Table Name])</f>
@@ -32865,14 +32865,14 @@
         <v>Data View Section Items-0</v>
       </c>
       <c r="B235" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C235" s="22">
         <f>COUNTIF($B$1:$B234,[Table Name])</f>
         <v>0</v>
       </c>
       <c r="D235" s="40" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E235" s="40" t="s">
         <v>269</v>
@@ -32901,7 +32901,7 @@
         <v>Data View Section Items-1</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C236" s="22">
         <f>COUNTIF($B$1:$B235,[Table Name])</f>
@@ -32935,7 +32935,7 @@
         <v>Data View Section Items-2</v>
       </c>
       <c r="B237" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C237" s="22">
         <f>COUNTIF($B$1:$B236,[Table Name])</f>
@@ -32969,7 +32969,7 @@
         <v>Data View Section Items-3</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C238" s="22">
         <f>COUNTIF($B$1:$B237,[Table Name])</f>
@@ -33003,7 +33003,7 @@
         <v>Data View Section Items-4</v>
       </c>
       <c r="B239" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C239" s="42">
         <f>COUNTIF($B$1:$B238,[Table Name])</f>
@@ -33047,16 +33047,16 @@
         <v>1</v>
       </c>
       <c r="E240" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="F240" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G240" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="H240" s="40" t="s">
         <v>623</v>
-      </c>
-      <c r="F240" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="G240" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="H240" s="40" t="s">
-        <v>625</v>
       </c>
       <c r="I240" s="40"/>
       <c r="J240" s="40"/>
@@ -33085,16 +33085,16 @@
         <v>1</v>
       </c>
       <c r="E241" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="G241" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="F241" s="40" t="s">
+      <c r="H241" s="40" t="s">
         <v>628</v>
-      </c>
-      <c r="G241" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="H241" s="40" t="s">
-        <v>630</v>
       </c>
       <c r="I241" s="40"/>
       <c r="J241" s="40"/>
@@ -33534,7 +33534,7 @@
         <v>477</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G254" s="40"/>
       <c r="H254" s="40"/>
@@ -33568,7 +33568,7 @@
         <v>477</v>
       </c>
       <c r="F255" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G255" s="40"/>
       <c r="H255" s="40"/>
@@ -33602,7 +33602,7 @@
         <v>271</v>
       </c>
       <c r="F256" s="40" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G256" s="40"/>
       <c r="H256" s="40"/>
@@ -33645,7 +33645,7 @@
         <v>271</v>
       </c>
       <c r="I257" s="44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J257" s="40"/>
       <c r="K257" s="40"/>
@@ -33676,7 +33676,7 @@
         <v>477</v>
       </c>
       <c r="F258" s="40" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G258" s="40"/>
       <c r="H258" s="40"/>
@@ -33710,7 +33710,7 @@
         <v>477</v>
       </c>
       <c r="F259" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G259" s="40"/>
       <c r="H259" s="40"/>
@@ -33744,7 +33744,7 @@
         <v>271</v>
       </c>
       <c r="F260" s="40" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G260" s="40"/>
       <c r="H260" s="40"/>
@@ -33787,7 +33787,7 @@
         <v>271</v>
       </c>
       <c r="I261" s="44" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J261" s="40"/>
       <c r="K261" s="40"/>
@@ -33815,20 +33815,20 @@
         <v>1</v>
       </c>
       <c r="E262" s="40" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F262" s="40" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G262" s="40" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H262" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I262" s="40"/>
       <c r="J262" s="40" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K262" s="40" t="s">
         <v>341</v>
@@ -33857,20 +33857,20 @@
         <v>1</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F263" s="40" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G263" s="40" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H263" s="40" t="s">
         <v>343</v>
       </c>
       <c r="I263" s="40"/>
       <c r="J263" s="40" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K263" s="40" t="s">
         <v>341</v>
@@ -33889,7 +33889,7 @@
         <v>Resource Action List-3</v>
       </c>
       <c r="B264" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C264" s="22">
         <f>COUNTIF($B$1:$B263,[Table Name])</f>
@@ -33921,7 +33921,7 @@
         <v>Resource Action List-4</v>
       </c>
       <c r="B265" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C265" s="22">
         <f>COUNTIF($B$1:$B264,[Table Name])</f>
@@ -34059,7 +34059,7 @@
         <v>9</v>
       </c>
       <c r="E269" s="40" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F269" s="40"/>
       <c r="G269" s="40">
@@ -34095,7 +34095,7 @@
         <v>10</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F270" s="40"/>
       <c r="G270" s="40">
@@ -34131,13 +34131,13 @@
         <v>26</v>
       </c>
       <c r="E271" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="F271" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="G271" s="40" t="s">
         <v>642</v>
-      </c>
-      <c r="F271" s="40" t="s">
-        <v>643</v>
-      </c>
-      <c r="G271" s="40" t="s">
-        <v>644</v>
       </c>
       <c r="H271" s="40" t="s">
         <v>402</v>
@@ -34168,19 +34168,19 @@
         <v>30</v>
       </c>
       <c r="D272" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E272" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="F272" s="40" t="s">
         <v>653</v>
       </c>
-      <c r="E272" s="40" t="s">
+      <c r="G272" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H272" s="40" t="s">
         <v>654</v>
-      </c>
-      <c r="F272" s="40" t="s">
-        <v>655</v>
-      </c>
-      <c r="G272" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="H272" s="40" t="s">
-        <v>656</v>
       </c>
       <c r="I272" s="40" t="s">
         <v>21</v>
@@ -34211,13 +34211,13 @@
         <v>12</v>
       </c>
       <c r="E273" s="40" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F273" s="40" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G273" s="40" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H273" s="40" t="s">
         <v>311</v>
@@ -34251,10 +34251,10 @@
         <v>30</v>
       </c>
       <c r="E274" s="40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F274" s="40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G274" s="40" t="s">
         <v>350</v>
@@ -34294,7 +34294,7 @@
         <v>304</v>
       </c>
       <c r="F275" s="40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G275" s="40" t="s">
         <v>304</v>
@@ -34334,7 +34334,7 @@
         <v>13</v>
       </c>
       <c r="F276" s="43" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G276" s="43" t="s">
         <v>13</v>
@@ -34374,7 +34374,7 @@
         <v>350</v>
       </c>
       <c r="F277" s="40" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G277" s="40" t="s">
         <v>350</v>
@@ -34782,7 +34782,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
@@ -34802,7 +34802,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -34822,10 +34822,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -34842,10 +34842,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -34862,10 +34862,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -34882,10 +34882,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -34922,7 +34922,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -34942,10 +34942,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
@@ -35535,10 +35535,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>392</v>
@@ -35548,7 +35548,7 @@
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G20" s="21" t="str">
         <f t="shared" si="5"/>
@@ -35563,20 +35563,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="E21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G21" s="21" t="str">
         <f t="shared" ref="G21:G26" si="7">"id"</f>
@@ -35591,10 +35591,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>439</v>
@@ -35604,7 +35604,7 @@
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G22" s="21" t="str">
         <f t="shared" si="7"/>
@@ -35619,20 +35619,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="E23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G23" s="21" t="str">
         <f t="shared" si="7"/>
@@ -35647,10 +35647,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>394</v>
@@ -35660,7 +35660,7 @@
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G24" s="21" t="str">
         <f t="shared" si="7"/>
@@ -35675,20 +35675,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="E25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G25" s="21" t="str">
         <f t="shared" si="7"/>
@@ -35703,20 +35703,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="7"/>
@@ -35731,10 +35731,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>442</v>
@@ -35744,7 +35744,7 @@
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G27" s="21" t="str">
         <f>"id"</f>
@@ -35759,20 +35759,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="E28" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G28" s="21" t="str">
         <f>"id"</f>
@@ -35787,20 +35787,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G29" s="21" t="str">
         <f>"id"</f>
@@ -35815,20 +35815,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="E30" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G30" s="21" t="str">
         <f>"id"</f>
@@ -35843,20 +35843,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>"Milestone\Appframe\Model"</f>
         <v>Milestone\Appframe\Model</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G31" s="21" t="str">
         <f>"id"</f>
@@ -35882,8 +35882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:I44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36580,7 +36580,7 @@
         <v>208</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D22" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -36612,17 +36612,17 @@
         <v>491</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>208</v>
+        <v>569</v>
       </c>
       <c r="D23" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>18</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>661</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>304</v>
@@ -36632,7 +36632,7 @@
       </c>
       <c r="I23" s="41">
         <f>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -36651,10 +36651,10 @@
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>304</v>
@@ -36673,7 +36673,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>208</v>
@@ -36686,7 +36686,7 @@
         <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>208</v>
@@ -36705,20 +36705,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D26" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>497</v>
@@ -36740,7 +36740,7 @@
         <v>208</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D27" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -36750,10 +36750,10 @@
         <v>439</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>311</v>
@@ -36769,23 +36769,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D28" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>216</v>
@@ -36801,20 +36801,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="D29" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>497</v>
@@ -36833,7 +36833,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>208</v>
@@ -36846,7 +36846,7 @@
         <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>208</v>
@@ -36865,23 +36865,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D31" s="9">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>567</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>569</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>311</v>
@@ -36897,23 +36897,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D32" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>311</v>
@@ -36929,7 +36929,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>208</v>
@@ -36939,10 +36939,10 @@
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>304</v>
@@ -36961,23 +36961,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D34" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>600</v>
-      </c>
       <c r="G34" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>311</v>
@@ -36993,23 +36993,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D35" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>23</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>610</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>612</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>311</v>
@@ -37025,23 +37025,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D36" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>26</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>617</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>619</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>311</v>
@@ -37057,20 +37057,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D37" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>28</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>304</v>
@@ -37089,20 +37089,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D38" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>29</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>304</v>
@@ -37121,7 +37121,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>208</v>
@@ -37131,13 +37131,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>642</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>644</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>402</v>
@@ -37156,20 +37156,20 @@
         <v>403</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D40" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>311</v>
@@ -37185,7 +37185,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>403</v>
@@ -37195,10 +37195,10 @@
         <v>30</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>350</v>
@@ -37217,10 +37217,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D42" s="7">
         <f>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</f>
@@ -37230,7 +37230,7 @@
         <v>304</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>304</v>
@@ -37262,7 +37262,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G43" s="22" t="s">
         <v>13</v>
@@ -37294,7 +37294,7 @@
         <v>350</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>350</v>
@@ -37325,7 +37325,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39166,11 +39166,11 @@
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Bind Data Resource', </v>
+        <v xml:space="preserve">'name' =&gt; 'Bind Data Relation', </v>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the data to be bind', </v>
+        <v xml:space="preserve">'description' =&gt; 'Relation to which the data to be bind', </v>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -39182,7 +39182,7 @@
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -45191,13 +45191,13 @@
         <v>User</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="G9" s="7"/>
     </row>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="663">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -4156,8 +4156,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R277" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R278" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R278">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4193,8 +4193,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E27" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E28" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="62"/>
     <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
@@ -4595,7 +4595,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24205,10 +24205,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R278"/>
   <sheetViews>
-    <sheetView topLeftCell="B152" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175:I175"/>
+    <sheetView topLeftCell="B213" workbookViewId="0">
+      <selection activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34395,6 +34395,40 @@
       <c r="Q277" s="40"/>
       <c r="R277" s="40"/>
     </row>
+    <row r="278" spans="1:18">
+      <c r="A278" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Users-0</v>
+      </c>
+      <c r="B278" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C278" s="22">
+        <f>COUNTIF($B$1:$B277,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D278" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E278" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F278" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="G278" s="40"/>
+      <c r="H278" s="40"/>
+      <c r="I278" s="40"/>
+      <c r="J278" s="40"/>
+      <c r="K278" s="40"/>
+      <c r="L278" s="40"/>
+      <c r="M278" s="40"/>
+      <c r="N278" s="40"/>
+      <c r="O278" s="40"/>
+      <c r="P278" s="40"/>
+      <c r="Q278" s="40"/>
+      <c r="R278" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -34406,10 +34440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34960,12 +34994,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>User</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -37324,8 +37378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37335,14 +37389,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>442</v>
+        <v>184</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="49" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\User::truncate()</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
@@ -37486,27 +37540,27 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource</v>
+        <v>name</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>name</v>
+        <v>email</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>description</v>
+        <v>password</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>method</v>
+        <v/>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
-        <v>type</v>
+        <v/>
       </c>
       <c r="H5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],H$4+$B$4,0))</f>
-        <v>relate_resource</v>
+        <v/>
       </c>
       <c r="I5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],I$4+$B$4,0))</f>
@@ -37600,7 +37654,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="47" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceRelation::truncate()</v>
+        <v>\Milestone\Appframe\Model\User::truncate()</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -37625,31 +37679,31 @@
       </c>
       <c r="B9" s="30" t="str">
         <f ca="1">IF($B8="","",IF($B8=";",$I$3,IF($B8=$I$3,"",IF(ISNA(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),1,0)),";",$S$4))))</f>
-        <v>-&gt;create([</v>
+        <v>;</v>
       </c>
       <c r="C9" s="33" t="str">
         <f ca="1">IF(AND($B9=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:Q24" ca="1" si="0">IF(AND($B9=$S$4,D$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)="","","'"&amp;D$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A9,INDIRECT($E$2),D$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'name' =&gt; 'User Groups', </v>
+        <v/>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Which groups this user belongs to', </v>
+        <v/>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37689,7 +37743,7 @@
       </c>
       <c r="R9" s="33" t="str">
         <f ca="1">IF(B9=$S$4,$T$4,"")</f>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -37698,31 +37752,31 @@
       </c>
       <c r="B10" s="30" t="str">
         <f t="shared" ref="B10:B73" ca="1" si="1">IF($B9="","",IF($B9=";",$I$3,IF($B9=$I$3,"",IF(ISNA(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),1,0)),";",$S$4))))</f>
-        <v>-&gt;create([</v>
+        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
       </c>
       <c r="C10" s="33" t="str">
         <f ca="1">IF(AND($B10=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A10,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="D10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Users', </v>
+        <v/>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'List of users belongs to this group', </v>
+        <v/>
       </c>
       <c r="F10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Users', </v>
+        <v/>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '1', </v>
+        <v/>
       </c>
       <c r="I10" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37762,7 +37816,7 @@
       </c>
       <c r="R10" s="33" t="str">
         <f t="shared" ref="R10:R73" ca="1" si="2">IF(B10=$S$4,$T$4,"")</f>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -37771,31 +37825,31 @@
       </c>
       <c r="B11" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" ref="C11:G74" ca="1" si="3">IF(AND($B11=$S$4,C$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)="","","'"&amp;C$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A11,INDIRECT($E$2),C$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="D11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Group Roles', </v>
+        <v/>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Roles assigneed to this group', </v>
+        <v/>
       </c>
       <c r="F11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v/>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I11" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37835,7 +37889,7 @@
       </c>
       <c r="R11" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -37844,31 +37898,31 @@
       </c>
       <c r="B12" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C12" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="D12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Groups', </v>
+        <v/>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of groups this role assigned to', </v>
+        <v/>
       </c>
       <c r="F12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Groups', </v>
+        <v/>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '2', </v>
+        <v/>
       </c>
       <c r="I12" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37908,7 +37962,7 @@
       </c>
       <c r="R12" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -37917,31 +37971,31 @@
       </c>
       <c r="B13" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C13" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="D13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Role Resource', </v>
+        <v/>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resources assigned to a role', </v>
+        <v/>
       </c>
       <c r="F13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resources', </v>
+        <v/>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="I13" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37981,7 +38035,7 @@
       </c>
       <c r="R13" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -37990,31 +38044,31 @@
       </c>
       <c r="B14" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C14" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Roles', </v>
+        <v/>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'The details of roles who have access to this resource', </v>
+        <v/>
       </c>
       <c r="F14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Roles', </v>
+        <v/>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '3', </v>
+        <v/>
       </c>
       <c r="I14" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38054,7 +38108,7 @@
       </c>
       <c r="R14" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -38063,31 +38117,31 @@
       </c>
       <c r="B15" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C15" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Actions', </v>
+        <v/>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Get actions available for the resource', </v>
+        <v/>
       </c>
       <c r="F15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Actions', </v>
+        <v/>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="I15" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38127,7 +38181,7 @@
       </c>
       <c r="R15" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -38136,31 +38190,31 @@
       </c>
       <c r="B16" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C16" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Methods', </v>
+        <v/>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Handler details of an action', </v>
+        <v/>
       </c>
       <c r="F16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Method', </v>
+        <v/>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '8', </v>
+        <v/>
       </c>
       <c r="I16" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38200,7 +38254,7 @@
       </c>
       <c r="R16" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -38209,31 +38263,31 @@
       </c>
       <c r="B17" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C17" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Lists', </v>
+        <v/>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Lists where action available', </v>
+        <v/>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Lists', </v>
+        <v/>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '9', </v>
+        <v/>
       </c>
       <c r="I17" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38273,7 +38327,7 @@
       </c>
       <c r="R17" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -38282,31 +38336,31 @@
       </c>
       <c r="B18" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C18" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '7', </v>
+        <v/>
       </c>
       <c r="D18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Action Data', </v>
+        <v/>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource data where action available', </v>
+        <v/>
       </c>
       <c r="F18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '10', </v>
+        <v/>
       </c>
       <c r="I18" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38346,7 +38400,7 @@
       </c>
       <c r="R18" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -38355,31 +38409,31 @@
       </c>
       <c r="B19" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C19" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '5', </v>
+        <v/>
       </c>
       <c r="D19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Organisation Contacts', </v>
+        <v/>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Contact details of organisation', </v>
+        <v/>
       </c>
       <c r="F19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Contacts', </v>
+        <v/>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '6', </v>
+        <v/>
       </c>
       <c r="I19" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38419,7 +38473,7 @@
       </c>
       <c r="R19" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -38428,31 +38482,31 @@
       </c>
       <c r="B20" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C20" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '11', </v>
+        <v/>
       </c>
       <c r="D20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details', </v>
+        <v/>
       </c>
       <c r="F20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I20" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38492,7 +38546,7 @@
       </c>
       <c r="R20" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -38501,31 +38555,31 @@
       </c>
       <c r="B21" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C21" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Forms', </v>
+        <v/>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Forms available for a resource', </v>
+        <v/>
       </c>
       <c r="F21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Forms', </v>
+        <v/>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="I21" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38565,7 +38619,7 @@
       </c>
       <c r="R21" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -38574,31 +38628,31 @@
       </c>
       <c r="B22" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C22" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Fields', </v>
+        <v/>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields associated with a form', </v>
+        <v/>
       </c>
       <c r="F22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Fields', </v>
+        <v/>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="I22" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38638,7 +38692,7 @@
       </c>
       <c r="R22" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -38647,31 +38701,31 @@
       </c>
       <c r="B23" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C23" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Attributes', </v>
+        <v/>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Attributes of Field', </v>
+        <v/>
       </c>
       <c r="F23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Attributes', </v>
+        <v/>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '14', </v>
+        <v/>
       </c>
       <c r="I23" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38711,7 +38765,7 @@
       </c>
       <c r="R23" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -38720,31 +38774,31 @@
       </c>
       <c r="B24" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C24" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Options', </v>
+        <v/>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'description' =&gt; 'Options of Field', </v>
+        <v/>
       </c>
       <c r="F24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'method' =&gt; 'Options', </v>
+        <v/>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '15', </v>
+        <v/>
       </c>
       <c r="I24" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -38784,7 +38838,7 @@
       </c>
       <c r="R24" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -38793,31 +38847,31 @@
       </c>
       <c r="B25" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Validations', </v>
+        <v/>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Validation details of field', </v>
+        <v/>
       </c>
       <c r="F25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Validations', </v>
+        <v/>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H25" s="33" t="str">
         <f t="shared" ref="H25:K88" ca="1" si="4">IF(AND($B25=$S$4,H$5&lt;&gt;""),IF(VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)="","","'"&amp;H$5&amp;"' =&gt; '"&amp;VLOOKUP($A$1&amp;"-"&amp;$A25,INDIRECT($E$2),H$4+$B$4,0)&amp;"', "),"")</f>
-        <v xml:space="preserve">'relate_resource' =&gt; '16', </v>
+        <v/>
       </c>
       <c r="I25" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38857,7 +38911,7 @@
       </c>
       <c r="R25" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -38866,31 +38920,31 @@
       </c>
       <c r="B26" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'From Resource', </v>
+        <v/>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource this form belongs to', </v>
+        <v/>
       </c>
       <c r="F26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I26" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -38930,7 +38984,7 @@
       </c>
       <c r="R26" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -38939,31 +38993,31 @@
       </c>
       <c r="B27" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Defaults', </v>
+        <v/>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Predefined values for a form', </v>
+        <v/>
       </c>
       <c r="F27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Defaults', </v>
+        <v/>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="I27" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39003,7 +39057,7 @@
       </c>
       <c r="R27" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -39012,31 +39066,31 @@
       </c>
       <c r="B28" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field Data', </v>
+        <v/>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Fields Database binding details', </v>
+        <v/>
       </c>
       <c r="F28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Data', </v>
+        <v/>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasOne', </v>
+        <v/>
       </c>
       <c r="H28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="I28" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39076,7 +39130,7 @@
       </c>
       <c r="R28" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -39085,31 +39139,31 @@
       </c>
       <c r="B29" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Relations', </v>
+        <v/>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relation of  a resource to another resource', </v>
+        <v/>
       </c>
       <c r="F29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I29" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39149,7 +39203,7 @@
       </c>
       <c r="R29" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -39158,31 +39212,31 @@
       </c>
       <c r="B30" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '18', </v>
+        <v/>
       </c>
       <c r="D30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Bind Data Relation', </v>
+        <v/>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relation to which the data to be bind', </v>
+        <v/>
       </c>
       <c r="F30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I30" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39222,7 +39276,7 @@
       </c>
       <c r="R30" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -39231,31 +39285,31 @@
       </c>
       <c r="B31" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '17', </v>
+        <v/>
       </c>
       <c r="D31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Default Data Resource', </v>
+        <v/>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource to which the forms predefined data to be bind', </v>
+        <v/>
       </c>
       <c r="F31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I31" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39295,7 +39349,7 @@
       </c>
       <c r="R31" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -39304,31 +39358,31 @@
       </c>
       <c r="B32" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Resource details of a list', </v>
+        <v/>
       </c>
       <c r="F32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I32" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39368,7 +39422,7 @@
       </c>
       <c r="R32" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -39377,31 +39431,31 @@
       </c>
       <c r="B33" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Relations', </v>
+        <v/>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on accessing list', </v>
+        <v/>
       </c>
       <c r="F33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '20', </v>
+        <v/>
       </c>
       <c r="I33" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39441,7 +39495,7 @@
       </c>
       <c r="R33" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -39450,31 +39504,31 @@
       </c>
       <c r="B34" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="D34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Scopes', </v>
+        <v/>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes available on a Resource', </v>
+        <v/>
       </c>
       <c r="F34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I34" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39514,7 +39568,7 @@
       </c>
       <c r="R34" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -39523,31 +39577,31 @@
       </c>
       <c r="B35" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Scopes', </v>
+        <v/>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Scopes by which a list to be filtered', </v>
+        <v/>
       </c>
       <c r="F35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Scopes', </v>
+        <v/>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsToMany', </v>
+        <v/>
       </c>
       <c r="H35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '21', </v>
+        <v/>
       </c>
       <c r="I35" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39587,7 +39641,7 @@
       </c>
       <c r="R35" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -39596,31 +39650,31 @@
       </c>
       <c r="B36" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
+        <v/>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Relations to be loaded on a data view', </v>
+        <v/>
       </c>
       <c r="F36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relations', </v>
+        <v/>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '24', </v>
+        <v/>
       </c>
       <c r="I36" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39660,7 +39714,7 @@
       </c>
       <c r="R36" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -39669,31 +39723,31 @@
       </c>
       <c r="B37" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Resource Details', </v>
+        <v/>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of resource of a record', </v>
+        <v/>
       </c>
       <c r="F37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Resource', </v>
+        <v/>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I37" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39733,7 +39787,7 @@
       </c>
       <c r="R37" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -39742,31 +39796,31 @@
       </c>
       <c r="B38" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '19', </v>
+        <v/>
       </c>
       <c r="D38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'List Layout', </v>
+        <v/>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout of a list', </v>
+        <v/>
       </c>
       <c r="F38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '25', </v>
+        <v/>
       </c>
       <c r="I38" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39806,7 +39860,7 @@
       </c>
       <c r="R38" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -39815,31 +39869,31 @@
       </c>
       <c r="B39" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Nested Relation', </v>
+        <v/>
       </c>
       <c r="F39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Nest', </v>
+        <v/>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I39" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39879,7 +39933,7 @@
       </c>
       <c r="R39" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -39888,31 +39942,31 @@
       </c>
       <c r="B40" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Related Resource', </v>
+        <v/>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Related Resource Details', </v>
+        <v/>
       </c>
       <c r="F40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I40" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -39952,7 +40006,7 @@
       </c>
       <c r="R40" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -39961,31 +40015,31 @@
       </c>
       <c r="B41" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form Layout', </v>
+        <v/>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Layout details', </v>
+        <v/>
       </c>
       <c r="F41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Layout', </v>
+        <v/>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '27', </v>
+        <v/>
       </c>
       <c r="I41" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40025,7 +40079,7 @@
       </c>
       <c r="R41" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -40034,31 +40088,31 @@
       </c>
       <c r="B42" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '23', </v>
+        <v/>
       </c>
       <c r="D42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data View Section', </v>
+        <v/>
       </c>
       <c r="E42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Section details of data view', </v>
+        <v/>
       </c>
       <c r="F42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Sections', </v>
+        <v/>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '28', </v>
+        <v/>
       </c>
       <c r="I42" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40098,7 +40152,7 @@
       </c>
       <c r="R42" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -40107,31 +40161,31 @@
       </c>
       <c r="B43" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data View Section Items', </v>
+        <v/>
       </c>
       <c r="E43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Items of a data view section', </v>
+        <v/>
       </c>
       <c r="F43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Items', </v>
+        <v/>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '29', </v>
+        <v/>
       </c>
       <c r="I43" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40171,7 +40225,7 @@
       </c>
       <c r="R43" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -40180,31 +40234,31 @@
       </c>
       <c r="B44" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '28', </v>
+        <v/>
       </c>
       <c r="D44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data Relation', </v>
+        <v/>
       </c>
       <c r="E44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'View relation of a data', </v>
+        <v/>
       </c>
       <c r="F44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I44" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40244,7 +40298,7 @@
       </c>
       <c r="R44" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -40253,31 +40307,31 @@
       </c>
       <c r="B45" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '29', </v>
+        <v/>
       </c>
       <c r="D45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Data item relation', </v>
+        <v/>
       </c>
       <c r="E45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'View relation of a data item', </v>
+        <v/>
       </c>
       <c r="F45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I45" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40317,7 +40371,7 @@
       </c>
       <c r="R45" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -40326,31 +40380,31 @@
       </c>
       <c r="B46" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="D46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Owner Relation', </v>
+        <v/>
       </c>
       <c r="E46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'View the owner resource', </v>
+        <v/>
       </c>
       <c r="F46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Owner', </v>
+        <v/>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H46" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '4', </v>
+        <v/>
       </c>
       <c r="I46" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40390,7 +40444,7 @@
       </c>
       <c r="R46" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -40399,31 +40453,31 @@
       </c>
       <c r="B47" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="D47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Collections', </v>
+        <v/>
       </c>
       <c r="E47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Collection/Detail form', </v>
+        <v/>
       </c>
       <c r="F47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Collections', </v>
+        <v/>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'hasMany', </v>
+        <v/>
       </c>
       <c r="H47" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '30', </v>
+        <v/>
       </c>
       <c r="I47" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40463,7 +40517,7 @@
       </c>
       <c r="R47" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -40472,31 +40526,31 @@
       </c>
       <c r="B48" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '30', </v>
+        <v/>
       </c>
       <c r="D48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Collection Form', </v>
+        <v/>
       </c>
       <c r="E48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Collection Form', </v>
+        <v/>
       </c>
       <c r="F48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Form', </v>
+        <v/>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H48" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="I48" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40536,7 +40590,7 @@
       </c>
       <c r="R48" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -40545,31 +40599,31 @@
       </c>
       <c r="B49" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '30', </v>
+        <v/>
       </c>
       <c r="D49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="E49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Details of Relation', </v>
+        <v/>
       </c>
       <c r="F49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Relation', </v>
+        <v/>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H49" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '26', </v>
+        <v/>
       </c>
       <c r="I49" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40609,7 +40663,7 @@
       </c>
       <c r="R49" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -40618,31 +40672,31 @@
       </c>
       <c r="B50" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '15', </v>
+        <v/>
       </c>
       <c r="D50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Field', </v>
+        <v/>
       </c>
       <c r="E50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Field details', </v>
+        <v/>
       </c>
       <c r="F50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Field', </v>
+        <v/>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H50" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="I50" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40682,7 +40736,7 @@
       </c>
       <c r="R50" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -40691,31 +40745,31 @@
       </c>
       <c r="B51" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-&gt;create([</v>
+        <v/>
       </c>
       <c r="C51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'resource' =&gt; '13', </v>
+        <v/>
       </c>
       <c r="D51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'name' =&gt; 'Form', </v>
+        <v/>
       </c>
       <c r="E51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'description' =&gt; 'Form details', </v>
+        <v/>
       </c>
       <c r="F51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'method' =&gt; 'Form', </v>
+        <v/>
       </c>
       <c r="G51" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">'type' =&gt; 'belongsTo', </v>
+        <v/>
       </c>
       <c r="H51" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">'relate_resource' =&gt; '12', </v>
+        <v/>
       </c>
       <c r="I51" s="33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -40755,7 +40809,7 @@
       </c>
       <c r="R51" s="33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>])</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -40764,7 +40818,7 @@
       </c>
       <c r="B52" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>;</v>
+        <v/>
       </c>
       <c r="C52" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -40837,7 +40891,7 @@
       </c>
       <c r="B53" s="30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>\DB::statement('set foreign_key_checks = ' . $_);</v>
+        <v/>
       </c>
       <c r="C53" s="33" t="str">
         <f t="shared" ca="1" si="3"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="912" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="667">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -2027,6 +2027,18 @@
   </si>
   <si>
     <t>Relation to which the data to be bind</t>
+  </si>
+  <si>
+    <t>field_option_type</t>
+  </si>
+  <si>
+    <t>['List','Enum','Foreign','Method']</t>
+  </si>
+  <si>
+    <t>default('List')</t>
+  </si>
+  <si>
+    <t>field_option_type_detail</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2268,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="125">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4030,35 +4066,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="124">
   <autoFilter ref="A1:J36"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="121"/>
-    <tableColumn id="10" name="Table" dataDxfId="120">
+    <tableColumn id="2" name="Name" dataDxfId="123"/>
+    <tableColumn id="10" name="Table" dataDxfId="122">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="119">
+    <tableColumn id="5" name="Singular Name" dataDxfId="121">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="118">
+    <tableColumn id="8" name="Model NS" dataDxfId="120">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="117">
+    <tableColumn id="4" name="Class Name" dataDxfId="119">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="116">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="118">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="115">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="117">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="114">
+    <tableColumn id="3" name="Model Statement" dataDxfId="116">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="113">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="115">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="112">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="114">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4067,87 +4103,91 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="15">
+    <tableColumn id="1" name="No" dataDxfId="17">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="14"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="13">
+    <tableColumn id="2" name="Resource" dataDxfId="16"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
-    <tableColumn id="4" name="Description" dataDxfId="11"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
-    <tableColumn id="7" name="Menu" dataDxfId="8"/>
-    <tableColumn id="8" name="Icon" dataDxfId="7"/>
-    <tableColumn id="9" name="Set" dataDxfId="6"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
-    <tableColumn id="15" name="ID1" dataDxfId="4"/>
-    <tableColumn id="16" name="ID2" dataDxfId="3"/>
-    <tableColumn id="10" name="On" dataDxfId="2"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
-    <tableColumn id="12" name="handler" dataDxfId="0"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="14"/>
+    <tableColumn id="4" name="Description" dataDxfId="13"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="12"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="11"/>
+    <tableColumn id="7" name="Menu" dataDxfId="10"/>
+    <tableColumn id="8" name="Icon" dataDxfId="9"/>
+    <tableColumn id="9" name="Set" dataDxfId="8"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="7"/>
+    <tableColumn id="15" name="ID1" dataDxfId="6"/>
+    <tableColumn id="16" name="ID2" dataDxfId="5"/>
+    <tableColumn id="10" name="On" dataDxfId="4"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="3"/>
+    <tableColumn id="12" name="handler" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I131" totalsRowShown="0" dataDxfId="105">
-  <autoFilter ref="A1:I131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I133" totalsRowShown="0" dataDxfId="107">
+  <autoFilter ref="A1:I133">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="104"/>
-    <tableColumn id="2" name="Type" dataDxfId="103"/>
-    <tableColumn id="3" name="Name" dataDxfId="102"/>
-    <tableColumn id="4" name="Length" dataDxfId="101"/>
-    <tableColumn id="5" name="Method1" dataDxfId="100"/>
-    <tableColumn id="6" name="Method2" dataDxfId="99"/>
-    <tableColumn id="7" name="Method3" dataDxfId="98"/>
-    <tableColumn id="8" name="Method4" dataDxfId="97"/>
-    <tableColumn id="9" name="Method5" dataDxfId="96"/>
+    <tableColumn id="1" name="Column" dataDxfId="106"/>
+    <tableColumn id="2" name="Type" dataDxfId="105"/>
+    <tableColumn id="3" name="Name" dataDxfId="104"/>
+    <tableColumn id="4" name="Length" dataDxfId="103"/>
+    <tableColumn id="5" name="Method1" dataDxfId="102"/>
+    <tableColumn id="6" name="Method2" dataDxfId="101"/>
+    <tableColumn id="7" name="Method3" dataDxfId="100"/>
+    <tableColumn id="8" name="Method4" dataDxfId="99"/>
+    <tableColumn id="9" name="Method5" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="95">
-  <autoFilter ref="A1:K310">
-    <filterColumn colId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K308" totalsRowShown="0" dataDxfId="97">
+  <autoFilter ref="A1:K308">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="resource_form_field_options"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="94"/>
-    <tableColumn id="3" name="Field" dataDxfId="93"/>
-    <tableColumn id="5" name="Type" dataDxfId="92">
+    <tableColumn id="2" name="Table" dataDxfId="96"/>
+    <tableColumn id="3" name="Field" dataDxfId="95"/>
+    <tableColumn id="5" name="Type" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="91">
+    <tableColumn id="4" name="Name" dataDxfId="93">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="90">
+    <tableColumn id="6" name="Arg2" dataDxfId="92">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="89">
+    <tableColumn id="7" name="Method1" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="88">
+    <tableColumn id="8" name="Method2" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="87">
+    <tableColumn id="9" name="Method3" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="86">
+    <tableColumn id="10" name="Method4" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="85">
+    <tableColumn id="11" name="Method5" dataDxfId="87">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="84">
+    <tableColumn id="12" name="Statement" dataDxfId="86">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4156,8 +4196,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R278" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R279" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+  <autoFilter ref="A1:R279">
     <filterColumn colId="1">
       <filters>
         <filter val="Resource Relations"/>
@@ -4165,46 +4205,46 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="81">
+    <tableColumn id="19" name="TRCode" dataDxfId="83">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
-    <tableColumn id="2" name="Record No" dataDxfId="79">
+    <tableColumn id="1" name="Table Name" dataDxfId="82"/>
+    <tableColumn id="2" name="Record No" dataDxfId="81">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="78"/>
-    <tableColumn id="4" name="2" dataDxfId="77"/>
-    <tableColumn id="5" name="3" dataDxfId="76"/>
-    <tableColumn id="6" name="4" dataDxfId="75"/>
-    <tableColumn id="7" name="5" dataDxfId="74"/>
-    <tableColumn id="8" name="6" dataDxfId="73"/>
-    <tableColumn id="9" name="7" dataDxfId="72"/>
-    <tableColumn id="10" name="8" dataDxfId="71"/>
-    <tableColumn id="11" name="9" dataDxfId="70"/>
-    <tableColumn id="12" name="10" dataDxfId="69"/>
-    <tableColumn id="13" name="11" dataDxfId="68"/>
-    <tableColumn id="14" name="12" dataDxfId="67"/>
-    <tableColumn id="15" name="13" dataDxfId="66"/>
-    <tableColumn id="16" name="14" dataDxfId="65"/>
-    <tableColumn id="17" name="15" dataDxfId="64"/>
+    <tableColumn id="3" name="1" dataDxfId="80"/>
+    <tableColumn id="4" name="2" dataDxfId="79"/>
+    <tableColumn id="5" name="3" dataDxfId="78"/>
+    <tableColumn id="6" name="4" dataDxfId="77"/>
+    <tableColumn id="7" name="5" dataDxfId="76"/>
+    <tableColumn id="8" name="6" dataDxfId="75"/>
+    <tableColumn id="9" name="7" dataDxfId="74"/>
+    <tableColumn id="10" name="8" dataDxfId="73"/>
+    <tableColumn id="11" name="9" dataDxfId="72"/>
+    <tableColumn id="12" name="10" dataDxfId="71"/>
+    <tableColumn id="13" name="11" dataDxfId="70"/>
+    <tableColumn id="14" name="12" dataDxfId="69"/>
+    <tableColumn id="15" name="13" dataDxfId="68"/>
+    <tableColumn id="16" name="14" dataDxfId="67"/>
+    <tableColumn id="17" name="15" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E28" totalsRowShown="0" dataDxfId="63">
-  <autoFilter ref="A1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E29" totalsRowShown="0" dataDxfId="65">
+  <autoFilter ref="A1:E29"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="62"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
-    <tableColumn id="20" name="NS" dataDxfId="60">
+    <tableColumn id="1" name="Name" dataDxfId="64"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="63"/>
+    <tableColumn id="20" name="NS" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="59">
+    <tableColumn id="21" name="Model" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="58">
+    <tableColumn id="4" name="Query Method" dataDxfId="60">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4213,46 +4253,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I31" totalsRowShown="0" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I31" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="A1:I31"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="56">
+    <tableColumn id="1" name="No" dataDxfId="58">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" name="Title" dataDxfId="53"/>
-    <tableColumn id="5" name="NS" dataDxfId="52">
+    <tableColumn id="2" name="Name" dataDxfId="57"/>
+    <tableColumn id="3" name="Description" dataDxfId="56"/>
+    <tableColumn id="4" name="Title" dataDxfId="55"/>
+    <tableColumn id="5" name="NS" dataDxfId="54">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="51"/>
-    <tableColumn id="7" name="Key" dataDxfId="50">
+    <tableColumn id="6" name="Table" dataDxfId="53"/>
+    <tableColumn id="7" name="Key" dataDxfId="52">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="49"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
+    <tableColumn id="8" name="Controller" dataDxfId="51"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I44" totalsRowShown="0" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I44" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A1:I44"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="46">
+    <tableColumn id="1" name="No" dataDxfId="48">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="45"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="43">
+    <tableColumn id="3" name="Resource" dataDxfId="47"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="46"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="45">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="42"/>
-    <tableColumn id="6" name="Description" dataDxfId="41"/>
-    <tableColumn id="7" name="Method" dataDxfId="40"/>
-    <tableColumn id="8" name="Type" dataDxfId="39"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="38">
+    <tableColumn id="5" name="Name" dataDxfId="44"/>
+    <tableColumn id="6" name="Description" dataDxfId="43"/>
+    <tableColumn id="7" name="Method" dataDxfId="42"/>
+    <tableColumn id="8" name="Type" dataDxfId="41"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4261,47 +4301,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="36">
+    <tableColumn id="1" name="No" dataDxfId="38">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="34">
+    <tableColumn id="2" name="Resource ID" dataDxfId="37"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
-    <tableColumn id="6" name="Title" dataDxfId="32"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
-    <tableColumn id="8" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="35"/>
+    <tableColumn id="6" name="Title" dataDxfId="34"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="33"/>
+    <tableColumn id="8" name="Description" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="31">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="28">
+    <tableColumn id="9" name="No" dataDxfId="30">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="26">
+    <tableColumn id="1" name="Form Id" dataDxfId="29"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" name="Type" dataDxfId="24"/>
-    <tableColumn id="5" name="Label" dataDxfId="23"/>
-    <tableColumn id="6" name="Collection" dataDxfId="22"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="21">
+    <tableColumn id="4" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" name="Type" dataDxfId="26"/>
+    <tableColumn id="5" name="Label" dataDxfId="25"/>
+    <tableColumn id="6" name="Collection" dataDxfId="24"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="23">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="20"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
+    <tableColumn id="10" name="Relation" dataDxfId="22"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="21"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="20"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7658,10 +7698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -10511,24 +10551,66 @@
       </c>
       <c r="I131" s="4"/>
     </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="4">
+        <v>128</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="111" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A131">
-    <cfRule type="duplicateValues" dxfId="109" priority="24"/>
+  <conditionalFormatting sqref="A2:A133">
+    <cfRule type="duplicateValues" dxfId="111" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10540,10 +10622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K310"/>
+  <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="K304" sqref="K304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -10589,7 +10671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10633,7 +10715,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10677,7 +10759,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -10721,7 +10803,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -10765,7 +10847,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -10809,7 +10891,7 @@
         <v>$table-&gt;string('namespace', 512)-&gt;nullable()-&gt;default('Milestone\Appframe');</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -10853,7 +10935,7 @@
         <v>$table-&gt;string('table', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -10897,7 +10979,7 @@
         <v>$table-&gt;string('key', 64)-&gt;nullable()-&gt;default('id');</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -10941,7 +11023,7 @@
         <v>$table-&gt;string('controller', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -10985,7 +11067,7 @@
         <v>$table-&gt;string('controller_namespace', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -11029,7 +11111,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -11073,7 +11155,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -11117,7 +11199,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11161,7 +11243,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -11205,7 +11287,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -11249,7 +11331,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -11293,7 +11375,7 @@
         <v>$table-&gt;string('arg1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -11337,7 +11419,7 @@
         <v>$table-&gt;string('arg2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -11381,7 +11463,7 @@
         <v>$table-&gt;string('arg3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -11425,7 +11507,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -11469,7 +11551,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -11513,7 +11595,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -11557,7 +11639,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -11601,7 +11683,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -11645,7 +11727,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -11689,7 +11771,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -11733,7 +11815,7 @@
         <v>$table-&gt;enum('type', ['hasOne','hasMany','belongsTo','belongsToMany'])-&gt;default('hasMany');</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
@@ -11777,7 +11859,7 @@
         <v>$table-&gt;unsignedInteger('relate_resource')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -11821,7 +11903,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -11865,7 +11947,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -11909,7 +11991,7 @@
         <v>$table-&gt;foreign('relate_resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -11953,7 +12035,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -11997,7 +12079,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -12041,7 +12123,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -12085,7 +12167,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -12129,7 +12211,7 @@
         <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -12173,7 +12255,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -12217,7 +12299,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -12261,7 +12343,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -12305,7 +12387,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -12349,7 +12431,7 @@
         <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -12393,7 +12475,7 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -12437,7 +12519,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
@@ -12481,7 +12563,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -12525,7 +12607,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -12569,7 +12651,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation4')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -12613,7 +12695,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation5')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -12657,7 +12739,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -12701,7 +12783,7 @@
         <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -12745,7 +12827,7 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -12789,7 +12871,7 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -12833,7 +12915,7 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -12877,7 +12959,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -12921,7 +13003,7 @@
         <v>$table-&gt;foreign('nest_relation4')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -12965,7 +13047,7 @@
         <v>$table-&gt;foreign('nest_relation5')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
@@ -13009,7 +13091,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="4" t="s">
         <v>5</v>
       </c>
@@ -13053,7 +13135,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
@@ -13097,7 +13179,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
@@ -13141,7 +13223,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
@@ -13185,7 +13267,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
@@ -13229,7 +13311,7 @@
         <v>$table-&gt;unsignedSmallInteger('items_per_page')-&gt;default('25');</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
@@ -13273,7 +13355,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
@@ -13317,7 +13399,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
@@ -13361,7 +13443,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -13405,7 +13487,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -13449,7 +13531,7 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -13493,7 +13575,7 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -13537,7 +13619,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -13581,7 +13663,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -13625,7 +13707,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -13669,7 +13751,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation4')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -13713,7 +13795,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation5')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="4" t="s">
         <v>10</v>
       </c>
@@ -13757,7 +13839,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -13801,7 +13883,7 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="4" t="s">
         <v>10</v>
       </c>
@@ -13845,7 +13927,7 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
@@ -13889,7 +13971,7 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
@@ -13933,7 +14015,7 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="4" t="s">
         <v>10</v>
       </c>
@@ -13977,7 +14059,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="4" t="s">
         <v>10</v>
       </c>
@@ -14021,7 +14103,7 @@
         <v>$table-&gt;foreign('nest_relation4')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
@@ -14065,7 +14147,7 @@
         <v>$table-&gt;foreign('nest_relation5')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -14109,7 +14191,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -14153,7 +14235,7 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -14197,7 +14279,7 @@
         <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -14241,7 +14323,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -14285,7 +14367,7 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -14329,7 +14411,7 @@
         <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="4" t="s">
         <v>6</v>
       </c>
@@ -14373,7 +14455,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="4" t="s">
         <v>6</v>
       </c>
@@ -14417,7 +14499,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="4" t="s">
         <v>6</v>
       </c>
@@ -14461,7 +14543,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="4" t="s">
         <v>6</v>
       </c>
@@ -14505,7 +14587,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="4" t="s">
         <v>6</v>
       </c>
@@ -14549,7 +14631,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="4" t="s">
         <v>6</v>
       </c>
@@ -14593,7 +14675,7 @@
         <v>$table-&gt;string('action_text', 64)-&gt;default('Submit');</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="4" t="s">
         <v>6</v>
       </c>
@@ -14637,7 +14719,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
@@ -14681,7 +14763,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -14725,7 +14807,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -14769,7 +14851,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -14813,7 +14895,7 @@
         <v>$table-&gt;unsignedInteger('list')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14939,7 @@
         <v>$table-&gt;unsignedInteger('create')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -14901,7 +14983,7 @@
         <v>$table-&gt;unsignedInteger('read')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -14945,7 +15027,7 @@
         <v>$table-&gt;unsignedInteger('update')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -14989,7 +15071,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -15033,7 +15115,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -15077,7 +15159,7 @@
         <v>$table-&gt;foreign('list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -15121,7 +15203,7 @@
         <v>$table-&gt;foreign('create')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -15165,7 +15247,7 @@
         <v>$table-&gt;foreign('read')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -15209,7 +15291,7 @@
         <v>$table-&gt;foreign('update')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
@@ -15253,7 +15335,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108" s="4" t="s">
         <v>8</v>
       </c>
@@ -15297,7 +15379,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109" s="4" t="s">
         <v>8</v>
       </c>
@@ -15341,7 +15423,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110" s="4" t="s">
         <v>8</v>
       </c>
@@ -15385,7 +15467,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111" s="4" t="s">
         <v>8</v>
       </c>
@@ -15429,7 +15511,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112" s="4" t="s">
         <v>8</v>
       </c>
@@ -15473,7 +15555,7 @@
         <v>$table-&gt;enum('type', ['primary','secondary','success','danger','warning','info','light','dark','link','outline-primary','outline-secondary','outline-success','outline-danger','outline-warning','outline-info','outline-light','outline-dark'])-&gt;default('outline-info');</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113" s="4" t="s">
         <v>8</v>
       </c>
@@ -15517,7 +15599,7 @@
         <v>$table-&gt;string('menu', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114" s="4" t="s">
         <v>8</v>
       </c>
@@ -15561,7 +15643,7 @@
         <v>$table-&gt;string('icon', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" s="4" t="s">
         <v>8</v>
       </c>
@@ -15605,7 +15687,7 @@
         <v>$table-&gt;enum('set', ['far','fas','fab'])-&gt;default('far');</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116" s="4" t="s">
         <v>8</v>
       </c>
@@ -15649,7 +15731,7 @@
         <v>$table-&gt;string('on', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="4" t="s">
         <v>8</v>
       </c>
@@ -15693,7 +15775,7 @@
         <v>$table-&gt;string('confirm', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118" s="4" t="s">
         <v>8</v>
       </c>
@@ -15737,7 +15819,7 @@
         <v>$table-&gt;string('handler', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="4" t="s">
         <v>8</v>
       </c>
@@ -15781,7 +15863,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="4" t="s">
         <v>8</v>
       </c>
@@ -15825,7 +15907,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="4" t="s">
         <v>100</v>
       </c>
@@ -15869,7 +15951,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="4" t="s">
         <v>100</v>
       </c>
@@ -15913,7 +15995,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="4" t="s">
         <v>100</v>
       </c>
@@ -15957,7 +16039,7 @@
         <v>$table-&gt;string('name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="4" t="s">
         <v>100</v>
       </c>
@@ -16001,7 +16083,7 @@
         <v>$table-&gt;string('value', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="4" t="s">
         <v>100</v>
       </c>
@@ -16045,7 +16127,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="4" t="s">
         <v>100</v>
       </c>
@@ -16089,7 +16171,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" s="4" t="s">
         <v>101</v>
       </c>
@@ -16133,7 +16215,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" s="4" t="s">
         <v>101</v>
       </c>
@@ -16177,7 +16259,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129" s="4" t="s">
         <v>101</v>
       </c>
@@ -16221,7 +16303,7 @@
         <v>$table-&gt;enum('type', ['Method','Form','List','Data','FormWithData','ListRelation','AddRelation','ManageRelation'])-&gt;default('Method');</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="4" t="s">
         <v>101</v>
       </c>
@@ -16265,7 +16347,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131" s="4" t="s">
         <v>101</v>
       </c>
@@ -16309,7 +16391,7 @@
         <v>$table-&gt;string('idn1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="4" t="s">
         <v>101</v>
       </c>
@@ -16353,7 +16435,7 @@
         <v>$table-&gt;string('idn2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="4" t="s">
         <v>101</v>
       </c>
@@ -16397,7 +16479,7 @@
         <v>$table-&gt;string('idn3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="4" t="s">
         <v>101</v>
       </c>
@@ -16441,7 +16523,7 @@
         <v>$table-&gt;string('idn4', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="4" t="s">
         <v>101</v>
       </c>
@@ -16485,7 +16567,7 @@
         <v>$table-&gt;string('idn5', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="4" t="s">
         <v>101</v>
       </c>
@@ -16529,7 +16611,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="4" t="s">
         <v>101</v>
       </c>
@@ -16573,7 +16655,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="4" t="s">
         <v>102</v>
       </c>
@@ -16617,7 +16699,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="4" t="s">
         <v>102</v>
       </c>
@@ -16661,7 +16743,7 @@
         <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="4" t="s">
         <v>102</v>
       </c>
@@ -16705,7 +16787,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141" s="4" t="s">
         <v>102</v>
       </c>
@@ -16749,7 +16831,7 @@
         <v>$table-&gt;string('type', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142" s="4" t="s">
         <v>102</v>
       </c>
@@ -16793,7 +16875,7 @@
         <v>$table-&gt;string('label', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="4" t="s">
         <v>102</v>
       </c>
@@ -16837,7 +16919,7 @@
         <v>$table-&gt;string('collection', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="4" t="s">
         <v>102</v>
       </c>
@@ -16881,7 +16963,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="4" t="s">
         <v>102</v>
       </c>
@@ -16925,7 +17007,7 @@
         <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="4" t="s">
         <v>103</v>
       </c>
@@ -16969,7 +17051,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="4" t="s">
         <v>103</v>
       </c>
@@ -17013,7 +17095,7 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="4" t="s">
         <v>103</v>
       </c>
@@ -17057,7 +17139,7 @@
         <v>$table-&gt;string('name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="4" t="s">
         <v>103</v>
       </c>
@@ -17101,7 +17183,7 @@
         <v>$table-&gt;string('value', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="4" t="s">
         <v>103</v>
       </c>
@@ -17145,7 +17227,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="4" t="s">
         <v>103</v>
       </c>
@@ -17189,7 +17271,7 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="4" t="s">
         <v>104</v>
       </c>
@@ -17233,7 +17315,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153" s="4" t="s">
         <v>104</v>
       </c>
@@ -17277,7 +17359,7 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154" s="4" t="s">
         <v>104</v>
       </c>
@@ -17321,7 +17403,7 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="4" t="s">
         <v>104</v>
       </c>
@@ -17365,7 +17447,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156" s="4" t="s">
         <v>104</v>
       </c>
@@ -17409,7 +17491,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157" s="4" t="s">
         <v>104</v>
       </c>
@@ -17453,7 +17535,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158" s="4" t="s">
         <v>104</v>
       </c>
@@ -17497,7 +17579,7 @@
         <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="4" t="s">
         <v>104</v>
       </c>
@@ -17541,7 +17623,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="4" t="s">
         <v>104</v>
       </c>
@@ -17585,7 +17667,7 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="4" t="s">
         <v>104</v>
       </c>
@@ -17629,7 +17711,7 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="4" t="s">
         <v>104</v>
       </c>
@@ -17673,7 +17755,7 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="4" t="s">
         <v>104</v>
       </c>
@@ -17717,7 +17799,7 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" s="4" t="s">
         <v>104</v>
       </c>
@@ -17761,7 +17843,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="4" t="s">
         <v>105</v>
       </c>
@@ -17805,7 +17887,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166" s="4" t="s">
         <v>105</v>
       </c>
@@ -17849,7 +17931,7 @@
         <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="4" t="s">
         <v>105</v>
       </c>
@@ -17893,7 +17975,7 @@
         <v>$table-&gt;string('rule', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" s="4" t="s">
         <v>105</v>
       </c>
@@ -17937,7 +18019,7 @@
         <v>$table-&gt;string('message', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" s="4" t="s">
         <v>105</v>
       </c>
@@ -17981,7 +18063,7 @@
         <v>$table-&gt;string('arg1', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="4" t="s">
         <v>105</v>
       </c>
@@ -18025,7 +18107,7 @@
         <v>$table-&gt;string('arg2', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="4" t="s">
         <v>105</v>
       </c>
@@ -18069,7 +18151,7 @@
         <v>$table-&gt;string('arg3', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="4" t="s">
         <v>105</v>
       </c>
@@ -18113,7 +18195,7 @@
         <v>$table-&gt;string('arg4', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="4" t="s">
         <v>105</v>
       </c>
@@ -18157,7 +18239,7 @@
         <v>$table-&gt;string('arg5', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="4" t="s">
         <v>105</v>
       </c>
@@ -18201,7 +18283,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="4" t="s">
         <v>105</v>
       </c>
@@ -18245,7 +18327,7 @@
         <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="4" t="s">
         <v>135</v>
       </c>
@@ -18289,7 +18371,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="4" t="s">
         <v>135</v>
       </c>
@@ -18333,7 +18415,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="4" t="s">
         <v>135</v>
       </c>
@@ -18377,7 +18459,7 @@
         <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" s="4" t="s">
         <v>135</v>
       </c>
@@ -18421,7 +18503,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="4" t="s">
         <v>135</v>
       </c>
@@ -18465,7 +18547,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" s="4" t="s">
         <v>135</v>
       </c>
@@ -18509,7 +18591,7 @@
         <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="4" t="s">
         <v>136</v>
       </c>
@@ -18553,7 +18635,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="4" t="s">
         <v>136</v>
       </c>
@@ -18597,7 +18679,7 @@
         <v>$table-&gt;unsignedInteger('resource_action')-&gt;index();</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" s="4" t="s">
         <v>136</v>
       </c>
@@ -18641,7 +18723,7 @@
         <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
@@ -18685,7 +18767,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" s="4" t="s">
         <v>136</v>
       </c>
@@ -18729,7 +18811,7 @@
         <v>$table-&gt;foreign('resource_action')-&gt;references('id')-&gt;on('__resource_actions')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" s="4" t="s">
         <v>136</v>
       </c>
@@ -18773,7 +18855,7 @@
         <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188" s="4" t="s">
         <v>137</v>
       </c>
@@ -18817,7 +18899,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="4" t="s">
         <v>137</v>
       </c>
@@ -18861,7 +18943,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" s="4" t="s">
         <v>137</v>
       </c>
@@ -18905,7 +18987,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" s="4" t="s">
         <v>137</v>
       </c>
@@ -18949,7 +19031,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192" s="4" t="s">
         <v>137</v>
       </c>
@@ -18993,7 +19075,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193" s="4" t="s">
         <v>138</v>
       </c>
@@ -19037,7 +19119,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194" s="4" t="s">
         <v>138</v>
       </c>
@@ -19081,7 +19163,7 @@
         <v>$table-&gt;unsignedInteger('group');</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195" s="4" t="s">
         <v>138</v>
       </c>
@@ -19125,7 +19207,7 @@
         <v>$table-&gt;unsignedInteger('user');</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196" s="4" t="s">
         <v>138</v>
       </c>
@@ -19169,7 +19251,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="4" t="s">
         <v>138</v>
       </c>
@@ -19213,7 +19295,7 @@
         <v>$table-&gt;foreign('group')-&gt;references('id')-&gt;on('__groups')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="4" t="s">
         <v>138</v>
       </c>
@@ -19257,7 +19339,7 @@
         <v>$table-&gt;foreign('user')-&gt;references('id')-&gt;on('users')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="4" t="s">
         <v>139</v>
       </c>
@@ -19301,7 +19383,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="4" t="s">
         <v>139</v>
       </c>
@@ -19345,7 +19427,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" hidden="1">
       <c r="A201" s="4" t="s">
         <v>139</v>
       </c>
@@ -19389,7 +19471,7 @@
         <v>$table-&gt;string('description', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202" s="4" t="s">
         <v>139</v>
       </c>
@@ -19433,7 +19515,7 @@
         <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" hidden="1">
       <c r="A203" s="4" t="s">
         <v>139</v>
       </c>
@@ -19477,7 +19559,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" s="4" t="s">
         <v>140</v>
       </c>
@@ -19521,7 +19603,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" hidden="1">
       <c r="A205" s="4" t="s">
         <v>140</v>
       </c>
@@ -19565,7 +19647,7 @@
         <v>$table-&gt;unsignedInteger('group');</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" s="4" t="s">
         <v>140</v>
       </c>
@@ -19609,7 +19691,7 @@
         <v>$table-&gt;unsignedInteger('role');</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207" s="4" t="s">
         <v>140</v>
       </c>
@@ -19653,7 +19735,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" hidden="1">
       <c r="A208" s="4" t="s">
         <v>140</v>
       </c>
@@ -19697,7 +19779,7 @@
         <v>$table-&gt;foreign('group')-&gt;references('id')-&gt;on('__groups')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" hidden="1">
       <c r="A209" s="4" t="s">
         <v>140</v>
       </c>
@@ -19741,7 +19823,7 @@
         <v>$table-&gt;foreign('role')-&gt;references('id')-&gt;on('__roles')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" hidden="1">
       <c r="A210" s="4" t="s">
         <v>150</v>
       </c>
@@ -19785,7 +19867,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" s="4" t="s">
         <v>150</v>
       </c>
@@ -19829,7 +19911,7 @@
         <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" hidden="1">
       <c r="A212" s="4" t="s">
         <v>150</v>
       </c>
@@ -19873,7 +19955,7 @@
         <v>$table-&gt;string('name', 64)-&gt;index();</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" s="4" t="s">
         <v>150</v>
       </c>
@@ -19917,7 +19999,7 @@
         <v>$table-&gt;string('value', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" hidden="1">
       <c r="A214" s="4" t="s">
         <v>150</v>
       </c>
@@ -19961,7 +20043,7 @@
         <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" hidden="1">
       <c r="A215" s="4" t="s">
         <v>150</v>
       </c>
@@ -20005,7 +20087,7 @@
         <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" s="4" t="s">
         <v>150</v>
       </c>
@@ -20049,7 +20131,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" hidden="1">
       <c r="A217" s="4" t="s">
         <v>150</v>
       </c>
@@ -20093,7 +20175,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" hidden="1">
       <c r="A218" s="4" t="s">
         <v>150</v>
       </c>
@@ -20137,7 +20219,7 @@
         <v>$table-&gt;unsignedInteger('nest_relation3')-&gt;index()-&gt;nullable();</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" s="4" t="s">
         <v>150</v>
       </c>
@@ -20181,7 +20263,7 @@
         <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" hidden="1">
       <c r="A220" s="4" t="s">
         <v>150</v>
       </c>
@@ -20225,7 +20307,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" hidden="1">
       <c r="A221" s="4" t="s">
         <v>150</v>
       </c>
@@ -20269,7 +20351,7 @@
         <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222" s="4" t="s">
         <v>150</v>
       </c>
@@ -20313,7 +20395,7 @@
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="4" t="s">
         <v>150</v>
       </c>
@@ -20357,7 +20439,7 @@
         <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" s="4" t="s">
         <v>150</v>
       </c>
@@ -20401,7 +20483,7 @@
         <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" hidden="1">
       <c r="A225" s="4" t="s">
         <v>150</v>
       </c>
@@ -20445,7 +20527,7 @@
         <v>$table-&gt;foreign('nest_relation3')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" s="4" t="s">
         <v>188</v>
       </c>
@@ -20489,7 +20571,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" hidden="1">
       <c r="A227" s="4" t="s">
         <v>188</v>
       </c>
@@ -20533,7 +20615,7 @@
         <v>$table-&gt;string('name', 512)-&gt;index();</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" hidden="1">
       <c r="A228" s="4" t="s">
         <v>188</v>
       </c>
@@ -20577,7 +20659,7 @@
         <v>$table-&gt;string('name_short', 128)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="4" t="s">
         <v>188</v>
       </c>
@@ -20621,7 +20703,7 @@
         <v>$table-&gt;string('name_long', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" hidden="1">
       <c r="A230" s="4" t="s">
         <v>188</v>
       </c>
@@ -20665,7 +20747,7 @@
         <v>$table-&gt;string('address_line1', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="4" t="s">
         <v>188</v>
       </c>
@@ -20709,7 +20791,7 @@
         <v>$table-&gt;string('address_line2', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" s="4" t="s">
         <v>188</v>
       </c>
@@ -20753,7 +20835,7 @@
         <v>$table-&gt;string('address_short', 512)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" hidden="1">
       <c r="A233" s="4" t="s">
         <v>188</v>
       </c>
@@ -20797,7 +20879,7 @@
         <v>$table-&gt;string('address_long', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" hidden="1">
       <c r="A234" s="4" t="s">
         <v>188</v>
       </c>
@@ -20841,7 +20923,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" hidden="1">
       <c r="A235" s="4" t="s">
         <v>193</v>
       </c>
@@ -20885,7 +20967,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" hidden="1">
       <c r="A236" s="4" t="s">
         <v>193</v>
       </c>
@@ -20929,7 +21011,7 @@
         <v>$table-&gt;unsignedInteger('organisation');</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" s="4" t="s">
         <v>193</v>
       </c>
@@ -20973,7 +21055,7 @@
         <v>$table-&gt;enum('type', ['number','email','address'])-&gt;default('number');</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" s="4" t="s">
         <v>193</v>
       </c>
@@ -21017,7 +21099,7 @@
         <v>$table-&gt;string('type_name', 64)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" hidden="1">
       <c r="A239" s="4" t="s">
         <v>193</v>
       </c>
@@ -21061,7 +21143,7 @@
         <v>$table-&gt;string('detail', 256)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" hidden="1">
       <c r="A240" s="4" t="s">
         <v>193</v>
       </c>
@@ -21105,7 +21187,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" s="4" t="s">
         <v>193</v>
       </c>
@@ -21149,7 +21231,7 @@
         <v>$table-&gt;foreign('organisation')-&gt;references('id')-&gt;on('__organisation')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" s="4" t="s">
         <v>212</v>
       </c>
@@ -21193,7 +21275,7 @@
         <v>$table-&gt;increments('id');</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" hidden="1">
       <c r="A243" s="4" t="s">
         <v>212</v>
       </c>
@@ -21237,7 +21319,7 @@
         <v>$table-&gt;unsignedInteger('resource')-&gt;index();</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" hidden="1">
       <c r="A244" s="4" t="s">
         <v>212</v>
       </c>
@@ -21281,7 +21363,7 @@
         <v>$table-&gt;unsignedInteger('role');</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" hidden="1">
       <c r="A245" s="4" t="s">
         <v>212</v>
       </c>
@@ -21325,7 +21407,7 @@
         <v>$table-&gt;enum('actions_availability', ['All','Only','Except'])-&gt;default('All');</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="4" t="s">
         <v>212</v>
       </c>
@@ -21369,7 +21451,7 @@
         <v>$table-&gt;string('actions', 1024)-&gt;nullable();</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" s="4" t="s">
         <v>212</v>
       </c>
@@ -21413,7 +21495,7 @@
         <v>$table-&gt;timestamps();</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="4" t="s">
         <v>212</v>
       </c>
@@ -21457,7 +21539,7 @@
         <v>$table-&gt;foreign('resource')-&gt;references('id')-&gt;on('__resources')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="4" t="s">
         <v>212</v>
       </c>
@@ -21594,23 +21676,23 @@
         <v>454</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>36</v>
+        <v>663</v>
       </c>
       <c r="C252" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>enum(</v>
       </c>
       <c r="D252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'method'</v>
+        <v>'type'</v>
       </c>
       <c r="E252" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>, ['List','Enum','Foreign','Method'])</v>
       </c>
       <c r="F252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;default('List')</v>
       </c>
       <c r="G252" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21630,7 +21712,7 @@
       </c>
       <c r="K252" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('method', 128)-&gt;nullable();</v>
+        <v>$table-&gt;enum('type', ['List','Enum','Foreign','Method'])-&gt;default('List');</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -21638,27 +21720,27 @@
         <v>454</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C253" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>detail(</v>
       </c>
       <c r="D253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v>'method'</v>
       </c>
       <c r="E253" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -21674,7 +21756,7 @@
       </c>
       <c r="K253" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index()-&gt;nullable();</v>
+        <v>$table-&gt;detail('method', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -21770,7 +21852,7 @@
         <v>454</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>644</v>
+        <v>459</v>
       </c>
       <c r="C256" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -21778,7 +21860,7 @@
       </c>
       <c r="D256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'enum'</v>
+        <v>'preload'</v>
       </c>
       <c r="E256" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21786,7 +21868,7 @@
       </c>
       <c r="F256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default('No')</v>
+        <v>-&gt;default('Yes')</v>
       </c>
       <c r="G256" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21806,7 +21888,7 @@
       </c>
       <c r="K256" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;enum('enum', ['Yes','No'])-&gt;default('No');</v>
+        <v>$table-&gt;enum('preload', ['Yes','No'])-&gt;default('Yes');</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -21814,23 +21896,23 @@
         <v>454</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="C257" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>enum(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'preload'</v>
+        <v/>
       </c>
       <c r="E257" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, ['Yes','No'])</v>
+        <v>)</v>
       </c>
       <c r="F257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default('Yes')</v>
+        <v/>
       </c>
       <c r="G257" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -21850,7 +21932,7 @@
       </c>
       <c r="K257" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;enum('preload', ['Yes','No'])-&gt;default('Yes');</v>
+        <v>$table-&gt;timestamps();</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -21858,15 +21940,15 @@
         <v>454</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C258" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'form_field'</v>
       </c>
       <c r="E258" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21874,19 +21956,19 @@
       </c>
       <c r="F258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_form_fields')</v>
       </c>
       <c r="H258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J258" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21894,23 +21976,23 @@
       </c>
       <c r="K258" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="4" t="s">
-        <v>454</v>
+        <v>560</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="C259" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>increments(</v>
       </c>
       <c r="D259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v>'id'</v>
       </c>
       <c r="E259" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21918,19 +22000,19 @@
       </c>
       <c r="F259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_form_fields')</v>
+        <v/>
       </c>
       <c r="H259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J259" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21938,19 +22020,19 @@
       </c>
       <c r="K259" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="4" t="s">
-        <v>454</v>
+        <v>560</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>647</v>
+        <v>94</v>
       </c>
       <c r="C260" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
@@ -21962,19 +22044,19 @@
       </c>
       <c r="F260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_lists')</v>
+        <v/>
       </c>
       <c r="H260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J260" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -21982,31 +22064,31 @@
       </c>
       <c r="K260" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
+        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" hidden="1">
       <c r="A261" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="C261" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>string(</v>
       </c>
       <c r="D261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'label'</v>
       </c>
       <c r="E261" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G261" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22026,31 +22108,31 @@
       </c>
       <c r="K261" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
+        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" hidden="1">
       <c r="A262" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>94</v>
+        <v>561</v>
       </c>
       <c r="C262" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v>'field'</v>
       </c>
       <c r="E262" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 64)</v>
       </c>
       <c r="F262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G262" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22070,35 +22152,35 @@
       </c>
       <c r="K262" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_list')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
+        <v>$table-&gt;string('field', 64)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" hidden="1">
       <c r="A263" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>269</v>
+        <v>573</v>
       </c>
       <c r="C263" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'label'</v>
+        <v>'relation'</v>
       </c>
       <c r="E263" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H263" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22114,35 +22196,35 @@
       </c>
       <c r="K263" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" hidden="1">
       <c r="A264" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C264" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'field'</v>
+        <v>'nest_relation1'</v>
       </c>
       <c r="E264" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 64)</v>
+        <v>)</v>
       </c>
       <c r="F264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H264" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22158,15 +22240,15 @@
       </c>
       <c r="K264" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('field', 64)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
+        <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" hidden="1">
       <c r="A265" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C265" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22174,7 +22256,7 @@
       </c>
       <c r="D265" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'nest_relation2'</v>
       </c>
       <c r="E265" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22202,23 +22284,23 @@
       </c>
       <c r="K265" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" hidden="1">
       <c r="A266" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="C266" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation1'</v>
+        <v/>
       </c>
       <c r="E266" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22226,11 +22308,11 @@
       </c>
       <c r="F266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H266" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22246,23 +22328,23 @@
       </c>
       <c r="K266" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('nest_relation1')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" hidden="1">
       <c r="A267" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>576</v>
+        <v>95</v>
       </c>
       <c r="C267" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation2'</v>
+        <v>'resource_list'</v>
       </c>
       <c r="E267" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22270,19 +22352,19 @@
       </c>
       <c r="F267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;on('__resource_lists')</v>
       </c>
       <c r="H267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J267" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22290,23 +22372,23 @@
       </c>
       <c r="K267" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('nest_relation2')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
+        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" hidden="1">
       <c r="A268" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>40</v>
+        <v>574</v>
       </c>
       <c r="C268" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'relation'</v>
       </c>
       <c r="E268" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22314,19 +22396,19 @@
       </c>
       <c r="F268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J268" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22334,15 +22416,15 @@
       </c>
       <c r="K268" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" hidden="1">
       <c r="A269" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="C269" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22350,7 +22432,7 @@
       </c>
       <c r="D269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_list'</v>
+        <v>'nest_relation1'</v>
       </c>
       <c r="E269" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22362,7 +22444,7 @@
       </c>
       <c r="G269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_lists')</v>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -22370,7 +22452,7 @@
       </c>
       <c r="I269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J269" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22378,15 +22460,15 @@
       </c>
       <c r="K269" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_list')-&gt;references('id')-&gt;on('__resource_lists')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
+        <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" hidden="1">
       <c r="A270" s="4" t="s">
         <v>560</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C270" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -22394,7 +22476,7 @@
       </c>
       <c r="D270" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'nest_relation2'</v>
       </c>
       <c r="E270" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22422,111 +22504,111 @@
       </c>
       <c r="K270" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11">
-      <c r="A271" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C271" s="4" t="str">
+        <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" hidden="1">
+      <c r="A271" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C271" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
-      </c>
-      <c r="D271" s="4" t="str">
+        <v>increments(</v>
+      </c>
+      <c r="D271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation1'</v>
-      </c>
-      <c r="E271" s="7" t="str">
+        <v>'id'</v>
+      </c>
+      <c r="E271" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F271" s="4" t="str">
+      <c r="F271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G271" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
-      </c>
-      <c r="H271" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I271" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
-      </c>
-      <c r="J271" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J271" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K271" s="4" t="str">
+      <c r="K271" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('nest_relation1')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
-      <c r="A272" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C272" s="4" t="str">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" hidden="1">
+      <c r="A272" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
-      </c>
-      <c r="D272" s="4" t="str">
+        <v>unsignedInteger(</v>
+      </c>
+      <c r="D272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'nest_relation2'</v>
-      </c>
-      <c r="E272" s="7" t="str">
+        <v>'resource_data'</v>
+      </c>
+      <c r="E272" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F272" s="4" t="str">
+      <c r="F272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G272" s="4" t="str">
+        <v>-&gt;index()</v>
+      </c>
+      <c r="G272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
-      </c>
-      <c r="H272" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I272" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
-      </c>
-      <c r="J272" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J272" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K272" s="4" t="str">
+      <c r="K272" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('nest_relation2')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
+        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" hidden="1">
       <c r="A273" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C273" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'scope'</v>
       </c>
       <c r="E273" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22534,7 +22616,7 @@
       </c>
       <c r="F273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G273" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22554,23 +22636,23 @@
       </c>
       <c r="K273" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11">
+        <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" hidden="1">
       <c r="A274" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C274" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v/>
       </c>
       <c r="E274" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22578,7 +22660,7 @@
       </c>
       <c r="F274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G274" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22598,23 +22680,23 @@
       </c>
       <c r="K274" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C275" s="5" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'scope'</v>
+        <v>'resource_data'</v>
       </c>
       <c r="E275" s="8" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22622,19 +22704,19 @@
       </c>
       <c r="F275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_data')</v>
       </c>
       <c r="H275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J275" s="5" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22642,111 +22724,111 @@
       </c>
       <c r="K275" s="5" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('scope')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
-      <c r="A276" s="5" t="s">
+        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" hidden="1">
+      <c r="A276" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B276" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C276" s="5" t="str">
+      <c r="B276" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C276" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
-      </c>
-      <c r="D276" s="5" t="str">
+        <v>foreign(</v>
+      </c>
+      <c r="D276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
-      </c>
-      <c r="E276" s="8" t="str">
+        <v>'scope'</v>
+      </c>
+      <c r="E276" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F276" s="5" t="str">
+      <c r="F276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
-      </c>
-      <c r="G276" s="5" t="str">
+        <v>-&gt;references('id')</v>
+      </c>
+      <c r="G276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
-      </c>
-      <c r="H276" s="5" t="str">
+        <v>-&gt;on('__resource_scopes')</v>
+      </c>
+      <c r="H276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
-      </c>
-      <c r="I276" s="5" t="str">
+        <v>-&gt;onUpdate('cascade')</v>
+      </c>
+      <c r="I276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
-      </c>
-      <c r="J276" s="5" t="str">
+        <v>-&gt;onDelete('cascade')</v>
+      </c>
+      <c r="J276" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K276" s="5" t="str">
+      <c r="K276" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
-      <c r="A277" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C277" s="5" t="str">
+        <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" hidden="1">
+      <c r="A277" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C277" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
-      </c>
-      <c r="D277" s="5" t="str">
+        <v>increments(</v>
+      </c>
+      <c r="D277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
-      </c>
-      <c r="E277" s="8" t="str">
+        <v>'id'</v>
+      </c>
+      <c r="E277" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
         <v>)</v>
       </c>
-      <c r="F277" s="5" t="str">
+      <c r="F277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G277" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data')</v>
-      </c>
-      <c r="H277" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I277" s="5" t="str">
+        <v/>
+      </c>
+      <c r="I277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
-      </c>
-      <c r="J277" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J277" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
-      <c r="K277" s="5" t="str">
+      <c r="K277" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" s="4" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C278" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'scope'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E278" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22754,19 +22836,19 @@
       </c>
       <c r="F278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_scopes')</v>
+        <v/>
       </c>
       <c r="H278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J278" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22774,23 +22856,23 @@
       </c>
       <c r="K278" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('scope')-&gt;references('id')-&gt;on('__resource_scopes')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
+        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C279" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'form_field'</v>
       </c>
       <c r="E279" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22798,7 +22880,7 @@
       </c>
       <c r="F279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G279" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22818,23 +22900,23 @@
       </c>
       <c r="K279" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
+        <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>117</v>
+        <v>599</v>
       </c>
       <c r="C280" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>unsignedTinyInteger(</v>
       </c>
       <c r="D280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
+        <v>'colspan'</v>
       </c>
       <c r="E280" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22842,7 +22924,7 @@
       </c>
       <c r="F280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;default(12)</v>
       </c>
       <c r="G280" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22862,23 +22944,23 @@
       </c>
       <c r="K280" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" hidden="1">
       <c r="A281" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C281" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v/>
       </c>
       <c r="E281" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22886,7 +22968,7 @@
       </c>
       <c r="F281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G281" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -22906,23 +22988,23 @@
       </c>
       <c r="K281" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('form_field')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" hidden="1">
       <c r="A282" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>599</v>
+        <v>118</v>
       </c>
       <c r="C282" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedTinyInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'colspan'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E282" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22930,19 +23012,19 @@
       </c>
       <c r="F282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default(12)</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_forms')</v>
       </c>
       <c r="H282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J282" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22950,23 +23032,23 @@
       </c>
       <c r="K282" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11">
+        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" hidden="1">
       <c r="A283" s="4" t="s">
         <v>590</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C283" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'form_field'</v>
       </c>
       <c r="E283" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -22974,19 +23056,19 @@
       </c>
       <c r="F283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_form_fields')</v>
       </c>
       <c r="H283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J283" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -22994,23 +23076,23 @@
       </c>
       <c r="K283" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" hidden="1">
       <c r="A284" s="4" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C284" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>increments(</v>
       </c>
       <c r="D284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
+        <v>'id'</v>
       </c>
       <c r="E284" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23018,19 +23100,19 @@
       </c>
       <c r="F284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_forms')</v>
+        <v/>
       </c>
       <c r="H284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J284" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23038,23 +23120,23 @@
       </c>
       <c r="K284" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" hidden="1">
       <c r="A285" s="4" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C285" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'form_field'</v>
+        <v>'resource_data'</v>
       </c>
       <c r="E285" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23062,19 +23144,19 @@
       </c>
       <c r="F285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_form_fields')</v>
+        <v/>
       </c>
       <c r="H285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J285" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23082,31 +23164,31 @@
       </c>
       <c r="K285" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('form_field')-&gt;references('id')-&gt;on('__resource_form_fields')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
+        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" hidden="1">
       <c r="A286" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C286" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>string(</v>
       </c>
       <c r="D286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'title'</v>
       </c>
       <c r="E286" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G286" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23126,31 +23208,31 @@
       </c>
       <c r="K286" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
+        <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C287" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v>'title_field'</v>
       </c>
       <c r="E287" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G287" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23170,35 +23252,35 @@
       </c>
       <c r="K287" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_data')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11">
+        <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>30</v>
+        <v>573</v>
       </c>
       <c r="C288" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'title'</v>
+        <v>'relation'</v>
       </c>
       <c r="E288" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H288" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23214,31 +23296,31 @@
       </c>
       <c r="K288" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('title', 128)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>55</v>
+        <v>599</v>
       </c>
       <c r="C289" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedTinyInteger(</v>
       </c>
       <c r="D289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'title_field'</v>
+        <v>'colspan'</v>
       </c>
       <c r="E289" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;default(12)</v>
       </c>
       <c r="G289" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23258,23 +23340,23 @@
       </c>
       <c r="K289" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('title_field', 128)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11">
+        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" hidden="1">
       <c r="A290" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>573</v>
+        <v>40</v>
       </c>
       <c r="C290" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v/>
       </c>
       <c r="E290" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23282,11 +23364,11 @@
       </c>
       <c r="F290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="H290" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23302,23 +23384,23 @@
       </c>
       <c r="K290" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>599</v>
+        <v>93</v>
       </c>
       <c r="C291" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedTinyInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'colspan'</v>
+        <v>'resource_data'</v>
       </c>
       <c r="E291" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23326,19 +23408,19 @@
       </c>
       <c r="F291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;default(12)</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_data')</v>
       </c>
       <c r="H291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J291" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23346,23 +23428,23 @@
       </c>
       <c r="K291" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedTinyInteger('colspan')-&gt;default(12);</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
+        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>40</v>
+        <v>574</v>
       </c>
       <c r="C292" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'relation'</v>
       </c>
       <c r="E292" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23370,19 +23452,19 @@
       </c>
       <c r="F292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J292" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23390,23 +23472,23 @@
       </c>
       <c r="K292" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C293" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>increments(</v>
       </c>
       <c r="D293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_data'</v>
+        <v>'id'</v>
       </c>
       <c r="E293" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23414,19 +23496,19 @@
       </c>
       <c r="F293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data')</v>
+        <v/>
       </c>
       <c r="H293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J293" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23434,23 +23516,23 @@
       </c>
       <c r="K293" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_data')-&gt;references('id')-&gt;on('__resource_data')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="C294" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'section'</v>
       </c>
       <c r="E294" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23458,19 +23540,19 @@
       </c>
       <c r="F294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v/>
       </c>
       <c r="H294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J294" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23478,31 +23560,31 @@
       </c>
       <c r="K294" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
+        <v>$table-&gt;unsignedInteger('section')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="C295" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>string(</v>
       </c>
       <c r="D295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'label'</v>
       </c>
       <c r="E295" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 128)</v>
       </c>
       <c r="F295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G295" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23522,31 +23604,31 @@
       </c>
       <c r="K295" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
+        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C296" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>string(</v>
       </c>
       <c r="D296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'section'</v>
+        <v>'attribute'</v>
       </c>
       <c r="E296" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
+        <v>, 64)</v>
       </c>
       <c r="F296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="G296" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23566,35 +23648,35 @@
       </c>
       <c r="K296" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('section')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11">
+        <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>269</v>
+        <v>573</v>
       </c>
       <c r="C297" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'label'</v>
+        <v>'relation'</v>
       </c>
       <c r="E297" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 128)</v>
+        <v>)</v>
       </c>
       <c r="F297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H297" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23610,31 +23692,31 @@
       </c>
       <c r="K297" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('label', 128)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11">
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>604</v>
+        <v>40</v>
       </c>
       <c r="C298" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>string(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'attribute'</v>
+        <v/>
       </c>
       <c r="E298" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>, 64)</v>
+        <v>)</v>
       </c>
       <c r="F298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;nullable()</v>
+        <v/>
       </c>
       <c r="G298" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23654,23 +23736,23 @@
       </c>
       <c r="K298" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;string('attribute', 64)-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="C299" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'section'</v>
       </c>
       <c r="E299" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23678,19 +23760,19 @@
       </c>
       <c r="F299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;on('__resource_data_view_sections')</v>
       </c>
       <c r="H299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J299" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23698,23 +23780,23 @@
       </c>
       <c r="K299" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
+        <v>$table-&gt;foreign('section')-&gt;references('id')-&gt;on('__resource_data_view_sections')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>40</v>
+        <v>574</v>
       </c>
       <c r="C300" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'relation'</v>
       </c>
       <c r="E300" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23722,19 +23804,19 @@
       </c>
       <c r="F300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J300" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23742,23 +23824,23 @@
       </c>
       <c r="K300" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="4" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>605</v>
+        <v>21</v>
       </c>
       <c r="C301" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>increments(</v>
       </c>
       <c r="D301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'section'</v>
+        <v>'id'</v>
       </c>
       <c r="E301" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23766,19 +23848,19 @@
       </c>
       <c r="F301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v/>
       </c>
       <c r="G301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_data_view_sections')</v>
+        <v/>
       </c>
       <c r="H301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v/>
       </c>
       <c r="J301" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23786,23 +23868,23 @@
       </c>
       <c r="K301" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('section')-&gt;references('id')-&gt;on('__resource_data_view_sections')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
+        <v>$table-&gt;increments('id');</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="4" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>574</v>
+        <v>117</v>
       </c>
       <c r="C302" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E302" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23810,19 +23892,19 @@
       </c>
       <c r="F302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
+        <v>-&gt;index()</v>
       </c>
       <c r="G302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
+        <v/>
       </c>
       <c r="H302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
+        <v/>
       </c>
       <c r="I302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
+        <v/>
       </c>
       <c r="J302" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -23830,23 +23912,23 @@
       </c>
       <c r="K302" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11">
+        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>21</v>
+        <v>648</v>
       </c>
       <c r="C303" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>increments(</v>
+        <v>unsignedInteger(</v>
       </c>
       <c r="D303" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'id'</v>
+        <v>'collection_form'</v>
       </c>
       <c r="E303" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23854,7 +23936,7 @@
       </c>
       <c r="F303" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;index()</v>
       </c>
       <c r="G303" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23874,15 +23956,15 @@
       </c>
       <c r="K303" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;increments('id');</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
+        <v>$table-&gt;unsignedInteger('collection_form')-&gt;index();</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>117</v>
+        <v>573</v>
       </c>
       <c r="C304" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -23890,7 +23972,7 @@
       </c>
       <c r="D304" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
+        <v>'relation'</v>
       </c>
       <c r="E304" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23902,7 +23984,7 @@
       </c>
       <c r="G304" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;nullable()</v>
       </c>
       <c r="H304" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -23918,23 +24000,23 @@
       </c>
       <c r="K304" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('resource_form')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11">
+        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>648</v>
+        <v>40</v>
       </c>
       <c r="C305" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>timestamps(</v>
       </c>
       <c r="D305" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'collection_form'</v>
+        <v/>
       </c>
       <c r="E305" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23942,7 +24024,7 @@
       </c>
       <c r="F305" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v/>
       </c>
       <c r="G305" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
@@ -23962,23 +24044,23 @@
       </c>
       <c r="K305" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('collection_form')-&gt;index();</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11">
+        <v>$table-&gt;timestamps();</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>573</v>
+        <v>118</v>
       </c>
       <c r="C306" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>unsignedInteger(</v>
+        <v>foreign(</v>
       </c>
       <c r="D306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
+        <v>'resource_form'</v>
       </c>
       <c r="E306" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -23986,19 +24068,19 @@
       </c>
       <c r="F306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;index()</v>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;nullable()</v>
+        <v>-&gt;on('__resource_forms')</v>
       </c>
       <c r="H306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J306" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -24006,23 +24088,23 @@
       </c>
       <c r="K306" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;unsignedInteger('relation')-&gt;index()-&gt;nullable();</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11">
+        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>40</v>
+        <v>649</v>
       </c>
       <c r="C307" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>timestamps(</v>
+        <v>foreign(</v>
       </c>
       <c r="D307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v/>
+        <v>'collection_form'</v>
       </c>
       <c r="E307" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -24030,19 +24112,19 @@
       </c>
       <c r="F307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v/>
+        <v>-&gt;references('id')</v>
       </c>
       <c r="G307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v/>
+        <v>-&gt;on('__resource_forms')</v>
       </c>
       <c r="H307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v/>
+        <v>-&gt;onUpdate('cascade')</v>
       </c>
       <c r="I307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v/>
+        <v>-&gt;onDelete('cascade')</v>
       </c>
       <c r="J307" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
@@ -24050,15 +24132,15 @@
       </c>
       <c r="K307" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;timestamps();</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
+        <v>$table-&gt;foreign('collection_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" s="4" t="s">
         <v>648</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>118</v>
+        <v>574</v>
       </c>
       <c r="C308" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
@@ -24066,7 +24148,7 @@
       </c>
       <c r="D308" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'resource_form'</v>
+        <v>'relation'</v>
       </c>
       <c r="E308" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -24078,7 +24160,7 @@
       </c>
       <c r="G308" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_forms')</v>
+        <v>-&gt;on('__resource_relations')</v>
       </c>
       <c r="H308" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
@@ -24086,101 +24168,13 @@
       </c>
       <c r="I308" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
+        <v>-&gt;onDelete('set null')</v>
       </c>
       <c r="J308" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
         <v/>
       </c>
       <c r="K308" s="4" t="str">
-        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('resource_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11">
-      <c r="A309" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C309" s="4" t="str">
-        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
-      </c>
-      <c r="D309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'collection_form'</v>
-      </c>
-      <c r="E309" s="7" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
-      </c>
-      <c r="F309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_forms')</v>
-      </c>
-      <c r="H309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('cascade')</v>
-      </c>
-      <c r="J309" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
-        <v/>
-      </c>
-      <c r="K309" s="4" t="str">
-        <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;foreign('collection_form')-&gt;references('id')-&gt;on('__resource_forms')-&gt;onUpdate('cascade')-&gt;onDelete('cascade');</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11">
-      <c r="A310" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C310" s="4" t="str">
-        <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>foreign(</v>
-      </c>
-      <c r="D310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'relation'</v>
-      </c>
-      <c r="E310" s="7" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
-        <v>)</v>
-      </c>
-      <c r="F310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</f>
-        <v>-&gt;references('id')</v>
-      </c>
-      <c r="G310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</f>
-        <v>-&gt;on('__resource_relations')</v>
-      </c>
-      <c r="H310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</f>
-        <v>-&gt;onUpdate('cascade')</v>
-      </c>
-      <c r="I310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</f>
-        <v>-&gt;onDelete('set null')</v>
-      </c>
-      <c r="J310" s="4" t="str">
-        <f>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</f>
-        <v/>
-      </c>
-      <c r="K310" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
         <v>$table-&gt;foreign('relation')-&gt;references('id')-&gt;on('__resource_relations')-&gt;onUpdate('cascade')-&gt;onDelete('set null');</v>
       </c>
@@ -24188,10 +24182,10 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B310">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B308">
       <formula1>AvailableFields</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A310">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A308">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -24205,10 +24199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R278"/>
+  <dimension ref="A1:R279"/>
   <sheetViews>
     <sheetView topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="B278" sqref="B278"/>
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34429,6 +34423,34 @@
       <c r="Q278" s="40"/>
       <c r="R278" s="40"/>
     </row>
+    <row r="279" spans="1:18">
+      <c r="A279" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Field Options-0</v>
+      </c>
+      <c r="B279" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="C279" s="22">
+        <f>COUNTIF($B$1:$B278,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D279" s="40"/>
+      <c r="E279" s="40"/>
+      <c r="F279" s="40"/>
+      <c r="G279" s="40"/>
+      <c r="H279" s="40"/>
+      <c r="I279" s="40"/>
+      <c r="J279" s="40"/>
+      <c r="K279" s="40"/>
+      <c r="L279" s="40"/>
+      <c r="M279" s="40"/>
+      <c r="N279" s="40"/>
+      <c r="O279" s="40"/>
+      <c r="P279" s="40"/>
+      <c r="Q279" s="40"/>
+      <c r="R279" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -34440,10 +34462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35014,12 +35036,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceFormFieldOption</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -37378,8 +37420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="667">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -4634,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7700,8 +7700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15"/>
@@ -10577,10 +10577,10 @@
         <v>666</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D133" s="4">
         <v>128</v>
@@ -10625,7 +10625,7 @@
   <dimension ref="A1:K308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15"/>
@@ -21724,11 +21724,11 @@
       </c>
       <c r="C253" s="4" t="str">
         <f>VLOOKUP([Field],Columns[],2,0)&amp;"("</f>
-        <v>detail(</v>
+        <v>text(</v>
       </c>
       <c r="D253" s="4" t="str">
         <f>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</f>
-        <v>'method'</v>
+        <v>'detail'</v>
       </c>
       <c r="E253" s="7" t="str">
         <f>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</f>
@@ -21756,7 +21756,7 @@
       </c>
       <c r="K253" s="4" t="str">
         <f>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</f>
-        <v>$table-&gt;detail('method', 128)-&gt;nullable();</v>
+        <v>$table-&gt;text('detail', 128)-&gt;nullable();</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -24202,7 +24202,7 @@
   <dimension ref="A1:R279"/>
   <sheetViews>
     <sheetView topLeftCell="B213" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+      <selection activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34435,8 +34435,12 @@
         <f>COUNTIF($B$1:$B278,[Table Name])</f>
         <v>0</v>
       </c>
-      <c r="D279" s="40"/>
-      <c r="E279" s="40"/>
+      <c r="D279" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E279" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="F279" s="40"/>
       <c r="G279" s="40"/>
       <c r="H279" s="40"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="671">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -2048,6 +2048,9 @@
   </si>
   <si>
     <t>Length/Enum</t>
+  </si>
+  <si>
+    <t>Data Scopes</t>
   </si>
 </sst>
 </file>
@@ -2277,31 +2280,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <font>
         <strike val="0"/>
@@ -4075,35 +4054,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tables" displayName="Tables" ref="A1:J36" totalsRowShown="0" dataDxfId="122">
   <autoFilter ref="A1:J36"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Name" dataDxfId="123"/>
-    <tableColumn id="10" name="Table" dataDxfId="122">
+    <tableColumn id="2" name="Name" dataDxfId="121"/>
+    <tableColumn id="10" name="Table" dataDxfId="120">
       <calculatedColumnFormula>"__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Singular Name" dataDxfId="121">
+    <tableColumn id="5" name="Singular Name" dataDxfId="119">
       <calculatedColumnFormula>IF(RIGHT([Name],3)="ies",MID([Name],1,LEN([Name])-3)&amp;"y",IF(RIGHT([Name],1)="s",MID([Name],1,LEN([Name])-1),[Name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Model NS" dataDxfId="120">
+    <tableColumn id="8" name="Model NS" dataDxfId="118">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Class Name" dataDxfId="119">
+    <tableColumn id="4" name="Class Name" dataDxfId="117">
       <calculatedColumnFormula>SUBSTITUTE(PROPER([Singular Name]),"_","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Migration Artisan" dataDxfId="118">
+    <tableColumn id="1" name="Migration Artisan" dataDxfId="116">
       <calculatedColumnFormula>"php artisan make:migration create_"&amp;[Table]&amp;"_table --create=__"&amp;[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Model Artisan" dataDxfId="117">
+    <tableColumn id="6" name="Model Artisan" dataDxfId="115">
       <calculatedColumnFormula>"php artisan make:model "&amp;[Class Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Model Statement" dataDxfId="116">
+    <tableColumn id="3" name="Model Statement" dataDxfId="114">
       <calculatedColumnFormula>"protected $table = '"&amp;[Table]&amp;"';"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Seeder Artisan" dataDxfId="115">
+    <tableColumn id="7" name="Seeder Artisan" dataDxfId="113">
       <calculatedColumnFormula>"php artisan make:seed "&amp;[Class Name]&amp;"TableSeeder"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Seeder Class" dataDxfId="114">
+    <tableColumn id="9" name="Seeder Class" dataDxfId="112">
       <calculatedColumnFormula>[Class Name]&amp;"TableSeeder"&amp;"::class,"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4112,56 +4091,56 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ResourceActions" displayName="ResourceActions" ref="A1:P9" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P9"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="No" dataDxfId="17">
+    <tableColumn id="1" name="No" dataDxfId="15">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource" dataDxfId="16"/>
-    <tableColumn id="13" name="Resource Id" dataDxfId="15">
+    <tableColumn id="2" name="Resource" dataDxfId="14"/>
+    <tableColumn id="13" name="Resource Id" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Action Name" dataDxfId="14"/>
-    <tableColumn id="4" name="Description" dataDxfId="13"/>
-    <tableColumn id="5" name="Action Title" dataDxfId="12"/>
-    <tableColumn id="6" name="Button Type" dataDxfId="11"/>
-    <tableColumn id="7" name="Menu" dataDxfId="10"/>
-    <tableColumn id="8" name="Icon" dataDxfId="9"/>
-    <tableColumn id="9" name="Set" dataDxfId="8"/>
-    <tableColumn id="14" name="Action Type" dataDxfId="7"/>
-    <tableColumn id="15" name="ID1" dataDxfId="6"/>
-    <tableColumn id="16" name="ID2" dataDxfId="5"/>
-    <tableColumn id="10" name="On" dataDxfId="4"/>
-    <tableColumn id="11" name="Confirm" dataDxfId="3"/>
-    <tableColumn id="12" name="handler" dataDxfId="2"/>
+    <tableColumn id="3" name="Action Name" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="11"/>
+    <tableColumn id="5" name="Action Title" dataDxfId="10"/>
+    <tableColumn id="6" name="Button Type" dataDxfId="9"/>
+    <tableColumn id="7" name="Menu" dataDxfId="8"/>
+    <tableColumn id="8" name="Icon" dataDxfId="7"/>
+    <tableColumn id="9" name="Set" dataDxfId="6"/>
+    <tableColumn id="14" name="Action Type" dataDxfId="5"/>
+    <tableColumn id="15" name="ID1" dataDxfId="4"/>
+    <tableColumn id="16" name="ID2" dataDxfId="3"/>
+    <tableColumn id="10" name="On" dataDxfId="2"/>
+    <tableColumn id="11" name="Confirm" dataDxfId="1"/>
+    <tableColumn id="12" name="handler" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I135" totalsRowShown="0" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Columns" displayName="Columns" ref="A1:I135" totalsRowShown="0" dataDxfId="105">
   <autoFilter ref="A1:I135">
     <filterColumn colId="0"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column" dataDxfId="106"/>
-    <tableColumn id="2" name="Type" dataDxfId="105"/>
-    <tableColumn id="3" name="Name" dataDxfId="104"/>
-    <tableColumn id="4" name="Length/Enum" dataDxfId="103"/>
-    <tableColumn id="5" name="Method1" dataDxfId="102"/>
-    <tableColumn id="6" name="Method2" dataDxfId="101"/>
-    <tableColumn id="7" name="Method3" dataDxfId="100"/>
-    <tableColumn id="8" name="Method4" dataDxfId="99"/>
-    <tableColumn id="9" name="Method5" dataDxfId="98"/>
+    <tableColumn id="1" name="Column" dataDxfId="104"/>
+    <tableColumn id="2" name="Type" dataDxfId="103"/>
+    <tableColumn id="3" name="Name" dataDxfId="102"/>
+    <tableColumn id="4" name="Length/Enum" dataDxfId="101"/>
+    <tableColumn id="5" name="Method1" dataDxfId="100"/>
+    <tableColumn id="6" name="Method2" dataDxfId="99"/>
+    <tableColumn id="7" name="Method3" dataDxfId="98"/>
+    <tableColumn id="8" name="Method4" dataDxfId="97"/>
+    <tableColumn id="9" name="Method5" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TableFields" displayName="TableFields" ref="A1:K310" totalsRowShown="0" dataDxfId="95">
   <autoFilter ref="A1:K310">
     <filterColumn colId="0">
       <filters>
@@ -4170,33 +4149,33 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="2" name="Table" dataDxfId="96"/>
-    <tableColumn id="3" name="Field" dataDxfId="95"/>
-    <tableColumn id="5" name="Type" dataDxfId="94">
+    <tableColumn id="2" name="Table" dataDxfId="94"/>
+    <tableColumn id="3" name="Field" dataDxfId="93"/>
+    <tableColumn id="5" name="Type" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP([Field],Columns[],2,0)&amp;"("</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="93">
+    <tableColumn id="4" name="Name" dataDxfId="91">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],3,0)&lt;&gt;"","'"&amp;VLOOKUP([Field],Columns[],3,0)&amp;"'","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Arg2" dataDxfId="92">
+    <tableColumn id="6" name="Arg2" dataDxfId="90">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],4,0)&lt;&gt;0,", "&amp;VLOOKUP([Field],Columns[],4,0)&amp;")",")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Method1" dataDxfId="91">
+    <tableColumn id="7" name="Method1" dataDxfId="89">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],5,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Method2" dataDxfId="90">
+    <tableColumn id="8" name="Method2" dataDxfId="88">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],6,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],6,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Method3" dataDxfId="89">
+    <tableColumn id="9" name="Method3" dataDxfId="87">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],7,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],7,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Method4" dataDxfId="88">
+    <tableColumn id="10" name="Method4" dataDxfId="86">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],8,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],8,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Method5" dataDxfId="87">
+    <tableColumn id="11" name="Method5" dataDxfId="85">
       <calculatedColumnFormula>IF(VLOOKUP([Field],Columns[],9,0)=0,"","-&gt;"&amp;VLOOKUP([Field],Columns[],9,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Statement" dataDxfId="86">
+    <tableColumn id="12" name="Statement" dataDxfId="84">
       <calculatedColumnFormula>"$table-&gt;"&amp;[Type]&amp;[Name]&amp;[Arg2]&amp;[Method1]&amp;[Method2]&amp;[Method3]&amp;[Method4]&amp;[Method5]&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4205,51 +4184,51 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R280" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
-  <autoFilter ref="A1:R280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R281" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R281">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="19" name="TRCode" dataDxfId="83">
+    <tableColumn id="19" name="TRCode" dataDxfId="81">
       <calculatedColumnFormula>[Table Name]&amp;"-"&amp;[Record No]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Table Name" dataDxfId="82"/>
-    <tableColumn id="2" name="Record No" dataDxfId="81">
+    <tableColumn id="1" name="Table Name" dataDxfId="80"/>
+    <tableColumn id="2" name="Record No" dataDxfId="79">
       <calculatedColumnFormula>COUNTIF($B$1:$B1,[Table Name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="1" dataDxfId="80"/>
-    <tableColumn id="4" name="2" dataDxfId="79"/>
-    <tableColumn id="5" name="3" dataDxfId="78"/>
-    <tableColumn id="6" name="4" dataDxfId="77"/>
-    <tableColumn id="7" name="5" dataDxfId="76"/>
-    <tableColumn id="8" name="6" dataDxfId="75"/>
-    <tableColumn id="9" name="7" dataDxfId="74"/>
-    <tableColumn id="10" name="8" dataDxfId="73"/>
-    <tableColumn id="11" name="9" dataDxfId="72"/>
-    <tableColumn id="12" name="10" dataDxfId="71"/>
-    <tableColumn id="13" name="11" dataDxfId="70"/>
-    <tableColumn id="14" name="12" dataDxfId="69"/>
-    <tableColumn id="15" name="13" dataDxfId="68"/>
-    <tableColumn id="16" name="14" dataDxfId="67"/>
-    <tableColumn id="17" name="15" dataDxfId="66"/>
+    <tableColumn id="3" name="1" dataDxfId="78"/>
+    <tableColumn id="4" name="2" dataDxfId="77"/>
+    <tableColumn id="5" name="3" dataDxfId="76"/>
+    <tableColumn id="6" name="4" dataDxfId="75"/>
+    <tableColumn id="7" name="5" dataDxfId="74"/>
+    <tableColumn id="8" name="6" dataDxfId="73"/>
+    <tableColumn id="9" name="7" dataDxfId="72"/>
+    <tableColumn id="10" name="8" dataDxfId="71"/>
+    <tableColumn id="11" name="9" dataDxfId="70"/>
+    <tableColumn id="12" name="10" dataDxfId="69"/>
+    <tableColumn id="13" name="11" dataDxfId="68"/>
+    <tableColumn id="14" name="12" dataDxfId="67"/>
+    <tableColumn id="15" name="13" dataDxfId="66"/>
+    <tableColumn id="16" name="14" dataDxfId="65"/>
+    <tableColumn id="17" name="15" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E29" totalsRowShown="0" dataDxfId="65">
-  <autoFilter ref="A1:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="SeedMap" displayName="SeedMap" ref="A1:E30" totalsRowShown="0" dataDxfId="63">
+  <autoFilter ref="A1:E30"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="64"/>
-    <tableColumn id="3" name="FW Table Name" dataDxfId="63"/>
-    <tableColumn id="20" name="NS" dataDxfId="62">
+    <tableColumn id="1" name="Name" dataDxfId="62"/>
+    <tableColumn id="3" name="FW Table Name" dataDxfId="61"/>
+    <tableColumn id="20" name="NS" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Model" dataDxfId="61">
+    <tableColumn id="21" name="Model" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP([FW Table Name],Tables[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Query Method" dataDxfId="60">
+    <tableColumn id="4" name="Query Method" dataDxfId="58">
       <calculatedColumnFormula>"truncate"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4258,46 +4237,46 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I31" totalsRowShown="0" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ResourceTable" displayName="ResourceTable" ref="A1:I31" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:I31"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="58">
+    <tableColumn id="1" name="No" dataDxfId="56">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Name" dataDxfId="57"/>
-    <tableColumn id="3" name="Description" dataDxfId="56"/>
-    <tableColumn id="4" name="Title" dataDxfId="55"/>
-    <tableColumn id="5" name="NS" dataDxfId="54">
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Title" dataDxfId="53"/>
+    <tableColumn id="5" name="NS" dataDxfId="52">
       <calculatedColumnFormula>"Milestone\Appframe\Model"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Table" dataDxfId="53"/>
-    <tableColumn id="7" name="Key" dataDxfId="52">
+    <tableColumn id="6" name="Table" dataDxfId="51"/>
+    <tableColumn id="7" name="Key" dataDxfId="50">
       <calculatedColumnFormula>"id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Controller" dataDxfId="51"/>
-    <tableColumn id="9" name="Controller NS" dataDxfId="50"/>
+    <tableColumn id="8" name="Controller" dataDxfId="49"/>
+    <tableColumn id="9" name="Controller NS" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I44" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="RelationTable" displayName="RelationTable" ref="A1:I44" totalsRowShown="0" dataDxfId="47">
   <autoFilter ref="A1:I44"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No" dataDxfId="48">
+    <tableColumn id="1" name="No" dataDxfId="46">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Resource" dataDxfId="47"/>
-    <tableColumn id="4" name="Relate Resource" dataDxfId="46"/>
-    <tableColumn id="2" name="Resource Id" dataDxfId="45">
+    <tableColumn id="3" name="Resource" dataDxfId="45"/>
+    <tableColumn id="4" name="Relate Resource" dataDxfId="44"/>
+    <tableColumn id="2" name="Resource Id" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP([Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="44"/>
-    <tableColumn id="6" name="Description" dataDxfId="43"/>
-    <tableColumn id="7" name="Method" dataDxfId="42"/>
-    <tableColumn id="8" name="Type" dataDxfId="41"/>
-    <tableColumn id="10" name="Relate Id" dataDxfId="40">
+    <tableColumn id="5" name="Name" dataDxfId="42"/>
+    <tableColumn id="6" name="Description" dataDxfId="41"/>
+    <tableColumn id="7" name="Method" dataDxfId="40"/>
+    <tableColumn id="8" name="Type" dataDxfId="39"/>
+    <tableColumn id="10" name="Relate Id" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP([Relate Resource],CHOOSE({1,2},ResourceTable[Name],ResourceTable[No]),2,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4306,47 +4285,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ResourceForms" displayName="ResourceForms" ref="A1:G9" totalsRowShown="0" dataDxfId="37">
   <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="38">
+    <tableColumn id="1" name="No" dataDxfId="36">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Resource ID" dataDxfId="37"/>
-    <tableColumn id="3" name="Resource Name" dataDxfId="36">
+    <tableColumn id="2" name="Resource ID" dataDxfId="35"/>
+    <tableColumn id="3" name="Resource Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP([Resource ID],ResourceTable[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Form Name" dataDxfId="35"/>
-    <tableColumn id="6" name="Title" dataDxfId="34"/>
-    <tableColumn id="7" name="Action Text" dataDxfId="33"/>
-    <tableColumn id="8" name="Description" dataDxfId="32"/>
+    <tableColumn id="4" name="Form Name" dataDxfId="33"/>
+    <tableColumn id="6" name="Title" dataDxfId="32"/>
+    <tableColumn id="7" name="Action Text" dataDxfId="31"/>
+    <tableColumn id="8" name="Description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="FormFields" displayName="FormFields" ref="A1:L33" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:L33"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="No" dataDxfId="30">
+    <tableColumn id="9" name="No" dataDxfId="28">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Form Id" dataDxfId="29"/>
-    <tableColumn id="7" name="Form Name" dataDxfId="28">
+    <tableColumn id="1" name="Form Id" dataDxfId="27"/>
+    <tableColumn id="7" name="Form Name" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP([Form Id],ResourceForms[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Name" dataDxfId="27"/>
-    <tableColumn id="2" name="Type" dataDxfId="26"/>
-    <tableColumn id="5" name="Label" dataDxfId="25"/>
-    <tableColumn id="6" name="Collection" dataDxfId="24"/>
-    <tableColumn id="14" name="Attribute" dataDxfId="23">
+    <tableColumn id="4" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Type" dataDxfId="24"/>
+    <tableColumn id="5" name="Label" dataDxfId="23"/>
+    <tableColumn id="6" name="Collection" dataDxfId="22"/>
+    <tableColumn id="14" name="Attribute" dataDxfId="21">
       <calculatedColumnFormula>[Name]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Relation" dataDxfId="22"/>
-    <tableColumn id="11" name="Deep 1" dataDxfId="21"/>
-    <tableColumn id="12" name="Deep 2" dataDxfId="20"/>
-    <tableColumn id="13" name="Deep 3" dataDxfId="19"/>
+    <tableColumn id="10" name="Relation" dataDxfId="20"/>
+    <tableColumn id="11" name="Deep 1" dataDxfId="19"/>
+    <tableColumn id="12" name="Deep 2" dataDxfId="18"/>
+    <tableColumn id="13" name="Deep 3" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10648,22 +10627,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="duplicateValues" dxfId="112" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A135">
-    <cfRule type="duplicateValues" dxfId="111" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="110" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -24340,10 +24319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
     <sheetView topLeftCell="B268" workbookViewId="0">
-      <selection activeCell="D281" sqref="D281"/>
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34632,6 +34611,38 @@
       <c r="Q280" s="40"/>
       <c r="R280" s="40"/>
     </row>
+    <row r="281" spans="1:18">
+      <c r="A281" s="22" t="str">
+        <f>[Table Name]&amp;"-"&amp;[Record No]</f>
+        <v>Data Scopes-0</v>
+      </c>
+      <c r="B281" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="C281" s="22">
+        <f>COUNTIF($B$1:$B280,[Table Name])</f>
+        <v>0</v>
+      </c>
+      <c r="D281" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F281" s="40"/>
+      <c r="G281" s="40"/>
+      <c r="H281" s="40"/>
+      <c r="I281" s="40"/>
+      <c r="J281" s="40"/>
+      <c r="K281" s="40"/>
+      <c r="L281" s="40"/>
+      <c r="M281" s="40"/>
+      <c r="N281" s="40"/>
+      <c r="O281" s="40"/>
+      <c r="P281" s="40"/>
+      <c r="Q281" s="40"/>
+      <c r="R281" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -34643,10 +34654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35237,12 +35248,32 @@
         <v>truncate</v>
       </c>
     </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],4,0)</f>
+        <v>Milestone\Appframe\Model</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f>VLOOKUP([FW Table Name],Tables[],5,0)</f>
+        <v>ResourceDataScope</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f>"truncate"</f>
+        <v>truncate</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>"truncate,query"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>TableNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -37602,7 +37633,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37612,14 +37643,14 @@
   <sheetData>
     <row r="1" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>656</v>
+        <v>464</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="49" t="str">
         <f>"\"&amp;VLOOKUP($A$1,SeedMap[],3,0)&amp;"\"&amp;VLOOKUP($A$1,SeedMap[],4,0)&amp;"::"&amp;VLOOKUP($A$1,SeedMap[],5,0)&amp;"()"</f>
-        <v>\Milestone\Appframe\Model\ResourceFormCollection::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormFieldOption::truncate()</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
@@ -37763,19 +37794,19 @@
       <c r="B5" s="28"/>
       <c r="C5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],C$4+$B$4,0))</f>
-        <v>resource_form</v>
+        <v>form_field</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],D$4+$B$4,0))</f>
-        <v>collection_form</v>
+        <v>type</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],E$4+$B$4,0))</f>
-        <v>relation</v>
+        <v/>
       </c>
       <c r="F5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],F$4+$B$4,0))</f>
-        <v>foreign_field</v>
+        <v/>
       </c>
       <c r="G5" s="34" t="str">
         <f>IF(VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0)=0,"",VLOOKUP($A$1&amp;"-0",TableData[[TRCode]:[15]],G$4+$B$4,0))</f>
@@ -37877,7 +37908,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="47" t="str">
         <f>$E$1</f>
-        <v>\Milestone\Appframe\Model\ResourceFormCollection::truncate()</v>
+        <v>\Milestone\Appframe\Model\ResourceFormFieldOption::truncate()</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>

--- a/Helper.xlsx
+++ b/Helper.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="671">
   <si>
     <t>resource_scopes</t>
   </si>
@@ -4184,9 +4184,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R281" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
-  <autoFilter ref="A1:R281">
-    <filterColumn colId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="TableData" displayName="TableData" ref="A1:R304" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:R304">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Resource Roles"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="18">
     <tableColumn id="19" name="TRCode" dataDxfId="81">
@@ -4618,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24319,10 +24323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R281"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
-    <sheetView topLeftCell="B268" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24389,7 +24393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-0</v>
@@ -24423,7 +24427,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-1</v>
@@ -24457,7 +24461,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-2</v>
@@ -24491,7 +24495,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Groups-3</v>
@@ -24525,7 +24529,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-0</v>
@@ -24559,7 +24563,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-1</v>
@@ -24593,7 +24597,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-2</v>
@@ -24627,7 +24631,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Roles-3</v>
@@ -24661,7 +24665,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-0</v>
@@ -24693,7 +24697,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-1</v>
@@ -24725,7 +24729,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-2</v>
@@ -24757,7 +24761,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Group Roles-3</v>
@@ -24789,7 +24793,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-0</v>
@@ -24833,7 +24837,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-1</v>
@@ -24873,7 +24877,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-2</v>
@@ -24913,7 +24917,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-3</v>
@@ -24953,7 +24957,7 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-4</v>
@@ -24993,7 +24997,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-5</v>
@@ -25033,7 +25037,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-6</v>
@@ -25073,7 +25077,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-7</v>
@@ -25113,7 +25117,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-8</v>
@@ -25153,7 +25157,7 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" hidden="1">
       <c r="A23" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-9</v>
@@ -25193,7 +25197,7 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" hidden="1">
       <c r="A24" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-10</v>
@@ -25233,7 +25237,7 @@
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-11</v>
@@ -25273,7 +25277,7 @@
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-12</v>
@@ -25313,7 +25317,7 @@
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-13</v>
@@ -25617,7 +25621,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" hidden="1">
       <c r="A36" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-0</v>
@@ -25657,7 +25661,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" hidden="1">
       <c r="A37" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-1</v>
@@ -25697,7 +25701,7 @@
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" hidden="1">
       <c r="A38" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-2</v>
@@ -25737,7 +25741,7 @@
       <c r="Q38" s="15"/>
       <c r="R38" s="15"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" hidden="1">
       <c r="A39" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-3</v>
@@ -25777,7 +25781,7 @@
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" hidden="1">
       <c r="A40" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-4</v>
@@ -25817,7 +25821,7 @@
       <c r="Q40" s="15"/>
       <c r="R40" s="15"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" hidden="1">
       <c r="A41" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-5</v>
@@ -25857,7 +25861,7 @@
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" hidden="1">
       <c r="A42" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-6</v>
@@ -25897,7 +25901,7 @@
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" hidden="1">
       <c r="A43" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-7</v>
@@ -25937,7 +25941,7 @@
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" hidden="1">
       <c r="A44" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-8</v>
@@ -25977,7 +25981,7 @@
       <c r="Q44" s="15"/>
       <c r="R44" s="15"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" hidden="1">
       <c r="A45" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-9</v>
@@ -26017,7 +26021,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" hidden="1">
       <c r="A46" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-10</v>
@@ -26057,7 +26061,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" hidden="1">
       <c r="A47" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-11</v>
@@ -26097,7 +26101,7 @@
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" hidden="1">
       <c r="A48" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-12</v>
@@ -26137,7 +26141,7 @@
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" hidden="1">
       <c r="A49" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-13</v>
@@ -26177,7 +26181,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" hidden="1">
       <c r="A50" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-14</v>
@@ -26217,7 +26221,7 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" hidden="1">
       <c r="A51" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-0</v>
@@ -26253,7 +26257,7 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" hidden="1">
       <c r="A52" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-1</v>
@@ -26289,7 +26293,7 @@
       <c r="Q52" s="15"/>
       <c r="R52" s="15"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" hidden="1">
       <c r="A53" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Scopes-2</v>
@@ -26325,7 +26329,7 @@
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" hidden="1">
       <c r="A54" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-0</v>
@@ -26361,7 +26365,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" hidden="1">
       <c r="A55" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-1</v>
@@ -26397,7 +26401,7 @@
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" hidden="1">
       <c r="A56" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-2</v>
@@ -26433,7 +26437,7 @@
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" hidden="1">
       <c r="A57" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-3</v>
@@ -26469,7 +26473,7 @@
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" hidden="1">
       <c r="A58" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-4</v>
@@ -26505,7 +26509,7 @@
       <c r="Q58" s="15"/>
       <c r="R58" s="15"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" hidden="1">
       <c r="A59" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-5</v>
@@ -26541,7 +26545,7 @@
       <c r="Q59" s="15"/>
       <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" hidden="1">
       <c r="A60" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Lists-6</v>
@@ -26577,7 +26581,7 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" hidden="1">
       <c r="A61" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-0</v>
@@ -26609,7 +26613,7 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" hidden="1">
       <c r="A62" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-1</v>
@@ -26641,7 +26645,7 @@
       <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" hidden="1">
       <c r="A63" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource List Scopes-2</v>
@@ -26673,7 +26677,7 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="16"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" hidden="1">
       <c r="A64" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-0</v>
@@ -26711,7 +26715,7 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="16"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-1</v>
@@ -26749,7 +26753,7 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" hidden="1">
       <c r="A66" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-2</v>
@@ -26787,7 +26791,7 @@
       <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" hidden="1">
       <c r="A67" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-3</v>
@@ -26825,7 +26829,7 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" hidden="1">
       <c r="A68" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-4</v>
@@ -26863,7 +26867,7 @@
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" hidden="1">
       <c r="A69" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-5</v>
@@ -26901,7 +26905,7 @@
       <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" hidden="1">
       <c r="A70" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-6</v>
@@ -26939,7 +26943,7 @@
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" hidden="1">
       <c r="A71" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Forms-7</v>
@@ -26977,7 +26981,7 @@
       <c r="Q71" s="16"/>
       <c r="R71" s="16"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" hidden="1">
       <c r="A72" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-0</v>
@@ -27015,7 +27019,7 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" hidden="1">
       <c r="A73" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-1</v>
@@ -27053,7 +27057,7 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" hidden="1">
       <c r="A74" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-2</v>
@@ -27091,7 +27095,7 @@
       <c r="Q74" s="15"/>
       <c r="R74" s="15"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" hidden="1">
       <c r="A75" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-3</v>
@@ -27129,7 +27133,7 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" hidden="1">
       <c r="A76" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-4</v>
@@ -27167,7 +27171,7 @@
       <c r="Q76" s="15"/>
       <c r="R76" s="15"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-5</v>
@@ -27205,7 +27209,7 @@
       <c r="Q77" s="15"/>
       <c r="R77" s="15"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" hidden="1">
       <c r="A78" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-6</v>
@@ -27243,7 +27247,7 @@
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-7</v>
@@ -27281,7 +27285,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-8</v>
@@ -27319,7 +27323,7 @@
       <c r="Q80" s="15"/>
       <c r="R80" s="15"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" hidden="1">
       <c r="A81" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-9</v>
@@ -27357,7 +27361,7 @@
       <c r="Q81" s="15"/>
       <c r="R81" s="15"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" hidden="1">
       <c r="A82" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-10</v>
@@ -27395,7 +27399,7 @@
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" hidden="1">
       <c r="A83" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-11</v>
@@ -27433,7 +27437,7 @@
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" hidden="1">
       <c r="A84" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-12</v>
@@ -27471,7 +27475,7 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" hidden="1">
       <c r="A85" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-13</v>
@@ -27509,7 +27513,7 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" hidden="1">
       <c r="A86" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-14</v>
@@ -27547,7 +27551,7 @@
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-15</v>
@@ -27585,7 +27589,7 @@
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-16</v>
@@ -27623,7 +27627,7 @@
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-17</v>
@@ -27661,7 +27665,7 @@
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" hidden="1">
       <c r="A90" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-18</v>
@@ -27699,7 +27703,7 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-19</v>
@@ -27737,7 +27741,7 @@
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" hidden="1">
       <c r="A92" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-20</v>
@@ -27775,7 +27779,7 @@
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" hidden="1">
       <c r="A93" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-21</v>
@@ -27813,7 +27817,7 @@
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" hidden="1">
       <c r="A94" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-22</v>
@@ -27851,7 +27855,7 @@
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" hidden="1">
       <c r="A95" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-23</v>
@@ -27889,7 +27893,7 @@
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" hidden="1">
       <c r="A96" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-24</v>
@@ -27927,7 +27931,7 @@
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" hidden="1">
       <c r="A97" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-25</v>
@@ -27965,7 +27969,7 @@
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" hidden="1">
       <c r="A98" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-26</v>
@@ -28003,7 +28007,7 @@
       <c r="Q98" s="15"/>
       <c r="R98" s="15"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" hidden="1">
       <c r="A99" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-27</v>
@@ -28041,7 +28045,7 @@
       <c r="Q99" s="15"/>
       <c r="R99" s="15"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" hidden="1">
       <c r="A100" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-28</v>
@@ -28079,7 +28083,7 @@
       <c r="Q100" s="15"/>
       <c r="R100" s="15"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" hidden="1">
       <c r="A101" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-29</v>
@@ -28117,7 +28121,7 @@
       <c r="Q101" s="15"/>
       <c r="R101" s="15"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" hidden="1">
       <c r="A102" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-30</v>
@@ -28155,7 +28159,7 @@
       <c r="Q102" s="15"/>
       <c r="R102" s="15"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" hidden="1">
       <c r="A103" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-31</v>
@@ -28193,7 +28197,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-0</v>
@@ -28233,7 +28237,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" hidden="1">
       <c r="A105" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-1</v>
@@ -28265,7 +28269,7 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-2</v>
@@ -28297,7 +28301,7 @@
       <c r="Q106" s="16"/>
       <c r="R106" s="16"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" hidden="1">
       <c r="A107" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-3</v>
@@ -28329,7 +28333,7 @@
       <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-4</v>
@@ -28361,7 +28365,7 @@
       <c r="Q108" s="16"/>
       <c r="R108" s="16"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-5</v>
@@ -28393,7 +28397,7 @@
       <c r="Q109" s="16"/>
       <c r="R109" s="16"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-6</v>
@@ -28425,7 +28429,7 @@
       <c r="Q110" s="16"/>
       <c r="R110" s="16"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" hidden="1">
       <c r="A111" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-7</v>
@@ -28457,7 +28461,7 @@
       <c r="Q111" s="16"/>
       <c r="R111" s="16"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" hidden="1">
       <c r="A112" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-8</v>
@@ -28489,7 +28493,7 @@
       <c r="Q112" s="16"/>
       <c r="R112" s="16"/>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" hidden="1">
       <c r="A113" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-9</v>
@@ -28521,7 +28525,7 @@
       <c r="Q113" s="16"/>
       <c r="R113" s="16"/>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" hidden="1">
       <c r="A114" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-10</v>
@@ -28553,7 +28557,7 @@
       <c r="Q114" s="16"/>
       <c r="R114" s="16"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" hidden="1">
       <c r="A115" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-11</v>
@@ -28585,7 +28589,7 @@
       <c r="Q115" s="16"/>
       <c r="R115" s="16"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" hidden="1">
       <c r="A116" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-12</v>
@@ -28617,7 +28621,7 @@
       <c r="Q116" s="16"/>
       <c r="R116" s="16"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" hidden="1">
       <c r="A117" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-13</v>
@@ -28649,7 +28653,7 @@
       <c r="Q117" s="16"/>
       <c r="R117" s="16"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" hidden="1">
       <c r="A118" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-14</v>
@@ -28681,7 +28685,7 @@
       <c r="Q118" s="16"/>
       <c r="R118" s="16"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" hidden="1">
       <c r="A119" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-15</v>
@@ -28713,7 +28717,7 @@
       <c r="Q119" s="16"/>
       <c r="R119" s="16"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" hidden="1">
       <c r="A120" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-16</v>
@@ -28745,7 +28749,7 @@
       <c r="Q120" s="16"/>
       <c r="R120" s="16"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" hidden="1">
       <c r="A121" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-17</v>
@@ -28777,7 +28781,7 @@
       <c r="Q121" s="16"/>
       <c r="R121" s="16"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" hidden="1">
       <c r="A122" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-18</v>
@@ -28809,7 +28813,7 @@
       <c r="Q122" s="16"/>
       <c r="R122" s="16"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" hidden="1">
       <c r="A123" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-19</v>
@@ -28841,7 +28845,7 @@
       <c r="Q123" s="16"/>
       <c r="R123" s="16"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" hidden="1">
       <c r="A124" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-20</v>
@@ -28873,7 +28877,7 @@
       <c r="Q124" s="16"/>
       <c r="R124" s="16"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" hidden="1">
       <c r="A125" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-21</v>
@@ -28905,7 +28909,7 @@
       <c r="Q125" s="16"/>
       <c r="R125" s="16"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" hidden="1">
       <c r="A126" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-22</v>
@@ -28937,7 +28941,7 @@
       <c r="Q126" s="16"/>
       <c r="R126" s="16"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" hidden="1">
       <c r="A127" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-23</v>
@@ -28969,7 +28973,7 @@
       <c r="Q127" s="16"/>
       <c r="R127" s="16"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" hidden="1">
       <c r="A128" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-24</v>
@@ -29001,7 +29005,7 @@
       <c r="Q128" s="16"/>
       <c r="R128" s="16"/>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" hidden="1">
       <c r="A129" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-25</v>
@@ -29033,7 +29037,7 @@
       <c r="Q129" s="16"/>
       <c r="R129" s="16"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" hidden="1">
       <c r="A130" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-26</v>
@@ -29065,7 +29069,7 @@
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" hidden="1">
       <c r="A131" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-27</v>
@@ -29097,7 +29101,7 @@
       <c r="Q131" s="16"/>
       <c r="R131" s="16"/>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" hidden="1">
       <c r="A132" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-28</v>
@@ -29129,7 +29133,7 @@
       <c r="Q132" s="16"/>
       <c r="R132" s="16"/>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" hidden="1">
       <c r="A133" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-29</v>
@@ -29163,7 +29167,7 @@
       <c r="Q133" s="16"/>
       <c r="R133" s="16"/>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" hidden="1">
       <c r="A134" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-30</v>
@@ -29197,7 +29201,7 @@
       <c r="Q134" s="16"/>
       <c r="R134" s="16"/>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" hidden="1">
       <c r="A135" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-31</v>
@@ -29231,7 +29235,7 @@
       <c r="Q135" s="16"/>
       <c r="R135" s="16"/>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" hidden="1">
       <c r="A136" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-0</v>
@@ -29275,7 +29279,7 @@
       <c r="Q136" s="16"/>
       <c r="R136" s="16"/>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" hidden="1">
       <c r="A137" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-1</v>
@@ -29319,7 +29323,7 @@
       <c r="Q137" s="15"/>
       <c r="R137" s="15"/>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" hidden="1">
       <c r="A138" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-2</v>
@@ -29363,7 +29367,7 @@
       <c r="Q138" s="15"/>
       <c r="R138" s="15"/>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" hidden="1">
       <c r="A139" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-3</v>
@@ -29407,7 +29411,7 @@
       <c r="Q139" s="15"/>
       <c r="R139" s="15"/>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" hidden="1">
       <c r="A140" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-4</v>
@@ -29451,7 +29455,7 @@
       <c r="Q140" s="15"/>
       <c r="R140" s="15"/>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" hidden="1">
       <c r="A141" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-5</v>
@@ -29495,7 +29499,7 @@
       <c r="Q141" s="15"/>
       <c r="R141" s="15"/>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" hidden="1">
       <c r="A142" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-6</v>
@@ -29539,7 +29543,7 @@
       <c r="Q142" s="16"/>
       <c r="R142" s="16"/>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" hidden="1">
       <c r="A143" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-0</v>
@@ -29583,7 +29587,7 @@
       <c r="Q143" s="16"/>
       <c r="R143" s="16"/>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" hidden="1">
       <c r="A144" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-1</v>
@@ -29617,7 +29621,7 @@
       <c r="Q144" s="15"/>
       <c r="R144" s="15"/>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" hidden="1">
       <c r="A145" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-2</v>
@@ -29651,7 +29655,7 @@
       <c r="Q145" s="15"/>
       <c r="R145" s="15"/>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" hidden="1">
       <c r="A146" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-3</v>
@@ -29685,7 +29689,7 @@
       <c r="Q146" s="15"/>
       <c r="R146" s="15"/>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" hidden="1">
       <c r="A147" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-4</v>
@@ -29719,7 +29723,7 @@
       <c r="Q147" s="15"/>
       <c r="R147" s="15"/>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" hidden="1">
       <c r="A148" s="18" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-5</v>
@@ -29753,7 +29757,7 @@
       <c r="Q148" s="15"/>
       <c r="R148" s="15"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" hidden="1">
       <c r="A149" s="19" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-6</v>
@@ -29787,7 +29791,7 @@
       <c r="Q149" s="16"/>
       <c r="R149" s="16"/>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" hidden="1">
       <c r="A150" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Attrs-0</v>
@@ -29821,7 +29825,7 @@
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" hidden="1">
       <c r="A151" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-14</v>
@@ -29861,7 +29865,7 @@
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" hidden="1">
       <c r="A152" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-15</v>
@@ -29901,7 +29905,7 @@
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" hidden="1">
       <c r="A153" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-15</v>
@@ -29941,7 +29945,7 @@
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" hidden="1">
       <c r="A154" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-16</v>
@@ -29981,7 +29985,7 @@
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" hidden="1">
       <c r="A155" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-16</v>
@@ -30021,7 +30025,7 @@
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" hidden="1">
       <c r="A156" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-17</v>
@@ -30061,7 +30065,7 @@
       <c r="Q156" s="40"/>
       <c r="R156" s="40"/>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" hidden="1">
       <c r="A157" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-0</v>
@@ -30105,7 +30109,7 @@
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" hidden="1">
       <c r="A158" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-1</v>
@@ -30139,7 +30143,7 @@
       <c r="Q158" s="40"/>
       <c r="R158" s="40"/>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" hidden="1">
       <c r="A159" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-2</v>
@@ -30173,7 +30177,7 @@
       <c r="Q159" s="40"/>
       <c r="R159" s="40"/>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" hidden="1">
       <c r="A160" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-3</v>
@@ -30207,7 +30211,7 @@
       <c r="Q160" s="40"/>
       <c r="R160" s="40"/>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" hidden="1">
       <c r="A161" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-4</v>
@@ -30245,7 +30249,7 @@
       <c r="Q161" s="40"/>
       <c r="R161" s="40"/>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" hidden="1">
       <c r="A162" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-5</v>
@@ -30279,7 +30283,7 @@
       <c r="Q162" s="40"/>
       <c r="R162" s="40"/>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" hidden="1">
       <c r="A163" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-6</v>
@@ -30313,7 +30317,7 @@
       <c r="Q163" s="40"/>
       <c r="R163" s="40"/>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" hidden="1">
       <c r="A164" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-7</v>
@@ -30347,7 +30351,7 @@
       <c r="Q164" s="40"/>
       <c r="R164" s="40"/>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" hidden="1">
       <c r="A165" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-8</v>
@@ -30385,7 +30389,7 @@
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" hidden="1">
       <c r="A166" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-18</v>
@@ -30425,7 +30429,7 @@
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" hidden="1">
       <c r="A167" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-17</v>
@@ -30465,7 +30469,7 @@
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" hidden="1">
       <c r="A168" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-19</v>
@@ -30505,7 +30509,7 @@
       <c r="Q168" s="40"/>
       <c r="R168" s="40"/>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" hidden="1">
       <c r="A169" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-0</v>
@@ -30551,7 +30555,7 @@
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" hidden="1">
       <c r="A170" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-1</v>
@@ -30587,7 +30591,7 @@
       <c r="Q170" s="40"/>
       <c r="R170" s="40"/>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" hidden="1">
       <c r="A171" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Defaults-2</v>
@@ -30623,7 +30627,7 @@
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" hidden="1">
       <c r="A172" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-18</v>
@@ -30663,7 +30667,7 @@
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" hidden="1">
       <c r="A173" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-20</v>
@@ -30703,7 +30707,7 @@
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" hidden="1">
       <c r="A174" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-21</v>
@@ -30743,7 +30747,7 @@
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" hidden="1">
       <c r="A175" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-22</v>
@@ -30783,7 +30787,7 @@
       <c r="Q175" s="43"/>
       <c r="R175" s="43"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" hidden="1">
       <c r="A176" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-23</v>
@@ -30823,7 +30827,7 @@
       <c r="Q176" s="43"/>
       <c r="R176" s="43"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" hidden="1">
       <c r="A177" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-32</v>
@@ -30859,7 +30863,7 @@
       <c r="Q177" s="40"/>
       <c r="R177" s="40"/>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" hidden="1">
       <c r="A178" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Fields-33</v>
@@ -30895,7 +30899,7 @@
       <c r="Q178" s="40"/>
       <c r="R178" s="40"/>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" hidden="1">
       <c r="A179" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-32</v>
@@ -30927,7 +30931,7 @@
       <c r="Q179" s="40"/>
       <c r="R179" s="40"/>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" hidden="1">
       <c r="A180" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Form Field Data-33</v>
@@ -30959,7 +30963,7 @@
       <c r="Q180" s="40"/>
       <c r="R180" s="40"/>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" hidden="1">
       <c r="A181" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-9</v>
@@ -30993,7 +30997,7 @@
       <c r="Q181" s="40"/>
       <c r="R181" s="40"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" hidden="1">
       <c r="A182" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-10</v>
@@ -31029,7 +31033,7 @@
       <c r="Q182" s="40"/>
       <c r="R182" s="40"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" hidden="1">
       <c r="A183" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-11</v>
@@ -31063,7 +31067,7 @@
       <c r="Q183" s="40"/>
       <c r="R183" s="40"/>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" hidden="1">
       <c r="A184" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Form Field Validations-12</v>
@@ -31099,7 +31103,7 @@
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" hidden="1">
       <c r="A185" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-19</v>
@@ -31139,7 +31143,7 @@
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" hidden="1">
       <c r="A186" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-24</v>
@@ -31179,7 +31183,7 @@
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" hidden="1">
       <c r="A187" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-20</v>
@@ -31219,7 +31223,7 @@
       <c r="Q187" s="43"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" hidden="1">
       <c r="A188" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-21</v>
@@ -31259,7 +31263,7 @@
       <c r="Q188" s="43"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" hidden="1">
       <c r="A189" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-22</v>
@@ -31299,7 +31303,7 @@
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" hidden="1">
       <c r="A190" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-25</v>
@@ -31339,7 +31343,7 @@
       <c r="Q190" s="43"/>
       <c r="R190" s="43"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" hidden="1">
       <c r="A191" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-26</v>
@@ -31379,7 +31383,7 @@
       <c r="Q191" s="43"/>
       <c r="R191" s="43"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" hidden="1">
       <c r="A192" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-27</v>
@@ -31419,7 +31423,7 @@
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" hidden="1">
       <c r="A193" s="42" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-23</v>
@@ -31459,7 +31463,7 @@
       <c r="Q193" s="43"/>
       <c r="R193" s="43"/>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" hidden="1">
       <c r="A194" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resources-24</v>
@@ -31499,7 +31503,7 @@
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" hidden="1">
       <c r="A195" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-28</v>
@@ -31539,7 +31543,7 @@
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" hidden="1">
       <c r="A196" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Relations-29</v>
@@ -31579,7 +31583,7 @@
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" hidden="1">
       <c r="A197" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Actions-7</v>
@@ -31621,7 +31625,7 @@
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" hidden="1">
       <c r="A198" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action Method-7</v>
@@ -31655,7 +31659,7 @@
       <c r="Q198" s="40"/>
       <c r="R198" s="40"/>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" hidden="1">
       <c r="A199" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-0</v>
@@ -31687,7 +31691,7 @@
       <c r="Q199" s="40"/>
       <c r="R199" s="40"/>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" hidden="1">
       <c r="A200" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Action List-1</v>
@@ -31719,7 +31723,7 @@
       <c r="Q200" s="40"/>
       <c r="R200" s="40"/>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" hidden="1">
       <c r="A201" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-0</v>
@@ -31757,7 +31761,7 @@
       <c r="Q201" s="40"/>
       <c r="R201" s="40"/>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" hidden="1">
       <c r="A202" s="22" t="str">
         <f>[Table Name]&amp;"-"&amp;[Record No]</f>
         <v>Resource Data-1</v>
@@ -31793,7 +31797,7 @@
       <c r="Q202" s="40"/>
       <c r="R202" s="40"/>
     </row>
-    <row r="